--- a/Mainichi_Renshuu.xlsx
+++ b/Mainichi_Renshuu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="480" windowWidth="20115" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="480" windowWidth="20115" windowHeight="7380" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,16 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">minanihongo!$A$1:$F$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">minanihongo!$A$1:$F$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="972">
   <si>
     <t>様</t>
   </si>
@@ -2808,6 +2809,155 @@
   </si>
   <si>
     <t>KHÓA</t>
+  </si>
+  <si>
+    <t>なくします</t>
+  </si>
+  <si>
+    <t>しんぱいします</t>
+  </si>
+  <si>
+    <t>きをつけます</t>
+  </si>
+  <si>
+    <t>ぬぎます</t>
+  </si>
+  <si>
+    <t>さわります</t>
+  </si>
+  <si>
+    <t>きかい</t>
+  </si>
+  <si>
+    <t>ざんぎょうします</t>
+  </si>
+  <si>
+    <t>きょか</t>
+  </si>
+  <si>
+    <t>もんだい</t>
+  </si>
+  <si>
+    <t>けんこう</t>
+  </si>
+  <si>
+    <t>ほけんしょう</t>
+  </si>
+  <si>
+    <t>ねつ</t>
+  </si>
+  <si>
+    <t>ふろ</t>
+  </si>
+  <si>
+    <t>うわぎ</t>
+  </si>
+  <si>
+    <t>あらいます</t>
+  </si>
+  <si>
+    <t>とくに</t>
+  </si>
+  <si>
+    <t>cửa hàng cắt tóc</t>
+  </si>
+  <si>
+    <t>束</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bộ: MỊCH　糸</t>
+  </si>
+  <si>
+    <t>THÚC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bộ: PHIỆT</t>
+  </si>
+  <si>
+    <t>やくそく</t>
+  </si>
+  <si>
+    <t>hứa</t>
+  </si>
+  <si>
+    <t>đặc biệt</t>
+  </si>
+  <si>
+    <t>instead of(代
+)him, l will lend
+ you money.</t>
+  </si>
+  <si>
+    <t>会議</t>
+  </si>
+  <si>
+    <t>残業</t>
+  </si>
+  <si>
+    <t>ざんぎょう</t>
+  </si>
+  <si>
+    <t>手伝い</t>
+  </si>
+  <si>
+    <t>急ぎます</t>
+  </si>
+  <si>
+    <t>心配</t>
+  </si>
+  <si>
+    <t>しんぱい</t>
+  </si>
+  <si>
+    <t>病気</t>
+  </si>
+  <si>
+    <t>びょうき</t>
+  </si>
+  <si>
+    <t>作ります</t>
+  </si>
+  <si>
+    <t>終ります</t>
+  </si>
+  <si>
+    <t>おわります</t>
+  </si>
+  <si>
+    <t>靴</t>
+  </si>
+  <si>
+    <t>くつ</t>
+  </si>
+  <si>
+    <t>脱ぎます</t>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+  </si>
+  <si>
+    <t>れいぞうこ</t>
+  </si>
+  <si>
+    <t>書留</t>
+  </si>
+  <si>
+    <t>かきとめ</t>
+  </si>
+  <si>
+    <t>送ります</t>
+  </si>
+  <si>
+    <t>おくります</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>じゅうしょ</t>
+  </si>
+  <si>
+    <t>保険証</t>
   </si>
 </sst>
 </file>
@@ -2983,7 +3133,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3035,6 +3185,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3348,7 +3501,7 @@
   <dimension ref="D1:O228"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
@@ -3385,7 +3538,7 @@
     <row r="2" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D2">
         <f t="shared" ref="D2:D33" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>87</v>
@@ -3403,7 +3556,7 @@
     <row r="3" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>58</v>
@@ -3418,7 +3571,7 @@
     <row r="4" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -3439,7 +3592,7 @@
     <row r="5" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>31</v>
@@ -3457,7 +3610,7 @@
     <row r="6" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
@@ -3478,7 +3631,7 @@
     <row r="7" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2">
         <v>136</v>
@@ -3493,7 +3646,7 @@
     <row r="8" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2">
         <v>47</v>
@@ -3511,7 +3664,7 @@
     <row r="9" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
         <v>127</v>
@@ -3529,7 +3682,7 @@
     <row r="10" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2">
         <v>115</v>
@@ -3550,7 +3703,7 @@
     <row r="11" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2">
         <v>126</v>
@@ -3565,7 +3718,7 @@
     <row r="12" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -3583,7 +3736,7 @@
     <row r="13" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2">
         <v>94</v>
@@ -3598,7 +3751,7 @@
     <row r="14" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -3616,7 +3769,7 @@
     <row r="15" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2">
         <v>122</v>
@@ -3631,7 +3784,7 @@
     <row r="16" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2">
         <v>117</v>
@@ -3652,7 +3805,7 @@
     <row r="17" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2">
         <v>63</v>
@@ -3673,7 +3826,7 @@
     <row r="18" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
@@ -3688,7 +3841,7 @@
     <row r="19" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2">
         <v>116</v>
@@ -3704,7 +3857,7 @@
     <row r="20" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2">
         <v>96</v>
@@ -3722,7 +3875,7 @@
     <row r="21" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -3737,7 +3890,7 @@
     <row r="22" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -3755,7 +3908,7 @@
     <row r="23" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E23" s="2">
         <v>71</v>
@@ -3773,7 +3926,7 @@
     <row r="24" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -3791,7 +3944,7 @@
     <row r="25" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -3809,7 +3962,7 @@
     <row r="26" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2">
         <v>60</v>
@@ -3827,7 +3980,7 @@
     <row r="27" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2">
         <v>85</v>
@@ -3842,7 +3995,7 @@
     <row r="28" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2">
         <v>114</v>
@@ -3857,7 +4010,7 @@
     <row r="29" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2">
         <v>140</v>
@@ -3878,7 +4031,7 @@
     <row r="30" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2">
         <v>104</v>
@@ -3893,7 +4046,7 @@
     <row r="31" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2">
         <v>146</v>
@@ -3914,7 +4067,7 @@
     <row r="32" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2">
         <v>66</v>
@@ -3932,7 +4085,7 @@
     <row r="33" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="E33" s="2">
         <v>9</v>
@@ -3950,7 +4103,7 @@
     <row r="34" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D34">
         <f t="shared" ref="D34:D65" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2">
         <v>86</v>
@@ -3966,7 +4119,7 @@
     <row r="35" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2">
         <v>7</v>
@@ -3981,7 +4134,7 @@
     <row r="36" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E36" s="2">
         <v>92</v>
@@ -3996,7 +4149,7 @@
     <row r="37" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
@@ -4014,7 +4167,7 @@
     <row r="38" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E38" s="2">
         <v>134</v>
@@ -4029,7 +4182,7 @@
     <row r="39" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2">
         <v>6</v>
@@ -4044,7 +4197,7 @@
     <row r="40" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2">
         <v>129</v>
@@ -4059,7 +4212,7 @@
     <row r="41" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2">
         <v>61</v>
@@ -4077,7 +4230,7 @@
     <row r="42" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2">
         <v>46</v>
@@ -4092,7 +4245,7 @@
     <row r="43" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
@@ -4128,7 +4281,7 @@
     <row r="45" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2">
         <v>53</v>
@@ -4146,7 +4299,7 @@
     <row r="46" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E46" s="2">
         <v>149</v>
@@ -4164,7 +4317,7 @@
     <row r="47" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="E47" s="2">
         <v>70</v>
@@ -4179,7 +4332,7 @@
     <row r="48" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2">
         <v>144</v>
@@ -4197,7 +4350,7 @@
     <row r="49" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2">
         <v>118</v>
@@ -4225,7 +4378,7 @@
     <row r="50" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E50" s="2">
         <v>73</v>
@@ -4240,7 +4393,7 @@
     <row r="51" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="E51" s="2">
         <v>109</v>
@@ -4255,7 +4408,7 @@
     <row r="52" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E52" s="2">
         <v>83</v>
@@ -4273,7 +4426,7 @@
     <row r="53" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2">
         <v>107</v>
@@ -4288,7 +4441,7 @@
     <row r="54" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E54" s="2">
         <v>25</v>
@@ -4306,7 +4459,7 @@
     <row r="55" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="E55" s="2">
         <v>108</v>
@@ -4330,7 +4483,7 @@
     <row r="56" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2">
         <v>113</v>
@@ -4345,7 +4498,7 @@
     <row r="57" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E57" s="2">
         <v>89</v>
@@ -4369,7 +4522,7 @@
     <row r="58" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="E58" s="2">
         <v>130</v>
@@ -4384,7 +4537,7 @@
     <row r="59" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E59" s="2">
         <v>72</v>
@@ -4402,7 +4555,7 @@
     <row r="60" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E60" s="2">
         <v>77</v>
@@ -4417,7 +4570,7 @@
     <row r="61" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E61" s="2">
         <v>57</v>
@@ -4438,7 +4591,7 @@
     <row r="62" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2">
         <v>105</v>
@@ -4453,7 +4606,7 @@
     <row r="63" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E63" s="2">
         <v>45</v>
@@ -4468,7 +4621,7 @@
     <row r="64" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E64" s="2">
         <v>128</v>
@@ -4486,7 +4639,7 @@
     <row r="65" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E65" s="2">
         <v>8</v>
@@ -4504,7 +4657,7 @@
     <row r="66" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D66">
         <f t="shared" ref="D66:D97" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E66" s="2">
         <v>135</v>
@@ -4519,7 +4672,7 @@
     <row r="67" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2">
         <v>56</v>
@@ -4537,7 +4690,7 @@
     <row r="68" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E68" s="2">
         <v>82</v>
@@ -4552,7 +4705,7 @@
     <row r="69" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E69" s="2">
         <v>112</v>
@@ -4567,7 +4720,7 @@
     <row r="70" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E70" s="2">
         <v>121</v>
@@ -4585,7 +4738,7 @@
     <row r="71" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E71" s="2">
         <v>30</v>
@@ -4600,7 +4753,7 @@
     <row r="72" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E72" s="2">
         <v>106</v>
@@ -4618,7 +4771,7 @@
     <row r="73" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E73" s="2">
         <v>64</v>
@@ -4636,7 +4789,7 @@
     <row r="74" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E74" s="2">
         <v>147</v>
@@ -4654,7 +4807,7 @@
     <row r="75" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E75" s="2">
         <v>44</v>
@@ -4670,7 +4823,7 @@
     <row r="76" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" s="2">
         <v>148</v>
@@ -4688,7 +4841,7 @@
     <row r="77" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E77" s="2">
         <v>59</v>
@@ -4703,7 +4856,7 @@
     <row r="78" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E78" s="2">
         <v>132</v>
@@ -4718,7 +4871,7 @@
     <row r="79" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E79" s="2">
         <v>12</v>
@@ -4733,7 +4886,7 @@
     <row r="80" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E80" s="2">
         <v>26</v>
@@ -4751,7 +4904,7 @@
     <row r="81" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E81" s="2">
         <v>43</v>
@@ -4769,7 +4922,7 @@
     <row r="82" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E82" s="2">
         <v>103</v>
@@ -4787,7 +4940,7 @@
     <row r="83" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E83" s="2">
         <v>99</v>
@@ -4802,7 +4955,7 @@
     <row r="84" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E84" s="2">
         <v>141</v>
@@ -4820,7 +4973,7 @@
     <row r="85" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E85" s="2">
         <v>37</v>
@@ -4838,7 +4991,7 @@
     <row r="86" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E86" s="2">
         <v>4</v>
@@ -4856,7 +5009,7 @@
     <row r="87" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E87" s="2">
         <v>119</v>
@@ -4874,7 +5027,7 @@
     <row r="88" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E88" s="2">
         <v>143</v>
@@ -4892,7 +5045,7 @@
     <row r="89" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E89" s="2">
         <v>32</v>
@@ -4907,7 +5060,7 @@
     <row r="90" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E90" s="2">
         <v>97</v>
@@ -4922,7 +5075,7 @@
     <row r="91" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E91" s="2">
         <v>120</v>
@@ -4940,7 +5093,7 @@
     <row r="92" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E92" s="2">
         <v>24</v>
@@ -4956,7 +5109,7 @@
     <row r="93" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E93" s="2">
         <v>110</v>
@@ -4971,7 +5124,7 @@
     <row r="94" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D94">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="E94" s="2">
         <v>51</v>
@@ -4989,7 +5142,7 @@
     <row r="95" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D95">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E95" s="2">
         <v>18</v>
@@ -5007,7 +5160,7 @@
     <row r="96" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D96">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E96" s="2">
         <v>69</v>
@@ -5025,7 +5178,7 @@
     <row r="97" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D97">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E97" s="2">
         <v>15</v>
@@ -5040,7 +5193,7 @@
     <row r="98" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D98">
         <f t="shared" ref="D98:D129" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E98" s="2">
         <v>142</v>
@@ -5061,7 +5214,7 @@
     <row r="99" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E99" s="2">
         <v>78</v>
@@ -5076,7 +5229,7 @@
     <row r="100" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E100" s="2">
         <v>2</v>
@@ -5094,7 +5247,7 @@
     <row r="101" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E101" s="2">
         <v>100</v>
@@ -5109,7 +5262,7 @@
     <row r="102" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E102" s="2">
         <v>95</v>
@@ -5124,7 +5277,7 @@
     <row r="103" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E103" s="2">
         <v>80</v>
@@ -5142,7 +5295,7 @@
     <row r="104" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -5160,7 +5313,7 @@
     <row r="105" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E105" s="2">
         <v>67</v>
@@ -5175,7 +5328,7 @@
     <row r="106" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E106" s="2">
         <v>75</v>
@@ -5193,7 +5346,7 @@
     <row r="107" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E107" s="2">
         <v>76</v>
@@ -5209,7 +5362,7 @@
     <row r="108" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E108" s="2">
         <v>133</v>
@@ -5227,7 +5380,7 @@
     <row r="109" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E109" s="2">
         <v>27</v>
@@ -5245,7 +5398,7 @@
     <row r="110" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E110" s="2">
         <v>28</v>
@@ -5260,7 +5413,7 @@
     <row r="111" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E111" s="2">
         <v>34</v>
@@ -5278,7 +5431,7 @@
     <row r="112" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E112" s="2">
         <v>93</v>
@@ -5296,7 +5449,7 @@
     <row r="113" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E113" s="2">
         <v>52</v>
@@ -5314,7 +5467,7 @@
     <row r="114" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E114" s="2">
         <v>131</v>
@@ -5335,7 +5488,7 @@
     <row r="115" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E115" s="2">
         <v>65</v>
@@ -5353,7 +5506,7 @@
     <row r="116" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E116" s="2">
         <v>74</v>
@@ -5371,7 +5524,7 @@
     <row r="117" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E117" s="2">
         <v>49</v>
@@ -5389,7 +5542,7 @@
     <row r="118" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="E118" s="2">
         <v>41</v>
@@ -5404,7 +5557,7 @@
     <row r="119" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E119" s="2">
         <v>111</v>
@@ -5422,7 +5575,7 @@
     <row r="120" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E120" s="2">
         <v>90</v>
@@ -5440,7 +5593,7 @@
     <row r="121" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E121" s="2">
         <v>137</v>
@@ -5458,7 +5611,7 @@
     <row r="122" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E122" s="2">
         <v>20</v>
@@ -5473,7 +5626,7 @@
     <row r="123" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E123" s="2">
         <v>124</v>
@@ -5491,7 +5644,7 @@
     <row r="124" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E124" s="2">
         <v>138</v>
@@ -5509,7 +5662,7 @@
     <row r="125" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E125" s="2">
         <v>36</v>
@@ -5524,7 +5677,7 @@
     <row r="126" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D126">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="E126" s="2">
         <v>68</v>
@@ -5540,7 +5693,7 @@
     <row r="127" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D127">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E127" s="2">
         <v>22</v>
@@ -5558,7 +5711,7 @@
     <row r="128" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D128">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E128" s="2">
         <v>33</v>
@@ -5576,7 +5729,7 @@
     <row r="129" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D129">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E129" s="2">
         <v>125</v>
@@ -5594,7 +5747,7 @@
     <row r="130" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D130">
         <f t="shared" ref="D130:D162" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E130" s="2">
         <v>54</v>
@@ -5612,7 +5765,7 @@
     <row r="131" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D131">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E131" s="2">
         <v>11</v>
@@ -5633,7 +5786,7 @@
     <row r="132" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E132" s="2">
         <v>79</v>
@@ -5651,7 +5804,7 @@
     <row r="133" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E133" s="2">
         <v>10</v>
@@ -5669,7 +5822,7 @@
     <row r="134" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E134" s="2">
         <v>17</v>
@@ -5684,7 +5837,7 @@
     <row r="135" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D135">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E135" s="2">
         <v>88</v>
@@ -5702,7 +5855,7 @@
     <row r="136" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="E136" s="2">
         <v>98</v>
@@ -5720,7 +5873,7 @@
     <row r="137" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E137" s="2">
         <v>62</v>
@@ -5738,7 +5891,7 @@
     <row r="138" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E138" s="2">
         <v>19</v>
@@ -5756,7 +5909,7 @@
     <row r="139" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E139" s="2">
         <v>81</v>
@@ -5774,7 +5927,7 @@
     <row r="140" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E140" s="2">
         <v>23</v>
@@ -5792,7 +5945,7 @@
     <row r="141" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E141" s="2">
         <v>101</v>
@@ -5807,7 +5960,7 @@
     <row r="142" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E142" s="2">
         <v>84</v>
@@ -5822,7 +5975,7 @@
     <row r="143" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E143" s="2">
         <v>123</v>
@@ -5837,7 +5990,7 @@
     <row r="144" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E144" s="2">
         <v>48</v>
@@ -5855,7 +6008,7 @@
     <row r="145" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E145" s="2">
         <v>91</v>
@@ -5870,7 +6023,7 @@
     <row r="146" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E146" s="2">
         <v>38</v>
@@ -5888,7 +6041,7 @@
     <row r="147" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E147" s="2">
         <v>102</v>
@@ -5909,7 +6062,7 @@
     <row r="148" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E148" s="2">
         <v>139</v>
@@ -5930,7 +6083,7 @@
     <row r="149" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F149" s="2">
         <v>17</v>
@@ -5948,7 +6101,7 @@
     <row r="150" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="F150" s="2">
         <v>17</v>
@@ -5966,7 +6119,7 @@
     <row r="151" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F151" s="2">
         <v>17</v>
@@ -5984,7 +6137,7 @@
     <row r="152" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="F152" s="2">
         <v>17</v>
@@ -5999,7 +6152,7 @@
     <row r="153" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F153" s="2">
         <v>17</v>
@@ -6020,7 +6173,7 @@
     <row r="154" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F154" s="2">
         <v>17</v>
@@ -6041,7 +6194,7 @@
     <row r="155" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F155" s="2">
         <v>17</v>
@@ -6059,7 +6212,7 @@
     <row r="156" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F156" s="2">
         <v>17</v>
@@ -6074,7 +6227,7 @@
     <row r="157" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="F157" s="2">
         <v>17</v>
@@ -6086,7 +6239,7 @@
     <row r="158" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D158">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="F158" s="2">
         <v>17</v>
@@ -6104,7 +6257,7 @@
     <row r="159" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D159">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F159" s="2">
         <v>17</v>
@@ -6122,7 +6275,7 @@
     <row r="160" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D160">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F160" s="2">
         <v>17</v>
@@ -6143,7 +6296,7 @@
     <row r="161" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D161">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" s="2">
         <v>17</v>
@@ -6161,7 +6314,7 @@
     <row r="162" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D162">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F162" s="2">
         <v>17</v>
@@ -6182,7 +6335,7 @@
     <row r="163" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D163">
         <f t="shared" ref="D163:D182" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E163">
         <v>10</v>
@@ -6206,7 +6359,7 @@
     <row r="164" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E164">
         <v>17</v>
@@ -6230,7 +6383,7 @@
     <row r="165" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -6251,7 +6404,7 @@
     <row r="166" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -6272,7 +6425,7 @@
     <row r="167" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -6296,7 +6449,7 @@
     <row r="168" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E168">
         <v>18</v>
@@ -6320,7 +6473,7 @@
     <row r="169" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -6341,7 +6494,7 @@
     <row r="170" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E170">
         <v>13</v>
@@ -6365,7 +6518,7 @@
     <row r="171" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="E171">
         <v>7</v>
@@ -6389,7 +6542,7 @@
     <row r="172" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E172">
         <v>8</v>
@@ -6413,7 +6566,7 @@
     <row r="173" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E173">
         <v>14</v>
@@ -6437,7 +6590,7 @@
     <row r="174" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E174">
         <v>19</v>
@@ -6461,7 +6614,7 @@
     <row r="175" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E175">
         <v>20</v>
@@ -6482,7 +6635,7 @@
     <row r="176" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -6503,7 +6656,7 @@
     <row r="177" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E177">
         <v>5</v>
@@ -6518,7 +6671,7 @@
     <row r="178" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D178">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E178">
         <v>11</v>
@@ -6542,7 +6695,7 @@
     <row r="179" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D179">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E179">
         <v>15</v>
@@ -6566,7 +6719,7 @@
     <row r="180" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D180">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E180">
         <v>4</v>
@@ -6584,7 +6737,7 @@
     <row r="181" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D181">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E181">
         <v>16</v>
@@ -6605,7 +6758,7 @@
     <row r="182" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D182">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E182">
         <v>9</v>
@@ -6629,7 +6782,7 @@
     <row r="183" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D183">
         <f t="shared" ref="D183:D220" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="E183">
         <v>13</v>
@@ -6647,7 +6800,7 @@
     <row r="184" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E184">
         <v>4</v>
@@ -6671,7 +6824,7 @@
     <row r="185" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E185">
         <v>5</v>
@@ -6692,7 +6845,7 @@
     <row r="186" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F186" s="2">
         <v>19</v>
@@ -6713,7 +6866,7 @@
     <row r="187" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E187">
         <v>18</v>
@@ -6737,7 +6890,7 @@
     <row r="188" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E188">
         <v>14</v>
@@ -6761,7 +6914,7 @@
     <row r="189" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E189">
         <v>24</v>
@@ -6785,7 +6938,7 @@
     <row r="190" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D190">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E190">
         <v>23</v>
@@ -6812,7 +6965,7 @@
     <row r="191" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D191">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E191">
         <v>17</v>
@@ -6833,7 +6986,7 @@
     <row r="192" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D192">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E192">
         <v>12</v>
@@ -6857,7 +7010,7 @@
     <row r="193" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D193">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E193">
         <v>22</v>
@@ -6878,7 +7031,7 @@
     <row r="194" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D194">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -6902,7 +7055,7 @@
     <row r="195" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D195">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E195">
         <v>19</v>
@@ -6926,7 +7079,7 @@
     <row r="196" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D196">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E196">
         <v>8</v>
@@ -6944,7 +7097,7 @@
     <row r="197" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -6965,7 +7118,7 @@
     <row r="198" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E198">
         <v>20</v>
@@ -6989,7 +7142,7 @@
     <row r="199" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E199">
         <v>7</v>
@@ -7007,7 +7160,7 @@
     <row r="200" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E200">
         <v>11</v>
@@ -7025,7 +7178,7 @@
     <row r="201" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E201">
         <v>16</v>
@@ -7049,7 +7202,7 @@
     <row r="202" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -7070,7 +7223,7 @@
     <row r="203" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F203" s="2">
         <v>19</v>
@@ -7088,7 +7241,7 @@
     <row r="204" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E204">
         <v>10</v>
@@ -7106,7 +7259,7 @@
     <row r="205" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E205">
         <v>21</v>
@@ -7130,7 +7283,7 @@
     <row r="206" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -7151,7 +7304,7 @@
     <row r="207" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -7175,7 +7328,7 @@
     <row r="208" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="E208">
         <v>15</v>
@@ -7199,7 +7352,7 @@
     <row r="209" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E209">
         <v>9</v>
@@ -7223,7 +7376,7 @@
     <row r="210" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -7244,7 +7397,7 @@
     <row r="211" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -7265,7 +7418,7 @@
     <row r="212" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E212">
         <v>8</v>
@@ -7289,7 +7442,7 @@
     <row r="213" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -7310,7 +7463,7 @@
     <row r="214" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E214">
         <v>10</v>
@@ -7352,7 +7505,7 @@
     <row r="216" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D216">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E216">
         <v>7</v>
@@ -7373,7 +7526,7 @@
     <row r="217" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D217">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E217">
         <v>4</v>
@@ -7394,7 +7547,7 @@
     <row r="218" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D218">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -7415,7 +7568,7 @@
     <row r="219" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D219">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E219">
         <v>6</v>
@@ -7436,7 +7589,7 @@
     <row r="220" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D220">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="F220" s="2">
         <v>20</v>
@@ -7600,11 +7753,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7639,7 +7792,7 @@
     <row r="2" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A2">
         <f t="shared" ref="A2:A45" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7">
         <v>11</v>
@@ -7660,7 +7813,7 @@
     <row r="3" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7">
         <v>11</v>
@@ -7681,7 +7834,7 @@
     <row r="4" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B4" s="7">
         <v>11</v>
@@ -7702,7 +7855,7 @@
     <row r="5" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7">
         <v>11</v>
@@ -7723,7 +7876,7 @@
     <row r="6" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>11</v>
@@ -7741,7 +7894,7 @@
     <row r="7" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7">
         <v>11</v>
@@ -7759,7 +7912,7 @@
     <row r="8" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7">
         <v>11</v>
@@ -7780,7 +7933,7 @@
     <row r="9" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -7795,7 +7948,7 @@
     <row r="10" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B10" s="7">
         <v>12</v>
@@ -7810,7 +7963,7 @@
     <row r="11" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11" s="7">
         <v>12</v>
@@ -7831,7 +7984,7 @@
     <row r="12" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7">
         <v>12</v>
@@ -7852,7 +8005,7 @@
     <row r="13" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -7870,7 +8023,7 @@
     <row r="14" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
@@ -7891,7 +8044,7 @@
     <row r="15" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -7906,7 +8059,7 @@
     <row r="16" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B16" s="7">
         <v>12</v>
@@ -7927,7 +8080,7 @@
     <row r="17" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B17" s="7">
         <v>12</v>
@@ -7948,7 +8101,7 @@
     <row r="18" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -7969,7 +8122,7 @@
     <row r="19" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="B19" s="7">
         <v>12</v>
@@ -7990,7 +8143,7 @@
     <row r="20" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B20" s="7">
         <v>12</v>
@@ -8005,7 +8158,7 @@
     <row r="21" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B21" s="7">
         <v>12</v>
@@ -8026,7 +8179,7 @@
     <row r="22" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="B22" s="7">
         <v>12</v>
@@ -8041,7 +8194,7 @@
     <row r="23" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B23" s="7">
         <v>12</v>
@@ -8059,7 +8212,7 @@
     <row r="24" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7">
         <v>12</v>
@@ -8074,7 +8227,7 @@
     <row r="25" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B25" s="7">
         <v>12</v>
@@ -8095,7 +8248,7 @@
     <row r="26" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B26" s="7">
         <v>12</v>
@@ -8116,7 +8269,7 @@
     <row r="27" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B27" s="7">
         <v>12</v>
@@ -8137,7 +8290,7 @@
     <row r="28" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B28" s="7">
         <v>12</v>
@@ -8155,7 +8308,7 @@
     <row r="29" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B29" s="7">
         <v>12</v>
@@ -8173,7 +8326,7 @@
     <row r="30" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B30" s="7">
         <v>13</v>
@@ -8194,7 +8347,7 @@
     <row r="31" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B31" s="7">
         <v>13</v>
@@ -8215,7 +8368,7 @@
     <row r="32" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B32" s="7">
         <v>13</v>
@@ -8236,7 +8389,7 @@
     <row r="33" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B33" s="7">
         <v>13</v>
@@ -8257,7 +8410,7 @@
     <row r="34" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B34" s="7">
         <v>13</v>
@@ -8278,7 +8431,7 @@
     <row r="35" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B35" s="7">
         <v>13</v>
@@ -8299,7 +8452,7 @@
     <row r="36" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B36" s="7">
         <v>13</v>
@@ -8320,7 +8473,7 @@
     <row r="37" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B37" s="7">
         <v>13</v>
@@ -8341,7 +8494,7 @@
     <row r="38" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38" s="7">
         <v>13</v>
@@ -8362,7 +8515,7 @@
     <row r="39" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B39" s="7">
         <v>13</v>
@@ -8383,7 +8536,7 @@
     <row r="40" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B40" s="7">
         <v>13</v>
@@ -8404,7 +8557,7 @@
     <row r="41" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B41" s="7">
         <v>13</v>
@@ -8425,7 +8578,7 @@
     <row r="42" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B42" s="7">
         <v>13</v>
@@ -8446,7 +8599,7 @@
     <row r="43" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B43" s="7">
         <v>13</v>
@@ -8467,7 +8620,7 @@
     <row r="44" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B44" s="7">
         <v>13</v>
@@ -8488,7 +8641,7 @@
     <row r="45" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B45" s="7">
         <v>13</v>
@@ -8509,7 +8662,7 @@
     <row r="46" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A46">
         <f t="shared" ref="A46:A53" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B46" s="7">
         <v>14</v>
@@ -8530,7 +8683,7 @@
     <row r="47" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B47" s="7">
         <v>14</v>
@@ -8551,7 +8704,7 @@
     <row r="48" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A48">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B48" s="7">
         <v>14</v>
@@ -8569,10 +8722,10 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="49" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B49" s="7">
         <v>14</v>
@@ -8590,10 +8743,10 @@
         <v>675</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="50" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B50" s="7">
         <v>14</v>
@@ -8611,10 +8764,10 @@
         <v>671</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="51" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A51">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B51" s="7">
         <v>14</v>
@@ -8632,10 +8785,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="52" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B52" s="7">
         <v>14</v>
@@ -8647,10 +8800,10 @@
         <v>682</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="53" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="7">
         <v>14</v>
@@ -8670,8 +8823,11 @@
       <c r="G53" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="H53" s="24" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A54">
         <v>20</v>
       </c>
@@ -8691,7 +8847,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="55" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A55">
         <v>40</v>
       </c>
@@ -8711,7 +8867,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="56" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A56">
         <v>58</v>
       </c>
@@ -8731,7 +8887,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="57" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A57">
         <v>21</v>
       </c>
@@ -8751,7 +8907,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="58" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A58">
         <v>59</v>
       </c>
@@ -8771,7 +8927,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="59" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A59">
         <v>38</v>
       </c>
@@ -8791,7 +8947,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="60" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A60">
         <v>33</v>
       </c>
@@ -8811,7 +8967,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="61" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8831,7 +8987,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="62" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A62">
         <v>42</v>
       </c>
@@ -8851,7 +9007,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="63" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A63">
         <v>63</v>
       </c>
@@ -8871,7 +9027,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="64" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A64">
         <v>49</v>
       </c>
@@ -8891,7 +9047,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="65" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A65">
         <v>69</v>
       </c>
@@ -8911,7 +9067,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="66" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A66">
         <v>86</v>
       </c>
@@ -8931,7 +9087,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="67" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A67">
         <v>23</v>
       </c>
@@ -8951,7 +9107,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="68" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A68">
         <v>85</v>
       </c>
@@ -8971,7 +9127,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="69" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A69">
         <v>4</v>
       </c>
@@ -8991,7 +9147,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="70" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A70">
         <v>33</v>
       </c>
@@ -9010,8 +9166,11 @@
       <c r="F70" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="G70" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A71">
         <v>42</v>
       </c>
@@ -9025,13 +9184,16 @@
         <v>739</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>689</v>
+        <v>938</v>
       </c>
       <c r="F71" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="G71" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A72">
         <v>86</v>
       </c>
@@ -9051,7 +9213,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="73" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A73">
         <v>42</v>
       </c>
@@ -9065,13 +9227,13 @@
         <v>744</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>689</v>
+        <v>937</v>
       </c>
       <c r="F73" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="74" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A74">
         <v>99</v>
       </c>
@@ -9091,7 +9253,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="75" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A75">
         <v>14</v>
       </c>
@@ -9111,7 +9273,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="76" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A76">
         <v>17</v>
       </c>
@@ -9131,7 +9293,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="77" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A77">
         <v>47</v>
       </c>
@@ -9151,7 +9313,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="78" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A78">
         <v>73</v>
       </c>
@@ -9171,7 +9333,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="79" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A79">
         <v>32</v>
       </c>
@@ -9191,7 +9353,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="80" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A80">
         <v>99</v>
       </c>
@@ -9305,7 +9467,7 @@
         <v>840</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>689</v>
+        <v>923</v>
       </c>
       <c r="F85" t="s">
         <v>705</v>
@@ -9325,7 +9487,7 @@
         <v>842</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>689</v>
+        <v>924</v>
       </c>
       <c r="F86" t="s">
         <v>843</v>
@@ -9345,7 +9507,7 @@
         <v>844</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>689</v>
+        <v>924</v>
       </c>
       <c r="F87" t="s">
         <v>845</v>
@@ -9365,7 +9527,7 @@
         <v>847</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>689</v>
+        <v>925</v>
       </c>
       <c r="F88" t="s">
         <v>848</v>
@@ -9385,7 +9547,7 @@
         <v>850</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>689</v>
+        <v>926</v>
       </c>
       <c r="F89" t="s">
         <v>851</v>
@@ -9405,7 +9567,7 @@
         <v>852</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>689</v>
+        <v>927</v>
       </c>
       <c r="F90" t="s">
         <v>853</v>
@@ -9425,7 +9587,7 @@
         <v>854</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>689</v>
+        <v>928</v>
       </c>
       <c r="F91" t="s">
         <v>855</v>
@@ -9445,7 +9607,7 @@
         <v>857</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>689</v>
+        <v>928</v>
       </c>
       <c r="F92" t="s">
         <v>855</v>
@@ -9465,7 +9627,7 @@
         <v>859</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>689</v>
+        <v>929</v>
       </c>
       <c r="F93" t="s">
         <v>860</v>
@@ -9485,7 +9647,7 @@
         <v>862</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>689</v>
+        <v>929</v>
       </c>
       <c r="F94" t="s">
         <v>863</v>
@@ -9505,7 +9667,7 @@
         <v>865</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>689</v>
+        <v>930</v>
       </c>
       <c r="F95" t="s">
         <v>770</v>
@@ -9525,7 +9687,7 @@
         <v>867</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>689</v>
+        <v>930</v>
       </c>
       <c r="F96" t="s">
         <v>868</v>
@@ -9545,7 +9707,7 @@
         <v>869</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>689</v>
+        <v>931</v>
       </c>
       <c r="F97" t="s">
         <v>762</v>
@@ -9565,7 +9727,7 @@
         <v>871</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>689</v>
+        <v>932</v>
       </c>
       <c r="F98" t="s">
         <v>693</v>
@@ -9585,7 +9747,7 @@
         <v>873</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>689</v>
+        <v>932</v>
       </c>
       <c r="F99" t="s">
         <v>737</v>
@@ -9605,7 +9767,7 @@
         <v>875</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>689</v>
+        <v>933</v>
       </c>
       <c r="F100" t="s">
         <v>693</v>
@@ -9625,7 +9787,7 @@
         <v>876</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>689</v>
+        <v>933</v>
       </c>
       <c r="F101" t="s">
         <v>877</v>
@@ -9645,7 +9807,7 @@
         <v>879</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>689</v>
+        <v>933</v>
       </c>
       <c r="F102" t="s">
         <v>880</v>
@@ -9665,7 +9827,7 @@
         <v>882</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>689</v>
+        <v>934</v>
       </c>
       <c r="F103" t="s">
         <v>705</v>
@@ -9685,7 +9847,7 @@
         <v>884</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>689</v>
+        <v>935</v>
       </c>
       <c r="F104" t="s">
         <v>711</v>
@@ -9705,7 +9867,7 @@
         <v>885</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>689</v>
+        <v>936</v>
       </c>
       <c r="F105" t="s">
         <v>886</v>
@@ -9851,7 +10013,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="113" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A113">
         <v>31</v>
       </c>
@@ -9871,7 +10033,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="114" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A114">
         <v>42</v>
       </c>
@@ -9891,7 +10053,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="115" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A115">
         <v>48</v>
       </c>
@@ -9911,7 +10073,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="116" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A116">
         <v>6</v>
       </c>
@@ -9931,7 +10093,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="117" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A117">
         <v>35</v>
       </c>
@@ -9951,7 +10113,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="118" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A118">
         <v>59</v>
       </c>
@@ -9971,7 +10133,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="119" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A119">
         <v>8</v>
       </c>
@@ -9991,8 +10153,45 @@
         <v>770</v>
       </c>
     </row>
+    <row r="120" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
+      <c r="B120" s="7">
+        <v>17</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F120" t="s">
+        <v>941</v>
+      </c>
+      <c r="G120" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
+      <c r="B121" s="7">
+        <v>17</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F121" t="s">
+        <v>943</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F119">
+  <autoFilter ref="A1:F121">
     <filterColumn colId="1">
       <filters>
         <filter val="17"/>
@@ -10011,7 +10210,7 @@
   <dimension ref="A2:EQ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
@@ -12721,10 +12920,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -12753,7 +12953,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12767,7 +12967,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12781,7 +12981,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12795,7 +12995,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12809,7 +13009,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12823,7 +13023,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12837,7 +13037,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12851,7 +13051,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12865,7 +13065,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12879,7 +13079,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12893,7 +13093,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12907,7 +13107,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12921,7 +13121,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12935,7 +13135,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12949,7 +13149,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12963,7 +13163,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12977,7 +13177,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12991,7 +13191,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13005,7 +13205,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13019,7 +13219,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13033,7 +13233,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13047,7 +13247,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13061,7 +13261,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13075,7 +13275,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13089,7 +13289,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13104,18 +13304,262 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C27" s="22"/>
+      <c r="A27">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>50</v>
+      </c>
+      <c r="B27" s="21">
+        <v>17</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C28" s="22"/>
+      <c r="A28">
+        <f t="shared" ref="A28:A42" ca="1" si="0">RANDBETWEEN(1,100)</f>
+        <v>37</v>
+      </c>
+      <c r="B28" s="21">
+        <v>17</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C29" s="22"/>
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B29" s="21">
+        <v>17</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C30" s="22"/>
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B30" s="21">
+        <v>17</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B31" s="21">
+        <v>17</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B32" s="21">
+        <v>17</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B33" s="21">
+        <v>17</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="B34" s="21">
+        <v>17</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B35" s="21">
+        <v>17</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="B36" s="21">
+        <v>17</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B37" s="21">
+        <v>17</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B38" s="21">
+        <v>17</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>963</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B39" s="21">
+        <v>17</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B40" s="21">
+        <v>17</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="B41" s="21">
+        <v>17</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="B42" s="21">
+        <v>17</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C43" s="22"/>
+    </row>
+    <row r="44" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C44" s="22"/>
+    </row>
+    <row r="45" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C45" s="22"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E42">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="17"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Mainichi_Renshuu.xlsx
+++ b/Mainichi_Renshuu.xlsx
@@ -3538,7 +3538,7 @@
     <row r="2" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D2">
         <f t="shared" ref="D2:D33" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>87</v>
@@ -3556,7 +3556,7 @@
     <row r="3" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>58</v>
@@ -3571,7 +3571,7 @@
     <row r="4" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -3592,7 +3592,7 @@
     <row r="5" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2">
         <v>31</v>
@@ -3610,7 +3610,7 @@
     <row r="6" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
@@ -3631,7 +3631,7 @@
     <row r="7" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>136</v>
@@ -3646,7 +3646,7 @@
     <row r="8" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>47</v>
@@ -3664,7 +3664,7 @@
     <row r="9" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2">
         <v>127</v>
@@ -3682,7 +3682,7 @@
     <row r="10" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>115</v>
@@ -3703,7 +3703,7 @@
     <row r="11" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
         <v>126</v>
@@ -3718,7 +3718,7 @@
     <row r="12" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -3736,7 +3736,7 @@
     <row r="13" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2">
         <v>94</v>
@@ -3751,7 +3751,7 @@
     <row r="14" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -3769,7 +3769,7 @@
     <row r="15" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2">
         <v>122</v>
@@ -3784,7 +3784,7 @@
     <row r="16" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2">
         <v>117</v>
@@ -3805,7 +3805,7 @@
     <row r="17" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2">
         <v>63</v>
@@ -3826,7 +3826,7 @@
     <row r="18" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
@@ -3841,7 +3841,7 @@
     <row r="19" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2">
         <v>116</v>
@@ -3857,7 +3857,7 @@
     <row r="20" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
         <v>96</v>
@@ -3875,7 +3875,7 @@
     <row r="21" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -3890,7 +3890,7 @@
     <row r="22" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -3908,7 +3908,7 @@
     <row r="23" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2">
         <v>71</v>
@@ -3926,7 +3926,7 @@
     <row r="24" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -3944,7 +3944,7 @@
     <row r="25" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -3962,7 +3962,7 @@
     <row r="26" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2">
         <v>60</v>
@@ -3980,7 +3980,7 @@
     <row r="27" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2">
         <v>85</v>
@@ -3995,7 +3995,7 @@
     <row r="28" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2">
         <v>114</v>
@@ -4010,7 +4010,7 @@
     <row r="29" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2">
         <v>140</v>
@@ -4031,7 +4031,7 @@
     <row r="30" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2">
         <v>104</v>
@@ -4046,7 +4046,7 @@
     <row r="31" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2">
         <v>146</v>
@@ -4067,7 +4067,7 @@
     <row r="32" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2">
         <v>66</v>
@@ -4085,7 +4085,7 @@
     <row r="33" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2">
         <v>9</v>
@@ -4103,7 +4103,7 @@
     <row r="34" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D34">
         <f t="shared" ref="D34:D65" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2">
         <v>86</v>
@@ -4119,7 +4119,7 @@
     <row r="35" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2">
         <v>7</v>
@@ -4134,7 +4134,7 @@
     <row r="36" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2">
         <v>92</v>
@@ -4149,7 +4149,7 @@
     <row r="37" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
@@ -4167,7 +4167,7 @@
     <row r="38" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2">
         <v>134</v>
@@ -4182,7 +4182,7 @@
     <row r="39" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E39" s="2">
         <v>6</v>
@@ -4197,7 +4197,7 @@
     <row r="40" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2">
         <v>129</v>
@@ -4212,7 +4212,7 @@
     <row r="41" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2">
         <v>61</v>
@@ -4230,7 +4230,7 @@
     <row r="42" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2">
         <v>46</v>
@@ -4245,7 +4245,7 @@
     <row r="43" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
@@ -4263,7 +4263,7 @@
     <row r="44" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2">
         <v>55</v>
@@ -4281,7 +4281,7 @@
     <row r="45" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2">
         <v>53</v>
@@ -4299,7 +4299,7 @@
     <row r="46" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E46" s="2">
         <v>149</v>
@@ -4317,7 +4317,7 @@
     <row r="47" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E47" s="2">
         <v>70</v>
@@ -4332,7 +4332,7 @@
     <row r="48" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2">
         <v>144</v>
@@ -4350,7 +4350,7 @@
     <row r="49" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E49" s="2">
         <v>118</v>
@@ -4378,7 +4378,7 @@
     <row r="50" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2">
         <v>73</v>
@@ -4393,7 +4393,7 @@
     <row r="51" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2">
         <v>109</v>
@@ -4408,7 +4408,7 @@
     <row r="52" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2">
         <v>83</v>
@@ -4426,7 +4426,7 @@
     <row r="53" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E53" s="2">
         <v>107</v>
@@ -4441,7 +4441,7 @@
     <row r="54" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E54" s="2">
         <v>25</v>
@@ -4459,7 +4459,7 @@
     <row r="55" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E55" s="2">
         <v>108</v>
@@ -4483,7 +4483,7 @@
     <row r="56" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E56" s="2">
         <v>113</v>
@@ -4498,7 +4498,7 @@
     <row r="57" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E57" s="2">
         <v>89</v>
@@ -4522,7 +4522,7 @@
     <row r="58" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2">
         <v>130</v>
@@ -4537,7 +4537,7 @@
     <row r="59" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E59" s="2">
         <v>72</v>
@@ -4555,7 +4555,7 @@
     <row r="60" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E60" s="2">
         <v>77</v>
@@ -4570,7 +4570,7 @@
     <row r="61" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2">
         <v>57</v>
@@ -4591,7 +4591,7 @@
     <row r="62" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2">
         <v>105</v>
@@ -4606,7 +4606,7 @@
     <row r="63" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E63" s="2">
         <v>45</v>
@@ -4639,7 +4639,7 @@
     <row r="65" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2">
         <v>8</v>
@@ -4657,7 +4657,7 @@
     <row r="66" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D66">
         <f t="shared" ref="D66:D97" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E66" s="2">
         <v>135</v>
@@ -4672,7 +4672,7 @@
     <row r="67" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2">
         <v>56</v>
@@ -4690,7 +4690,7 @@
     <row r="68" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E68" s="2">
         <v>82</v>
@@ -4705,7 +4705,7 @@
     <row r="69" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E69" s="2">
         <v>112</v>
@@ -4720,7 +4720,7 @@
     <row r="70" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2">
         <v>121</v>
@@ -4738,7 +4738,7 @@
     <row r="71" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E71" s="2">
         <v>30</v>
@@ -4753,7 +4753,7 @@
     <row r="72" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E72" s="2">
         <v>106</v>
@@ -4771,7 +4771,7 @@
     <row r="73" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E73" s="2">
         <v>64</v>
@@ -4789,7 +4789,7 @@
     <row r="74" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E74" s="2">
         <v>147</v>
@@ -4807,7 +4807,7 @@
     <row r="75" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E75" s="2">
         <v>44</v>
@@ -4823,7 +4823,7 @@
     <row r="76" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2">
         <v>148</v>
@@ -4841,7 +4841,7 @@
     <row r="77" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E77" s="2">
         <v>59</v>
@@ -4856,7 +4856,7 @@
     <row r="78" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E78" s="2">
         <v>132</v>
@@ -4871,7 +4871,7 @@
     <row r="79" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2">
         <v>12</v>
@@ -4886,7 +4886,7 @@
     <row r="80" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E80" s="2">
         <v>26</v>
@@ -4904,7 +4904,7 @@
     <row r="81" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2">
         <v>43</v>
@@ -4922,7 +4922,7 @@
     <row r="82" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2">
         <v>103</v>
@@ -4940,7 +4940,7 @@
     <row r="83" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E83" s="2">
         <v>99</v>
@@ -4955,7 +4955,7 @@
     <row r="84" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E84" s="2">
         <v>141</v>
@@ -4973,7 +4973,7 @@
     <row r="85" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E85" s="2">
         <v>37</v>
@@ -4991,7 +4991,7 @@
     <row r="86" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E86" s="2">
         <v>4</v>
@@ -5009,7 +5009,7 @@
     <row r="87" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E87" s="2">
         <v>119</v>
@@ -5027,7 +5027,7 @@
     <row r="88" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E88" s="2">
         <v>143</v>
@@ -5045,7 +5045,7 @@
     <row r="89" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E89" s="2">
         <v>32</v>
@@ -5060,7 +5060,7 @@
     <row r="90" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="E90" s="2">
         <v>97</v>
@@ -5075,7 +5075,7 @@
     <row r="91" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E91" s="2">
         <v>120</v>
@@ -5093,7 +5093,7 @@
     <row r="92" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E92" s="2">
         <v>24</v>
@@ -5109,7 +5109,7 @@
     <row r="93" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E93" s="2">
         <v>110</v>
@@ -5124,7 +5124,7 @@
     <row r="94" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D94">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E94" s="2">
         <v>51</v>
@@ -5142,7 +5142,7 @@
     <row r="95" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D95">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E95" s="2">
         <v>18</v>
@@ -5160,7 +5160,7 @@
     <row r="96" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D96">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E96" s="2">
         <v>69</v>
@@ -5178,7 +5178,7 @@
     <row r="97" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D97">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E97" s="2">
         <v>15</v>
@@ -5193,7 +5193,7 @@
     <row r="98" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D98">
         <f t="shared" ref="D98:D129" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2">
         <v>142</v>
@@ -5214,7 +5214,7 @@
     <row r="99" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2">
         <v>78</v>
@@ -5229,7 +5229,7 @@
     <row r="100" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E100" s="2">
         <v>2</v>
@@ -5247,7 +5247,7 @@
     <row r="101" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E101" s="2">
         <v>100</v>
@@ -5262,7 +5262,7 @@
     <row r="102" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2">
         <v>95</v>
@@ -5277,7 +5277,7 @@
     <row r="103" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E103" s="2">
         <v>80</v>
@@ -5295,7 +5295,7 @@
     <row r="104" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -5313,7 +5313,7 @@
     <row r="105" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E105" s="2">
         <v>67</v>
@@ -5328,7 +5328,7 @@
     <row r="106" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E106" s="2">
         <v>75</v>
@@ -5346,7 +5346,7 @@
     <row r="107" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E107" s="2">
         <v>76</v>
@@ -5362,7 +5362,7 @@
     <row r="108" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E108" s="2">
         <v>133</v>
@@ -5380,7 +5380,7 @@
     <row r="109" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="E109" s="2">
         <v>27</v>
@@ -5398,7 +5398,7 @@
     <row r="110" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E110" s="2">
         <v>28</v>
@@ -5413,7 +5413,7 @@
     <row r="111" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E111" s="2">
         <v>34</v>
@@ -5431,7 +5431,7 @@
     <row r="112" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2">
         <v>93</v>
@@ -5449,7 +5449,7 @@
     <row r="113" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E113" s="2">
         <v>52</v>
@@ -5467,7 +5467,7 @@
     <row r="114" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E114" s="2">
         <v>131</v>
@@ -5488,7 +5488,7 @@
     <row r="115" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E115" s="2">
         <v>65</v>
@@ -5506,7 +5506,7 @@
     <row r="116" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E116" s="2">
         <v>74</v>
@@ -5524,7 +5524,7 @@
     <row r="117" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E117" s="2">
         <v>49</v>
@@ -5542,7 +5542,7 @@
     <row r="118" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E118" s="2">
         <v>41</v>
@@ -5557,7 +5557,7 @@
     <row r="119" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E119" s="2">
         <v>111</v>
@@ -5575,7 +5575,7 @@
     <row r="120" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E120" s="2">
         <v>90</v>
@@ -5593,7 +5593,7 @@
     <row r="121" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E121" s="2">
         <v>137</v>
@@ -5611,7 +5611,7 @@
     <row r="122" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E122" s="2">
         <v>20</v>
@@ -5626,7 +5626,7 @@
     <row r="123" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E123" s="2">
         <v>124</v>
@@ -5644,7 +5644,7 @@
     <row r="124" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E124" s="2">
         <v>138</v>
@@ -5662,7 +5662,7 @@
     <row r="125" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E125" s="2">
         <v>36</v>
@@ -5677,7 +5677,7 @@
     <row r="126" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D126">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="E126" s="2">
         <v>68</v>
@@ -5693,7 +5693,7 @@
     <row r="127" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D127">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E127" s="2">
         <v>22</v>
@@ -5711,7 +5711,7 @@
     <row r="128" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D128">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E128" s="2">
         <v>33</v>
@@ -5729,7 +5729,7 @@
     <row r="129" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D129">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E129" s="2">
         <v>125</v>
@@ -5747,7 +5747,7 @@
     <row r="130" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D130">
         <f t="shared" ref="D130:D162" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E130" s="2">
         <v>54</v>
@@ -5765,7 +5765,7 @@
     <row r="131" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D131">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E131" s="2">
         <v>11</v>
@@ -5786,7 +5786,7 @@
     <row r="132" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="E132" s="2">
         <v>79</v>
@@ -5804,7 +5804,7 @@
     <row r="133" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E133" s="2">
         <v>10</v>
@@ -5822,7 +5822,7 @@
     <row r="134" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E134" s="2">
         <v>17</v>
@@ -5837,7 +5837,7 @@
     <row r="135" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D135">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E135" s="2">
         <v>88</v>
@@ -5855,7 +5855,7 @@
     <row r="136" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E136" s="2">
         <v>98</v>
@@ -5873,7 +5873,7 @@
     <row r="137" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E137" s="2">
         <v>62</v>
@@ -5891,7 +5891,7 @@
     <row r="138" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E138" s="2">
         <v>19</v>
@@ -5909,7 +5909,7 @@
     <row r="139" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E139" s="2">
         <v>81</v>
@@ -5927,7 +5927,7 @@
     <row r="140" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E140" s="2">
         <v>23</v>
@@ -5945,7 +5945,7 @@
     <row r="141" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E141" s="2">
         <v>101</v>
@@ -5960,7 +5960,7 @@
     <row r="142" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E142" s="2">
         <v>84</v>
@@ -5975,7 +5975,7 @@
     <row r="143" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E143" s="2">
         <v>123</v>
@@ -5990,7 +5990,7 @@
     <row r="144" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E144" s="2">
         <v>48</v>
@@ -6008,7 +6008,7 @@
     <row r="145" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E145" s="2">
         <v>91</v>
@@ -6023,7 +6023,7 @@
     <row r="146" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E146" s="2">
         <v>38</v>
@@ -6041,7 +6041,7 @@
     <row r="147" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E147" s="2">
         <v>102</v>
@@ -6062,7 +6062,7 @@
     <row r="148" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E148" s="2">
         <v>139</v>
@@ -6083,7 +6083,7 @@
     <row r="149" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F149" s="2">
         <v>17</v>
@@ -6101,7 +6101,7 @@
     <row r="150" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F150" s="2">
         <v>17</v>
@@ -6119,7 +6119,7 @@
     <row r="151" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F151" s="2">
         <v>17</v>
@@ -6137,7 +6137,7 @@
     <row r="152" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F152" s="2">
         <v>17</v>
@@ -6152,7 +6152,7 @@
     <row r="153" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F153" s="2">
         <v>17</v>
@@ -6173,7 +6173,7 @@
     <row r="154" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F154" s="2">
         <v>17</v>
@@ -6194,7 +6194,7 @@
     <row r="155" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F155" s="2">
         <v>17</v>
@@ -6212,7 +6212,7 @@
     <row r="156" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F156" s="2">
         <v>17</v>
@@ -6227,7 +6227,7 @@
     <row r="157" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F157" s="2">
         <v>17</v>
@@ -6239,7 +6239,7 @@
     <row r="158" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D158">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F158" s="2">
         <v>17</v>
@@ -6257,7 +6257,7 @@
     <row r="159" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D159">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F159" s="2">
         <v>17</v>
@@ -6275,7 +6275,7 @@
     <row r="160" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D160">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="F160" s="2">
         <v>17</v>
@@ -6296,7 +6296,7 @@
     <row r="161" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D161">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F161" s="2">
         <v>17</v>
@@ -6314,7 +6314,7 @@
     <row r="162" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D162">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F162" s="2">
         <v>17</v>
@@ -6335,7 +6335,7 @@
     <row r="163" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D163">
         <f t="shared" ref="D163:D182" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E163">
         <v>10</v>
@@ -6359,7 +6359,7 @@
     <row r="164" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E164">
         <v>17</v>
@@ -6383,7 +6383,7 @@
     <row r="165" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -6404,7 +6404,7 @@
     <row r="166" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -6425,7 +6425,7 @@
     <row r="167" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -6449,7 +6449,7 @@
     <row r="168" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E168">
         <v>18</v>
@@ -6473,7 +6473,7 @@
     <row r="169" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -6494,7 +6494,7 @@
     <row r="170" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E170">
         <v>13</v>
@@ -6518,7 +6518,7 @@
     <row r="171" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E171">
         <v>7</v>
@@ -6542,7 +6542,7 @@
     <row r="172" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E172">
         <v>8</v>
@@ -6566,7 +6566,7 @@
     <row r="173" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <v>14</v>
@@ -6590,7 +6590,7 @@
     <row r="174" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E174">
         <v>19</v>
@@ -6614,7 +6614,7 @@
     <row r="175" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E175">
         <v>20</v>
@@ -6635,7 +6635,7 @@
     <row r="176" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -6656,7 +6656,7 @@
     <row r="177" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E177">
         <v>5</v>
@@ -6671,7 +6671,7 @@
     <row r="178" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D178">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E178">
         <v>11</v>
@@ -6695,7 +6695,7 @@
     <row r="179" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D179">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E179">
         <v>15</v>
@@ -6719,7 +6719,7 @@
     <row r="180" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D180">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>4</v>
@@ -6737,7 +6737,7 @@
     <row r="181" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D181">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E181">
         <v>16</v>
@@ -6758,7 +6758,7 @@
     <row r="182" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D182">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="E182">
         <v>9</v>
@@ -6782,7 +6782,7 @@
     <row r="183" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D183">
         <f t="shared" ref="D183:D220" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E183">
         <v>13</v>
@@ -6800,7 +6800,7 @@
     <row r="184" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E184">
         <v>4</v>
@@ -6824,7 +6824,7 @@
     <row r="185" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E185">
         <v>5</v>
@@ -6845,7 +6845,7 @@
     <row r="186" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F186" s="2">
         <v>19</v>
@@ -6866,7 +6866,7 @@
     <row r="187" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E187">
         <v>18</v>
@@ -6890,7 +6890,7 @@
     <row r="188" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E188">
         <v>14</v>
@@ -6914,7 +6914,7 @@
     <row r="189" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="E189">
         <v>24</v>
@@ -6938,7 +6938,7 @@
     <row r="190" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D190">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E190">
         <v>23</v>
@@ -6965,7 +6965,7 @@
     <row r="191" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D191">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E191">
         <v>17</v>
@@ -6986,7 +6986,7 @@
     <row r="192" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D192">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E192">
         <v>12</v>
@@ -7010,7 +7010,7 @@
     <row r="193" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D193">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E193">
         <v>22</v>
@@ -7031,7 +7031,7 @@
     <row r="194" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D194">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -7055,7 +7055,7 @@
     <row r="195" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D195">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E195">
         <v>19</v>
@@ -7079,7 +7079,7 @@
     <row r="196" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D196">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E196">
         <v>8</v>
@@ -7097,7 +7097,7 @@
     <row r="197" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -7118,7 +7118,7 @@
     <row r="198" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E198">
         <v>20</v>
@@ -7142,7 +7142,7 @@
     <row r="199" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E199">
         <v>7</v>
@@ -7160,7 +7160,7 @@
     <row r="200" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E200">
         <v>11</v>
@@ -7178,7 +7178,7 @@
     <row r="201" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E201">
         <v>16</v>
@@ -7202,7 +7202,7 @@
     <row r="202" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -7223,7 +7223,7 @@
     <row r="203" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F203" s="2">
         <v>19</v>
@@ -7241,7 +7241,7 @@
     <row r="204" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E204">
         <v>10</v>
@@ -7259,7 +7259,7 @@
     <row r="205" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E205">
         <v>21</v>
@@ -7283,7 +7283,7 @@
     <row r="206" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -7304,7 +7304,7 @@
     <row r="207" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -7328,7 +7328,7 @@
     <row r="208" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E208">
         <v>15</v>
@@ -7352,7 +7352,7 @@
     <row r="209" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E209">
         <v>9</v>
@@ -7376,7 +7376,7 @@
     <row r="210" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -7397,7 +7397,7 @@
     <row r="211" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -7418,7 +7418,7 @@
     <row r="212" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E212">
         <v>8</v>
@@ -7442,7 +7442,7 @@
     <row r="213" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -7463,7 +7463,7 @@
     <row r="214" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E214">
         <v>10</v>
@@ -7484,7 +7484,7 @@
     <row r="215" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D215">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E215">
         <v>11</v>
@@ -7505,7 +7505,7 @@
     <row r="216" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D216">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="E216">
         <v>7</v>
@@ -7526,7 +7526,7 @@
     <row r="217" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D217">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E217">
         <v>4</v>
@@ -7547,7 +7547,7 @@
     <row r="218" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D218">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -7568,7 +7568,7 @@
     <row r="219" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D219">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E219">
         <v>6</v>
@@ -7589,7 +7589,7 @@
     <row r="220" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D220">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F220" s="2">
         <v>20</v>
@@ -7792,7 +7792,7 @@
     <row r="2" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A2">
         <f t="shared" ref="A2:A45" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7">
         <v>11</v>
@@ -7813,7 +7813,7 @@
     <row r="3" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7">
         <v>11</v>
@@ -7834,7 +7834,7 @@
     <row r="4" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" s="7">
         <v>11</v>
@@ -7855,7 +7855,7 @@
     <row r="5" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7">
         <v>11</v>
@@ -7876,7 +7876,7 @@
     <row r="6" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B6" s="7">
         <v>11</v>
@@ -7894,7 +7894,7 @@
     <row r="7" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B7" s="7">
         <v>11</v>
@@ -7912,7 +7912,7 @@
     <row r="8" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B8" s="7">
         <v>11</v>
@@ -7933,7 +7933,7 @@
     <row r="9" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -7948,7 +7948,7 @@
     <row r="10" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B10" s="7">
         <v>12</v>
@@ -7963,7 +7963,7 @@
     <row r="11" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7">
         <v>12</v>
@@ -7984,7 +7984,7 @@
     <row r="12" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B12" s="7">
         <v>12</v>
@@ -8005,7 +8005,7 @@
     <row r="13" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -8023,7 +8023,7 @@
     <row r="14" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
@@ -8044,7 +8044,7 @@
     <row r="15" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -8059,7 +8059,7 @@
     <row r="16" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7">
         <v>12</v>
@@ -8080,7 +8080,7 @@
     <row r="17" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7">
         <v>12</v>
@@ -8101,7 +8101,7 @@
     <row r="18" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -8122,7 +8122,7 @@
     <row r="19" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7">
         <v>12</v>
@@ -8143,7 +8143,7 @@
     <row r="20" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B20" s="7">
         <v>12</v>
@@ -8158,7 +8158,7 @@
     <row r="21" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B21" s="7">
         <v>12</v>
@@ -8179,7 +8179,7 @@
     <row r="22" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B22" s="7">
         <v>12</v>
@@ -8194,7 +8194,7 @@
     <row r="23" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B23" s="7">
         <v>12</v>
@@ -8212,7 +8212,7 @@
     <row r="24" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B24" s="7">
         <v>12</v>
@@ -8227,7 +8227,7 @@
     <row r="25" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B25" s="7">
         <v>12</v>
@@ -8248,7 +8248,7 @@
     <row r="26" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B26" s="7">
         <v>12</v>
@@ -8269,7 +8269,7 @@
     <row r="27" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B27" s="7">
         <v>12</v>
@@ -8290,7 +8290,7 @@
     <row r="28" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B28" s="7">
         <v>12</v>
@@ -8308,7 +8308,7 @@
     <row r="29" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B29" s="7">
         <v>12</v>
@@ -8326,7 +8326,7 @@
     <row r="30" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" s="7">
         <v>13</v>
@@ -8347,7 +8347,7 @@
     <row r="31" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B31" s="7">
         <v>13</v>
@@ -8368,7 +8368,7 @@
     <row r="32" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="B32" s="7">
         <v>13</v>
@@ -8389,7 +8389,7 @@
     <row r="33" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B33" s="7">
         <v>13</v>
@@ -8410,7 +8410,7 @@
     <row r="34" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B34" s="7">
         <v>13</v>
@@ -8431,7 +8431,7 @@
     <row r="35" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B35" s="7">
         <v>13</v>
@@ -8452,7 +8452,7 @@
     <row r="36" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B36" s="7">
         <v>13</v>
@@ -8473,7 +8473,7 @@
     <row r="37" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B37" s="7">
         <v>13</v>
@@ -8494,7 +8494,7 @@
     <row r="38" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B38" s="7">
         <v>13</v>
@@ -8515,7 +8515,7 @@
     <row r="39" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B39" s="7">
         <v>13</v>
@@ -8536,7 +8536,7 @@
     <row r="40" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B40" s="7">
         <v>13</v>
@@ -8557,7 +8557,7 @@
     <row r="41" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7">
         <v>13</v>
@@ -8599,7 +8599,7 @@
     <row r="43" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B43" s="7">
         <v>13</v>
@@ -8620,7 +8620,7 @@
     <row r="44" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B44" s="7">
         <v>13</v>
@@ -8641,7 +8641,7 @@
     <row r="45" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B45" s="7">
         <v>13</v>
@@ -8662,7 +8662,7 @@
     <row r="46" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A46">
         <f t="shared" ref="A46:A53" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B46" s="7">
         <v>14</v>
@@ -8683,7 +8683,7 @@
     <row r="47" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B47" s="7">
         <v>14</v>
@@ -8704,7 +8704,7 @@
     <row r="48" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A48">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B48" s="7">
         <v>14</v>
@@ -8725,7 +8725,7 @@
     <row r="49" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B49" s="7">
         <v>14</v>
@@ -8746,7 +8746,7 @@
     <row r="50" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B50" s="7">
         <v>14</v>
@@ -8767,7 +8767,7 @@
     <row r="51" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A51">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B51" s="7">
         <v>14</v>
@@ -8788,7 +8788,7 @@
     <row r="52" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B52" s="7">
         <v>14</v>
@@ -8803,7 +8803,7 @@
     <row r="53" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B53" s="7">
         <v>14</v>
@@ -12923,8 +12923,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -13306,7 +13306,7 @@
     <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A27">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B27" s="21">
         <v>17</v>
@@ -13321,7 +13321,7 @@
     <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" ref="A28:A42" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B28" s="21">
         <v>17</v>
@@ -13336,7 +13336,7 @@
     <row r="29" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B29" s="21">
         <v>17</v>
@@ -13351,7 +13351,7 @@
     <row r="30" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B30" s="21">
         <v>17</v>
@@ -13366,7 +13366,7 @@
     <row r="31" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B31" s="21">
         <v>17</v>
@@ -13381,7 +13381,7 @@
     <row r="32" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B32" s="21">
         <v>17</v>
@@ -13396,7 +13396,7 @@
     <row r="33" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B33" s="21">
         <v>17</v>
@@ -13411,7 +13411,7 @@
     <row r="34" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B34" s="21">
         <v>17</v>
@@ -13426,7 +13426,7 @@
     <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B35" s="21">
         <v>17</v>
@@ -13441,7 +13441,7 @@
     <row r="36" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B36" s="21">
         <v>17</v>
@@ -13456,7 +13456,7 @@
     <row r="37" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B37" s="21">
         <v>17</v>
@@ -13471,7 +13471,7 @@
     <row r="38" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B38" s="21">
         <v>17</v>
@@ -13486,7 +13486,7 @@
     <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B39" s="21">
         <v>17</v>
@@ -13501,7 +13501,7 @@
     <row r="40" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="B40" s="21">
         <v>17</v>
@@ -13516,7 +13516,7 @@
     <row r="41" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="B41" s="21">
         <v>17</v>
@@ -13531,7 +13531,7 @@
     <row r="42" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="B42" s="21">
         <v>17</v>

--- a/Mainichi_Renshuu.xlsx
+++ b/Mainichi_Renshuu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="480" windowWidth="20115" windowHeight="7380" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="600" windowWidth="20115" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,16 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">minanihongo!$A$1:$F$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">minanihongo!$A$1:$F$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$226</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$E$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$E$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1044">
   <si>
     <t>様</t>
   </si>
@@ -2958,6 +2958,223 @@
   </si>
   <si>
     <t>保険証</t>
+  </si>
+  <si>
+    <t>払います</t>
+  </si>
+  <si>
+    <t>はらいます</t>
+  </si>
+  <si>
+    <t>trả, thanh toán</t>
+  </si>
+  <si>
+    <t>呼びます</t>
+  </si>
+  <si>
+    <t>よびます</t>
+  </si>
+  <si>
+    <t>gọi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hô</t>
+  </si>
+  <si>
+    <t>Bộ: KHẨU　口</t>
+  </si>
+  <si>
+    <t>ひきます</t>
+  </si>
+  <si>
+    <t>なおします</t>
+  </si>
+  <si>
+    <t>うんてんします</t>
+  </si>
+  <si>
+    <t>あつめます</t>
+  </si>
+  <si>
+    <t>よやくします</t>
+  </si>
+  <si>
+    <t>こしょう</t>
+  </si>
+  <si>
+    <t>しゅみ</t>
+  </si>
+  <si>
+    <t>げんきん</t>
+  </si>
+  <si>
+    <t>かちょう</t>
+  </si>
+  <si>
+    <t>Look!lt's broken."“
+Let's fix it!"</t>
+  </si>
+  <si>
+    <t>じこくひょう</t>
+  </si>
+  <si>
+    <t>どくしん</t>
+  </si>
+  <si>
+    <t>しります</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>TẢO</t>
+  </si>
+  <si>
+    <t>TRỪ</t>
+  </si>
+  <si>
+    <t>Bộ: PHỤ 阜</t>
+  </si>
+  <si>
+    <t>TRẠC</t>
+  </si>
+  <si>
+    <t>BÁC</t>
+  </si>
+  <si>
+    <t>眠</t>
+  </si>
+  <si>
+    <t>MIÊN</t>
+  </si>
+  <si>
+    <t>Bộ: MỤC 目</t>
+  </si>
+  <si>
+    <t>CƯỜNG</t>
+  </si>
+  <si>
+    <t>調</t>
+  </si>
+  <si>
+    <t>ĐIỀU</t>
+  </si>
+  <si>
+    <t>悪</t>
+  </si>
+  <si>
+    <t>ÁC</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>TƯƠNG,TƯỚNG</t>
+  </si>
+  <si>
+    <t>撲</t>
+  </si>
+  <si>
+    <t>PHÁC,BẠC</t>
+  </si>
+  <si>
+    <t>CAN,CÀN,KIỀN</t>
+  </si>
+  <si>
+    <t>杯</t>
+  </si>
+  <si>
+    <t>BÔI</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>要</t>
+  </si>
+  <si>
+    <t>YẾU</t>
+  </si>
+  <si>
+    <t>Bộ: TÂY, Á 西</t>
+  </si>
+  <si>
+    <t>僕</t>
+  </si>
+  <si>
+    <t>BỘC</t>
+  </si>
+  <si>
+    <t>君</t>
+  </si>
+  <si>
+    <t>QUÂN</t>
+  </si>
+  <si>
+    <t>そうじします</t>
+  </si>
+  <si>
+    <t>せんたくします</t>
+  </si>
+  <si>
+    <t>とまります</t>
+  </si>
+  <si>
+    <t>ねむい</t>
+  </si>
+  <si>
+    <t>つよい</t>
+  </si>
+  <si>
+    <t>ちょうし</t>
+  </si>
+  <si>
+    <t>ちょうしがわるい</t>
+  </si>
+  <si>
+    <t>すもう</t>
+  </si>
+  <si>
+    <t>かんぱい</t>
+  </si>
+  <si>
+    <t>厚い</t>
+  </si>
+  <si>
+    <t>からだ</t>
+  </si>
+  <si>
+    <t>上手</t>
+  </si>
+  <si>
+    <t>じょうず</t>
+  </si>
+  <si>
+    <t>医者</t>
+  </si>
+  <si>
+    <t>いしゃ</t>
+  </si>
+  <si>
+    <t>何回</t>
+  </si>
+  <si>
+    <t>なんかい</t>
+  </si>
+  <si>
+    <t>新幹線</t>
+  </si>
+  <si>
+    <t>しんかんせん</t>
+  </si>
+  <si>
+    <t>生け花</t>
+  </si>
+  <si>
+    <t>いけばな</t>
+  </si>
+  <si>
+    <t>mập</t>
   </si>
 </sst>
 </file>
@@ -3538,7 +3755,7 @@
     <row r="2" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D2">
         <f t="shared" ref="D2:D33" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>87</v>
@@ -3556,7 +3773,7 @@
     <row r="3" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
         <v>58</v>
@@ -3571,7 +3788,7 @@
     <row r="4" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -3592,7 +3809,7 @@
     <row r="5" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2">
         <v>31</v>
@@ -3610,7 +3827,7 @@
     <row r="6" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
@@ -3631,7 +3848,7 @@
     <row r="7" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>136</v>
@@ -3646,7 +3863,7 @@
     <row r="8" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>47</v>
@@ -3664,7 +3881,7 @@
     <row r="9" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>127</v>
@@ -3682,7 +3899,7 @@
     <row r="10" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2">
         <v>115</v>
@@ -3703,7 +3920,7 @@
     <row r="11" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
         <v>126</v>
@@ -3718,7 +3935,7 @@
     <row r="12" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -3751,7 +3968,7 @@
     <row r="14" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -3769,7 +3986,7 @@
     <row r="15" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2">
         <v>122</v>
@@ -3784,7 +4001,7 @@
     <row r="16" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2">
         <v>117</v>
@@ -3805,7 +4022,7 @@
     <row r="17" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2">
         <v>63</v>
@@ -3826,7 +4043,7 @@
     <row r="18" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
@@ -3841,7 +4058,7 @@
     <row r="19" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2">
         <v>116</v>
@@ -3857,7 +4074,7 @@
     <row r="20" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2">
         <v>96</v>
@@ -3875,7 +4092,7 @@
     <row r="21" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -3890,7 +4107,7 @@
     <row r="22" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -3908,7 +4125,7 @@
     <row r="23" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2">
         <v>71</v>
@@ -3926,7 +4143,7 @@
     <row r="24" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -3944,7 +4161,7 @@
     <row r="25" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -3962,7 +4179,7 @@
     <row r="26" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
         <v>60</v>
@@ -3980,7 +4197,7 @@
     <row r="27" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2">
         <v>85</v>
@@ -3995,7 +4212,7 @@
     <row r="28" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2">
         <v>114</v>
@@ -4010,7 +4227,7 @@
     <row r="29" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2">
         <v>140</v>
@@ -4031,7 +4248,7 @@
     <row r="30" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2">
         <v>104</v>
@@ -4046,7 +4263,7 @@
     <row r="31" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2">
         <v>146</v>
@@ -4067,7 +4284,7 @@
     <row r="32" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E32" s="2">
         <v>66</v>
@@ -4085,7 +4302,7 @@
     <row r="33" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2">
         <v>9</v>
@@ -4103,7 +4320,7 @@
     <row r="34" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D34">
         <f t="shared" ref="D34:D65" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E34" s="2">
         <v>86</v>
@@ -4119,7 +4336,7 @@
     <row r="35" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2">
         <v>7</v>
@@ -4134,7 +4351,7 @@
     <row r="36" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2">
         <v>92</v>
@@ -4149,7 +4366,7 @@
     <row r="37" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
@@ -4167,7 +4384,7 @@
     <row r="38" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2">
         <v>134</v>
@@ -4182,7 +4399,7 @@
     <row r="39" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2">
         <v>6</v>
@@ -4197,7 +4414,7 @@
     <row r="40" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E40" s="2">
         <v>129</v>
@@ -4212,7 +4429,7 @@
     <row r="41" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="E41" s="2">
         <v>61</v>
@@ -4230,7 +4447,7 @@
     <row r="42" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2">
         <v>46</v>
@@ -4245,7 +4462,7 @@
     <row r="43" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
@@ -4263,7 +4480,7 @@
     <row r="44" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E44" s="2">
         <v>55</v>
@@ -4281,7 +4498,7 @@
     <row r="45" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E45" s="2">
         <v>53</v>
@@ -4299,7 +4516,7 @@
     <row r="46" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2">
         <v>149</v>
@@ -4317,7 +4534,7 @@
     <row r="47" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E47" s="2">
         <v>70</v>
@@ -4332,7 +4549,7 @@
     <row r="48" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E48" s="2">
         <v>144</v>
@@ -4350,7 +4567,7 @@
     <row r="49" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2">
         <v>118</v>
@@ -4378,7 +4595,7 @@
     <row r="50" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E50" s="2">
         <v>73</v>
@@ -4393,7 +4610,7 @@
     <row r="51" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2">
         <v>109</v>
@@ -4408,7 +4625,7 @@
     <row r="52" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E52" s="2">
         <v>83</v>
@@ -4426,7 +4643,7 @@
     <row r="53" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2">
         <v>107</v>
@@ -4441,7 +4658,7 @@
     <row r="54" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E54" s="2">
         <v>25</v>
@@ -4459,7 +4676,7 @@
     <row r="55" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E55" s="2">
         <v>108</v>
@@ -4483,7 +4700,7 @@
     <row r="56" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E56" s="2">
         <v>113</v>
@@ -4498,7 +4715,7 @@
     <row r="57" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E57" s="2">
         <v>89</v>
@@ -4522,7 +4739,7 @@
     <row r="58" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="E58" s="2">
         <v>130</v>
@@ -4537,7 +4754,7 @@
     <row r="59" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E59" s="2">
         <v>72</v>
@@ -4555,7 +4772,7 @@
     <row r="60" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E60" s="2">
         <v>77</v>
@@ -4570,7 +4787,7 @@
     <row r="61" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2">
         <v>57</v>
@@ -4591,7 +4808,7 @@
     <row r="62" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E62" s="2">
         <v>105</v>
@@ -4606,7 +4823,7 @@
     <row r="63" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2">
         <v>45</v>
@@ -4621,7 +4838,7 @@
     <row r="64" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2">
         <v>128</v>
@@ -4639,7 +4856,7 @@
     <row r="65" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E65" s="2">
         <v>8</v>
@@ -4657,7 +4874,7 @@
     <row r="66" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D66">
         <f t="shared" ref="D66:D97" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E66" s="2">
         <v>135</v>
@@ -4672,7 +4889,7 @@
     <row r="67" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="E67" s="2">
         <v>56</v>
@@ -4690,7 +4907,7 @@
     <row r="68" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2">
         <v>82</v>
@@ -4705,7 +4922,7 @@
     <row r="69" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2">
         <v>112</v>
@@ -4720,7 +4937,7 @@
     <row r="70" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2">
         <v>121</v>
@@ -4738,7 +4955,7 @@
     <row r="71" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2">
         <v>30</v>
@@ -4753,7 +4970,7 @@
     <row r="72" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E72" s="2">
         <v>106</v>
@@ -4771,7 +4988,7 @@
     <row r="73" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2">
         <v>64</v>
@@ -4789,7 +5006,7 @@
     <row r="74" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2">
         <v>147</v>
@@ -4807,7 +5024,7 @@
     <row r="75" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2">
         <v>44</v>
@@ -4823,7 +5040,7 @@
     <row r="76" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E76" s="2">
         <v>148</v>
@@ -4841,7 +5058,7 @@
     <row r="77" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E77" s="2">
         <v>59</v>
@@ -4856,7 +5073,7 @@
     <row r="78" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E78" s="2">
         <v>132</v>
@@ -4871,7 +5088,7 @@
     <row r="79" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="E79" s="2">
         <v>12</v>
@@ -4886,7 +5103,7 @@
     <row r="80" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E80" s="2">
         <v>26</v>
@@ -4904,7 +5121,7 @@
     <row r="81" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2">
         <v>43</v>
@@ -4922,7 +5139,7 @@
     <row r="82" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E82" s="2">
         <v>103</v>
@@ -4940,7 +5157,7 @@
     <row r="83" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E83" s="2">
         <v>99</v>
@@ -4955,7 +5172,7 @@
     <row r="84" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E84" s="2">
         <v>141</v>
@@ -4973,7 +5190,7 @@
     <row r="85" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E85" s="2">
         <v>37</v>
@@ -4991,7 +5208,7 @@
     <row r="86" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E86" s="2">
         <v>4</v>
@@ -5009,7 +5226,7 @@
     <row r="87" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2">
         <v>119</v>
@@ -5027,7 +5244,7 @@
     <row r="88" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E88" s="2">
         <v>143</v>
@@ -5045,7 +5262,7 @@
     <row r="89" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E89" s="2">
         <v>32</v>
@@ -5060,7 +5277,7 @@
     <row r="90" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E90" s="2">
         <v>97</v>
@@ -5075,7 +5292,7 @@
     <row r="91" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E91" s="2">
         <v>120</v>
@@ -5093,7 +5310,7 @@
     <row r="92" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2">
         <v>24</v>
@@ -5109,7 +5326,7 @@
     <row r="93" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E93" s="2">
         <v>110</v>
@@ -5124,7 +5341,7 @@
     <row r="94" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D94">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E94" s="2">
         <v>51</v>
@@ -5142,7 +5359,7 @@
     <row r="95" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D95">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E95" s="2">
         <v>18</v>
@@ -5160,7 +5377,7 @@
     <row r="96" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D96">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E96" s="2">
         <v>69</v>
@@ -5178,7 +5395,7 @@
     <row r="97" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D97">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E97" s="2">
         <v>15</v>
@@ -5193,7 +5410,7 @@
     <row r="98" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D98">
         <f t="shared" ref="D98:D129" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E98" s="2">
         <v>142</v>
@@ -5214,7 +5431,7 @@
     <row r="99" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2">
         <v>78</v>
@@ -5229,7 +5446,7 @@
     <row r="100" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E100" s="2">
         <v>2</v>
@@ -5247,7 +5464,7 @@
     <row r="101" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E101" s="2">
         <v>100</v>
@@ -5262,7 +5479,7 @@
     <row r="102" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="E102" s="2">
         <v>95</v>
@@ -5277,7 +5494,7 @@
     <row r="103" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E103" s="2">
         <v>80</v>
@@ -5295,7 +5512,7 @@
     <row r="104" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -5313,7 +5530,7 @@
     <row r="105" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E105" s="2">
         <v>67</v>
@@ -5328,7 +5545,7 @@
     <row r="106" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E106" s="2">
         <v>75</v>
@@ -5346,7 +5563,7 @@
     <row r="107" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E107" s="2">
         <v>76</v>
@@ -5362,7 +5579,7 @@
     <row r="108" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2">
         <v>133</v>
@@ -5380,7 +5597,7 @@
     <row r="109" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E109" s="2">
         <v>27</v>
@@ -5398,7 +5615,7 @@
     <row r="110" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E110" s="2">
         <v>28</v>
@@ -5413,7 +5630,7 @@
     <row r="111" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E111" s="2">
         <v>34</v>
@@ -5431,7 +5648,7 @@
     <row r="112" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E112" s="2">
         <v>93</v>
@@ -5449,7 +5666,7 @@
     <row r="113" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E113" s="2">
         <v>52</v>
@@ -5467,7 +5684,7 @@
     <row r="114" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E114" s="2">
         <v>131</v>
@@ -5488,7 +5705,7 @@
     <row r="115" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E115" s="2">
         <v>65</v>
@@ -5506,7 +5723,7 @@
     <row r="116" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E116" s="2">
         <v>74</v>
@@ -5524,7 +5741,7 @@
     <row r="117" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E117" s="2">
         <v>49</v>
@@ -5542,7 +5759,7 @@
     <row r="118" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E118" s="2">
         <v>41</v>
@@ -5557,7 +5774,7 @@
     <row r="119" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E119" s="2">
         <v>111</v>
@@ -5575,7 +5792,7 @@
     <row r="120" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="E120" s="2">
         <v>90</v>
@@ -5593,7 +5810,7 @@
     <row r="121" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E121" s="2">
         <v>137</v>
@@ -5611,7 +5828,7 @@
     <row r="122" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E122" s="2">
         <v>20</v>
@@ -5626,7 +5843,7 @@
     <row r="123" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E123" s="2">
         <v>124</v>
@@ -5644,7 +5861,7 @@
     <row r="124" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="E124" s="2">
         <v>138</v>
@@ -5662,7 +5879,7 @@
     <row r="125" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E125" s="2">
         <v>36</v>
@@ -5677,7 +5894,7 @@
     <row r="126" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D126">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E126" s="2">
         <v>68</v>
@@ -5693,7 +5910,7 @@
     <row r="127" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D127">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E127" s="2">
         <v>22</v>
@@ -5711,7 +5928,7 @@
     <row r="128" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D128">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E128" s="2">
         <v>33</v>
@@ -5729,7 +5946,7 @@
     <row r="129" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D129">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E129" s="2">
         <v>125</v>
@@ -5747,7 +5964,7 @@
     <row r="130" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D130">
         <f t="shared" ref="D130:D162" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E130" s="2">
         <v>54</v>
@@ -5765,7 +5982,7 @@
     <row r="131" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D131">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E131" s="2">
         <v>11</v>
@@ -5786,7 +6003,7 @@
     <row r="132" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E132" s="2">
         <v>79</v>
@@ -5804,7 +6021,7 @@
     <row r="133" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E133" s="2">
         <v>10</v>
@@ -5822,7 +6039,7 @@
     <row r="134" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E134" s="2">
         <v>17</v>
@@ -5837,7 +6054,7 @@
     <row r="135" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D135">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E135" s="2">
         <v>88</v>
@@ -5855,7 +6072,7 @@
     <row r="136" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E136" s="2">
         <v>98</v>
@@ -5873,7 +6090,7 @@
     <row r="137" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E137" s="2">
         <v>62</v>
@@ -5891,7 +6108,7 @@
     <row r="138" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E138" s="2">
         <v>19</v>
@@ -5909,7 +6126,7 @@
     <row r="139" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E139" s="2">
         <v>81</v>
@@ -5927,7 +6144,7 @@
     <row r="140" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E140" s="2">
         <v>23</v>
@@ -5945,7 +6162,7 @@
     <row r="141" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E141" s="2">
         <v>101</v>
@@ -5960,7 +6177,7 @@
     <row r="142" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E142" s="2">
         <v>84</v>
@@ -5975,7 +6192,7 @@
     <row r="143" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E143" s="2">
         <v>123</v>
@@ -5990,7 +6207,7 @@
     <row r="144" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E144" s="2">
         <v>48</v>
@@ -6008,7 +6225,7 @@
     <row r="145" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E145" s="2">
         <v>91</v>
@@ -6023,7 +6240,7 @@
     <row r="146" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E146" s="2">
         <v>38</v>
@@ -6041,7 +6258,7 @@
     <row r="147" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E147" s="2">
         <v>102</v>
@@ -6062,7 +6279,7 @@
     <row r="148" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E148" s="2">
         <v>139</v>
@@ -6083,7 +6300,7 @@
     <row r="149" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F149" s="2">
         <v>17</v>
@@ -6101,7 +6318,7 @@
     <row r="150" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F150" s="2">
         <v>17</v>
@@ -6119,7 +6336,7 @@
     <row r="151" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F151" s="2">
         <v>17</v>
@@ -6137,7 +6354,7 @@
     <row r="152" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F152" s="2">
         <v>17</v>
@@ -6152,7 +6369,7 @@
     <row r="153" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F153" s="2">
         <v>17</v>
@@ -6173,7 +6390,7 @@
     <row r="154" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F154" s="2">
         <v>17</v>
@@ -6194,7 +6411,7 @@
     <row r="155" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F155" s="2">
         <v>17</v>
@@ -6227,7 +6444,7 @@
     <row r="157" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F157" s="2">
         <v>17</v>
@@ -6239,7 +6456,7 @@
     <row r="158" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D158">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F158" s="2">
         <v>17</v>
@@ -6257,7 +6474,7 @@
     <row r="159" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D159">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F159" s="2">
         <v>17</v>
@@ -6275,7 +6492,7 @@
     <row r="160" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D160">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F160" s="2">
         <v>17</v>
@@ -6296,7 +6513,7 @@
     <row r="161" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D161">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2">
         <v>17</v>
@@ -6314,7 +6531,7 @@
     <row r="162" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D162">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="F162" s="2">
         <v>17</v>
@@ -6335,7 +6552,7 @@
     <row r="163" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D163">
         <f t="shared" ref="D163:D182" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E163">
         <v>10</v>
@@ -6359,7 +6576,7 @@
     <row r="164" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E164">
         <v>17</v>
@@ -6383,7 +6600,7 @@
     <row r="165" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -6404,7 +6621,7 @@
     <row r="166" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -6425,7 +6642,7 @@
     <row r="167" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -6449,7 +6666,7 @@
     <row r="168" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E168">
         <v>18</v>
@@ -6473,7 +6690,7 @@
     <row r="169" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -6494,7 +6711,7 @@
     <row r="170" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E170">
         <v>13</v>
@@ -6518,7 +6735,7 @@
     <row r="171" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="E171">
         <v>7</v>
@@ -6542,7 +6759,7 @@
     <row r="172" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E172">
         <v>8</v>
@@ -6566,7 +6783,7 @@
     <row r="173" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E173">
         <v>14</v>
@@ -6590,7 +6807,7 @@
     <row r="174" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E174">
         <v>19</v>
@@ -6614,7 +6831,7 @@
     <row r="175" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E175">
         <v>20</v>
@@ -6635,7 +6852,7 @@
     <row r="176" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -6656,7 +6873,7 @@
     <row r="177" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E177">
         <v>5</v>
@@ -6671,7 +6888,7 @@
     <row r="178" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D178">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E178">
         <v>11</v>
@@ -6695,7 +6912,7 @@
     <row r="179" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D179">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E179">
         <v>15</v>
@@ -6719,7 +6936,7 @@
     <row r="180" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D180">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E180">
         <v>4</v>
@@ -6737,7 +6954,7 @@
     <row r="181" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D181">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E181">
         <v>16</v>
@@ -6758,7 +6975,7 @@
     <row r="182" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D182">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E182">
         <v>9</v>
@@ -6782,7 +6999,7 @@
     <row r="183" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D183">
         <f t="shared" ref="D183:D220" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E183">
         <v>13</v>
@@ -6800,7 +7017,7 @@
     <row r="184" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E184">
         <v>4</v>
@@ -6824,7 +7041,7 @@
     <row r="185" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E185">
         <v>5</v>
@@ -6845,7 +7062,7 @@
     <row r="186" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F186" s="2">
         <v>19</v>
@@ -6866,7 +7083,7 @@
     <row r="187" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E187">
         <v>18</v>
@@ -6890,7 +7107,7 @@
     <row r="188" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E188">
         <v>14</v>
@@ -6914,7 +7131,7 @@
     <row r="189" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="E189">
         <v>24</v>
@@ -6938,7 +7155,7 @@
     <row r="190" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D190">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E190">
         <v>23</v>
@@ -6965,7 +7182,7 @@
     <row r="191" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D191">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E191">
         <v>17</v>
@@ -6986,7 +7203,7 @@
     <row r="192" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D192">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E192">
         <v>12</v>
@@ -7010,7 +7227,7 @@
     <row r="193" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D193">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E193">
         <v>22</v>
@@ -7031,7 +7248,7 @@
     <row r="194" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D194">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -7055,7 +7272,7 @@
     <row r="195" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D195">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E195">
         <v>19</v>
@@ -7079,7 +7296,7 @@
     <row r="196" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D196">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E196">
         <v>8</v>
@@ -7097,7 +7314,7 @@
     <row r="197" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -7118,7 +7335,7 @@
     <row r="198" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E198">
         <v>20</v>
@@ -7142,7 +7359,7 @@
     <row r="199" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E199">
         <v>7</v>
@@ -7160,7 +7377,7 @@
     <row r="200" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E200">
         <v>11</v>
@@ -7178,7 +7395,7 @@
     <row r="201" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E201">
         <v>16</v>
@@ -7202,7 +7419,7 @@
     <row r="202" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -7223,7 +7440,7 @@
     <row r="203" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F203" s="2">
         <v>19</v>
@@ -7241,7 +7458,7 @@
     <row r="204" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E204">
         <v>10</v>
@@ -7259,7 +7476,7 @@
     <row r="205" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E205">
         <v>21</v>
@@ -7283,7 +7500,7 @@
     <row r="206" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -7304,7 +7521,7 @@
     <row r="207" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -7328,7 +7545,7 @@
     <row r="208" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E208">
         <v>15</v>
@@ -7352,7 +7569,7 @@
     <row r="209" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E209">
         <v>9</v>
@@ -7376,7 +7593,7 @@
     <row r="210" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -7397,7 +7614,7 @@
     <row r="211" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -7418,7 +7635,7 @@
     <row r="212" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E212">
         <v>8</v>
@@ -7442,7 +7659,7 @@
     <row r="213" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -7463,7 +7680,7 @@
     <row r="214" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E214">
         <v>10</v>
@@ -7484,7 +7701,7 @@
     <row r="215" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D215">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E215">
         <v>11</v>
@@ -7505,7 +7722,7 @@
     <row r="216" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D216">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E216">
         <v>7</v>
@@ -7526,7 +7743,7 @@
     <row r="217" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D217">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E217">
         <v>4</v>
@@ -7547,7 +7764,7 @@
     <row r="218" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D218">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -7568,7 +7785,7 @@
     <row r="219" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D219">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E219">
         <v>6</v>
@@ -7589,7 +7806,7 @@
     <row r="220" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D220">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F220" s="2">
         <v>20</v>
@@ -7753,18 +7970,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="7" collapsed="1"/>
-    <col min="3" max="3" width="66.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="57" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="63.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.42578125" style="6" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="27.42578125" style="2" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7792,7 +8009,7 @@
     <row r="2" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A2">
         <f t="shared" ref="A2:A45" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B2" s="7">
         <v>11</v>
@@ -7813,7 +8030,7 @@
     <row r="3" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B3" s="7">
         <v>11</v>
@@ -7834,7 +8051,7 @@
     <row r="4" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B4" s="7">
         <v>11</v>
@@ -7855,7 +8072,7 @@
     <row r="5" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B5" s="7">
         <v>11</v>
@@ -7876,7 +8093,7 @@
     <row r="6" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B6" s="7">
         <v>11</v>
@@ -7894,7 +8111,7 @@
     <row r="7" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7">
         <v>11</v>
@@ -7912,7 +8129,7 @@
     <row r="8" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7">
         <v>11</v>
@@ -7933,7 +8150,7 @@
     <row r="9" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -7948,7 +8165,7 @@
     <row r="10" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7">
         <v>12</v>
@@ -7963,7 +8180,7 @@
     <row r="11" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B11" s="7">
         <v>12</v>
@@ -7984,7 +8201,7 @@
     <row r="12" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>12</v>
@@ -8005,7 +8222,7 @@
     <row r="13" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -8023,7 +8240,7 @@
     <row r="14" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
@@ -8044,7 +8261,7 @@
     <row r="15" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -8059,7 +8276,7 @@
     <row r="16" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B16" s="7">
         <v>12</v>
@@ -8080,7 +8297,7 @@
     <row r="17" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B17" s="7">
         <v>12</v>
@@ -8101,7 +8318,7 @@
     <row r="18" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -8122,7 +8339,7 @@
     <row r="19" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B19" s="7">
         <v>12</v>
@@ -8143,7 +8360,7 @@
     <row r="20" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B20" s="7">
         <v>12</v>
@@ -8158,7 +8375,7 @@
     <row r="21" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B21" s="7">
         <v>12</v>
@@ -8179,7 +8396,7 @@
     <row r="22" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B22" s="7">
         <v>12</v>
@@ -8194,7 +8411,7 @@
     <row r="23" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B23" s="7">
         <v>12</v>
@@ -8212,7 +8429,7 @@
     <row r="24" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B24" s="7">
         <v>12</v>
@@ -8227,7 +8444,7 @@
     <row r="25" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B25" s="7">
         <v>12</v>
@@ -8248,7 +8465,7 @@
     <row r="26" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B26" s="7">
         <v>12</v>
@@ -8269,7 +8486,7 @@
     <row r="27" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B27" s="7">
         <v>12</v>
@@ -8290,7 +8507,7 @@
     <row r="28" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B28" s="7">
         <v>12</v>
@@ -8308,7 +8525,7 @@
     <row r="29" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B29" s="7">
         <v>12</v>
@@ -8323,10 +8540,10 @@
         <v>592</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="30" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B30" s="7">
         <v>13</v>
@@ -8344,10 +8561,10 @@
         <v>642</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="31" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B31" s="7">
         <v>13</v>
@@ -8365,10 +8582,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="32" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B32" s="7">
         <v>13</v>
@@ -8386,10 +8603,10 @@
         <v>647</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="33" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B33" s="7">
         <v>13</v>
@@ -8407,10 +8624,10 @@
         <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="34" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B34" s="7">
         <v>13</v>
@@ -8428,10 +8645,10 @@
         <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="35" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B35" s="7">
         <v>13</v>
@@ -8449,10 +8666,10 @@
         <v>638</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="36" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B36" s="7">
         <v>13</v>
@@ -8470,10 +8687,10 @@
         <v>653</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="37" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B37" s="7">
         <v>13</v>
@@ -8491,10 +8708,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="38" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B38" s="7">
         <v>13</v>
@@ -8512,10 +8729,10 @@
         <v>645</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="39" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B39" s="7">
         <v>13</v>
@@ -8533,10 +8750,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="40" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B40" s="7">
         <v>13</v>
@@ -8554,10 +8771,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="41" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B41" s="7">
         <v>13</v>
@@ -8575,10 +8792,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="42" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B42" s="7">
         <v>13</v>
@@ -8596,10 +8813,10 @@
         <v>641</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="43" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B43" s="7">
         <v>13</v>
@@ -8617,10 +8834,10 @@
         <v>644</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="44" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B44" s="7">
         <v>13</v>
@@ -8638,10 +8855,10 @@
         <v>650</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="45" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B45" s="7">
         <v>13</v>
@@ -8662,7 +8879,7 @@
     <row r="46" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A46">
         <f t="shared" ref="A46:A53" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B46" s="7">
         <v>14</v>
@@ -8683,7 +8900,7 @@
     <row r="47" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B47" s="7">
         <v>14</v>
@@ -8704,7 +8921,7 @@
     <row r="48" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A48">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B48" s="7">
         <v>14</v>
@@ -8725,7 +8942,7 @@
     <row r="49" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B49" s="7">
         <v>14</v>
@@ -8746,7 +8963,7 @@
     <row r="50" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B50" s="7">
         <v>14</v>
@@ -8767,7 +8984,7 @@
     <row r="51" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A51">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B51" s="7">
         <v>14</v>
@@ -8788,7 +9005,7 @@
     <row r="52" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B52" s="7">
         <v>14</v>
@@ -8803,7 +9020,7 @@
     <row r="53" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B53" s="7">
         <v>14</v>
@@ -8829,167 +9046,179 @@
     </row>
     <row r="54" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A54">
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>16</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>244</v>
+        <v>732</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>776</v>
+        <v>689</v>
       </c>
       <c r="F54" t="s">
-        <v>690</v>
+        <v>734</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A55">
-        <v>40</v>
+        <f t="shared" ref="A55:A71" ca="1" si="2">RANDBETWEEN(1,100)</f>
+        <v>34</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>691</v>
+        <v>244</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F55" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A56">
-        <v>58</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>689</v>
+        <v>992</v>
       </c>
       <c r="F56" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A57">
-        <v>21</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>698</v>
+        <v>727</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>689</v>
+        <v>991</v>
       </c>
       <c r="F57" t="s">
-        <v>699</v>
+        <v>728</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A58">
-        <v>59</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F58" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A59">
-        <v>38</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="F59" t="s">
-        <v>705</v>
+        <v>737</v>
+      </c>
+      <c r="G59" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A60">
-        <v>33</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F60" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A61">
-        <v>60</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="F61" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A62">
-        <v>42</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>687</v>
@@ -9009,27 +9238,32 @@
     </row>
     <row r="63" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A63">
-        <v>63</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>715</v>
+      <c r="C63" s="8" t="s">
+        <v>738</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>773</v>
+        <v>938</v>
       </c>
       <c r="F63" t="s">
-        <v>717</v>
+        <v>740</v>
+      </c>
+      <c r="G63" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A64">
-        <v>49</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>687</v>
@@ -9047,333 +9281,334 @@
         <v>720</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="65" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A65">
-        <v>69</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>364</v>
+        <v>694</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>689</v>
       </c>
       <c r="F65" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A66">
-        <v>86</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>689</v>
+        <v>771</v>
       </c>
       <c r="F66" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A67">
-        <v>23</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="F67" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A68">
-        <v>85</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>729</v>
+      <c r="C68" s="18" t="s">
+        <v>715</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>689</v>
+        <v>773</v>
       </c>
       <c r="F68" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A69">
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>732</v>
+        <v>364</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>689</v>
+        <v>990</v>
       </c>
       <c r="F69" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A70">
-        <v>33</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>775</v>
+        <v>689</v>
       </c>
       <c r="F70" t="s">
-        <v>737</v>
-      </c>
-      <c r="G70" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A71">
-        <v>42</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>687</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>938</v>
+        <v>990</v>
       </c>
       <c r="F71" t="s">
-        <v>740</v>
-      </c>
-      <c r="G71" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A72">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>295</v>
+        <v>749</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="F72" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A73">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>937</v>
+        <v>420</v>
       </c>
       <c r="F73" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A74">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="F74" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A75">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>749</v>
+        <v>78</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>782</v>
+        <v>937</v>
       </c>
       <c r="F75" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A76">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>118</v>
+        <v>768</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>420</v>
+        <v>788</v>
       </c>
       <c r="F76" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A77">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>754</v>
+        <v>789</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F77" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A78">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>115</v>
+        <v>753</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F78" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A79">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>758</v>
+        <v>115</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F79" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A80">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F80" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A81">
         <v>81</v>
       </c>
@@ -9393,109 +9628,115 @@
         <v>765</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="82" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A82">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>766</v>
+        <v>295</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="F82" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A83">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="F83" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A84">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>741</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="F84" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A85">
-        <v>48</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>838</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>73</v>
+      </c>
+      <c r="B85" s="7">
+        <v>17</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>839</v>
+        <v>906</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>840</v>
+        <v>907</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="F85" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>941</v>
+      </c>
+      <c r="G85" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A86">
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>91</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="F86" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A87">
-        <v>51</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>838</v>
@@ -9513,289 +9754,304 @@
         <v>845</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="88" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A88">
-        <v>86</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>33</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F88" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A89">
-        <v>93</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>56</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>849</v>
+        <v>872</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="F89" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A90">
-        <v>93</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>54</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>138</v>
+        <v>414</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F90" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A91">
-        <v>15</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>25</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>414</v>
+        <v>881</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="F91" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A92">
-        <v>76</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>838</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>93</v>
+      </c>
+      <c r="B92" s="7">
+        <v>17</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>856</v>
+        <v>940</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>857</v>
+        <v>942</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
       <c r="F92" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A93">
-        <v>46</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>20</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F93" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A94">
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>20</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>861</v>
+        <v>883</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="F94" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A95">
-        <v>44</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>74</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="F95" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A96">
-        <v>44</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>65</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>866</v>
+        <v>70</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="F96" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A97">
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>67</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>610</v>
+        <v>849</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="F97" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A98">
-        <v>58</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>14</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>870</v>
+        <v>610</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F98" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A99">
-        <v>14</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>87</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="F99" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A100">
-        <v>77</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>58</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>874</v>
+        <v>307</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="F100" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A101">
-        <v>82</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>15</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>70</v>
+        <v>841</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="F101" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A102">
-        <v>89</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>15</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>838</v>
@@ -9806,156 +10062,164 @@
       <c r="D102" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>933</v>
-      </c>
       <c r="F102" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="103" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A103">
-        <v>97</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>86</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F103" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A104">
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>77</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>883</v>
+        <v>846</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>884</v>
+        <v>847</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="F104" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A105">
-        <v>84</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>81</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>838</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>885</v>
+        <v>852</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="F105" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A106">
-        <v>62</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>49</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>689</v>
+        <v>985</v>
       </c>
       <c r="F106" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A107">
-        <v>31</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>13</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>689</v>
+        <v>982</v>
       </c>
       <c r="F107" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>896</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A108">
-        <v>16</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>74</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>894</v>
+        <v>921</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>895</v>
+        <v>922</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>689</v>
+        <v>988</v>
       </c>
       <c r="F108" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A109">
-        <v>27</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>3</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>689</v>
+        <v>984</v>
       </c>
       <c r="F109" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A110">
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>50</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>887</v>
@@ -9967,239 +10231,607 @@
         <v>900</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>689</v>
+        <v>983</v>
       </c>
       <c r="F110" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="111" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A111">
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>91</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>789</v>
+        <v>898</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>689</v>
+        <v>982</v>
       </c>
       <c r="F111" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A112">
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>35</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>689</v>
+        <v>986</v>
       </c>
       <c r="F112" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A113">
-        <v>31</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>25</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>906</v>
+        <v>779</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>907</v>
+        <v>789</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>689</v>
+        <v>602</v>
       </c>
       <c r="F113" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A114">
-        <v>42</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>65</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>689</v>
+        <v>986</v>
       </c>
       <c r="F114" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A115">
-        <v>48</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>58</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>689</v>
+        <v>987</v>
       </c>
       <c r="F115" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A116">
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>55</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>689</v>
+        <v>981</v>
       </c>
       <c r="F116" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A117">
-        <v>35</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>887</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>5</v>
+      </c>
+      <c r="B117" s="7">
+        <v>18</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>916</v>
+        <v>126</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>917</v>
+        <v>978</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>689</v>
+        <v>976</v>
       </c>
       <c r="F117" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A118">
-        <v>59</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>56</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>918</v>
+        <v>888</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>689</v>
+        <v>980</v>
       </c>
       <c r="F118" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A119">
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>7</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="F119" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A120">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>87</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F120" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A121">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>38</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F121" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A122">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>9</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="F122" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A123">
+        <f t="shared" ref="A122:A135" ca="1" si="3">RANDBETWEEN(1,100)</f>
+        <v>56</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F123" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A124">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F124" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A125">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F125" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A126">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F126" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A127">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F127" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A128">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F128" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A129">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F129" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A130">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F130" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A131">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A132">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F132" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A133">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F133" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A134">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F134" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A135">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F135" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A136">
+        <v>90</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="F119" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="B120" s="7">
-        <v>17</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="F120" t="s">
-        <v>941</v>
-      </c>
-      <c r="G120" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="B121" s="7">
-        <v>17</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>940</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="F121" t="s">
-        <v>943</v>
+      <c r="F136" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A137">
+        <v>71</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F137" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+      <c r="A138">
+        <v>79</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F138" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F121">
+  <autoFilter ref="A1:F138">
     <filterColumn colId="1">
       <filters>
-        <filter val="17"/>
+        <filter val="13"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A46:F51">
-    <sortCondition ref="A46:A51"/>
+  <sortState ref="A72:F84">
+    <sortCondition ref="A72:A84"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12920,11 +13552,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -12953,7 +13584,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12967,7 +13598,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12981,7 +13612,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12995,7 +13626,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13009,7 +13640,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13023,7 +13654,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13037,7 +13668,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13051,7 +13682,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13065,7 +13696,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13079,7 +13710,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13093,7 +13724,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13107,7 +13738,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13121,7 +13752,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13135,7 +13766,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13149,7 +13780,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13163,7 +13794,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13177,7 +13808,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13191,7 +13822,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13205,7 +13836,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13219,7 +13850,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13233,7 +13864,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13247,7 +13878,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13261,7 +13892,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13275,7 +13906,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13289,7 +13920,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13306,7 +13937,7 @@
     <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A27">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B27" s="21">
         <v>17</v>
@@ -13320,8 +13951,8 @@
     </row>
     <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A28">
-        <f t="shared" ref="A28:A42" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>25</v>
+        <f t="shared" ref="A28:A44" ca="1" si="0">RANDBETWEEN(1,100)</f>
+        <v>24</v>
       </c>
       <c r="B28" s="21">
         <v>17</v>
@@ -13336,7 +13967,7 @@
     <row r="29" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B29" s="21">
         <v>17</v>
@@ -13351,7 +13982,7 @@
     <row r="30" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B30" s="21">
         <v>17</v>
@@ -13366,7 +13997,7 @@
     <row r="31" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B31" s="21">
         <v>17</v>
@@ -13381,7 +14012,7 @@
     <row r="32" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B32" s="21">
         <v>17</v>
@@ -13393,10 +14024,10 @@
         <v>954</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B33" s="21">
         <v>17</v>
@@ -13408,10 +14039,10 @@
         <v>956</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B34" s="21">
         <v>17</v>
@@ -13423,10 +14054,10 @@
         <v>777</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B35" s="21">
         <v>17</v>
@@ -13438,10 +14069,10 @@
         <v>959</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B36" s="21">
         <v>17</v>
@@ -13453,10 +14084,10 @@
         <v>961</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B37" s="21">
         <v>17</v>
@@ -13468,10 +14099,10 @@
         <v>926</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B38" s="21">
         <v>17</v>
@@ -13483,10 +14114,10 @@
         <v>964</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B39" s="21">
         <v>17</v>
@@ -13498,10 +14129,10 @@
         <v>966</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="B40" s="21">
         <v>17</v>
@@ -13513,10 +14144,10 @@
         <v>968</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B41" s="21">
         <v>17</v>
@@ -13528,10 +14159,10 @@
         <v>970</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B42" s="21">
         <v>17</v>
@@ -13543,23 +14174,145 @@
         <v>933</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C43" s="22"/>
-    </row>
-    <row r="44" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C44" s="22"/>
-    </row>
-    <row r="45" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C45" s="22"/>
+    <row r="43" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B43" s="21">
+        <v>18</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>972</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="E43" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B44" s="21">
+        <v>18</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="E44" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" s="21">
+        <v>19</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" s="21">
+        <v>19</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" s="21">
+        <v>19</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" s="21">
+        <v>19</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" s="21">
+        <v>19</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" s="21">
+        <v>19</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" s="21">
+        <v>19</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>1042</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E42">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="17"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E44"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Mainichi_Renshuu.xlsx
+++ b/Mainichi_Renshuu.xlsx
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">minanihongo!$A$1:$F$210</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$226</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$229</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1743">
   <si>
     <t>様</t>
   </si>
@@ -4930,6 +4930,342 @@
   </si>
   <si>
     <t>tương lai</t>
+  </si>
+  <si>
+    <t>番組</t>
+  </si>
+  <si>
+    <t>ばんぐみ</t>
+  </si>
+  <si>
+    <t>品物</t>
+  </si>
+  <si>
+    <t>しなもの</t>
+  </si>
+  <si>
+    <t>歌手</t>
+  </si>
+  <si>
+    <t>かしゅ</t>
+  </si>
+  <si>
+    <t>人気</t>
+  </si>
+  <si>
+    <t>にんき</t>
+  </si>
+  <si>
+    <t>noi tieng</t>
+  </si>
+  <si>
+    <t>声</t>
+  </si>
+  <si>
+    <t>こえ</t>
+  </si>
+  <si>
+    <t>giong noi</t>
+  </si>
+  <si>
+    <t>選びます</t>
+  </si>
+  <si>
+    <t>えらびます</t>
+  </si>
+  <si>
+    <t>頼みます</t>
+  </si>
+  <si>
+    <t>たのみます</t>
+  </si>
+  <si>
+    <t>咲きます</t>
+  </si>
+  <si>
+    <t>さきます</t>
+  </si>
+  <si>
+    <t>真面目</t>
+  </si>
+  <si>
+    <t>まじめ</t>
+  </si>
+  <si>
+    <t>優しい</t>
+  </si>
+  <si>
+    <t>やさしい</t>
+  </si>
+  <si>
+    <t>うまい</t>
+  </si>
+  <si>
+    <t>まずい</t>
+  </si>
+  <si>
+    <t>柔らかい</t>
+  </si>
+  <si>
+    <t>やわらかい</t>
+  </si>
+  <si>
+    <t>かれ</t>
+  </si>
+  <si>
+    <t>彼女</t>
+  </si>
+  <si>
+    <t>かのじょ</t>
+  </si>
+  <si>
+    <t>あじ</t>
+  </si>
+  <si>
+    <t>におい</t>
+  </si>
+  <si>
+    <t>hình thức</t>
+  </si>
+  <si>
+    <t>mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vị</t>
+  </si>
+  <si>
+    <t>anh ấy</t>
+  </si>
+  <si>
+    <t>cô ấy</t>
+  </si>
+  <si>
+    <t>mềm, mềm dẻo</t>
+  </si>
+  <si>
+    <t>硬い</t>
+  </si>
+  <si>
+    <t>かたい</t>
+  </si>
+  <si>
+    <t>cứng, rén</t>
+  </si>
+  <si>
+    <t>chán, dở</t>
+  </si>
+  <si>
+    <t>ngọt, giỏi</t>
+  </si>
+  <si>
+    <t>tốt bụng</t>
+  </si>
+  <si>
+    <t>nghiêm chỉnh, ngoan ngoãn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nở</t>
+  </si>
+  <si>
+    <t>nhờ vả</t>
+  </si>
+  <si>
+    <t>lựa chọn</t>
+  </si>
+  <si>
+    <t>経験</t>
+  </si>
+  <si>
+    <t>けいけん</t>
+  </si>
+  <si>
+    <t>値段</t>
+  </si>
+  <si>
+    <t>それに</t>
+  </si>
+  <si>
+    <t>それで</t>
+  </si>
+  <si>
+    <t>やっと</t>
+  </si>
+  <si>
+    <t>kinh nghiệm</t>
+  </si>
+  <si>
+    <t>hàng hóa</t>
+  </si>
+  <si>
+    <t>ねだん</t>
+  </si>
+  <si>
+    <t>giá cả</t>
+  </si>
+  <si>
+    <t>hơn nữa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vì thế</t>
+  </si>
+  <si>
+    <t>cuối cùng thì….</t>
+  </si>
+  <si>
+    <t>売れます</t>
+  </si>
+  <si>
+    <t>うれます</t>
+  </si>
+  <si>
+    <t>踊ります</t>
+  </si>
+  <si>
+    <t>おどります</t>
+  </si>
+  <si>
+    <t>噛みます</t>
+  </si>
+  <si>
+    <t>かみます</t>
+  </si>
+  <si>
+    <t>通います</t>
+  </si>
+  <si>
+    <t>かよいます</t>
+  </si>
+  <si>
+    <t>おしゃべり</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bán chạy, bán tốt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> múa, nhảy múa</t>
+  </si>
+  <si>
+    <t>nhai</t>
+  </si>
+  <si>
+    <t>đi lại, đi (học, làm…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nói chuyện, tán gẫu</t>
+  </si>
+  <si>
+    <t>熱心</t>
+  </si>
+  <si>
+    <t>ねっしん</t>
+  </si>
+  <si>
+    <t>偉い</t>
+  </si>
+  <si>
+    <t>えらい</t>
+  </si>
+  <si>
+    <t>ちょうどいい</t>
+  </si>
+  <si>
+    <t>習慣</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>ちから</t>
+  </si>
+  <si>
+    <t>給料</t>
+  </si>
+  <si>
+    <t>きゅうりょう</t>
+  </si>
+  <si>
+    <t>息子</t>
+  </si>
+  <si>
+    <t>むすこ</t>
+  </si>
+  <si>
+    <t>娘</t>
+  </si>
+  <si>
+    <t>むすめ</t>
+  </si>
+  <si>
+    <t>しばらく</t>
+  </si>
+  <si>
+    <t>たいてい</t>
+  </si>
+  <si>
+    <t>おしらせ</t>
+  </si>
+  <si>
+    <t>お知らせ</t>
+  </si>
+  <si>
+    <t>日にち</t>
+  </si>
+  <si>
+    <t>ひにち</t>
+  </si>
+  <si>
+    <t>無料</t>
+  </si>
+  <si>
+    <t>むりょう</t>
+  </si>
+  <si>
+    <t>miễn phí</t>
+  </si>
+  <si>
+    <t>ngày tháng</t>
+  </si>
+  <si>
+    <t>thông báo</t>
+  </si>
+  <si>
+    <t>thường thường</t>
+  </si>
+  <si>
+    <t>lâu lâu, một lúc</t>
+  </si>
+  <si>
+    <t>con gái</t>
+  </si>
+  <si>
+    <t>con trai</t>
+  </si>
+  <si>
+    <t>lương</t>
+  </si>
+  <si>
+    <t>sức mạnh</t>
+  </si>
+  <si>
+    <t>thói quen</t>
+  </si>
+  <si>
+    <t>vừa ăn, vừa đủ, vừa sức</t>
+  </si>
+  <si>
+    <t>vĩ đại</t>
+  </si>
+  <si>
+    <t>nhiệt tâm, nhiệt tình</t>
+  </si>
+  <si>
+    <t>chương trình</t>
+  </si>
+  <si>
+    <t>ca sỹ</t>
+  </si>
+  <si>
+    <t>tham gia</t>
   </si>
 </sst>
 </file>
@@ -5563,7 +5899,7 @@
     <row r="2" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D2">
         <f t="shared" ref="D2:D33" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
         <v>87</v>
@@ -5581,7 +5917,7 @@
     <row r="3" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
         <v>58</v>
@@ -5596,7 +5932,7 @@
     <row r="4" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -5617,7 +5953,7 @@
     <row r="5" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2">
         <v>31</v>
@@ -5635,7 +5971,7 @@
     <row r="6" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
@@ -5656,7 +5992,7 @@
     <row r="7" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2">
         <v>136</v>
@@ -5671,7 +6007,7 @@
     <row r="8" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2">
         <v>47</v>
@@ -5689,7 +6025,7 @@
     <row r="9" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
         <v>127</v>
@@ -5707,7 +6043,7 @@
     <row r="10" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2">
         <v>115</v>
@@ -5728,7 +6064,7 @@
     <row r="11" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>126</v>
@@ -5743,7 +6079,7 @@
     <row r="12" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -5761,7 +6097,7 @@
     <row r="13" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2">
         <v>94</v>
@@ -5776,7 +6112,7 @@
     <row r="14" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -5794,7 +6130,7 @@
     <row r="15" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2">
         <v>122</v>
@@ -5809,7 +6145,7 @@
     <row r="16" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2">
         <v>117</v>
@@ -5830,7 +6166,7 @@
     <row r="17" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2">
         <v>63</v>
@@ -5851,7 +6187,7 @@
     <row r="18" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
@@ -5866,7 +6202,7 @@
     <row r="19" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2">
         <v>116</v>
@@ -5882,7 +6218,7 @@
     <row r="20" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
         <v>96</v>
@@ -5900,7 +6236,7 @@
     <row r="21" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -5915,7 +6251,7 @@
     <row r="22" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -5933,7 +6269,7 @@
     <row r="23" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2">
         <v>71</v>
@@ -5951,7 +6287,7 @@
     <row r="24" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -5969,7 +6305,7 @@
     <row r="25" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -5987,7 +6323,7 @@
     <row r="26" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="2">
         <v>60</v>
@@ -6005,7 +6341,7 @@
     <row r="27" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2">
         <v>85</v>
@@ -6020,7 +6356,7 @@
     <row r="28" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2">
         <v>114</v>
@@ -6035,7 +6371,7 @@
     <row r="29" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2">
         <v>140</v>
@@ -6056,7 +6392,7 @@
     <row r="30" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2">
         <v>104</v>
@@ -6071,7 +6407,7 @@
     <row r="31" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2">
         <v>146</v>
@@ -6092,7 +6428,7 @@
     <row r="32" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2">
         <v>66</v>
@@ -6110,7 +6446,7 @@
     <row r="33" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2">
         <v>9</v>
@@ -6128,7 +6464,7 @@
     <row r="34" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D34">
         <f t="shared" ref="D34:D65" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2">
         <v>86</v>
@@ -6144,7 +6480,7 @@
     <row r="35" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2">
         <v>7</v>
@@ -6159,7 +6495,7 @@
     <row r="36" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E36" s="2">
         <v>92</v>
@@ -6174,7 +6510,7 @@
     <row r="37" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
@@ -6192,7 +6528,7 @@
     <row r="38" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2">
         <v>134</v>
@@ -6207,7 +6543,7 @@
     <row r="39" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2">
         <v>6</v>
@@ -6222,7 +6558,7 @@
     <row r="40" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2">
         <v>129</v>
@@ -6237,7 +6573,7 @@
     <row r="41" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2">
         <v>61</v>
@@ -6255,7 +6591,7 @@
     <row r="42" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E42" s="2">
         <v>46</v>
@@ -6270,7 +6606,7 @@
     <row r="43" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
@@ -6288,7 +6624,7 @@
     <row r="44" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E44" s="2">
         <v>55</v>
@@ -6306,7 +6642,7 @@
     <row r="45" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E45" s="2">
         <v>53</v>
@@ -6324,7 +6660,7 @@
     <row r="46" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2">
         <v>149</v>
@@ -6342,7 +6678,7 @@
     <row r="47" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E47" s="2">
         <v>70</v>
@@ -6357,7 +6693,7 @@
     <row r="48" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2">
         <v>144</v>
@@ -6375,7 +6711,7 @@
     <row r="49" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E49" s="2">
         <v>118</v>
@@ -6403,7 +6739,7 @@
     <row r="50" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E50" s="2">
         <v>73</v>
@@ -6418,7 +6754,7 @@
     <row r="51" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E51" s="2">
         <v>109</v>
@@ -6433,7 +6769,7 @@
     <row r="52" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E52" s="2">
         <v>83</v>
@@ -6451,7 +6787,7 @@
     <row r="53" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E53" s="2">
         <v>107</v>
@@ -6466,7 +6802,7 @@
     <row r="54" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E54" s="2">
         <v>25</v>
@@ -6484,7 +6820,7 @@
     <row r="55" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E55" s="2">
         <v>108</v>
@@ -6508,7 +6844,7 @@
     <row r="56" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2">
         <v>113</v>
@@ -6523,7 +6859,7 @@
     <row r="57" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E57" s="2">
         <v>89</v>
@@ -6547,7 +6883,7 @@
     <row r="58" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E58" s="2">
         <v>130</v>
@@ -6562,7 +6898,7 @@
     <row r="59" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E59" s="2">
         <v>72</v>
@@ -6580,7 +6916,7 @@
     <row r="60" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2">
         <v>77</v>
@@ -6595,7 +6931,7 @@
     <row r="61" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2">
         <v>57</v>
@@ -6616,7 +6952,7 @@
     <row r="62" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E62" s="2">
         <v>105</v>
@@ -6631,7 +6967,7 @@
     <row r="63" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2">
         <v>45</v>
@@ -6646,7 +6982,7 @@
     <row r="64" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E64" s="2">
         <v>128</v>
@@ -6664,7 +7000,7 @@
     <row r="65" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E65" s="2">
         <v>8</v>
@@ -6682,7 +7018,7 @@
     <row r="66" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D66">
         <f t="shared" ref="D66:D97" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66" s="2">
         <v>135</v>
@@ -6697,7 +7033,7 @@
     <row r="67" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E67" s="2">
         <v>56</v>
@@ -6715,7 +7051,7 @@
     <row r="68" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E68" s="2">
         <v>82</v>
@@ -6730,7 +7066,7 @@
     <row r="69" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E69" s="2">
         <v>112</v>
@@ -6745,7 +7081,7 @@
     <row r="70" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2">
         <v>121</v>
@@ -6763,7 +7099,7 @@
     <row r="71" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E71" s="2">
         <v>30</v>
@@ -6778,7 +7114,7 @@
     <row r="72" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E72" s="2">
         <v>106</v>
@@ -6796,7 +7132,7 @@
     <row r="73" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2">
         <v>64</v>
@@ -6814,7 +7150,7 @@
     <row r="74" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E74" s="2">
         <v>147</v>
@@ -6832,7 +7168,7 @@
     <row r="75" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E75" s="2">
         <v>44</v>
@@ -6848,7 +7184,7 @@
     <row r="76" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E76" s="2">
         <v>148</v>
@@ -6866,7 +7202,7 @@
     <row r="77" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E77" s="2">
         <v>59</v>
@@ -6881,7 +7217,7 @@
     <row r="78" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="E78" s="2">
         <v>132</v>
@@ -6896,7 +7232,7 @@
     <row r="79" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E79" s="2">
         <v>12</v>
@@ -6911,7 +7247,7 @@
     <row r="80" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E80" s="2">
         <v>26</v>
@@ -6929,7 +7265,7 @@
     <row r="81" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E81" s="2">
         <v>43</v>
@@ -6947,7 +7283,7 @@
     <row r="82" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E82" s="2">
         <v>103</v>
@@ -6965,7 +7301,7 @@
     <row r="83" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E83" s="2">
         <v>99</v>
@@ -6980,7 +7316,7 @@
     <row r="84" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E84" s="2">
         <v>141</v>
@@ -6998,7 +7334,7 @@
     <row r="85" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="E85" s="2">
         <v>37</v>
@@ -7016,7 +7352,7 @@
     <row r="86" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E86" s="2">
         <v>4</v>
@@ -7034,7 +7370,7 @@
     <row r="87" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="E87" s="2">
         <v>119</v>
@@ -7052,7 +7388,7 @@
     <row r="88" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E88" s="2">
         <v>143</v>
@@ -7070,7 +7406,7 @@
     <row r="89" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E89" s="2">
         <v>32</v>
@@ -7085,7 +7421,7 @@
     <row r="90" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E90" s="2">
         <v>97</v>
@@ -7100,7 +7436,7 @@
     <row r="91" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E91" s="2">
         <v>120</v>
@@ -7118,7 +7454,7 @@
     <row r="92" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E92" s="2">
         <v>24</v>
@@ -7134,7 +7470,7 @@
     <row r="93" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2">
         <v>110</v>
@@ -7149,7 +7485,7 @@
     <row r="94" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D94">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E94" s="2">
         <v>51</v>
@@ -7167,7 +7503,7 @@
     <row r="95" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D95">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="E95" s="2">
         <v>18</v>
@@ -7185,7 +7521,7 @@
     <row r="96" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D96">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E96" s="2">
         <v>69</v>
@@ -7203,7 +7539,7 @@
     <row r="97" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D97">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2">
         <v>15</v>
@@ -7218,7 +7554,7 @@
     <row r="98" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D98">
         <f t="shared" ref="D98:D129" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E98" s="2">
         <v>142</v>
@@ -7239,7 +7575,7 @@
     <row r="99" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E99" s="2">
         <v>78</v>
@@ -7254,7 +7590,7 @@
     <row r="100" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E100" s="2">
         <v>2</v>
@@ -7272,7 +7608,7 @@
     <row r="101" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E101" s="2">
         <v>100</v>
@@ -7287,7 +7623,7 @@
     <row r="102" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="E102" s="2">
         <v>95</v>
@@ -7302,7 +7638,7 @@
     <row r="103" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E103" s="2">
         <v>80</v>
@@ -7320,7 +7656,7 @@
     <row r="104" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -7338,7 +7674,7 @@
     <row r="105" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E105" s="2">
         <v>67</v>
@@ -7353,7 +7689,7 @@
     <row r="106" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E106" s="2">
         <v>75</v>
@@ -7371,7 +7707,7 @@
     <row r="107" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E107" s="2">
         <v>76</v>
@@ -7387,7 +7723,7 @@
     <row r="108" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E108" s="2">
         <v>133</v>
@@ -7405,7 +7741,7 @@
     <row r="109" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2">
         <v>27</v>
@@ -7423,7 +7759,7 @@
     <row r="110" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E110" s="2">
         <v>28</v>
@@ -7438,7 +7774,7 @@
     <row r="111" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E111" s="2">
         <v>34</v>
@@ -7456,7 +7792,7 @@
     <row r="112" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E112" s="2">
         <v>93</v>
@@ -7474,7 +7810,7 @@
     <row r="113" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E113" s="2">
         <v>52</v>
@@ -7492,7 +7828,7 @@
     <row r="114" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="E114" s="2">
         <v>131</v>
@@ -7513,7 +7849,7 @@
     <row r="115" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="E115" s="2">
         <v>65</v>
@@ -7531,7 +7867,7 @@
     <row r="116" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E116" s="2">
         <v>74</v>
@@ -7549,7 +7885,7 @@
     <row r="117" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E117" s="2">
         <v>49</v>
@@ -7567,7 +7903,7 @@
     <row r="118" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E118" s="2">
         <v>41</v>
@@ -7582,7 +7918,7 @@
     <row r="119" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E119" s="2">
         <v>111</v>
@@ -7600,7 +7936,7 @@
     <row r="120" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E120" s="2">
         <v>90</v>
@@ -7618,7 +7954,7 @@
     <row r="121" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E121" s="2">
         <v>137</v>
@@ -7636,7 +7972,7 @@
     <row r="122" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E122" s="2">
         <v>20</v>
@@ -7651,7 +7987,7 @@
     <row r="123" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E123" s="2">
         <v>124</v>
@@ -7669,7 +8005,7 @@
     <row r="124" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E124" s="2">
         <v>138</v>
@@ -7687,7 +8023,7 @@
     <row r="125" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E125" s="2">
         <v>36</v>
@@ -7702,7 +8038,7 @@
     <row r="126" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D126">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E126" s="2">
         <v>68</v>
@@ -7718,7 +8054,7 @@
     <row r="127" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D127">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E127" s="2">
         <v>22</v>
@@ -7736,7 +8072,7 @@
     <row r="128" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D128">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E128" s="2">
         <v>33</v>
@@ -7754,7 +8090,7 @@
     <row r="129" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D129">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E129" s="2">
         <v>125</v>
@@ -7772,7 +8108,7 @@
     <row r="130" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D130">
         <f t="shared" ref="D130:D162" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E130" s="2">
         <v>54</v>
@@ -7811,7 +8147,7 @@
     <row r="132" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E132" s="2">
         <v>79</v>
@@ -7829,7 +8165,7 @@
     <row r="133" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E133" s="2">
         <v>10</v>
@@ -7847,7 +8183,7 @@
     <row r="134" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E134" s="2">
         <v>17</v>
@@ -7862,7 +8198,7 @@
     <row r="135" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D135">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E135" s="2">
         <v>88</v>
@@ -7880,7 +8216,7 @@
     <row r="136" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E136" s="2">
         <v>98</v>
@@ -7898,7 +8234,7 @@
     <row r="137" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E137" s="2">
         <v>62</v>
@@ -7916,7 +8252,7 @@
     <row r="138" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E138" s="2">
         <v>19</v>
@@ -7934,7 +8270,7 @@
     <row r="139" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E139" s="2">
         <v>81</v>
@@ -7952,7 +8288,7 @@
     <row r="140" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E140" s="2">
         <v>23</v>
@@ -7970,7 +8306,7 @@
     <row r="141" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E141" s="2">
         <v>101</v>
@@ -7985,7 +8321,7 @@
     <row r="142" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E142" s="2">
         <v>84</v>
@@ -8000,7 +8336,7 @@
     <row r="143" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="E143" s="2">
         <v>123</v>
@@ -8015,7 +8351,7 @@
     <row r="144" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E144" s="2">
         <v>48</v>
@@ -8033,7 +8369,7 @@
     <row r="145" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="E145" s="2">
         <v>91</v>
@@ -8048,7 +8384,7 @@
     <row r="146" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E146" s="2">
         <v>38</v>
@@ -8066,7 +8402,7 @@
     <row r="147" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E147" s="2">
         <v>102</v>
@@ -8087,7 +8423,7 @@
     <row r="148" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E148" s="2">
         <v>139</v>
@@ -8108,7 +8444,7 @@
     <row r="149" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F149" s="2">
         <v>17</v>
@@ -8126,7 +8462,7 @@
     <row r="150" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F150" s="2">
         <v>17</v>
@@ -8144,7 +8480,7 @@
     <row r="151" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F151" s="2">
         <v>17</v>
@@ -8162,7 +8498,7 @@
     <row r="152" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F152" s="2">
         <v>17</v>
@@ -8177,7 +8513,7 @@
     <row r="153" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2">
         <v>17</v>
@@ -8198,7 +8534,7 @@
     <row r="154" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F154" s="2">
         <v>17</v>
@@ -8219,7 +8555,7 @@
     <row r="155" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="F155" s="2">
         <v>17</v>
@@ -8237,7 +8573,7 @@
     <row r="156" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F156" s="2">
         <v>17</v>
@@ -8252,7 +8588,7 @@
     <row r="157" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F157" s="2">
         <v>17</v>
@@ -8264,7 +8600,7 @@
     <row r="158" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D158">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F158" s="2">
         <v>17</v>
@@ -8282,7 +8618,7 @@
     <row r="159" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D159">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F159" s="2">
         <v>17</v>
@@ -8300,7 +8636,7 @@
     <row r="160" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D160">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F160" s="2">
         <v>17</v>
@@ -8321,7 +8657,7 @@
     <row r="161" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D161">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="F161" s="2">
         <v>17</v>
@@ -8339,7 +8675,7 @@
     <row r="162" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D162">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F162" s="2">
         <v>17</v>
@@ -8360,7 +8696,7 @@
     <row r="163" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D163">
         <f t="shared" ref="D163:D182" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E163">
         <v>10</v>
@@ -8384,7 +8720,7 @@
     <row r="164" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E164">
         <v>17</v>
@@ -8408,7 +8744,7 @@
     <row r="165" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -8429,7 +8765,7 @@
     <row r="166" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -8450,7 +8786,7 @@
     <row r="167" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -8474,7 +8810,7 @@
     <row r="168" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E168">
         <v>18</v>
@@ -8498,7 +8834,7 @@
     <row r="169" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -8519,7 +8855,7 @@
     <row r="170" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E170">
         <v>13</v>
@@ -8543,7 +8879,7 @@
     <row r="171" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E171">
         <v>7</v>
@@ -8567,7 +8903,7 @@
     <row r="172" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="E172">
         <v>8</v>
@@ -8591,7 +8927,7 @@
     <row r="173" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E173">
         <v>14</v>
@@ -8615,7 +8951,7 @@
     <row r="174" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E174">
         <v>19</v>
@@ -8639,7 +8975,7 @@
     <row r="175" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E175">
         <v>20</v>
@@ -8660,7 +8996,7 @@
     <row r="176" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8681,7 +9017,7 @@
     <row r="177" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E177">
         <v>5</v>
@@ -8696,7 +9032,7 @@
     <row r="178" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D178">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E178">
         <v>11</v>
@@ -8720,7 +9056,7 @@
     <row r="179" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D179">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E179">
         <v>15</v>
@@ -8744,7 +9080,7 @@
     <row r="180" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D180">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E180">
         <v>4</v>
@@ -8762,7 +9098,7 @@
     <row r="181" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D181">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E181">
         <v>16</v>
@@ -8807,7 +9143,7 @@
     <row r="183" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D183">
         <f t="shared" ref="D183:D220" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E183">
         <v>13</v>
@@ -8825,7 +9161,7 @@
     <row r="184" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E184">
         <v>4</v>
@@ -8849,7 +9185,7 @@
     <row r="185" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E185">
         <v>5</v>
@@ -8870,7 +9206,7 @@
     <row r="186" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F186" s="2">
         <v>19</v>
@@ -8891,7 +9227,7 @@
     <row r="187" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E187">
         <v>18</v>
@@ -8915,7 +9251,7 @@
     <row r="188" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E188">
         <v>14</v>
@@ -8939,7 +9275,7 @@
     <row r="189" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E189">
         <v>24</v>
@@ -8963,7 +9299,7 @@
     <row r="190" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D190">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E190">
         <v>23</v>
@@ -8990,7 +9326,7 @@
     <row r="191" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D191">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E191">
         <v>17</v>
@@ -9011,7 +9347,7 @@
     <row r="192" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D192">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="E192">
         <v>12</v>
@@ -9035,7 +9371,7 @@
     <row r="193" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D193">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E193">
         <v>22</v>
@@ -9056,7 +9392,7 @@
     <row r="194" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D194">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -9080,7 +9416,7 @@
     <row r="195" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D195">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E195">
         <v>19</v>
@@ -9104,7 +9440,7 @@
     <row r="196" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D196">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="E196">
         <v>8</v>
@@ -9122,7 +9458,7 @@
     <row r="197" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -9143,7 +9479,7 @@
     <row r="198" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E198">
         <v>20</v>
@@ -9167,7 +9503,7 @@
     <row r="199" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E199">
         <v>7</v>
@@ -9185,7 +9521,7 @@
     <row r="200" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E200">
         <v>11</v>
@@ -9203,7 +9539,7 @@
     <row r="201" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="E201">
         <v>16</v>
@@ -9227,7 +9563,7 @@
     <row r="202" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -9248,7 +9584,7 @@
     <row r="203" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="F203" s="2">
         <v>19</v>
@@ -9266,7 +9602,7 @@
     <row r="204" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E204">
         <v>10</v>
@@ -9284,7 +9620,7 @@
     <row r="205" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E205">
         <v>21</v>
@@ -9308,7 +9644,7 @@
     <row r="206" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -9329,7 +9665,7 @@
     <row r="207" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -9353,7 +9689,7 @@
     <row r="208" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E208">
         <v>15</v>
@@ -9377,7 +9713,7 @@
     <row r="209" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E209">
         <v>9</v>
@@ -9401,7 +9737,7 @@
     <row r="210" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -9422,7 +9758,7 @@
     <row r="211" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -9443,7 +9779,7 @@
     <row r="212" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E212">
         <v>8</v>
@@ -9467,7 +9803,7 @@
     <row r="213" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -9488,7 +9824,7 @@
     <row r="214" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E214">
         <v>10</v>
@@ -9509,7 +9845,7 @@
     <row r="215" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D215">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E215">
         <v>11</v>
@@ -9530,7 +9866,7 @@
     <row r="216" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D216">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E216">
         <v>7</v>
@@ -9551,7 +9887,7 @@
     <row r="217" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D217">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E217">
         <v>4</v>
@@ -9572,7 +9908,7 @@
     <row r="218" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D218">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -9593,7 +9929,7 @@
     <row r="219" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D219">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="E219">
         <v>6</v>
@@ -9614,7 +9950,7 @@
     <row r="220" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D220">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="F220" s="2">
         <v>20</v>
@@ -9825,7 +10161,7 @@
     <row r="2" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7">
         <v>13</v>
@@ -9846,7 +10182,7 @@
     <row r="3" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>816</v>
@@ -9867,7 +10203,7 @@
     <row r="4" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>666</v>
@@ -9888,7 +10224,7 @@
     <row r="5" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7">
         <v>17</v>
@@ -9912,7 +10248,7 @@
     <row r="6" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7">
         <v>12</v>
@@ -9933,7 +10269,7 @@
     <row r="7" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A7">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B7" s="7">
         <v>13</v>
@@ -9954,7 +10290,7 @@
     <row r="8" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A8">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>816</v>
@@ -9975,7 +10311,7 @@
     <row r="9" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A9">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -9993,7 +10329,7 @@
     <row r="10" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A10">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7">
         <v>14</v>
@@ -10014,7 +10350,7 @@
     <row r="11" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A11">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>865</v>
@@ -10035,7 +10371,7 @@
     <row r="12" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A12">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>971</v>
@@ -10059,7 +10395,7 @@
     <row r="13" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A13">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -10080,7 +10416,7 @@
     <row r="14" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A14">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>816</v>
@@ -10101,7 +10437,7 @@
     <row r="15" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A15">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -10119,7 +10455,7 @@
     <row r="16" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A16">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B16" s="7">
         <v>13</v>
@@ -10140,7 +10476,7 @@
     <row r="17" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A17">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B17" s="7">
         <v>11</v>
@@ -10158,7 +10494,7 @@
     <row r="18" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A18">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -10220,7 +10556,7 @@
     <row r="21" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A21">
         <f t="shared" ref="A21:A26" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>816</v>
@@ -10241,7 +10577,7 @@
     <row r="22" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>865</v>
@@ -10262,7 +10598,7 @@
     <row r="23" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>971</v>
@@ -10283,7 +10619,7 @@
     <row r="24" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>971</v>
@@ -10304,7 +10640,7 @@
     <row r="25" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>666</v>
@@ -10325,7 +10661,7 @@
     <row r="26" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>816</v>
@@ -10366,7 +10702,7 @@
     <row r="28" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A28">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B28" s="7">
         <v>13</v>
@@ -10387,7 +10723,7 @@
     <row r="29" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A29">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>666</v>
@@ -10408,7 +10744,7 @@
     <row r="30" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A30">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>971</v>
@@ -10429,7 +10765,7 @@
     <row r="31" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A31">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B31" s="7">
         <v>12</v>
@@ -10450,7 +10786,7 @@
     <row r="32" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A32">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>666</v>
@@ -10471,7 +10807,7 @@
     <row r="33" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A33">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>865</v>
@@ -10492,7 +10828,7 @@
     <row r="34" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A34">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>816</v>
@@ -10510,7 +10846,7 @@
     <row r="35" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A35">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B35" s="7">
         <v>12</v>
@@ -10525,7 +10861,7 @@
     <row r="36" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A36">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>816</v>
@@ -10546,7 +10882,7 @@
     <row r="37" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A37">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B37" s="7">
         <v>14</v>
@@ -10561,7 +10897,7 @@
     <row r="38" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A38">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>666</v>
@@ -10582,7 +10918,7 @@
     <row r="39" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A39">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B39" s="7">
         <v>12</v>
@@ -10603,7 +10939,7 @@
     <row r="40" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A40">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>666</v>
@@ -10644,7 +10980,7 @@
     <row r="42" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A42">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B42" s="7">
         <v>12</v>
@@ -10659,7 +10995,7 @@
     <row r="43" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A43">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B43" s="7">
         <v>13</v>
@@ -10680,7 +11016,7 @@
     <row r="44" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A44">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>865</v>
@@ -10701,7 +11037,7 @@
     <row r="45" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A45">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B45" s="7">
         <v>11</v>
@@ -10722,7 +11058,7 @@
     <row r="46" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A46">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>971</v>
@@ -10743,7 +11079,7 @@
     <row r="47" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A47">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>666</v>
@@ -10764,7 +11100,7 @@
     <row r="48" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A48">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="B48" s="7">
         <v>12</v>
@@ -10785,7 +11121,7 @@
     <row r="49" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A49">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>971</v>
@@ -10806,7 +11142,7 @@
     <row r="50" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A50">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>971</v>
@@ -10827,7 +11163,7 @@
     <row r="51" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A51">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="B51" s="7">
         <v>12</v>
@@ -10842,7 +11178,7 @@
     <row r="52" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A52">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B52" s="7">
         <v>12</v>
@@ -10863,7 +11199,7 @@
     <row r="53" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A53">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>816</v>
@@ -10884,7 +11220,7 @@
     <row r="54" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A54">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B54" s="7">
         <v>14</v>
@@ -10965,7 +11301,7 @@
     <row r="58" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A58">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B58" s="7">
         <v>12</v>
@@ -10986,7 +11322,7 @@
     <row r="59" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A59">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>816</v>
@@ -11007,7 +11343,7 @@
     <row r="60" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A60">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B60" s="7">
         <v>14</v>
@@ -11028,7 +11364,7 @@
     <row r="61" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A61">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B61" s="7">
         <v>12</v>
@@ -11049,7 +11385,7 @@
     <row r="62" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A62">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>816</v>
@@ -11070,7 +11406,7 @@
     <row r="63" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A63">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B63" s="7">
         <v>11</v>
@@ -11091,7 +11427,7 @@
     <row r="64" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A64">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>865</v>
@@ -11132,7 +11468,7 @@
     <row r="66" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A66">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>865</v>
@@ -11153,7 +11489,7 @@
     <row r="67" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A67">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B67" s="7">
         <v>11</v>
@@ -11174,7 +11510,7 @@
     <row r="68" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A68">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B68" s="7">
         <v>14</v>
@@ -11195,7 +11531,7 @@
     <row r="69" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A69">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B69" s="7">
         <v>14</v>
@@ -11216,7 +11552,7 @@
     <row r="70" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A70">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>865</v>
@@ -11237,7 +11573,7 @@
     <row r="71" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A71">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>865</v>
@@ -11258,7 +11594,7 @@
     <row r="72" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A72">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>816</v>
@@ -11279,7 +11615,7 @@
     <row r="73" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A73">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>865</v>
@@ -11303,7 +11639,7 @@
     <row r="74" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A74">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B74" s="7">
         <v>12</v>
@@ -11321,7 +11657,7 @@
     <row r="75" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A75">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>816</v>
@@ -11342,7 +11678,7 @@
     <row r="76" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A76">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B76" s="7">
         <v>13</v>
@@ -11363,7 +11699,7 @@
     <row r="77" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A77">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B77" s="7">
         <v>13</v>
@@ -11384,7 +11720,7 @@
     <row r="78" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A78">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>816</v>
@@ -11405,7 +11741,7 @@
     <row r="79" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A79">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>666</v>
@@ -11426,7 +11762,7 @@
     <row r="80" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A80">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>666</v>
@@ -11489,7 +11825,7 @@
     <row r="83" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A83">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B83" s="7">
         <v>13</v>
@@ -11510,7 +11846,7 @@
     <row r="84" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A84">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>971</v>
@@ -11531,7 +11867,7 @@
     <row r="85" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A85">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>666</v>
@@ -11552,7 +11888,7 @@
     <row r="86" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A86">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>865</v>
@@ -11573,7 +11909,7 @@
     <row r="87" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A87">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>816</v>
@@ -11594,7 +11930,7 @@
     <row r="88" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A88">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B88" s="7">
         <v>11</v>
@@ -11615,7 +11951,7 @@
     <row r="89" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A89">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B89" s="7">
         <v>12</v>
@@ -11670,7 +12006,7 @@
     <row r="92" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A92">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>865</v>
@@ -11691,7 +12027,7 @@
     <row r="93" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A93">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B93" s="7">
         <v>14</v>
@@ -11718,7 +12054,7 @@
     <row r="94" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A94">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B94" s="7">
         <v>13</v>
@@ -11739,7 +12075,7 @@
     <row r="95" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A95">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>666</v>
@@ -11760,7 +12096,7 @@
     <row r="96" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A96">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>666</v>
@@ -11807,7 +12143,7 @@
     <row r="98" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A98">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>865</v>
@@ -11828,7 +12164,7 @@
     <row r="99" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A99">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>971</v>
@@ -11849,7 +12185,7 @@
     <row r="100" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A100">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>971</v>
@@ -11870,7 +12206,7 @@
     <row r="101" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A101">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B101" s="7">
         <v>12</v>
@@ -11888,7 +12224,7 @@
     <row r="102" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A102">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B102" s="7">
         <v>12</v>
@@ -11903,7 +12239,7 @@
     <row r="103" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A103">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>666</v>
@@ -11944,7 +12280,7 @@
     <row r="105" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A105">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>666</v>
@@ -11965,7 +12301,7 @@
     <row r="106" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A106">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>816</v>
@@ -11986,7 +12322,7 @@
     <row r="107" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A107">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B107" s="7">
         <v>18</v>
@@ -12007,7 +12343,7 @@
     <row r="108" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A108">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B108" s="7">
         <v>11</v>
@@ -12028,7 +12364,7 @@
     <row r="109" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A109">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>816</v>
@@ -12049,7 +12385,7 @@
     <row r="110" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A110">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>666</v>
@@ -12070,7 +12406,7 @@
     <row r="111" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A111">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>816</v>
@@ -12091,7 +12427,7 @@
     <row r="112" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A112">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B112" s="7">
         <v>13</v>
@@ -12112,7 +12448,7 @@
     <row r="113" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A113">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="B113" s="7">
         <v>14</v>
@@ -12133,7 +12469,7 @@
     <row r="114" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A114">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>816</v>
@@ -12154,7 +12490,7 @@
     <row r="115" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A115">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B115" s="7">
         <v>13</v>
@@ -12175,7 +12511,7 @@
     <row r="116" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A116">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B116" s="7">
         <v>13</v>
@@ -12199,7 +12535,7 @@
     <row r="117" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A117">
         <f t="shared" ref="A117:A122" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B117" s="7">
         <v>17</v>
@@ -12220,7 +12556,7 @@
     <row r="118" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>865</v>
@@ -12241,7 +12577,7 @@
     <row r="119" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>971</v>
@@ -12262,7 +12598,7 @@
     <row r="120" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>971</v>
@@ -12283,7 +12619,7 @@
     <row r="121" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>816</v>
@@ -12304,7 +12640,7 @@
     <row r="122" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>865</v>
@@ -12325,7 +12661,7 @@
     <row r="123" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A123">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B123" s="7">
         <v>12</v>
@@ -12346,7 +12682,7 @@
     <row r="124" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A124">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>816</v>
@@ -12367,7 +12703,7 @@
     <row r="125" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A125">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B125" s="7">
         <v>12</v>
@@ -12382,7 +12718,7 @@
     <row r="126" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A126">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>816</v>
@@ -12403,7 +12739,7 @@
     <row r="127" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A127">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>971</v>
@@ -12424,7 +12760,7 @@
     <row r="128" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A128">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="B128" s="7">
         <v>11</v>
@@ -12442,7 +12778,7 @@
     <row r="129" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A129">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>666</v>
@@ -12463,7 +12799,7 @@
     <row r="130" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A130">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B130" s="7">
         <v>13</v>
@@ -12524,7 +12860,7 @@
     <row r="133" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A133">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B133" s="7">
         <v>12</v>
@@ -12545,7 +12881,7 @@
     <row r="134" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A134">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>666</v>
@@ -12569,7 +12905,7 @@
     <row r="135" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A135">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>666</v>
@@ -12590,7 +12926,7 @@
     <row r="136" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A136">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B136" s="7">
         <v>20</v>
@@ -12611,7 +12947,7 @@
     <row r="137" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A137">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B137" s="7">
         <v>20</v>
@@ -12635,7 +12971,7 @@
     <row r="138" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A138">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B138" s="7">
         <v>20</v>
@@ -12656,7 +12992,7 @@
     <row r="139" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A139">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B139" s="7">
         <v>20</v>
@@ -12680,7 +13016,7 @@
     <row r="140" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A140">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B140" s="7">
         <v>20</v>
@@ -16939,8 +17275,8 @@
   <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C185" sqref="C185"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -16955,7 +17291,7 @@
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>770</v>
@@ -17323,7 +17659,7 @@
     <row r="27" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A27">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B27" s="16">
         <v>17</v>
@@ -17338,7 +17674,7 @@
     <row r="28" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A28">
         <f t="shared" ref="A28:A44" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B28" s="16">
         <v>17</v>
@@ -17353,7 +17689,7 @@
     <row r="29" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -17368,7 +17704,7 @@
     <row r="30" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -17383,7 +17719,7 @@
     <row r="31" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B31" s="16">
         <v>17</v>
@@ -17401,7 +17737,7 @@
     <row r="32" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B32" s="16">
         <v>17</v>
@@ -17416,7 +17752,7 @@
     <row r="33" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B33" s="16">
         <v>17</v>
@@ -17431,7 +17767,7 @@
     <row r="34" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B34" s="16">
         <v>17</v>
@@ -17446,7 +17782,7 @@
     <row r="35" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" s="16">
         <v>17</v>
@@ -17461,7 +17797,7 @@
     <row r="36" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B36" s="16">
         <v>17</v>
@@ -17476,7 +17812,7 @@
     <row r="37" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B37" s="16">
         <v>17</v>
@@ -17491,7 +17827,7 @@
     <row r="38" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B38" s="16">
         <v>17</v>
@@ -17506,7 +17842,7 @@
     <row r="39" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B39" s="16">
         <v>17</v>
@@ -17521,7 +17857,7 @@
     <row r="40" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B40" s="16">
         <v>17</v>
@@ -17536,7 +17872,7 @@
     <row r="41" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B41" s="16">
         <v>17</v>
@@ -17551,7 +17887,7 @@
     <row r="42" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B42" s="16">
         <v>17</v>
@@ -17566,7 +17902,7 @@
     <row r="43" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="B43" s="16">
         <v>18</v>
@@ -17584,7 +17920,7 @@
     <row r="44" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B44" s="16">
         <v>18</v>
@@ -18107,8 +18443,8 @@
     </row>
     <row r="88" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A88">
-        <f t="shared" ref="A88:A114" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <f t="shared" ref="A88:A115" ca="1" si="1">RANDBETWEEN(1,100)</f>
+        <v>25</v>
       </c>
       <c r="B88" s="16">
         <v>25</v>
@@ -18126,7 +18462,7 @@
     <row r="89" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B89" s="16">
         <v>24</v>
@@ -18144,7 +18480,7 @@
     <row r="90" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B90" s="16">
         <v>23</v>
@@ -18162,7 +18498,7 @@
     <row r="91" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B91" s="16">
         <v>25</v>
@@ -18180,7 +18516,7 @@
     <row r="92" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B92" s="16">
         <v>23</v>
@@ -18195,7 +18531,7 @@
     <row r="93" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B93" s="16">
         <v>25</v>
@@ -18213,7 +18549,7 @@
     <row r="94" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B94" s="16">
         <v>25</v>
@@ -18231,7 +18567,7 @@
     <row r="95" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B95" s="16">
         <v>25</v>
@@ -18246,7 +18582,7 @@
     <row r="96" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B96" s="16">
         <v>25</v>
@@ -18264,7 +18600,7 @@
     <row r="97" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B97" s="16">
         <v>23</v>
@@ -18282,7 +18618,7 @@
     <row r="98" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B98" s="16">
         <v>23</v>
@@ -18297,7 +18633,7 @@
     <row r="99" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B99" s="16">
         <v>23</v>
@@ -18315,7 +18651,7 @@
     <row r="100" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B100" s="16">
         <v>23</v>
@@ -18333,7 +18669,7 @@
     <row r="101" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B101" s="16">
         <v>24</v>
@@ -18351,7 +18687,7 @@
     <row r="102" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B102" s="16">
         <v>23</v>
@@ -18369,7 +18705,7 @@
     <row r="103" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B103" s="16">
         <v>23</v>
@@ -18387,7 +18723,7 @@
     <row r="104" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B104" s="16">
         <v>23</v>
@@ -18405,7 +18741,7 @@
     <row r="105" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B105" s="16">
         <v>25</v>
@@ -18423,7 +18759,7 @@
     <row r="106" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B106" s="16">
         <v>24</v>
@@ -18441,7 +18777,7 @@
     <row r="107" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B107" s="16">
         <v>25</v>
@@ -18459,7 +18795,7 @@
     <row r="108" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B108" s="16">
         <v>25</v>
@@ -18477,7 +18813,7 @@
     <row r="109" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B109" s="16">
         <v>24</v>
@@ -18495,7 +18831,7 @@
     <row r="110" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B110" s="16">
         <v>24</v>
@@ -18513,7 +18849,7 @@
     <row r="111" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B111" s="16">
         <v>25</v>
@@ -18531,7 +18867,7 @@
     <row r="112" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B112" s="16">
         <v>25</v>
@@ -18549,7 +18885,7 @@
     <row r="113" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B113" s="16">
         <v>24</v>
@@ -18567,7 +18903,7 @@
     <row r="114" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B114" s="16">
         <v>24</v>
@@ -18583,6 +18919,13 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A115">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B115" s="16">
+        <v>28</v>
+      </c>
       <c r="C115" s="28" t="s">
         <v>1434</v>
       </c>
@@ -18596,7 +18939,7 @@
     <row r="116" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A116">
         <f t="shared" ref="A116:A123" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B116" s="16">
         <v>23</v>
@@ -18614,7 +18957,7 @@
     <row r="117" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A117">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B117" s="16">
         <v>23</v>
@@ -18632,7 +18975,7 @@
     <row r="118" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A118">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B118" s="16">
         <v>23</v>
@@ -18647,7 +18990,7 @@
     <row r="119" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A119">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B119" s="16">
         <v>23</v>
@@ -18665,7 +19008,7 @@
     <row r="120" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A120">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B120" s="16">
         <v>25</v>
@@ -18683,7 +19026,7 @@
     <row r="121" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A121">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B121" s="16">
         <v>24</v>
@@ -18701,7 +19044,7 @@
     <row r="122" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A122">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B122" s="16">
         <v>25</v>
@@ -18719,7 +19062,7 @@
     <row r="123" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A123">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B123" s="16">
         <v>25</v>
@@ -18736,8 +19079,8 @@
     </row>
     <row r="124" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A124">
-        <f t="shared" ref="A124:A185" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <f t="shared" ref="A124:A187" ca="1" si="3">RANDBETWEEN(1,100)</f>
+        <v>63</v>
       </c>
       <c r="B124" s="16">
         <v>23</v>
@@ -18755,7 +19098,7 @@
     <row r="125" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B125" s="16">
         <v>23</v>
@@ -18772,777 +19115,789 @@
     </row>
     <row r="126" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A126">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>40</v>
       </c>
       <c r="B126" s="16">
         <v>26</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>1465</v>
+        <v>1475</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1466</v>
+        <v>1476</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A127">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>87</v>
       </c>
       <c r="B127" s="16">
         <v>26</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>1239</v>
+        <v>1499</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>1240</v>
+        <v>1500</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A128">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>91</v>
       </c>
       <c r="B128" s="16">
         <v>26</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>1467</v>
+        <v>1522</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1468</v>
+        <v>1523</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>1526</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A129">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>17</v>
       </c>
       <c r="B129" s="16">
         <v>26</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>1469</v>
+        <v>1483</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1470</v>
+        <v>1484</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>1527</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A130">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>68</v>
       </c>
       <c r="B130" s="16">
         <v>26</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>1414</v>
+        <v>1524</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1414</v>
+        <v>1525</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>1528</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A131">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>26</v>
       </c>
       <c r="B131" s="16">
         <v>26</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>1471</v>
+        <v>1505</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1472</v>
+        <v>1506</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>1529</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A132">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>4</v>
+      </c>
+      <c r="B132" s="16">
+        <v>26</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A133">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>20</v>
+      </c>
+      <c r="B133" s="16">
+        <v>26</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A134">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>14</v>
+      </c>
+      <c r="B134" s="16">
+        <v>26</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A135">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>86</v>
+      </c>
+      <c r="B135" s="16">
+        <v>26</v>
+      </c>
+      <c r="C135" s="28" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A136">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>59</v>
+      </c>
+      <c r="B136" s="16">
+        <v>26</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A137">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>56</v>
+      </c>
+      <c r="B137" s="16">
+        <v>26</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A138">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>37</v>
+      </c>
+      <c r="B138" s="16">
+        <v>26</v>
+      </c>
+      <c r="C138" s="28" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A139">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>76</v>
+      </c>
+      <c r="B139" s="16">
+        <v>26</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A140">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>85</v>
+      </c>
+      <c r="B140" s="16">
+        <v>26</v>
+      </c>
+      <c r="C140" s="28" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A141">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>50</v>
+      </c>
+      <c r="B141" s="16">
+        <v>26</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A142">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>18</v>
+      </c>
+      <c r="B142" s="16">
+        <v>26</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A143">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>98</v>
+      </c>
+      <c r="B143" s="16">
+        <v>26</v>
+      </c>
+      <c r="C143" s="28" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A144">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>37</v>
+      </c>
+      <c r="B144" s="16">
+        <v>26</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A145">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>84</v>
+      </c>
+      <c r="B145" s="16">
+        <v>26</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A146">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>86</v>
+      </c>
+      <c r="B146" s="16">
+        <v>26</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A147">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>40</v>
+      </c>
+      <c r="B147" s="16">
+        <v>26</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A148">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>25</v>
+      </c>
+      <c r="B148" s="16">
+        <v>26</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A149">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>78</v>
+      </c>
+      <c r="B149" s="16">
+        <v>26</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A150">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>23</v>
+      </c>
+      <c r="B150" s="16">
+        <v>26</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A151">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>95</v>
+      </c>
+      <c r="B151" s="16">
+        <v>26</v>
+      </c>
+      <c r="C151" s="28" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A152">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>60</v>
+      </c>
+      <c r="B152" s="16">
+        <v>26</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A153">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>41</v>
+      </c>
+      <c r="B153" s="16">
+        <v>26</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A154">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>32</v>
+      </c>
+      <c r="B154" s="16">
+        <v>26</v>
+      </c>
+      <c r="C154" s="28" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A155">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>92</v>
+      </c>
+      <c r="B155" s="16">
+        <v>26</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A156">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>3</v>
+      </c>
+      <c r="B156" s="16">
+        <v>26</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A157">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>48</v>
+      </c>
+      <c r="B157" s="16">
+        <v>26</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A158">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>5</v>
+      </c>
+      <c r="B158" s="16">
+        <v>26</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A159">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>87</v>
+      </c>
+      <c r="B159" s="16">
+        <v>26</v>
+      </c>
+      <c r="C159" s="28" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A160">
         <f t="shared" ca="1" si="3"/>
         <v>84</v>
       </c>
-      <c r="B132" s="16">
-        <v>26</v>
-      </c>
-      <c r="C132" s="28" t="s">
+      <c r="B160" s="16">
+        <v>27</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A161">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B161" s="16">
+        <v>27</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A162">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B162" s="16">
+        <v>27</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A163">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B163" s="16">
+        <v>27</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A164">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B164" s="16">
+        <v>27</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A165">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B165" s="16">
+        <v>27</v>
+      </c>
+      <c r="C165" s="28" t="s">
         <v>1473</v>
       </c>
-      <c r="D132" s="6" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A133">
+      <c r="D165" s="6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A166">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="B133" s="16">
-        <v>26</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A134">
+        <v>45</v>
+      </c>
+      <c r="B166" s="16">
+        <v>27</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A167">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B134" s="16">
-        <v>26</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A135">
+        <v>54</v>
+      </c>
+      <c r="B167" s="16">
+        <v>27</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A168">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B168" s="16">
+        <v>27</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A169">
         <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
-      <c r="B135" s="16">
-        <v>26</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A136">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="B136" s="16">
-        <v>26</v>
-      </c>
-      <c r="C136" s="28" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A137">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="B137" s="16">
-        <v>26</v>
-      </c>
-      <c r="C137" s="28" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A138">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="B138" s="16">
-        <v>26</v>
-      </c>
-      <c r="C138" s="28" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A139">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="B139" s="16">
-        <v>26</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>1486</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A140">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="B140" s="16">
-        <v>26</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A141">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="B141" s="16">
-        <v>26</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>1489</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A142">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="B142" s="16">
-        <v>26</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A143">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="B143" s="16">
-        <v>26</v>
-      </c>
-      <c r="C143" s="28" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A144">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B144" s="16">
-        <v>26</v>
-      </c>
-      <c r="C144" s="28" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A145">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="B145" s="16">
-        <v>26</v>
-      </c>
-      <c r="C145" s="28" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A146">
-        <f t="shared" ca="1" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="B146" s="16">
-        <v>26</v>
-      </c>
-      <c r="C146" s="28" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A147">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="B147" s="16">
-        <v>26</v>
-      </c>
-      <c r="C147" s="28" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A148">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="B148" s="16">
-        <v>26</v>
-      </c>
-      <c r="C148" s="28" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A149">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="B149" s="16">
-        <v>26</v>
-      </c>
-      <c r="C149" s="28" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A150">
-        <f t="shared" ca="1" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="B150" s="16">
-        <v>26</v>
-      </c>
-      <c r="C150" s="28" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A151">
-        <f t="shared" ca="1" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="B151" s="16">
-        <v>26</v>
-      </c>
-      <c r="C151" s="28" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A152">
-        <f t="shared" ca="1" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="B152" s="16">
-        <v>26</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A153">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="B153" s="16">
-        <v>26</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A154">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B154" s="16">
-        <v>26</v>
-      </c>
-      <c r="C154" s="28" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A155">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="B155" s="16">
-        <v>26</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A156">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="B156" s="16">
-        <v>26</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A157">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="B157" s="16">
-        <v>26</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A158">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B158" s="16">
-        <v>26</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A159">
-        <f t="shared" ca="1" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="B159" s="16">
-        <v>26</v>
-      </c>
-      <c r="C159" s="28" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A160">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="B160" s="16">
-        <v>27</v>
-      </c>
-      <c r="C160" s="28" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A161">
-        <f t="shared" ca="1" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="B161" s="16">
-        <v>27</v>
-      </c>
-      <c r="C161" s="28" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A162">
-        <f t="shared" ca="1" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="B162" s="16">
-        <v>27</v>
-      </c>
-      <c r="C162" s="28" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A163">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="B163" s="16">
-        <v>27</v>
-      </c>
-      <c r="C163" s="28" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A164">
-        <f t="shared" ca="1" si="3"/>
-        <v>69</v>
-      </c>
-      <c r="B164" s="16">
-        <v>27</v>
-      </c>
-      <c r="C164" s="28" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>1566</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A165">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="B165" s="16">
-        <v>27</v>
-      </c>
-      <c r="C165" s="28" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A166">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="B166" s="16">
-        <v>27</v>
-      </c>
-      <c r="C166" s="28" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A167">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B167" s="16">
-        <v>27</v>
-      </c>
-      <c r="C167" s="28" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A168">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="B168" s="16">
-        <v>27</v>
-      </c>
-      <c r="C168" s="28" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A169">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
-      </c>
       <c r="B169" s="16">
         <v>27</v>
       </c>
@@ -19556,7 +19911,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A170">
         <f t="shared" ca="1" si="3"/>
         <v>25</v>
@@ -19574,10 +19929,10 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A171">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B171" s="16">
         <v>27</v>
@@ -19592,10 +19947,10 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A172">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B172" s="16">
         <v>27</v>
@@ -19610,10 +19965,10 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A173">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B173" s="16">
         <v>27</v>
@@ -19628,10 +19983,10 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A174">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B174" s="16">
         <v>27</v>
@@ -19646,10 +20001,10 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A175">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B175" s="16">
         <v>27</v>
@@ -19664,10 +20019,10 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A176">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B176" s="16">
         <v>27</v>
@@ -19682,10 +20037,10 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A177">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B177" s="16">
         <v>27</v>
@@ -19700,10 +20055,10 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A178">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B178" s="16">
         <v>27</v>
@@ -19718,10 +20073,10 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A179">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="B179" s="16">
         <v>27</v>
@@ -19736,10 +20091,10 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A180">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B180" s="16">
         <v>27</v>
@@ -19754,10 +20109,10 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A181">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B181" s="16">
         <v>27</v>
@@ -19772,10 +20127,10 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A182">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B182" s="16">
         <v>27</v>
@@ -19790,10 +20145,10 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A183">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B183" s="16">
         <v>27</v>
@@ -19808,10 +20163,10 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A184">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B184" s="16">
         <v>27</v>
@@ -19826,10 +20181,10 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A185">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B185" s="16">
         <v>27</v>
@@ -19844,265 +20199,955 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C186" s="28"/>
-    </row>
-    <row r="187" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C187" s="28"/>
-    </row>
-    <row r="188" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C188" s="28"/>
-    </row>
-    <row r="189" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C189" s="28"/>
-    </row>
-    <row r="190" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C190" s="28"/>
-    </row>
-    <row r="191" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C191" s="28"/>
-    </row>
-    <row r="192" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C192" s="28"/>
-    </row>
-    <row r="193" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C193" s="28"/>
-    </row>
-    <row r="194" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C194" s="28"/>
-    </row>
-    <row r="195" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C195" s="28"/>
-    </row>
-    <row r="196" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C196" s="28"/>
-    </row>
-    <row r="197" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C197" s="28"/>
-    </row>
-    <row r="198" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C198" s="28"/>
-    </row>
-    <row r="199" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C199" s="28"/>
-    </row>
-    <row r="200" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C200" s="28"/>
-    </row>
-    <row r="201" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C201" s="28"/>
-    </row>
-    <row r="202" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C202" s="28"/>
-    </row>
-    <row r="203" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C203" s="28"/>
-    </row>
-    <row r="204" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C204" s="28"/>
-    </row>
-    <row r="205" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C205" s="28"/>
-    </row>
-    <row r="206" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C206" s="28"/>
-    </row>
-    <row r="207" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C207" s="28"/>
-    </row>
-    <row r="208" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C208" s="28"/>
-    </row>
-    <row r="209" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C209" s="28"/>
-    </row>
-    <row r="210" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C210" s="28"/>
-    </row>
-    <row r="211" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C211" s="28"/>
-    </row>
-    <row r="212" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C212" s="28"/>
-    </row>
-    <row r="213" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C213" s="28"/>
-    </row>
-    <row r="214" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C214" s="28"/>
-    </row>
-    <row r="215" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C215" s="28"/>
-    </row>
-    <row r="216" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C216" s="28"/>
-    </row>
-    <row r="217" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C217" s="28"/>
-    </row>
-    <row r="218" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C218" s="28"/>
-    </row>
-    <row r="219" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C219" s="28"/>
-    </row>
-    <row r="220" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C220" s="28"/>
-    </row>
-    <row r="221" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C221" s="28"/>
-    </row>
-    <row r="222" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C222" s="28"/>
-    </row>
-    <row r="223" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C223" s="28"/>
-    </row>
-    <row r="224" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C224" s="28"/>
-    </row>
-    <row r="225" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C225" s="28"/>
-    </row>
-    <row r="226" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C226" s="28"/>
-    </row>
-    <row r="227" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C227" s="28"/>
-    </row>
-    <row r="228" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C228" s="28"/>
-    </row>
-    <row r="229" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C229" s="28"/>
-    </row>
-    <row r="230" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A186">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B186" s="16">
+        <v>28</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A187">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B187" s="16">
+        <v>28</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A188">
+        <f t="shared" ref="A188:A229" ca="1" si="4">RANDBETWEEN(1,100)</f>
+        <v>48</v>
+      </c>
+      <c r="B188" s="16">
+        <v>28</v>
+      </c>
+      <c r="C188" s="28" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A189">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B189" s="16">
+        <v>28</v>
+      </c>
+      <c r="C189" s="28" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A190">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B190" s="16">
+        <v>28</v>
+      </c>
+      <c r="C190" s="28" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A191">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="B191" s="16">
+        <v>28</v>
+      </c>
+      <c r="C191" s="28" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A192">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B192" s="16">
+        <v>28</v>
+      </c>
+      <c r="C192" s="28" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A193">
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B193" s="16">
+        <v>28</v>
+      </c>
+      <c r="C193" s="28" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A194">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B194" s="16">
+        <v>28</v>
+      </c>
+      <c r="C194" s="28" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A195">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B195" s="16">
+        <v>28</v>
+      </c>
+      <c r="C195" s="28" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A196">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B196" s="16">
+        <v>28</v>
+      </c>
+      <c r="C196" s="28" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A197">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B197" s="16">
+        <v>28</v>
+      </c>
+      <c r="C197" s="28" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A198">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B198" s="16">
+        <v>28</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A199">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B199" s="16">
+        <v>28</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A200">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="B200" s="16">
+        <v>28</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A201">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B201" s="16">
+        <v>28</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A202">
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="B202" s="16">
+        <v>28</v>
+      </c>
+      <c r="C202" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A203">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B203" s="16">
+        <v>28</v>
+      </c>
+      <c r="C203" s="28" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A204">
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B204" s="16">
+        <v>28</v>
+      </c>
+      <c r="C204" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A205">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B205" s="16">
+        <v>28</v>
+      </c>
+      <c r="C205" s="28" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A206">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B206" s="16">
+        <v>28</v>
+      </c>
+      <c r="C206" s="28" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A207">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B207" s="16">
+        <v>28</v>
+      </c>
+      <c r="C207" s="28" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A208">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="B208" s="16">
+        <v>28</v>
+      </c>
+      <c r="C208" s="28" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A209">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B209" s="16">
+        <v>28</v>
+      </c>
+      <c r="C209" s="28" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A210">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B210" s="16">
+        <v>28</v>
+      </c>
+      <c r="C210" s="28" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A211">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="B211" s="16">
+        <v>28</v>
+      </c>
+      <c r="C211" s="28" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A212">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B212" s="16">
+        <v>28</v>
+      </c>
+      <c r="C212" s="28" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A213">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B213" s="16">
+        <v>28</v>
+      </c>
+      <c r="C213" s="28" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A214">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="B214" s="16">
+        <v>28</v>
+      </c>
+      <c r="C214" s="28" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A215">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B215" s="16">
+        <v>28</v>
+      </c>
+      <c r="C215" s="28" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A216">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B216" s="16">
+        <v>28</v>
+      </c>
+      <c r="C216" s="28" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A217">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B217" s="16">
+        <v>28</v>
+      </c>
+      <c r="C217" s="28" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A218">
+        <f t="shared" ca="1" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B218" s="16">
+        <v>28</v>
+      </c>
+      <c r="C218" s="28" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A219">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B219" s="16">
+        <v>28</v>
+      </c>
+      <c r="C219" s="28" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A220">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B220" s="16">
+        <v>28</v>
+      </c>
+      <c r="C220" s="28" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A221">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B221" s="16">
+        <v>28</v>
+      </c>
+      <c r="C221" s="28" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A222">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="B222" s="16">
+        <v>28</v>
+      </c>
+      <c r="C222" s="28" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A223">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B223" s="16">
+        <v>28</v>
+      </c>
+      <c r="C223" s="28" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A224">
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B224" s="16">
+        <v>28</v>
+      </c>
+      <c r="C224" s="28" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A225">
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="B225" s="16">
+        <v>28</v>
+      </c>
+      <c r="C225" s="28" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A226">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B226" s="16">
+        <v>28</v>
+      </c>
+      <c r="C226" s="28" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A227">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B227" s="16">
+        <v>28</v>
+      </c>
+      <c r="C227" s="28" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A228">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B228" s="16">
+        <v>28</v>
+      </c>
+      <c r="C228" s="28" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A229">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="B229" s="16">
+        <v>28</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C230" s="28"/>
-    </row>
-    <row r="231" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E230" s="6"/>
+    </row>
+    <row r="231" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C231" s="28"/>
-    </row>
-    <row r="232" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E231" s="6"/>
+    </row>
+    <row r="232" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C232" s="28"/>
-    </row>
-    <row r="233" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E232" s="6"/>
+    </row>
+    <row r="233" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C233" s="28"/>
-    </row>
-    <row r="234" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E233" s="6"/>
+    </row>
+    <row r="234" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C234" s="28"/>
-    </row>
-    <row r="235" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E234" s="6"/>
+    </row>
+    <row r="235" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C235" s="28"/>
-    </row>
-    <row r="236" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E235" s="6"/>
+    </row>
+    <row r="236" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C236" s="28"/>
-    </row>
-    <row r="237" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E236" s="6"/>
+    </row>
+    <row r="237" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C237" s="28"/>
-    </row>
-    <row r="238" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E237" s="6"/>
+    </row>
+    <row r="238" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C238" s="28"/>
-    </row>
-    <row r="239" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E238" s="6"/>
+    </row>
+    <row r="239" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C239" s="28"/>
-    </row>
-    <row r="240" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E239" s="6"/>
+    </row>
+    <row r="240" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C240" s="28"/>
-    </row>
-    <row r="241" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E240" s="6"/>
+    </row>
+    <row r="241" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C241" s="28"/>
-    </row>
-    <row r="242" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E241" s="6"/>
+    </row>
+    <row r="242" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C242" s="28"/>
-    </row>
-    <row r="243" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E242" s="6"/>
+    </row>
+    <row r="243" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C243" s="28"/>
-    </row>
-    <row r="244" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E243" s="6"/>
+    </row>
+    <row r="244" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C244" s="28"/>
-    </row>
-    <row r="245" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E244" s="6"/>
+    </row>
+    <row r="245" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C245" s="28"/>
-    </row>
-    <row r="246" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E245" s="6"/>
+    </row>
+    <row r="246" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C246" s="28"/>
-    </row>
-    <row r="247" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E246" s="6"/>
+    </row>
+    <row r="247" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C247" s="28"/>
-    </row>
-    <row r="248" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E247" s="6"/>
+    </row>
+    <row r="248" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C248" s="28"/>
-    </row>
-    <row r="249" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E248" s="6"/>
+    </row>
+    <row r="249" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C249" s="28"/>
-    </row>
-    <row r="250" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E249" s="6"/>
+    </row>
+    <row r="250" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C250" s="28"/>
-    </row>
-    <row r="251" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E250" s="6"/>
+    </row>
+    <row r="251" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C251" s="28"/>
-    </row>
-    <row r="252" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E251" s="6"/>
+    </row>
+    <row r="252" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C252" s="28"/>
-    </row>
-    <row r="253" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E252" s="6"/>
+    </row>
+    <row r="253" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C253" s="28"/>
-    </row>
-    <row r="254" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E253" s="6"/>
+    </row>
+    <row r="254" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C254" s="28"/>
-    </row>
-    <row r="255" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E254" s="6"/>
+    </row>
+    <row r="255" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C255" s="28"/>
-    </row>
-    <row r="256" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E255" s="6"/>
+    </row>
+    <row r="256" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C256" s="28"/>
-    </row>
-    <row r="257" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E256" s="6"/>
+    </row>
+    <row r="257" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C257" s="28"/>
-    </row>
-    <row r="258" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E257" s="6"/>
+    </row>
+    <row r="258" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C258" s="28"/>
-    </row>
-    <row r="259" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E258" s="6"/>
+    </row>
+    <row r="259" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C259" s="28"/>
-    </row>
-    <row r="260" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="E259" s="6"/>
+    </row>
+    <row r="260" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C260" s="28"/>
     </row>
-    <row r="261" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="261" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C261" s="28"/>
     </row>
-    <row r="262" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="262" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C262" s="28"/>
     </row>
-    <row r="263" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="263" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C263" s="28"/>
     </row>
-    <row r="264" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="264" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C264" s="28"/>
     </row>
-    <row r="265" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="265" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C265" s="28"/>
     </row>
-    <row r="266" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="266" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C266" s="28"/>
     </row>
-    <row r="267" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="267" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C267" s="28"/>
     </row>
-    <row r="268" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="268" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C268" s="28"/>
     </row>
-    <row r="269" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="269" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C269" s="28"/>
     </row>
-    <row r="270" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="270" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C270" s="28"/>
     </row>
-    <row r="271" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="271" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C271" s="28"/>
     </row>
-    <row r="272" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="272" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C272" s="28"/>
     </row>
     <row r="273" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
@@ -20319,15 +21364,15 @@
       <c r="C343" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E159">
+  <autoFilter ref="A1:E229">
     <filterColumn colId="1">
       <filters>
         <filter val="26"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A88:I123">
-    <sortCondition ref="A88:A123"/>
+  <sortState ref="A126:J159">
+    <sortCondition ref="A126:A159"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mainichi_Renshuu.xlsx
+++ b/Mainichi_Renshuu.xlsx
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">minanihongo!$A$1:$F$210</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$226</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$266</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1921">
   <si>
     <t>様</t>
   </si>
@@ -5267,6 +5267,555 @@
   <si>
     <t>tham gia</t>
   </si>
+  <si>
+    <t>時刻表</t>
+  </si>
+  <si>
+    <t>休憩</t>
+  </si>
+  <si>
+    <t>きゅうけい</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nghỉ giải lao</t>
+  </si>
+  <si>
+    <t>連休</t>
+  </si>
+  <si>
+    <t>れんきゅう</t>
+  </si>
+  <si>
+    <t>kỳ nghỉ dài ngày</t>
+  </si>
+  <si>
+    <t>展覧会</t>
+  </si>
+  <si>
+    <t>てんらんかい</t>
+  </si>
+  <si>
+    <t>triển lãm</t>
+  </si>
+  <si>
+    <t>お正月</t>
+  </si>
+  <si>
+    <t>おしょうがつ</t>
+  </si>
+  <si>
+    <t>năm mới</t>
+  </si>
+  <si>
+    <t>九州</t>
+  </si>
+  <si>
+    <t>きゅうしゅう</t>
+  </si>
+  <si>
+    <t>村</t>
+  </si>
+  <si>
+    <t>むら</t>
+  </si>
+  <si>
+    <t>ngôi làng</t>
+  </si>
+  <si>
+    <t>卒業</t>
+  </si>
+  <si>
+    <t>そつぎょう</t>
+  </si>
+  <si>
+    <t>tốt nghiệp</t>
+  </si>
+  <si>
+    <t>sống</t>
+  </si>
+  <si>
+    <t>せいかつ</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>嫌だ</t>
+  </si>
+  <si>
+    <t>いやだ</t>
+  </si>
+  <si>
+    <t>gét, sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nhắm mắt lại</t>
+  </si>
+  <si>
+    <t>目を閉じる</t>
+  </si>
+  <si>
+    <t>目をとじる</t>
+  </si>
+  <si>
+    <t>聞こえる</t>
+  </si>
+  <si>
+    <t>きこえる</t>
+  </si>
+  <si>
+    <t>nghe</t>
+  </si>
+  <si>
+    <t>thành phố</t>
+  </si>
+  <si>
+    <t>とかい</t>
+  </si>
+  <si>
+    <t>都会</t>
+  </si>
+  <si>
+    <t>美しい自然だ</t>
+  </si>
+  <si>
+    <t>うつくしい　しぜんだ</t>
+  </si>
+  <si>
+    <t>thiên nhiên tươi đẹp</t>
+  </si>
+  <si>
+    <t>決めます</t>
+  </si>
+  <si>
+    <t>きめます</t>
+  </si>
+  <si>
+    <t>quyet dinh</t>
+  </si>
+  <si>
+    <t>予定表</t>
+  </si>
+  <si>
+    <t>よていひょう</t>
+  </si>
+  <si>
+    <t>du dinh, lich</t>
+  </si>
+  <si>
+    <t>連絡</t>
+  </si>
+  <si>
+    <t>lien lac</t>
+  </si>
+  <si>
+    <t>ご希望</t>
+  </si>
+  <si>
+    <t>hy vong</t>
+  </si>
+  <si>
+    <t>ごきぼう</t>
+  </si>
+  <si>
+    <t>３０</t>
+  </si>
+  <si>
+    <t>夢で見たうち</t>
+  </si>
+  <si>
+    <t>入る　まえに、　写真を　みます。</t>
+  </si>
+  <si>
+    <t>ある　晩　夢を　見ました。　私は　部屋に　いました。　窓の　外に　地球が　見えました。</t>
+  </si>
+  <si>
+    <t>「ここは　月の　うちだ」　と　思いました。　うれしかったです．でも、よく　見ると、壁には、</t>
+  </si>
+  <si>
+    <t>何も　掛けて　ありません。　テーブルや　いすも　ありません．何も　飾って　ありません。　</t>
+  </si>
+  <si>
+    <t>私は　「こんな　うちは　嫌だ」と　大きい　声で　言いました。</t>
+  </si>
+  <si>
+    <t>カレンダーも　掛けて　あります。　本棚に　好きな　本が　いろいろ　並べて　あります。　</t>
+  </si>
+  <si>
+    <t>夢で　見た　うちより　いいと　思いました。</t>
+  </si>
+  <si>
+    <t>わたしの　部屋の　壁に　丸くて、青い　月の　写真が　はって　あります。　いつも　ベッドに</t>
+  </si>
+  <si>
+    <t>すると、　目が　覚めました。　私の　部屋には　ベッドや　机が　置いて　あります。　壁に　</t>
+  </si>
+  <si>
+    <t>２９</t>
+  </si>
+  <si>
+    <t>こみます</t>
+  </si>
+  <si>
+    <t>込みます</t>
+  </si>
+  <si>
+    <t>すきます</t>
+  </si>
+  <si>
+    <t>V
+ắ
+ng
+, v
+ắ
+ng v
+ẻ</t>
+  </si>
+  <si>
+    <t>H
+ỏ
+ng
+, b
+ị
+h
+ỏ
+ng, h
+ỏ
+ng hóc</t>
+  </si>
+  <si>
+    <t>われます</t>
+  </si>
+  <si>
+    <t>vỡ, bị vỡ</t>
+  </si>
+  <si>
+    <t>おれます</t>
+  </si>
+  <si>
+    <t>gãy</t>
+  </si>
+  <si>
+    <t>rách</t>
+  </si>
+  <si>
+    <t>きれます</t>
+  </si>
+  <si>
+    <t>đứt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bẩn</t>
+  </si>
+  <si>
+    <t>かかります</t>
+  </si>
+  <si>
+    <t>khóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nhầm lẫn</t>
+  </si>
+  <si>
+    <t>おとします</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> đánh rơi</t>
+  </si>
+  <si>
+    <t>ひろいます</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nhặt được</t>
+  </si>
+  <si>
+    <t>まちがえます</t>
+  </si>
+  <si>
+    <t>よごれます</t>
+  </si>
+  <si>
+    <t>やぶれます</t>
+  </si>
+  <si>
+    <t>こわれます</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> đông đúc</t>
+  </si>
+  <si>
+    <t>tuộc, bị trệch, bị lệch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ngã, đổ bệnh</t>
+  </si>
+  <si>
+    <t>chỉ định</t>
+  </si>
+  <si>
+    <t>vùng này, quanh đây</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  động đất</t>
+  </si>
+  <si>
+    <t>cái kim</t>
+  </si>
+  <si>
+    <t>はずれます</t>
+  </si>
+  <si>
+    <t>たおれます</t>
+  </si>
+  <si>
+    <t>さす</t>
+  </si>
+  <si>
+    <t>このへん</t>
+  </si>
+  <si>
+    <t>じしん</t>
+  </si>
+  <si>
+    <t>はれ</t>
+  </si>
+  <si>
+    <t>ném</t>
+  </si>
+  <si>
+    <t>直行する</t>
+  </si>
+  <si>
+    <t>ちょっこうする</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> đi thẳng</t>
+  </si>
+  <si>
+    <t>あげます</t>
+  </si>
+  <si>
+    <t>nâng lên</t>
+  </si>
+  <si>
+    <t>hạ xuống</t>
+  </si>
+  <si>
+    <t>しらせます</t>
+  </si>
+  <si>
+    <t>さげます</t>
+  </si>
+  <si>
+    <t>しようきんし</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cấm sử dụng</t>
+  </si>
+  <si>
+    <t>なげます</t>
+  </si>
+  <si>
+    <t>ひじょうぐち</t>
+  </si>
+  <si>
+    <t>cửa thoát hiểm</t>
+  </si>
+  <si>
+    <t>thành công</t>
+  </si>
+  <si>
+    <t>せいこう</t>
+  </si>
+  <si>
+    <t>しっぱい</t>
+  </si>
+  <si>
+    <t>thất bại</t>
+  </si>
+  <si>
+    <t>みがきます</t>
+  </si>
+  <si>
+    <t>chải, cọ</t>
+  </si>
+  <si>
+    <t>歯医者に　教えて　もらった　とおりに　歯を　磨いて　います</t>
+  </si>
+  <si>
+    <t>くみたて</t>
+  </si>
+  <si>
+    <t>説明書の　とおりに　かぐを　くみたてて　ください</t>
+  </si>
+  <si>
+    <t>lắp ráp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nội thất</t>
+  </si>
+  <si>
+    <t>かぐ</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>みつかります</t>
+  </si>
+  <si>
+    <t>見つかります</t>
+  </si>
+  <si>
+    <t>新しいの　買った　あとで　なくした　時計が　見つかりました</t>
+  </si>
+  <si>
+    <t>tìm thấy</t>
+  </si>
+  <si>
+    <t>気がつきました</t>
+  </si>
+  <si>
+    <t>バスを　降りた　あとで　気がつきました</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> để ý, quan tâm tới</t>
+  </si>
+  <si>
+    <t>こうぎ</t>
+  </si>
+  <si>
+    <t>講義</t>
+  </si>
+  <si>
+    <t>講義の　あとで　タワポンさんに　あいます</t>
+  </si>
+  <si>
+    <t>bài học, bài giảng</t>
+  </si>
+  <si>
+    <t>xì dầu</t>
+  </si>
+  <si>
+    <t>しょうゆ</t>
+  </si>
+  <si>
+    <t>醤油</t>
+  </si>
+  <si>
+    <t>醤油を　つかないで　ご飯を食べます</t>
+  </si>
+  <si>
+    <t>スイッチを　切らないで　寝ます</t>
+  </si>
+  <si>
+    <t>きょう　都合が　わるければ、　あした　来て　ください</t>
+  </si>
+  <si>
+    <t>かわります</t>
+  </si>
+  <si>
+    <t>変わります</t>
+  </si>
+  <si>
+    <t>秋に　なれば　木の葉の色が　変わります</t>
+  </si>
+  <si>
+    <t>thay đổi</t>
+  </si>
+  <si>
+    <t>thắc mắc, không ổn</t>
+  </si>
+  <si>
+    <t>英語が　話しなければ　海外旅行の　とき、困ります</t>
+  </si>
+  <si>
+    <t>thêm, đánh dấu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bật</t>
+  </si>
+  <si>
+    <t>厚ければ　エアコンを　つけて　ください</t>
+  </si>
+  <si>
+    <t>正しい</t>
+  </si>
+  <si>
+    <t>答えが　正しければ　丸を　つけて　ください</t>
+  </si>
+  <si>
+    <t>đúng, chính xác</t>
+  </si>
+  <si>
+    <t>cảng</t>
+  </si>
+  <si>
+    <t>みなと</t>
+  </si>
+  <si>
+    <t>天気が　いければ　屋上から　港が　みえます</t>
+  </si>
+  <si>
+    <t>屋上：　おくじょう</t>
+  </si>
+  <si>
+    <t>ほうほう</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>phương pháp</t>
+  </si>
+  <si>
+    <t>この方法が　だめなら、　あの方法で　やりましょう</t>
+  </si>
+  <si>
+    <t>ふた</t>
+  </si>
+  <si>
+    <t>蓋</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cái nắp</t>
+  </si>
+  <si>
+    <t>蓋を　閉めれば、動きますよ</t>
+  </si>
+  <si>
+    <t>mở</t>
+  </si>
+  <si>
+    <t>thay, đổi</t>
+  </si>
+  <si>
+    <t>換えます</t>
+  </si>
+  <si>
+    <t>電池を　換えれば、まだ　使えます</t>
+  </si>
+  <si>
+    <t>電池：　でんち</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>給料は　おおければ　おおいほど　いいです</t>
+  </si>
+  <si>
+    <t>thoải mái</t>
+  </si>
+  <si>
+    <t>らく</t>
+  </si>
+  <si>
+    <t>楽</t>
+  </si>
+  <si>
+    <t>車は　操作が　簡単なら　簡単ほど　運転が　楽です</t>
+  </si>
 </sst>
 </file>
 
@@ -5275,7 +5824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5350,6 +5899,20 @@
     </font>
     <font>
       <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5487,7 +6050,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5548,6 +6111,16 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -5899,7 +6472,7 @@
     <row r="2" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D2">
         <f t="shared" ref="D2:D33" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2">
         <v>87</v>
@@ -5917,7 +6490,7 @@
     <row r="3" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2">
         <v>58</v>
@@ -5932,7 +6505,7 @@
     <row r="4" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -5953,7 +6526,7 @@
     <row r="5" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2">
         <v>31</v>
@@ -5971,7 +6544,7 @@
     <row r="6" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
@@ -5992,7 +6565,7 @@
     <row r="7" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>136</v>
@@ -6007,7 +6580,7 @@
     <row r="8" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2">
         <v>47</v>
@@ -6025,7 +6598,7 @@
     <row r="9" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>127</v>
@@ -6043,7 +6616,7 @@
     <row r="10" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
         <v>115</v>
@@ -6064,7 +6637,7 @@
     <row r="11" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2">
         <v>126</v>
@@ -6079,7 +6652,7 @@
     <row r="12" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -6097,7 +6670,7 @@
     <row r="13" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2">
         <v>94</v>
@@ -6112,7 +6685,7 @@
     <row r="14" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -6130,7 +6703,7 @@
     <row r="15" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="E15" s="2">
         <v>122</v>
@@ -6145,7 +6718,7 @@
     <row r="16" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2">
         <v>117</v>
@@ -6166,7 +6739,7 @@
     <row r="17" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2">
         <v>63</v>
@@ -6187,7 +6760,7 @@
     <row r="18" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
@@ -6202,7 +6775,7 @@
     <row r="19" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2">
         <v>116</v>
@@ -6218,7 +6791,7 @@
     <row r="20" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2">
         <v>96</v>
@@ -6236,7 +6809,7 @@
     <row r="21" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -6251,7 +6824,7 @@
     <row r="22" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -6269,7 +6842,7 @@
     <row r="23" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2">
         <v>71</v>
@@ -6287,7 +6860,7 @@
     <row r="24" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -6305,7 +6878,7 @@
     <row r="25" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -6323,7 +6896,7 @@
     <row r="26" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2">
         <v>60</v>
@@ -6341,7 +6914,7 @@
     <row r="27" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2">
         <v>85</v>
@@ -6356,7 +6929,7 @@
     <row r="28" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2">
         <v>114</v>
@@ -6371,7 +6944,7 @@
     <row r="29" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2">
         <v>140</v>
@@ -6392,7 +6965,7 @@
     <row r="30" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2">
         <v>104</v>
@@ -6407,7 +6980,7 @@
     <row r="31" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2">
         <v>146</v>
@@ -6428,7 +7001,7 @@
     <row r="32" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E32" s="2">
         <v>66</v>
@@ -6446,7 +7019,7 @@
     <row r="33" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2">
         <v>9</v>
@@ -6464,7 +7037,7 @@
     <row r="34" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D34">
         <f t="shared" ref="D34:D65" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2">
         <v>86</v>
@@ -6480,7 +7053,7 @@
     <row r="35" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2">
         <v>7</v>
@@ -6495,7 +7068,7 @@
     <row r="36" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2">
         <v>92</v>
@@ -6510,7 +7083,7 @@
     <row r="37" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
@@ -6528,7 +7101,7 @@
     <row r="38" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2">
         <v>134</v>
@@ -6543,7 +7116,7 @@
     <row r="39" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E39" s="2">
         <v>6</v>
@@ -6558,7 +7131,7 @@
     <row r="40" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2">
         <v>129</v>
@@ -6573,7 +7146,7 @@
     <row r="41" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E41" s="2">
         <v>61</v>
@@ -6591,7 +7164,7 @@
     <row r="42" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2">
         <v>46</v>
@@ -6606,7 +7179,7 @@
     <row r="43" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
@@ -6624,7 +7197,7 @@
     <row r="44" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2">
         <v>55</v>
@@ -6642,7 +7215,7 @@
     <row r="45" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2">
         <v>53</v>
@@ -6660,7 +7233,7 @@
     <row r="46" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2">
         <v>149</v>
@@ -6678,7 +7251,7 @@
     <row r="47" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E47" s="2">
         <v>70</v>
@@ -6693,7 +7266,7 @@
     <row r="48" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2">
         <v>144</v>
@@ -6711,7 +7284,7 @@
     <row r="49" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2">
         <v>118</v>
@@ -6739,7 +7312,7 @@
     <row r="50" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2">
         <v>73</v>
@@ -6754,7 +7327,7 @@
     <row r="51" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2">
         <v>109</v>
@@ -6769,7 +7342,7 @@
     <row r="52" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E52" s="2">
         <v>83</v>
@@ -6787,7 +7360,7 @@
     <row r="53" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E53" s="2">
         <v>107</v>
@@ -6802,7 +7375,7 @@
     <row r="54" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2">
         <v>25</v>
@@ -6820,7 +7393,7 @@
     <row r="55" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2">
         <v>108</v>
@@ -6844,7 +7417,7 @@
     <row r="56" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E56" s="2">
         <v>113</v>
@@ -6859,7 +7432,7 @@
     <row r="57" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E57" s="2">
         <v>89</v>
@@ -6883,7 +7456,7 @@
     <row r="58" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E58" s="2">
         <v>130</v>
@@ -6898,7 +7471,7 @@
     <row r="59" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2">
         <v>72</v>
@@ -6916,7 +7489,7 @@
     <row r="60" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2">
         <v>77</v>
@@ -6931,7 +7504,7 @@
     <row r="61" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E61" s="2">
         <v>57</v>
@@ -6952,7 +7525,7 @@
     <row r="62" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2">
         <v>105</v>
@@ -6967,7 +7540,7 @@
     <row r="63" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E63" s="2">
         <v>45</v>
@@ -6982,7 +7555,7 @@
     <row r="64" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E64" s="2">
         <v>128</v>
@@ -7000,7 +7573,7 @@
     <row r="65" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E65" s="2">
         <v>8</v>
@@ -7018,7 +7591,7 @@
     <row r="66" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D66">
         <f t="shared" ref="D66:D97" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E66" s="2">
         <v>135</v>
@@ -7033,7 +7606,7 @@
     <row r="67" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E67" s="2">
         <v>56</v>
@@ -7051,7 +7624,7 @@
     <row r="68" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E68" s="2">
         <v>82</v>
@@ -7066,7 +7639,7 @@
     <row r="69" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E69" s="2">
         <v>112</v>
@@ -7081,7 +7654,7 @@
     <row r="70" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E70" s="2">
         <v>121</v>
@@ -7099,7 +7672,7 @@
     <row r="71" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E71" s="2">
         <v>30</v>
@@ -7114,7 +7687,7 @@
     <row r="72" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E72" s="2">
         <v>106</v>
@@ -7132,7 +7705,7 @@
     <row r="73" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E73" s="2">
         <v>64</v>
@@ -7150,7 +7723,7 @@
     <row r="74" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2">
         <v>147</v>
@@ -7168,7 +7741,7 @@
     <row r="75" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2">
         <v>44</v>
@@ -7184,7 +7757,7 @@
     <row r="76" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E76" s="2">
         <v>148</v>
@@ -7202,7 +7775,7 @@
     <row r="77" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E77" s="2">
         <v>59</v>
@@ -7217,7 +7790,7 @@
     <row r="78" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E78" s="2">
         <v>132</v>
@@ -7232,7 +7805,7 @@
     <row r="79" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E79" s="2">
         <v>12</v>
@@ -7247,7 +7820,7 @@
     <row r="80" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E80" s="2">
         <v>26</v>
@@ -7265,7 +7838,7 @@
     <row r="81" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2">
         <v>43</v>
@@ -7283,7 +7856,7 @@
     <row r="82" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E82" s="2">
         <v>103</v>
@@ -7301,7 +7874,7 @@
     <row r="83" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E83" s="2">
         <v>99</v>
@@ -7316,7 +7889,7 @@
     <row r="84" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="E84" s="2">
         <v>141</v>
@@ -7334,7 +7907,7 @@
     <row r="85" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E85" s="2">
         <v>37</v>
@@ -7352,7 +7925,7 @@
     <row r="86" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E86" s="2">
         <v>4</v>
@@ -7370,7 +7943,7 @@
     <row r="87" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2">
         <v>119</v>
@@ -7388,7 +7961,7 @@
     <row r="88" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E88" s="2">
         <v>143</v>
@@ -7406,7 +7979,7 @@
     <row r="89" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E89" s="2">
         <v>32</v>
@@ -7421,7 +7994,7 @@
     <row r="90" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E90" s="2">
         <v>97</v>
@@ -7436,7 +8009,7 @@
     <row r="91" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E91" s="2">
         <v>120</v>
@@ -7454,7 +8027,7 @@
     <row r="92" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E92" s="2">
         <v>24</v>
@@ -7470,7 +8043,7 @@
     <row r="93" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E93" s="2">
         <v>110</v>
@@ -7485,7 +8058,7 @@
     <row r="94" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D94">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E94" s="2">
         <v>51</v>
@@ -7503,7 +8076,7 @@
     <row r="95" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D95">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E95" s="2">
         <v>18</v>
@@ -7521,7 +8094,7 @@
     <row r="96" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D96">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E96" s="2">
         <v>69</v>
@@ -7539,7 +8112,7 @@
     <row r="97" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D97">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E97" s="2">
         <v>15</v>
@@ -7554,7 +8127,7 @@
     <row r="98" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D98">
         <f t="shared" ref="D98:D129" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E98" s="2">
         <v>142</v>
@@ -7575,7 +8148,7 @@
     <row r="99" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E99" s="2">
         <v>78</v>
@@ -7590,7 +8163,7 @@
     <row r="100" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E100" s="2">
         <v>2</v>
@@ -7608,7 +8181,7 @@
     <row r="101" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E101" s="2">
         <v>100</v>
@@ -7623,7 +8196,7 @@
     <row r="102" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E102" s="2">
         <v>95</v>
@@ -7638,7 +8211,7 @@
     <row r="103" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E103" s="2">
         <v>80</v>
@@ -7656,7 +8229,7 @@
     <row r="104" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -7674,7 +8247,7 @@
     <row r="105" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E105" s="2">
         <v>67</v>
@@ -7689,7 +8262,7 @@
     <row r="106" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E106" s="2">
         <v>75</v>
@@ -7707,7 +8280,7 @@
     <row r="107" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E107" s="2">
         <v>76</v>
@@ -7723,7 +8296,7 @@
     <row r="108" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E108" s="2">
         <v>133</v>
@@ -7741,7 +8314,7 @@
     <row r="109" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E109" s="2">
         <v>27</v>
@@ -7759,7 +8332,7 @@
     <row r="110" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E110" s="2">
         <v>28</v>
@@ -7774,7 +8347,7 @@
     <row r="111" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="E111" s="2">
         <v>34</v>
@@ -7792,7 +8365,7 @@
     <row r="112" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2">
         <v>93</v>
@@ -7810,7 +8383,7 @@
     <row r="113" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E113" s="2">
         <v>52</v>
@@ -7828,7 +8401,7 @@
     <row r="114" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="E114" s="2">
         <v>131</v>
@@ -7849,7 +8422,7 @@
     <row r="115" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="E115" s="2">
         <v>65</v>
@@ -7867,7 +8440,7 @@
     <row r="116" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E116" s="2">
         <v>74</v>
@@ -7885,7 +8458,7 @@
     <row r="117" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E117" s="2">
         <v>49</v>
@@ -7903,7 +8476,7 @@
     <row r="118" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E118" s="2">
         <v>41</v>
@@ -7918,7 +8491,7 @@
     <row r="119" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E119" s="2">
         <v>111</v>
@@ -7936,7 +8509,7 @@
     <row r="120" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="E120" s="2">
         <v>90</v>
@@ -7954,7 +8527,7 @@
     <row r="121" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E121" s="2">
         <v>137</v>
@@ -7972,7 +8545,7 @@
     <row r="122" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E122" s="2">
         <v>20</v>
@@ -7987,7 +8560,7 @@
     <row r="123" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E123" s="2">
         <v>124</v>
@@ -8005,7 +8578,7 @@
     <row r="124" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E124" s="2">
         <v>138</v>
@@ -8023,7 +8596,7 @@
     <row r="125" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E125" s="2">
         <v>36</v>
@@ -8038,7 +8611,7 @@
     <row r="126" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D126">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E126" s="2">
         <v>68</v>
@@ -8054,7 +8627,7 @@
     <row r="127" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D127">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E127" s="2">
         <v>22</v>
@@ -8072,7 +8645,7 @@
     <row r="128" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D128">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E128" s="2">
         <v>33</v>
@@ -8090,7 +8663,7 @@
     <row r="129" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D129">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E129" s="2">
         <v>125</v>
@@ -8108,7 +8681,7 @@
     <row r="130" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D130">
         <f t="shared" ref="D130:D162" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E130" s="2">
         <v>54</v>
@@ -8126,7 +8699,7 @@
     <row r="131" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D131">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E131" s="2">
         <v>11</v>
@@ -8147,7 +8720,7 @@
     <row r="132" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E132" s="2">
         <v>79</v>
@@ -8165,7 +8738,7 @@
     <row r="133" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E133" s="2">
         <v>10</v>
@@ -8183,7 +8756,7 @@
     <row r="134" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E134" s="2">
         <v>17</v>
@@ -8198,7 +8771,7 @@
     <row r="135" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D135">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E135" s="2">
         <v>88</v>
@@ -8216,7 +8789,7 @@
     <row r="136" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E136" s="2">
         <v>98</v>
@@ -8234,7 +8807,7 @@
     <row r="137" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E137" s="2">
         <v>62</v>
@@ -8252,7 +8825,7 @@
     <row r="138" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E138" s="2">
         <v>19</v>
@@ -8270,7 +8843,7 @@
     <row r="139" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E139" s="2">
         <v>81</v>
@@ -8288,7 +8861,7 @@
     <row r="140" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E140" s="2">
         <v>23</v>
@@ -8306,7 +8879,7 @@
     <row r="141" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E141" s="2">
         <v>101</v>
@@ -8321,7 +8894,7 @@
     <row r="142" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E142" s="2">
         <v>84</v>
@@ -8336,7 +8909,7 @@
     <row r="143" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E143" s="2">
         <v>123</v>
@@ -8351,7 +8924,7 @@
     <row r="144" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E144" s="2">
         <v>48</v>
@@ -8369,7 +8942,7 @@
     <row r="145" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E145" s="2">
         <v>91</v>
@@ -8384,7 +8957,7 @@
     <row r="146" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E146" s="2">
         <v>38</v>
@@ -8402,7 +8975,7 @@
     <row r="147" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E147" s="2">
         <v>102</v>
@@ -8423,7 +8996,7 @@
     <row r="148" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E148" s="2">
         <v>139</v>
@@ -8444,7 +9017,7 @@
     <row r="149" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F149" s="2">
         <v>17</v>
@@ -8462,7 +9035,7 @@
     <row r="150" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2">
         <v>17</v>
@@ -8480,7 +9053,7 @@
     <row r="151" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F151" s="2">
         <v>17</v>
@@ -8498,7 +9071,7 @@
     <row r="152" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F152" s="2">
         <v>17</v>
@@ -8513,7 +9086,7 @@
     <row r="153" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F153" s="2">
         <v>17</v>
@@ -8534,7 +9107,7 @@
     <row r="154" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F154" s="2">
         <v>17</v>
@@ -8555,7 +9128,7 @@
     <row r="155" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F155" s="2">
         <v>17</v>
@@ -8573,7 +9146,7 @@
     <row r="156" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F156" s="2">
         <v>17</v>
@@ -8588,7 +9161,7 @@
     <row r="157" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2">
         <v>17</v>
@@ -8600,7 +9173,7 @@
     <row r="158" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D158">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F158" s="2">
         <v>17</v>
@@ -8618,7 +9191,7 @@
     <row r="159" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D159">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F159" s="2">
         <v>17</v>
@@ -8636,7 +9209,7 @@
     <row r="160" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D160">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F160" s="2">
         <v>17</v>
@@ -8657,7 +9230,7 @@
     <row r="161" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D161">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F161" s="2">
         <v>17</v>
@@ -8675,7 +9248,7 @@
     <row r="162" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D162">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F162" s="2">
         <v>17</v>
@@ -8696,7 +9269,7 @@
     <row r="163" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D163">
         <f t="shared" ref="D163:D182" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E163">
         <v>10</v>
@@ -8720,7 +9293,7 @@
     <row r="164" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="E164">
         <v>17</v>
@@ -8744,7 +9317,7 @@
     <row r="165" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -8765,7 +9338,7 @@
     <row r="166" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -8786,7 +9359,7 @@
     <row r="167" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -8810,7 +9383,7 @@
     <row r="168" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>18</v>
@@ -8834,7 +9407,7 @@
     <row r="169" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -8855,7 +9428,7 @@
     <row r="170" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E170">
         <v>13</v>
@@ -8879,7 +9452,7 @@
     <row r="171" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E171">
         <v>7</v>
@@ -8903,7 +9476,7 @@
     <row r="172" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E172">
         <v>8</v>
@@ -8927,7 +9500,7 @@
     <row r="173" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E173">
         <v>14</v>
@@ -8951,7 +9524,7 @@
     <row r="174" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E174">
         <v>19</v>
@@ -8975,7 +9548,7 @@
     <row r="175" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E175">
         <v>20</v>
@@ -8996,7 +9569,7 @@
     <row r="176" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -9017,7 +9590,7 @@
     <row r="177" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E177">
         <v>5</v>
@@ -9032,7 +9605,7 @@
     <row r="178" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D178">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="E178">
         <v>11</v>
@@ -9056,7 +9629,7 @@
     <row r="179" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D179">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E179">
         <v>15</v>
@@ -9080,7 +9653,7 @@
     <row r="180" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D180">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E180">
         <v>4</v>
@@ -9098,7 +9671,7 @@
     <row r="181" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D181">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E181">
         <v>16</v>
@@ -9119,7 +9692,7 @@
     <row r="182" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D182">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E182">
         <v>9</v>
@@ -9143,7 +9716,7 @@
     <row r="183" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D183">
         <f t="shared" ref="D183:D220" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E183">
         <v>13</v>
@@ -9161,7 +9734,7 @@
     <row r="184" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E184">
         <v>4</v>
@@ -9185,7 +9758,7 @@
     <row r="185" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="E185">
         <v>5</v>
@@ -9206,7 +9779,7 @@
     <row r="186" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F186" s="2">
         <v>19</v>
@@ -9227,7 +9800,7 @@
     <row r="187" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E187">
         <v>18</v>
@@ -9251,7 +9824,7 @@
     <row r="188" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E188">
         <v>14</v>
@@ -9275,7 +9848,7 @@
     <row r="189" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E189">
         <v>24</v>
@@ -9299,7 +9872,7 @@
     <row r="190" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D190">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E190">
         <v>23</v>
@@ -9326,7 +9899,7 @@
     <row r="191" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D191">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E191">
         <v>17</v>
@@ -9347,7 +9920,7 @@
     <row r="192" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D192">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="E192">
         <v>12</v>
@@ -9371,7 +9944,7 @@
     <row r="193" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D193">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E193">
         <v>22</v>
@@ -9392,7 +9965,7 @@
     <row r="194" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D194">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -9416,7 +9989,7 @@
     <row r="195" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D195">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E195">
         <v>19</v>
@@ -9440,7 +10013,7 @@
     <row r="196" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D196">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E196">
         <v>8</v>
@@ -9458,7 +10031,7 @@
     <row r="197" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -9479,7 +10052,7 @@
     <row r="198" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="E198">
         <v>20</v>
@@ -9503,7 +10076,7 @@
     <row r="199" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E199">
         <v>7</v>
@@ -9521,7 +10094,7 @@
     <row r="200" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E200">
         <v>11</v>
@@ -9539,7 +10112,7 @@
     <row r="201" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E201">
         <v>16</v>
@@ -9563,7 +10136,7 @@
     <row r="202" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -9584,7 +10157,7 @@
     <row r="203" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F203" s="2">
         <v>19</v>
@@ -9602,7 +10175,7 @@
     <row r="204" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E204">
         <v>10</v>
@@ -9620,7 +10193,7 @@
     <row r="205" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E205">
         <v>21</v>
@@ -9644,7 +10217,7 @@
     <row r="206" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -9665,7 +10238,7 @@
     <row r="207" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -9689,7 +10262,7 @@
     <row r="208" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E208">
         <v>15</v>
@@ -9713,7 +10286,7 @@
     <row r="209" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E209">
         <v>9</v>
@@ -9737,7 +10310,7 @@
     <row r="210" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -9758,7 +10331,7 @@
     <row r="211" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -9779,7 +10352,7 @@
     <row r="212" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E212">
         <v>8</v>
@@ -9803,7 +10376,7 @@
     <row r="213" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -9824,7 +10397,7 @@
     <row r="214" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E214">
         <v>10</v>
@@ -9845,7 +10418,7 @@
     <row r="215" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D215">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E215">
         <v>11</v>
@@ -9866,7 +10439,7 @@
     <row r="216" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D216">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E216">
         <v>7</v>
@@ -9887,7 +10460,7 @@
     <row r="217" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D217">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E217">
         <v>4</v>
@@ -9908,7 +10481,7 @@
     <row r="218" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D218">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -9929,7 +10502,7 @@
     <row r="219" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D219">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="E219">
         <v>6</v>
@@ -9950,7 +10523,7 @@
     <row r="220" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D220">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F220" s="2">
         <v>20</v>
@@ -10118,7 +10691,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
+      <selection pane="bottomLeft" activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10161,7 +10734,7 @@
     <row r="2" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7">
         <v>13</v>
@@ -10182,7 +10755,7 @@
     <row r="3" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>816</v>
@@ -10203,7 +10776,7 @@
     <row r="4" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>666</v>
@@ -10224,7 +10797,7 @@
     <row r="5" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7">
         <v>17</v>
@@ -10248,7 +10821,7 @@
     <row r="6" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B6" s="7">
         <v>12</v>
@@ -10269,7 +10842,7 @@
     <row r="7" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A7">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7">
         <v>13</v>
@@ -10290,7 +10863,7 @@
     <row r="8" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A8">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>816</v>
@@ -10311,7 +10884,7 @@
     <row r="9" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A9">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -10329,7 +10902,7 @@
     <row r="10" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A10">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B10" s="7">
         <v>14</v>
@@ -10350,7 +10923,7 @@
     <row r="11" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A11">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>865</v>
@@ -10371,7 +10944,7 @@
     <row r="12" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A12">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>971</v>
@@ -10395,7 +10968,7 @@
     <row r="13" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A13">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -10416,7 +10989,7 @@
     <row r="14" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A14">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>816</v>
@@ -10437,7 +11010,7 @@
     <row r="15" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A15">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -10455,7 +11028,7 @@
     <row r="16" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A16">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7">
         <v>13</v>
@@ -10476,7 +11049,7 @@
     <row r="17" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A17">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B17" s="7">
         <v>11</v>
@@ -10494,7 +11067,7 @@
     <row r="18" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A18">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -10535,7 +11108,7 @@
     <row r="20" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A20">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B20" s="7">
         <v>13</v>
@@ -10556,7 +11129,7 @@
     <row r="21" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A21">
         <f t="shared" ref="A21:A26" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>816</v>
@@ -10577,7 +11150,7 @@
     <row r="22" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>865</v>
@@ -10598,7 +11171,7 @@
     <row r="23" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>971</v>
@@ -10619,7 +11192,7 @@
     <row r="24" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>971</v>
@@ -10640,7 +11213,7 @@
     <row r="25" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>666</v>
@@ -10661,7 +11234,7 @@
     <row r="26" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>816</v>
@@ -10702,7 +11275,7 @@
     <row r="28" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A28">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B28" s="7">
         <v>13</v>
@@ -10723,7 +11296,7 @@
     <row r="29" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A29">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>666</v>
@@ -10744,7 +11317,7 @@
     <row r="30" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A30">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>971</v>
@@ -10765,7 +11338,7 @@
     <row r="31" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A31">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B31" s="7">
         <v>12</v>
@@ -10786,7 +11359,7 @@
     <row r="32" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A32">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>666</v>
@@ -10807,7 +11380,7 @@
     <row r="33" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A33">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>865</v>
@@ -10828,7 +11401,7 @@
     <row r="34" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A34">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>816</v>
@@ -10846,7 +11419,7 @@
     <row r="35" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A35">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B35" s="7">
         <v>12</v>
@@ -10861,7 +11434,7 @@
     <row r="36" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A36">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>816</v>
@@ -10882,7 +11455,7 @@
     <row r="37" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A37">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B37" s="7">
         <v>14</v>
@@ -10897,7 +11470,7 @@
     <row r="38" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A38">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>666</v>
@@ -10918,7 +11491,7 @@
     <row r="39" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A39">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B39" s="7">
         <v>12</v>
@@ -10939,7 +11512,7 @@
     <row r="40" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A40">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>666</v>
@@ -10980,7 +11553,7 @@
     <row r="42" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A42">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B42" s="7">
         <v>12</v>
@@ -10995,7 +11568,7 @@
     <row r="43" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A43">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B43" s="7">
         <v>13</v>
@@ -11016,7 +11589,7 @@
     <row r="44" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A44">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>865</v>
@@ -11037,7 +11610,7 @@
     <row r="45" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A45">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B45" s="7">
         <v>11</v>
@@ -11058,7 +11631,7 @@
     <row r="46" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A46">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>971</v>
@@ -11079,7 +11652,7 @@
     <row r="47" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A47">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>666</v>
@@ -11100,7 +11673,7 @@
     <row r="48" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A48">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="7">
         <v>12</v>
@@ -11121,7 +11694,7 @@
     <row r="49" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A49">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>971</v>
@@ -11142,7 +11715,7 @@
     <row r="50" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A50">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>971</v>
@@ -11163,7 +11736,7 @@
     <row r="51" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A51">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B51" s="7">
         <v>12</v>
@@ -11178,7 +11751,7 @@
     <row r="52" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A52">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B52" s="7">
         <v>12</v>
@@ -11199,7 +11772,7 @@
     <row r="53" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A53">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>816</v>
@@ -11220,7 +11793,7 @@
     <row r="54" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A54">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B54" s="7">
         <v>14</v>
@@ -11301,7 +11874,7 @@
     <row r="58" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A58">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B58" s="7">
         <v>12</v>
@@ -11322,7 +11895,7 @@
     <row r="59" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A59">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>816</v>
@@ -11343,7 +11916,7 @@
     <row r="60" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A60">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B60" s="7">
         <v>14</v>
@@ -11364,7 +11937,7 @@
     <row r="61" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A61">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="7">
         <v>12</v>
@@ -11385,7 +11958,7 @@
     <row r="62" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A62">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>816</v>
@@ -11406,7 +11979,7 @@
     <row r="63" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A63">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B63" s="7">
         <v>11</v>
@@ -11427,7 +12000,7 @@
     <row r="64" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A64">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>865</v>
@@ -11468,7 +12041,7 @@
     <row r="66" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A66">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>865</v>
@@ -11489,7 +12062,7 @@
     <row r="67" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A67">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B67" s="7">
         <v>11</v>
@@ -11510,7 +12083,7 @@
     <row r="68" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A68">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B68" s="7">
         <v>14</v>
@@ -11531,7 +12104,7 @@
     <row r="69" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A69">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B69" s="7">
         <v>14</v>
@@ -11552,7 +12125,7 @@
     <row r="70" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A70">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>865</v>
@@ -11573,7 +12146,7 @@
     <row r="71" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A71">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>865</v>
@@ -11615,7 +12188,7 @@
     <row r="73" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A73">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>865</v>
@@ -11639,7 +12212,7 @@
     <row r="74" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A74">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B74" s="7">
         <v>12</v>
@@ -11657,7 +12230,7 @@
     <row r="75" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A75">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>816</v>
@@ -11678,7 +12251,7 @@
     <row r="76" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A76">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B76" s="7">
         <v>13</v>
@@ -11699,7 +12272,7 @@
     <row r="77" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A77">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B77" s="7">
         <v>13</v>
@@ -11720,7 +12293,7 @@
     <row r="78" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A78">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>816</v>
@@ -11741,7 +12314,7 @@
     <row r="79" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A79">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>666</v>
@@ -11762,7 +12335,7 @@
     <row r="80" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A80">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>666</v>
@@ -11783,7 +12356,7 @@
     <row r="81" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A81">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B81" s="7">
         <v>13</v>
@@ -11804,7 +12377,7 @@
     <row r="82" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A82">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B82" s="7">
         <v>13</v>
@@ -11825,7 +12398,7 @@
     <row r="83" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A83">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B83" s="7">
         <v>13</v>
@@ -11846,7 +12419,7 @@
     <row r="84" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A84">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>971</v>
@@ -11867,7 +12440,7 @@
     <row r="85" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A85">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>666</v>
@@ -11888,7 +12461,7 @@
     <row r="86" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A86">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>865</v>
@@ -11909,7 +12482,7 @@
     <row r="87" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A87">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>816</v>
@@ -11930,7 +12503,7 @@
     <row r="88" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A88">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B88" s="7">
         <v>11</v>
@@ -11951,7 +12524,7 @@
     <row r="89" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A89">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B89" s="7">
         <v>12</v>
@@ -12006,7 +12579,7 @@
     <row r="92" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A92">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>865</v>
@@ -12027,7 +12600,7 @@
     <row r="93" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A93">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="B93" s="7">
         <v>14</v>
@@ -12054,7 +12627,7 @@
     <row r="94" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A94">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="B94" s="7">
         <v>13</v>
@@ -12075,7 +12648,7 @@
     <row r="95" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A95">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>666</v>
@@ -12096,7 +12669,7 @@
     <row r="96" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A96">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>666</v>
@@ -12143,7 +12716,7 @@
     <row r="98" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A98">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>865</v>
@@ -12164,7 +12737,7 @@
     <row r="99" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A99">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>971</v>
@@ -12185,7 +12758,7 @@
     <row r="100" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A100">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>971</v>
@@ -12206,7 +12779,7 @@
     <row r="101" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A101">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B101" s="7">
         <v>12</v>
@@ -12224,7 +12797,7 @@
     <row r="102" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A102">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B102" s="7">
         <v>12</v>
@@ -12239,7 +12812,7 @@
     <row r="103" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A103">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>666</v>
@@ -12280,7 +12853,7 @@
     <row r="105" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A105">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>666</v>
@@ -12301,7 +12874,7 @@
     <row r="106" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A106">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>816</v>
@@ -12322,7 +12895,7 @@
     <row r="107" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A107">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B107" s="7">
         <v>18</v>
@@ -12343,7 +12916,7 @@
     <row r="108" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A108">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B108" s="7">
         <v>11</v>
@@ -12364,7 +12937,7 @@
     <row r="109" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A109">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>816</v>
@@ -12385,7 +12958,7 @@
     <row r="110" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A110">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>666</v>
@@ -12406,7 +12979,7 @@
     <row r="111" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A111">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>816</v>
@@ -12427,7 +13000,7 @@
     <row r="112" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A112">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B112" s="7">
         <v>13</v>
@@ -12448,7 +13021,7 @@
     <row r="113" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A113">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B113" s="7">
         <v>14</v>
@@ -12469,7 +13042,7 @@
     <row r="114" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A114">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>816</v>
@@ -12490,7 +13063,7 @@
     <row r="115" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A115">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B115" s="7">
         <v>13</v>
@@ -12511,7 +13084,7 @@
     <row r="116" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A116">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B116" s="7">
         <v>13</v>
@@ -12535,7 +13108,7 @@
     <row r="117" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A117">
         <f t="shared" ref="A117:A122" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B117" s="7">
         <v>17</v>
@@ -12556,7 +13129,7 @@
     <row r="118" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>865</v>
@@ -12577,7 +13150,7 @@
     <row r="119" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>971</v>
@@ -12598,7 +13171,7 @@
     <row r="120" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>971</v>
@@ -12619,7 +13192,7 @@
     <row r="121" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>816</v>
@@ -12640,7 +13213,7 @@
     <row r="122" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>865</v>
@@ -12661,7 +13234,7 @@
     <row r="123" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A123">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B123" s="7">
         <v>12</v>
@@ -12682,7 +13255,7 @@
     <row r="124" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A124">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>816</v>
@@ -12703,7 +13276,7 @@
     <row r="125" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A125">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B125" s="7">
         <v>12</v>
@@ -12718,7 +13291,7 @@
     <row r="126" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A126">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>816</v>
@@ -12739,7 +13312,7 @@
     <row r="127" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A127">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>971</v>
@@ -12760,7 +13333,7 @@
     <row r="128" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A128">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B128" s="7">
         <v>11</v>
@@ -12778,7 +13351,7 @@
     <row r="129" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A129">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>666</v>
@@ -12799,7 +13372,7 @@
     <row r="130" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A130">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B130" s="7">
         <v>13</v>
@@ -12860,7 +13433,7 @@
     <row r="133" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A133">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B133" s="7">
         <v>12</v>
@@ -12881,7 +13454,7 @@
     <row r="134" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A134">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>666</v>
@@ -12905,7 +13478,7 @@
     <row r="135" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A135">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>666</v>
@@ -12926,7 +13499,7 @@
     <row r="136" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A136">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B136" s="7">
         <v>20</v>
@@ -12947,7 +13520,7 @@
     <row r="137" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A137">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B137" s="7">
         <v>20</v>
@@ -12971,7 +13544,7 @@
     <row r="138" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A138">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B138" s="7">
         <v>20</v>
@@ -12992,7 +13565,7 @@
     <row r="139" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A139">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B139" s="7">
         <v>20</v>
@@ -13016,7 +13589,7 @@
     <row r="140" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A140">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B140" s="7">
         <v>20</v>
@@ -17272,11 +17845,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R343"/>
+  <dimension ref="A1:R342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A286" sqref="A286:B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -17285,13 +17858,14 @@
     <col min="2" max="2" width="18.7109375" style="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="79.85546875" style="15" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="73.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="94.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="18" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>770</v>
@@ -17659,7 +18233,7 @@
     <row r="27" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A27">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="16">
         <v>17</v>
@@ -17674,7 +18248,7 @@
     <row r="28" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A28">
         <f t="shared" ref="A28:A44" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B28" s="16">
         <v>17</v>
@@ -17689,7 +18263,7 @@
     <row r="29" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -17704,7 +18278,7 @@
     <row r="30" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -17719,7 +18293,7 @@
     <row r="31" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B31" s="16">
         <v>17</v>
@@ -17737,7 +18311,7 @@
     <row r="32" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B32" s="16">
         <v>17</v>
@@ -17752,7 +18326,7 @@
     <row r="33" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B33" s="16">
         <v>17</v>
@@ -17767,7 +18341,7 @@
     <row r="34" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B34" s="16">
         <v>17</v>
@@ -17782,7 +18356,7 @@
     <row r="35" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B35" s="16">
         <v>17</v>
@@ -17797,7 +18371,7 @@
     <row r="36" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B36" s="16">
         <v>17</v>
@@ -17812,7 +18386,7 @@
     <row r="37" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B37" s="16">
         <v>17</v>
@@ -17827,7 +18401,7 @@
     <row r="38" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B38" s="16">
         <v>17</v>
@@ -17842,7 +18416,7 @@
     <row r="39" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B39" s="16">
         <v>17</v>
@@ -17857,7 +18431,7 @@
     <row r="40" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B40" s="16">
         <v>17</v>
@@ -17872,7 +18446,7 @@
     <row r="41" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B41" s="16">
         <v>17</v>
@@ -17887,7 +18461,7 @@
     <row r="42" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B42" s="16">
         <v>17</v>
@@ -17902,7 +18476,7 @@
     <row r="43" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B43" s="16">
         <v>18</v>
@@ -17920,7 +18494,7 @@
     <row r="44" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B44" s="16">
         <v>18</v>
@@ -18444,7 +19018,7 @@
     <row r="88" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A88">
         <f t="shared" ref="A88:A115" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B88" s="16">
         <v>25</v>
@@ -18462,7 +19036,7 @@
     <row r="89" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B89" s="16">
         <v>24</v>
@@ -18480,7 +19054,7 @@
     <row r="90" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B90" s="16">
         <v>23</v>
@@ -18498,7 +19072,7 @@
     <row r="91" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B91" s="16">
         <v>25</v>
@@ -18516,7 +19090,7 @@
     <row r="92" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B92" s="16">
         <v>23</v>
@@ -18531,7 +19105,7 @@
     <row r="93" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B93" s="16">
         <v>25</v>
@@ -18549,7 +19123,7 @@
     <row r="94" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B94" s="16">
         <v>25</v>
@@ -18567,7 +19141,7 @@
     <row r="95" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B95" s="16">
         <v>25</v>
@@ -18582,7 +19156,7 @@
     <row r="96" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B96" s="16">
         <v>25</v>
@@ -18600,7 +19174,7 @@
     <row r="97" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97" s="16">
         <v>23</v>
@@ -18618,7 +19192,7 @@
     <row r="98" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B98" s="16">
         <v>23</v>
@@ -18633,7 +19207,7 @@
     <row r="99" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B99" s="16">
         <v>23</v>
@@ -18651,7 +19225,7 @@
     <row r="100" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B100" s="16">
         <v>23</v>
@@ -18669,7 +19243,7 @@
     <row r="101" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B101" s="16">
         <v>24</v>
@@ -18687,7 +19261,7 @@
     <row r="102" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B102" s="16">
         <v>23</v>
@@ -18705,7 +19279,7 @@
     <row r="103" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B103" s="16">
         <v>23</v>
@@ -18723,7 +19297,7 @@
     <row r="104" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B104" s="16">
         <v>23</v>
@@ -18741,7 +19315,7 @@
     <row r="105" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B105" s="16">
         <v>25</v>
@@ -18759,7 +19333,7 @@
     <row r="106" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B106" s="16">
         <v>24</v>
@@ -18777,7 +19351,7 @@
     <row r="107" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B107" s="16">
         <v>25</v>
@@ -18795,7 +19369,7 @@
     <row r="108" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B108" s="16">
         <v>25</v>
@@ -18813,7 +19387,7 @@
     <row r="109" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B109" s="16">
         <v>24</v>
@@ -18831,7 +19405,7 @@
     <row r="110" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B110" s="16">
         <v>24</v>
@@ -18849,7 +19423,7 @@
     <row r="111" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B111" s="16">
         <v>25</v>
@@ -18867,7 +19441,7 @@
     <row r="112" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B112" s="16">
         <v>25</v>
@@ -18885,7 +19459,7 @@
     <row r="113" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B113" s="16">
         <v>24</v>
@@ -18903,7 +19477,7 @@
     <row r="114" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B114" s="16">
         <v>24</v>
@@ -18921,7 +19495,7 @@
     <row r="115" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B115" s="16">
         <v>28</v>
@@ -18939,7 +19513,7 @@
     <row r="116" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A116">
         <f t="shared" ref="A116:A123" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B116" s="16">
         <v>23</v>
@@ -18957,7 +19531,7 @@
     <row r="117" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A117">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B117" s="16">
         <v>23</v>
@@ -18975,7 +19549,7 @@
     <row r="118" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A118">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B118" s="16">
         <v>23</v>
@@ -18990,7 +19564,7 @@
     <row r="119" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A119">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B119" s="16">
         <v>23</v>
@@ -19008,7 +19582,7 @@
     <row r="120" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A120">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B120" s="16">
         <v>25</v>
@@ -19026,7 +19600,7 @@
     <row r="121" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A121">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B121" s="16">
         <v>24</v>
@@ -19044,7 +19618,7 @@
     <row r="122" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A122">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B122" s="16">
         <v>25</v>
@@ -19062,7 +19636,7 @@
     <row r="123" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A123">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B123" s="16">
         <v>25</v>
@@ -19080,7 +19654,7 @@
     <row r="124" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A124">
         <f t="shared" ref="A124:A187" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B124" s="16">
         <v>23</v>
@@ -19098,7 +19672,7 @@
     <row r="125" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B125" s="16">
         <v>23</v>
@@ -19113,10 +19687,10 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A126">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>40</v>
+        <f t="shared" ref="A126:A159" ca="1" si="4">RANDBETWEEN(1,100)</f>
+        <v>31</v>
       </c>
       <c r="B126" s="16">
         <v>26</v>
@@ -19131,10 +19705,10 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A127">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
       </c>
       <c r="B127" s="16">
         <v>26</v>
@@ -19149,10 +19723,10 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A128">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
       </c>
       <c r="B128" s="16">
         <v>26</v>
@@ -19167,10 +19741,10 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A129">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
       </c>
       <c r="B129" s="16">
         <v>26</v>
@@ -19185,10 +19759,10 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A130">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
       </c>
       <c r="B130" s="16">
         <v>26</v>
@@ -19203,10 +19777,10 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A131">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
       </c>
       <c r="B131" s="16">
         <v>26</v>
@@ -19221,10 +19795,10 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A132">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
       <c r="B132" s="16">
         <v>26</v>
@@ -19239,10 +19813,10 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A133">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
       </c>
       <c r="B133" s="16">
         <v>26</v>
@@ -19257,10 +19831,10 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A134">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
       </c>
       <c r="B134" s="16">
         <v>26</v>
@@ -19275,10 +19849,10 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A135">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="B135" s="16">
         <v>26</v>
@@ -19293,10 +19867,10 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A136">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
       </c>
       <c r="B136" s="16">
         <v>26</v>
@@ -19311,10 +19885,10 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A137">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>56</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="B137" s="16">
         <v>26</v>
@@ -19329,10 +19903,10 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A138">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
       </c>
       <c r="B138" s="16">
         <v>26</v>
@@ -19347,9 +19921,9 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A139">
-        <f ca="1">RANDBETWEEN(1,100)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>76</v>
       </c>
       <c r="B139" s="16">
@@ -19365,10 +19939,10 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A140">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
       </c>
       <c r="B140" s="16">
         <v>26</v>
@@ -19383,10 +19957,10 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A141">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
       </c>
       <c r="B141" s="16">
         <v>26</v>
@@ -19401,10 +19975,10 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A142">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
       </c>
       <c r="B142" s="16">
         <v>26</v>
@@ -19419,10 +19993,10 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A143">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>98</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
       </c>
       <c r="B143" s="16">
         <v>26</v>
@@ -19437,10 +20011,10 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A144">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33</v>
       </c>
       <c r="B144" s="16">
         <v>26</v>
@@ -19455,10 +20029,10 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A145">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
       </c>
       <c r="B145" s="16">
         <v>26</v>
@@ -19473,10 +20047,10 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A146">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
       </c>
       <c r="B146" s="16">
         <v>26</v>
@@ -19491,10 +20065,10 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A147">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
       </c>
       <c r="B147" s="16">
         <v>26</v>
@@ -19509,10 +20083,10 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A148">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
       </c>
       <c r="B148" s="16">
         <v>26</v>
@@ -19527,10 +20101,10 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A149">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
       </c>
       <c r="B149" s="16">
         <v>26</v>
@@ -19545,10 +20119,10 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A150">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>23</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
       </c>
       <c r="B150" s="16">
         <v>26</v>
@@ -19563,10 +20137,10 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A151">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
       </c>
       <c r="B151" s="16">
         <v>26</v>
@@ -19581,10 +20155,10 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A152">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
       </c>
       <c r="B152" s="16">
         <v>26</v>
@@ -19602,10 +20176,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A153">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
       </c>
       <c r="B153" s="16">
         <v>26</v>
@@ -19620,10 +20194,10 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A154">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
       </c>
       <c r="B154" s="16">
         <v>26</v>
@@ -19638,10 +20212,10 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A155">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
       </c>
       <c r="B155" s="16">
         <v>26</v>
@@ -19656,10 +20230,10 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A156">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
       </c>
       <c r="B156" s="16">
         <v>26</v>
@@ -19674,10 +20248,10 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A157">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
       </c>
       <c r="B157" s="16">
         <v>26</v>
@@ -19692,10 +20266,10 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A158">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="B158" s="16">
         <v>26</v>
@@ -19713,10 +20287,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A159">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
       </c>
       <c r="B159" s="16">
         <v>26</v>
@@ -19734,7 +20308,7 @@
     <row r="160" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A160">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B160" s="16">
         <v>27</v>
@@ -19752,7 +20326,7 @@
     <row r="161" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A161">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B161" s="16">
         <v>27</v>
@@ -19770,7 +20344,7 @@
     <row r="162" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A162">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B162" s="16">
         <v>27</v>
@@ -19788,7 +20362,7 @@
     <row r="163" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A163">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B163" s="16">
         <v>27</v>
@@ -19806,7 +20380,7 @@
     <row r="164" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A164">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B164" s="16">
         <v>27</v>
@@ -19824,7 +20398,7 @@
     <row r="165" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A165">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B165" s="16">
         <v>27</v>
@@ -19842,7 +20416,7 @@
     <row r="166" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A166">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B166" s="16">
         <v>27</v>
@@ -19860,7 +20434,7 @@
     <row r="167" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A167">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B167" s="16">
         <v>27</v>
@@ -19878,7 +20452,7 @@
     <row r="168" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A168">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B168" s="16">
         <v>27</v>
@@ -19896,7 +20470,7 @@
     <row r="169" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A169">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B169" s="16">
         <v>27</v>
@@ -19914,7 +20488,7 @@
     <row r="170" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A170">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B170" s="16">
         <v>27</v>
@@ -19932,7 +20506,7 @@
     <row r="171" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A171">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B171" s="16">
         <v>27</v>
@@ -19950,7 +20524,7 @@
     <row r="172" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A172">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B172" s="16">
         <v>27</v>
@@ -19968,7 +20542,7 @@
     <row r="173" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A173">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B173" s="16">
         <v>27</v>
@@ -19986,7 +20560,7 @@
     <row r="174" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A174">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B174" s="16">
         <v>27</v>
@@ -20004,7 +20578,7 @@
     <row r="175" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A175">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B175" s="16">
         <v>27</v>
@@ -20022,7 +20596,7 @@
     <row r="176" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A176">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B176" s="16">
         <v>27</v>
@@ -20040,7 +20614,7 @@
     <row r="177" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A177">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B177" s="16">
         <v>27</v>
@@ -20058,7 +20632,7 @@
     <row r="178" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A178">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B178" s="16">
         <v>27</v>
@@ -20076,7 +20650,7 @@
     <row r="179" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A179">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B179" s="16">
         <v>27</v>
@@ -20094,7 +20668,7 @@
     <row r="180" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A180">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B180" s="16">
         <v>27</v>
@@ -20112,7 +20686,7 @@
     <row r="181" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A181">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B181" s="16">
         <v>27</v>
@@ -20130,7 +20704,7 @@
     <row r="182" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A182">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B182" s="16">
         <v>27</v>
@@ -20148,7 +20722,7 @@
     <row r="183" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A183">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B183" s="16">
         <v>27</v>
@@ -20166,7 +20740,7 @@
     <row r="184" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A184">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B184" s="16">
         <v>27</v>
@@ -20184,7 +20758,7 @@
     <row r="185" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A185">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B185" s="16">
         <v>27</v>
@@ -20202,7 +20776,7 @@
     <row r="186" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A186">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B186" s="16">
         <v>28</v>
@@ -20220,7 +20794,7 @@
     <row r="187" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A187">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B187" s="16">
         <v>28</v>
@@ -20237,8 +20811,8 @@
     </row>
     <row r="188" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A188">
-        <f t="shared" ref="A188:A229" ca="1" si="4">RANDBETWEEN(1,100)</f>
-        <v>48</v>
+        <f t="shared" ref="A188:A251" ca="1" si="5">RANDBETWEEN(1,100)</f>
+        <v>66</v>
       </c>
       <c r="B188" s="16">
         <v>28</v>
@@ -20255,8 +20829,8 @@
     </row>
     <row r="189" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A189">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
       </c>
       <c r="B189" s="16">
         <v>28</v>
@@ -20273,8 +20847,8 @@
     </row>
     <row r="190" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A190">
-        <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
       </c>
       <c r="B190" s="16">
         <v>28</v>
@@ -20291,8 +20865,8 @@
     </row>
     <row r="191" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A191">
-        <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
       </c>
       <c r="B191" s="16">
         <v>28</v>
@@ -20309,8 +20883,8 @@
     </row>
     <row r="192" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A192">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
       </c>
       <c r="B192" s="16">
         <v>28</v>
@@ -20327,8 +20901,8 @@
     </row>
     <row r="193" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A193">
-        <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
       </c>
       <c r="B193" s="16">
         <v>28</v>
@@ -20345,8 +20919,8 @@
     </row>
     <row r="194" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A194">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="B194" s="16">
         <v>28</v>
@@ -20363,8 +20937,8 @@
     </row>
     <row r="195" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A195">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
       </c>
       <c r="B195" s="16">
         <v>28</v>
@@ -20381,8 +20955,8 @@
     </row>
     <row r="196" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A196">
-        <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
       </c>
       <c r="B196" s="16">
         <v>28</v>
@@ -20399,8 +20973,8 @@
     </row>
     <row r="197" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A197">
-        <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="B197" s="16">
         <v>28</v>
@@ -20417,8 +20991,8 @@
     </row>
     <row r="198" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A198">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
       </c>
       <c r="B198" s="16">
         <v>28</v>
@@ -20435,8 +21009,8 @@
     </row>
     <row r="199" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A199">
-        <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
       </c>
       <c r="B199" s="16">
         <v>28</v>
@@ -20453,8 +21027,8 @@
     </row>
     <row r="200" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A200">
-        <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
       </c>
       <c r="B200" s="16">
         <v>28</v>
@@ -20471,8 +21045,8 @@
     </row>
     <row r="201" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A201">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
       </c>
       <c r="B201" s="16">
         <v>28</v>
@@ -20489,8 +21063,8 @@
     </row>
     <row r="202" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A202">
-        <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
       </c>
       <c r="B202" s="16">
         <v>28</v>
@@ -20507,8 +21081,8 @@
     </row>
     <row r="203" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A203">
-        <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
       </c>
       <c r="B203" s="16">
         <v>28</v>
@@ -20525,8 +21099,8 @@
     </row>
     <row r="204" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A204">
-        <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
       </c>
       <c r="B204" s="16">
         <v>28</v>
@@ -20543,8 +21117,8 @@
     </row>
     <row r="205" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A205">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="B205" s="16">
         <v>28</v>
@@ -20561,8 +21135,8 @@
     </row>
     <row r="206" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A206">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
       </c>
       <c r="B206" s="16">
         <v>28</v>
@@ -20579,8 +21153,8 @@
     </row>
     <row r="207" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A207">
-        <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
       </c>
       <c r="B207" s="16">
         <v>28</v>
@@ -20597,8 +21171,8 @@
     </row>
     <row r="208" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A208">
-        <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
       </c>
       <c r="B208" s="16">
         <v>28</v>
@@ -20615,8 +21189,8 @@
     </row>
     <row r="209" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A209">
-        <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
       </c>
       <c r="B209" s="16">
         <v>28</v>
@@ -20633,8 +21207,8 @@
     </row>
     <row r="210" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A210">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
       </c>
       <c r="B210" s="16">
         <v>28</v>
@@ -20651,8 +21225,8 @@
     </row>
     <row r="211" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A211">
-        <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
       </c>
       <c r="B211" s="16">
         <v>28</v>
@@ -20669,8 +21243,8 @@
     </row>
     <row r="212" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A212">
-        <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
       </c>
       <c r="B212" s="16">
         <v>28</v>
@@ -20687,8 +21261,8 @@
     </row>
     <row r="213" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A213">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
       </c>
       <c r="B213" s="16">
         <v>28</v>
@@ -20705,8 +21279,8 @@
     </row>
     <row r="214" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A214">
-        <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
       </c>
       <c r="B214" s="16">
         <v>28</v>
@@ -20723,8 +21297,8 @@
     </row>
     <row r="215" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A215">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>35</v>
       </c>
       <c r="B215" s="16">
         <v>28</v>
@@ -20741,8 +21315,8 @@
     </row>
     <row r="216" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A216">
-        <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
       </c>
       <c r="B216" s="16">
         <v>28</v>
@@ -20759,8 +21333,8 @@
     </row>
     <row r="217" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A217">
-        <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
       </c>
       <c r="B217" s="16">
         <v>28</v>
@@ -20777,8 +21351,8 @@
     </row>
     <row r="218" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A218">
-        <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>27</v>
       </c>
       <c r="B218" s="16">
         <v>28</v>
@@ -20795,8 +21369,8 @@
     </row>
     <row r="219" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A219">
-        <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
       </c>
       <c r="B219" s="16">
         <v>28</v>
@@ -20813,8 +21387,8 @@
     </row>
     <row r="220" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A220">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
       </c>
       <c r="B220" s="16">
         <v>28</v>
@@ -20831,8 +21405,8 @@
     </row>
     <row r="221" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A221">
-        <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
       </c>
       <c r="B221" s="16">
         <v>28</v>
@@ -20849,8 +21423,8 @@
     </row>
     <row r="222" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A222">
-        <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
       </c>
       <c r="B222" s="16">
         <v>28</v>
@@ -20867,8 +21441,8 @@
     </row>
     <row r="223" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A223">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
       </c>
       <c r="B223" s="16">
         <v>28</v>
@@ -20885,8 +21459,8 @@
     </row>
     <row r="224" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A224">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
       </c>
       <c r="B224" s="16">
         <v>28</v>
@@ -20903,8 +21477,8 @@
     </row>
     <row r="225" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A225">
-        <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
       </c>
       <c r="B225" s="16">
         <v>28</v>
@@ -20921,8 +21495,8 @@
     </row>
     <row r="226" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A226">
-        <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
       </c>
       <c r="B226" s="16">
         <v>28</v>
@@ -20939,8 +21513,8 @@
     </row>
     <row r="227" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A227">
-        <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
       </c>
       <c r="B227" s="16">
         <v>28</v>
@@ -20957,8 +21531,8 @@
     </row>
     <row r="228" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A228">
-        <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="B228" s="16">
         <v>28</v>
@@ -20975,8 +21549,8 @@
     </row>
     <row r="229" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A229">
-        <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
       </c>
       <c r="B229" s="16">
         <v>28</v>
@@ -20991,259 +21565,1260 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C230" s="28"/>
+    <row r="230" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="C230" s="28" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>968</v>
+      </c>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C231" s="28"/>
-      <c r="E231" s="6"/>
-    </row>
-    <row r="232" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C232" s="28"/>
-      <c r="E232" s="6"/>
-    </row>
-    <row r="233" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C233" s="28"/>
-      <c r="E233" s="6"/>
-    </row>
-    <row r="234" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C234" s="28"/>
-      <c r="E234" s="6"/>
-    </row>
-    <row r="235" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C235" s="28"/>
-      <c r="E235" s="6"/>
-    </row>
-    <row r="236" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C236" s="28"/>
+    <row r="231" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A231">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="B231" s="16">
+        <v>31</v>
+      </c>
+      <c r="C231" s="28" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A232">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="B232" s="16">
+        <v>31</v>
+      </c>
+      <c r="C232" s="28" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A233">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B233" s="16">
+        <v>31</v>
+      </c>
+      <c r="C233" s="28" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A234">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="B234" s="16">
+        <v>31</v>
+      </c>
+      <c r="C234" s="28" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A235">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="B235" s="16">
+        <v>31</v>
+      </c>
+      <c r="C235" s="28" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A236">
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B236" s="16">
+        <v>31</v>
+      </c>
+      <c r="C236" s="28" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>1757</v>
+      </c>
       <c r="E236" s="6"/>
     </row>
-    <row r="237" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C237" s="28"/>
-      <c r="E237" s="6"/>
-    </row>
-    <row r="238" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C238" s="28"/>
-      <c r="E238" s="6"/>
-    </row>
-    <row r="239" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C239" s="28"/>
-      <c r="E239" s="6"/>
-    </row>
-    <row r="240" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C240" s="28"/>
-      <c r="E240" s="6"/>
-    </row>
-    <row r="241" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C241" s="28"/>
-      <c r="E241" s="6"/>
-    </row>
-    <row r="242" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C242" s="28"/>
-      <c r="E242" s="6"/>
-    </row>
-    <row r="243" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C243" s="28"/>
-      <c r="E243" s="6"/>
-    </row>
-    <row r="244" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C244" s="28"/>
-      <c r="E244" s="6"/>
-    </row>
-    <row r="245" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C245" s="28"/>
-      <c r="E245" s="6"/>
-    </row>
-    <row r="246" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C246" s="28"/>
-      <c r="E246" s="6"/>
-    </row>
-    <row r="247" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C247" s="28"/>
-      <c r="E247" s="6"/>
-    </row>
-    <row r="248" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C248" s="28"/>
-      <c r="E248" s="6"/>
-    </row>
-    <row r="249" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C249" s="28"/>
-      <c r="E249" s="6"/>
-    </row>
-    <row r="250" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A237">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B237" s="16">
+        <v>31</v>
+      </c>
+      <c r="C237" s="28" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A238">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="B238" s="16">
+        <v>31</v>
+      </c>
+      <c r="C238" s="28" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A239">
+        <f t="shared" ca="1" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="B239" s="16">
+        <v>31</v>
+      </c>
+      <c r="C239" s="28" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A240">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B240" s="16">
+        <v>31</v>
+      </c>
+      <c r="C240" s="28" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A241">
+        <f t="shared" ca="1" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="B241" s="16">
+        <v>31</v>
+      </c>
+      <c r="C241" s="28" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A242">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="B242" s="16">
+        <v>31</v>
+      </c>
+      <c r="C242" s="28" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A243">
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="B243" s="16">
+        <v>31</v>
+      </c>
+      <c r="C243" s="28" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A244">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="B244" s="16">
+        <v>31</v>
+      </c>
+      <c r="C244" s="28" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A245">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="B245" s="16">
+        <v>30</v>
+      </c>
+      <c r="C245" s="28" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A246">
+        <f t="shared" ca="1" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="B246" s="16">
+        <v>30</v>
+      </c>
+      <c r="C246" s="28" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A247">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B247" s="16">
+        <v>30</v>
+      </c>
+      <c r="C247" s="28" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A248">
+        <f t="shared" ca="1" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="B248" s="16">
+        <v>30</v>
+      </c>
+      <c r="C248" s="28" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A249">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C249" s="28" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D249" s="30" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A250">
+        <f t="shared" ca="1" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C250" s="28"/>
-      <c r="E250" s="6"/>
-    </row>
-    <row r="251" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D250" s="30" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A251">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C251" s="28"/>
-      <c r="E251" s="6"/>
-    </row>
-    <row r="252" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D251" s="30" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A252">
+        <f t="shared" ref="A252:A298" ca="1" si="6">RANDBETWEEN(1,100)</f>
+        <v>62</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C252" s="28"/>
-      <c r="E252" s="6"/>
-    </row>
-    <row r="253" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D252" s="30" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A253">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C253" s="28"/>
-      <c r="E253" s="6"/>
-    </row>
-    <row r="254" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D253" s="30" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A254">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C254" s="28"/>
-      <c r="E254" s="6"/>
-    </row>
-    <row r="255" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D254" s="30" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A255">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C255" s="28"/>
-      <c r="E255" s="6"/>
-    </row>
-    <row r="256" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D255" s="30" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A256">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C256" s="28"/>
-      <c r="E256" s="6"/>
-    </row>
-    <row r="257" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D256" s="30" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A257">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C257" s="28"/>
-      <c r="E257" s="6"/>
-    </row>
-    <row r="258" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D257" s="30" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A258">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C258" s="28"/>
-      <c r="E258" s="6"/>
-    </row>
-    <row r="259" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D258" s="30" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A259">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C259" s="28"/>
-      <c r="E259" s="6"/>
-    </row>
-    <row r="260" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D259" s="30" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A260">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C260" s="28"/>
-    </row>
-    <row r="261" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D260" s="30" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A261">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C261" s="28"/>
-    </row>
-    <row r="262" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D261" s="30" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A262">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C262" s="28"/>
-    </row>
-    <row r="263" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D262" s="30" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A263">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C263" s="28"/>
-    </row>
-    <row r="264" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D263" s="30" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A264">
+        <f t="shared" ca="1" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C264" s="28"/>
-    </row>
-    <row r="265" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D264" s="30" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A265">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C265" s="28"/>
-    </row>
-    <row r="266" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D265" s="30" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A266">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>1804</v>
+      </c>
       <c r="C266" s="28"/>
-    </row>
-    <row r="267" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C267" s="28"/>
-    </row>
-    <row r="268" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D266" s="30" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A267">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="B267" s="16">
+        <v>33</v>
+      </c>
+      <c r="C267" s="28" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E267" s="31" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A268">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="B268" s="16">
+        <v>33</v>
+      </c>
       <c r="C268" s="28"/>
-    </row>
-    <row r="269" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D268" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E268" s="31" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A269">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="B269" s="16">
+        <v>33</v>
+      </c>
       <c r="C269" s="28"/>
-    </row>
-    <row r="270" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D269" s="32" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E269" s="31" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A270">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="B270" s="16">
+        <v>33</v>
+      </c>
       <c r="C270" s="28"/>
-    </row>
-    <row r="271" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D270" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E270" s="31" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A271">
+        <f t="shared" ca="1" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="B271" s="16">
+        <v>33</v>
+      </c>
       <c r="C271" s="28"/>
-    </row>
-    <row r="272" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D271" s="6" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E271" s="31" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A272">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="B272" s="16">
+        <v>33</v>
+      </c>
       <c r="C272" s="28"/>
-    </row>
-    <row r="273" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D272" s="32" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E272" s="31" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A273">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B273" s="16">
+        <v>33</v>
+      </c>
       <c r="C273" s="28"/>
-    </row>
-    <row r="274" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D273" s="6" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E273" s="31" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A274">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="B274" s="16">
+        <v>33</v>
+      </c>
       <c r="C274" s="28"/>
-    </row>
-    <row r="275" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D274" s="32" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E274" s="31" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A275">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="B275" s="16">
+        <v>33</v>
+      </c>
       <c r="C275" s="28"/>
-    </row>
-    <row r="276" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D275" s="6" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E275" s="31" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A276">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="B276" s="16">
+        <v>32</v>
+      </c>
       <c r="C276" s="28"/>
-    </row>
-    <row r="277" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D276" s="6" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E276" s="31" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A277">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="B277" s="16">
+        <v>32</v>
+      </c>
       <c r="C277" s="28"/>
-    </row>
-    <row r="278" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D277" s="6" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E277" s="31" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A278">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B278" s="16">
+        <v>34</v>
+      </c>
       <c r="C278" s="28"/>
-    </row>
-    <row r="279" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D278" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E278" s="31" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G278" s="33" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A279">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="B279" s="16">
+        <v>34</v>
+      </c>
       <c r="C279" s="28"/>
-    </row>
-    <row r="280" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C280" s="28"/>
-    </row>
-    <row r="281" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C281" s="28"/>
-    </row>
-    <row r="282" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C282" s="28"/>
-    </row>
-    <row r="283" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C283" s="28"/>
-    </row>
-    <row r="284" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C284" s="28"/>
-    </row>
-    <row r="285" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C285" s="28"/>
-    </row>
-    <row r="286" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C286" s="28"/>
-    </row>
-    <row r="287" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C287" s="28"/>
-    </row>
-    <row r="288" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C288" s="28"/>
-    </row>
-    <row r="289" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C289" s="28"/>
-    </row>
-    <row r="290" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C290" s="28"/>
-    </row>
-    <row r="291" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C291" s="28"/>
-    </row>
-    <row r="292" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C292" s="28"/>
-    </row>
-    <row r="293" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C293" s="28"/>
-    </row>
-    <row r="294" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C294" s="28"/>
-    </row>
-    <row r="295" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C295" s="28"/>
-    </row>
-    <row r="296" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C296" s="28"/>
-    </row>
-    <row r="297" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C297" s="28"/>
-    </row>
-    <row r="298" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C298" s="28"/>
-    </row>
-    <row r="299" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="D279" s="6" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E279" s="31" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G279" s="33" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A280">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B280" s="16">
+        <v>34</v>
+      </c>
+      <c r="C280" s="28" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E280" s="31" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G280" s="33"/>
+    </row>
+    <row r="281" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A281">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="B281" s="16">
+        <v>34</v>
+      </c>
+      <c r="C281" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E281" s="31" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G281" s="33" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A282">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="B282" s="16">
+        <v>34</v>
+      </c>
+      <c r="C282" s="28" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E282" s="31" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G282" s="33" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A283">
+        <f t="shared" ca="1" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="B283" s="16">
+        <v>34</v>
+      </c>
+      <c r="C283" s="28" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E283" s="31" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G283" s="33" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A284">
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="B284" s="16">
+        <v>34</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E284" s="31" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G284" s="33" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A285">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="B285" s="16">
+        <v>34</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E285" s="31" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G285" s="33" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A286">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="B286" s="16">
+        <v>35</v>
+      </c>
+      <c r="C286" s="28" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E286" s="31" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G286" s="33" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A287">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="B287" s="16">
+        <v>35</v>
+      </c>
+      <c r="C287" s="28" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E287" s="31" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G287" s="33" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A288">
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="B288" s="16">
+        <v>35</v>
+      </c>
+      <c r="C288" s="28" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E288" s="31" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G288" s="33" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A289">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="B289" s="16">
+        <v>35</v>
+      </c>
+      <c r="C289" s="28" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E289" s="31" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G289" s="33"/>
+    </row>
+    <row r="290" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A290">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="B290" s="16">
+        <v>35</v>
+      </c>
+      <c r="C290" s="28" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E290" s="31" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G290" s="33" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A291">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="B291" s="16">
+        <v>35</v>
+      </c>
+      <c r="C291" s="28" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E291" s="31" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G291" s="33" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A292">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="B292" s="16">
+        <v>35</v>
+      </c>
+      <c r="C292" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E292" s="31" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G292" s="33" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A293">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="B293" s="16">
+        <v>35</v>
+      </c>
+      <c r="C293" s="28" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E293" s="31" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G293" s="33" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A294">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="B294" s="16">
+        <v>35</v>
+      </c>
+      <c r="C294" s="28" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E294" s="31" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G294" s="33" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A295">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="B295" s="16">
+        <v>35</v>
+      </c>
+      <c r="C295" s="28" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E295" s="31" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A296">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="B296" s="16">
+        <v>35</v>
+      </c>
+      <c r="C296" s="28" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E296" s="31" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G296" s="33" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1914</v>
+      </c>
+      <c r="I296" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A297">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="B297" s="16">
+        <v>35</v>
+      </c>
+      <c r="C297" s="28" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E297" s="31" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G297" s="33" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A298">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="B298" s="16">
+        <v>35</v>
+      </c>
+      <c r="C298" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E298" s="31" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G298" s="33" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C299" s="28"/>
     </row>
-    <row r="300" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="300" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C300" s="28"/>
     </row>
-    <row r="301" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="301" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C301" s="28"/>
     </row>
-    <row r="302" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="302" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C302" s="28"/>
     </row>
-    <row r="303" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="303" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C303" s="28"/>
     </row>
-    <row r="304" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="304" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C304" s="28"/>
     </row>
     <row r="305" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
@@ -21360,14 +22935,11 @@
     <row r="342" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C342" s="28"/>
     </row>
-    <row r="343" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C343" s="28"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E229">
+  <autoFilter ref="A1:E266">
     <filterColumn colId="1">
       <filters>
-        <filter val="26"/>
+        <filter val="30"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -21381,10 +22953,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E62"/>
+  <dimension ref="B1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -21593,6 +23165,59 @@
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="20" t="s">
         <v>1182</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="20" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="20" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="20" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="20" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="20" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="20" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="20" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="20" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="20" t="s">
+        <v>1801</v>
       </c>
     </row>
   </sheetData>

--- a/Mainichi_Renshuu.xlsx
+++ b/Mainichi_Renshuu.xlsx
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">minanihongo!$A$1:$F$210</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$226</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$331</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="2065">
   <si>
     <t>様</t>
   </si>
@@ -5816,6 +5816,503 @@
   <si>
     <t>車は　操作が　簡単なら　簡単ほど　運転が　楽です</t>
   </si>
+  <si>
+    <t>とどきます</t>
+  </si>
+  <si>
+    <t>届きます</t>
+  </si>
+  <si>
+    <t>早く　届く　ように　速達で　出します</t>
+  </si>
+  <si>
+    <t>速達：そくたつ</t>
+  </si>
+  <si>
+    <t>chuyển phát nhanh</t>
+  </si>
+  <si>
+    <t>chuyển tới</t>
+  </si>
+  <si>
+    <t>ほめます</t>
+  </si>
+  <si>
+    <t>褒めます</t>
+  </si>
+  <si>
+    <t>わたしは　部長に　褒められます</t>
+  </si>
+  <si>
+    <t>nhờ</t>
+  </si>
+  <si>
+    <t>khen thưởng</t>
+  </si>
+  <si>
+    <t>ふみます</t>
+  </si>
+  <si>
+    <t>踏みます</t>
+  </si>
+  <si>
+    <t>đạp, giẫm lên</t>
+  </si>
+  <si>
+    <t>大阪で　展覧会が　開かれます</t>
+  </si>
+  <si>
+    <t>おこないます</t>
+  </si>
+  <si>
+    <t>行います</t>
+  </si>
+  <si>
+    <t>大阪で　国際会議が　行われます</t>
+  </si>
+  <si>
+    <t>こわします</t>
+  </si>
+  <si>
+    <t>壊します</t>
+  </si>
+  <si>
+    <t>tiến hành</t>
+  </si>
+  <si>
+    <t>làm vỡ, làm hỏng</t>
+  </si>
+  <si>
+    <t>この　美術館は　来月　壊されます</t>
+  </si>
+  <si>
+    <t>ゆしゅつします</t>
+  </si>
+  <si>
+    <t>輸出します</t>
+  </si>
+  <si>
+    <t>xuất khẩu, xuất cảng</t>
+  </si>
+  <si>
+    <t>日本の　車は　いろいろな　国へ　輸出されて　います</t>
+  </si>
+  <si>
+    <t>くみたてます</t>
+  </si>
+  <si>
+    <t>組み立てます</t>
+  </si>
+  <si>
+    <t>はつめいします</t>
+  </si>
+  <si>
+    <t>発明します</t>
+  </si>
+  <si>
+    <r>
+      <t>電話は　グラハム．ベル　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に　よって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　発明されました</t>
+    </r>
+  </si>
+  <si>
+    <t>phát minh</t>
+  </si>
+  <si>
+    <t>しかります</t>
+  </si>
+  <si>
+    <t>叱ります</t>
+  </si>
+  <si>
+    <t>私は　兄に　叱られました</t>
+  </si>
+  <si>
+    <t>la mắng</t>
+  </si>
+  <si>
+    <t>おこします</t>
+  </si>
+  <si>
+    <t>起こします</t>
+  </si>
+  <si>
+    <t>đánh　ｔｈứｃ</t>
+  </si>
+  <si>
+    <t>私は　毎朝　父に　早く　起こされます</t>
+  </si>
+  <si>
+    <t>しょうたいします</t>
+  </si>
+  <si>
+    <t>招待します</t>
+  </si>
+  <si>
+    <t>mời</t>
+  </si>
+  <si>
+    <t>私は　ミラーさんに　パーチイーを　招待されました</t>
+  </si>
+  <si>
+    <t>けいかん</t>
+  </si>
+  <si>
+    <t>警官</t>
+  </si>
+  <si>
+    <t>cảnh sát</t>
+  </si>
+  <si>
+    <t>どろぼう</t>
+  </si>
+  <si>
+    <t>泥棒</t>
+  </si>
+  <si>
+    <t>kẻ trôm</t>
+  </si>
+  <si>
+    <t>私は　泥棒に　カメラを　盗られました</t>
+  </si>
+  <si>
+    <t>よごします</t>
+  </si>
+  <si>
+    <t>汚します</t>
+  </si>
+  <si>
+    <t>làm bẩn</t>
+  </si>
+  <si>
+    <t>私は　子どもに　服を　汚されました</t>
+  </si>
+  <si>
+    <t>電車で　私の足は　隣の人に　踏まれました</t>
+  </si>
+  <si>
+    <t>わかれます</t>
+  </si>
+  <si>
+    <t>分かれます</t>
+  </si>
+  <si>
+    <t>恋人に　分かれられました</t>
+  </si>
+  <si>
+    <t>chia tay</t>
+  </si>
+  <si>
+    <t>はっけんします</t>
+  </si>
+  <si>
+    <t>発見します</t>
+  </si>
+  <si>
+    <t>phát hiện</t>
+  </si>
+  <si>
+    <t>フランスで　むかしの　日本の　絵が　発見されました</t>
+  </si>
+  <si>
+    <t>ごうか</t>
+  </si>
+  <si>
+    <t>豪華</t>
+  </si>
+  <si>
+    <t>tráng lệ</t>
+  </si>
+  <si>
+    <t>ちょうこく</t>
+  </si>
+  <si>
+    <t>彫刻</t>
+  </si>
+  <si>
+    <t>điêu khắc</t>
+  </si>
+  <si>
+    <t>隣: となり</t>
+  </si>
+  <si>
+    <t>１</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：こうじょう</t>
+    </r>
+  </si>
+  <si>
+    <t>洗濯機は　この　工場で　組み立てられて　います</t>
+  </si>
+  <si>
+    <t>２</t>
+  </si>
+  <si>
+    <t>３</t>
+  </si>
+  <si>
+    <t>４</t>
+  </si>
+  <si>
+    <r>
+      <t>１７８９年に　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初めて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　アメリカの　大統領を　選ばれました</t>
+    </r>
+  </si>
+  <si>
+    <t>大統領：だいとうりょう</t>
+  </si>
+  <si>
+    <t>ゆにゅうします</t>
+  </si>
+  <si>
+    <t>輸入します</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nhập khẩu, nhập cảng</t>
+  </si>
+  <si>
+    <t>さそいます</t>
+  </si>
+  <si>
+    <t>誘います</t>
+  </si>
+  <si>
+    <t>鈴木さんに　デートに　誘われます</t>
+  </si>
+  <si>
+    <t>rủ, mời</t>
+  </si>
+  <si>
+    <t>うめたて</t>
+  </si>
+  <si>
+    <t>埋め立て</t>
+  </si>
+  <si>
+    <t>san lấp</t>
+  </si>
+  <si>
+    <t>せっけい</t>
+  </si>
+  <si>
+    <t>設計</t>
+  </si>
+  <si>
+    <t>イタリア人の　建築家に　よって　設計されたん　です</t>
+  </si>
+  <si>
+    <t>けんちくか</t>
+  </si>
+  <si>
+    <t>建築家</t>
+  </si>
+  <si>
+    <t>thiết kế</t>
+  </si>
+  <si>
+    <t>kiến trúc sư</t>
+  </si>
+  <si>
+    <t>ぎじゅつ</t>
+  </si>
+  <si>
+    <t>技術</t>
+  </si>
+  <si>
+    <t>công nghệ, kỹ thuật</t>
+  </si>
+  <si>
+    <t>負けます</t>
+  </si>
+  <si>
+    <t>thua</t>
+  </si>
+  <si>
+    <t>きのうの　サッカーの　試合は　日本が　ブラジルに　負けるのを　知って　いますか</t>
+  </si>
+  <si>
+    <t>しょるい</t>
+  </si>
+  <si>
+    <t>書類</t>
+  </si>
+  <si>
+    <t>giấy tờ</t>
+  </si>
+  <si>
+    <t>書類を　しまうのを　忘れました</t>
+  </si>
+  <si>
+    <t>でんげん</t>
+  </si>
+  <si>
+    <t>電源</t>
+  </si>
+  <si>
+    <t>nguồn điện</t>
+  </si>
+  <si>
+    <t>コンピューターの　電源を　切るのを　忘れました</t>
+  </si>
+  <si>
+    <t>かたづけます</t>
+  </si>
+  <si>
+    <t>片付けます</t>
+  </si>
+  <si>
+    <t>複雑</t>
+  </si>
+  <si>
+    <t>ふくざつ</t>
+  </si>
+  <si>
+    <t>説明が　複雑で、　わかりません</t>
+  </si>
+  <si>
+    <t>phức tạp</t>
+  </si>
+  <si>
+    <t>しに</t>
+  </si>
+  <si>
+    <t>死に</t>
+  </si>
+  <si>
+    <t>tai nạn</t>
+  </si>
+  <si>
+    <t>じこで　人が　大勢　死に　ました</t>
+  </si>
+  <si>
+    <t>たいふう</t>
+  </si>
+  <si>
+    <t>台風</t>
+  </si>
+  <si>
+    <t>台風で　人が　大勢　視に　ました</t>
+  </si>
+  <si>
+    <t>いしん</t>
+  </si>
+  <si>
+    <t>地震</t>
+  </si>
+  <si>
+    <t>động đất</t>
+  </si>
+  <si>
+    <t>bão</t>
+  </si>
+  <si>
+    <t>ちこくします</t>
+  </si>
+  <si>
+    <t>遅刻します</t>
+  </si>
+  <si>
+    <t>バスが　遅れた　ので、学校に　遅刻しました</t>
+  </si>
+  <si>
+    <t>muộn</t>
+  </si>
+  <si>
+    <t>びっくりします</t>
+  </si>
+  <si>
+    <t>ngạc nhiên</t>
+  </si>
+  <si>
+    <t>ごうかくします</t>
+  </si>
+  <si>
+    <t>合格します</t>
+  </si>
+  <si>
+    <t>試験に　合格して、うれしかったです</t>
+  </si>
+  <si>
+    <t>đạt, đỗ</t>
+  </si>
+  <si>
+    <t>はずかしい</t>
+  </si>
+  <si>
+    <t>恥ずかしい</t>
+  </si>
+  <si>
+    <t>xấu hổ</t>
+  </si>
+  <si>
+    <t>がっかりします</t>
+  </si>
+  <si>
+    <t>thất vọng</t>
+  </si>
+  <si>
+    <t>コンサートの　チケットが　買えなくて、がっかりしました</t>
+  </si>
 </sst>
 </file>
 
@@ -5824,7 +6321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5914,6 +6411,29 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6472,7 +6992,7 @@
     <row r="2" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D2">
         <f t="shared" ref="D2:D33" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>87</v>
@@ -6490,7 +7010,7 @@
     <row r="3" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2">
         <v>58</v>
@@ -6505,7 +7025,7 @@
     <row r="4" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -6526,7 +7046,7 @@
     <row r="5" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
         <v>31</v>
@@ -6544,7 +7064,7 @@
     <row r="6" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
@@ -6565,7 +7085,7 @@
     <row r="7" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
         <v>136</v>
@@ -6580,7 +7100,7 @@
     <row r="8" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>47</v>
@@ -6598,7 +7118,7 @@
     <row r="9" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>127</v>
@@ -6616,7 +7136,7 @@
     <row r="10" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2">
         <v>115</v>
@@ -6637,7 +7157,7 @@
     <row r="11" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2">
         <v>126</v>
@@ -6652,7 +7172,7 @@
     <row r="12" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -6670,7 +7190,7 @@
     <row r="13" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2">
         <v>94</v>
@@ -6685,7 +7205,7 @@
     <row r="14" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -6703,7 +7223,7 @@
     <row r="15" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2">
         <v>122</v>
@@ -6718,7 +7238,7 @@
     <row r="16" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2">
         <v>117</v>
@@ -6739,7 +7259,7 @@
     <row r="17" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2">
         <v>63</v>
@@ -6760,7 +7280,7 @@
     <row r="18" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
@@ -6775,7 +7295,7 @@
     <row r="19" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2">
         <v>116</v>
@@ -6791,7 +7311,7 @@
     <row r="20" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2">
         <v>96</v>
@@ -6809,7 +7329,7 @@
     <row r="21" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -6824,7 +7344,7 @@
     <row r="22" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -6842,7 +7362,7 @@
     <row r="23" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2">
         <v>71</v>
@@ -6860,7 +7380,7 @@
     <row r="24" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -6878,7 +7398,7 @@
     <row r="25" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -6896,7 +7416,7 @@
     <row r="26" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2">
         <v>60</v>
@@ -6914,7 +7434,7 @@
     <row r="27" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2">
         <v>85</v>
@@ -6929,7 +7449,7 @@
     <row r="28" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E28" s="2">
         <v>114</v>
@@ -6944,7 +7464,7 @@
     <row r="29" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2">
         <v>140</v>
@@ -6965,7 +7485,7 @@
     <row r="30" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2">
         <v>104</v>
@@ -6980,7 +7500,7 @@
     <row r="31" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2">
         <v>146</v>
@@ -7001,7 +7521,7 @@
     <row r="32" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2">
         <v>66</v>
@@ -7019,7 +7539,7 @@
     <row r="33" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="E33" s="2">
         <v>9</v>
@@ -7037,7 +7557,7 @@
     <row r="34" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D34">
         <f t="shared" ref="D34:D65" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2">
         <v>86</v>
@@ -7053,7 +7573,7 @@
     <row r="35" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E35" s="2">
         <v>7</v>
@@ -7068,7 +7588,7 @@
     <row r="36" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2">
         <v>92</v>
@@ -7083,7 +7603,7 @@
     <row r="37" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
@@ -7101,7 +7621,7 @@
     <row r="38" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2">
         <v>134</v>
@@ -7116,7 +7636,7 @@
     <row r="39" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2">
         <v>6</v>
@@ -7131,7 +7651,7 @@
     <row r="40" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2">
         <v>129</v>
@@ -7146,7 +7666,7 @@
     <row r="41" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2">
         <v>61</v>
@@ -7164,7 +7684,7 @@
     <row r="42" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E42" s="2">
         <v>46</v>
@@ -7179,7 +7699,7 @@
     <row r="43" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
@@ -7197,7 +7717,7 @@
     <row r="44" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E44" s="2">
         <v>55</v>
@@ -7215,7 +7735,7 @@
     <row r="45" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="E45" s="2">
         <v>53</v>
@@ -7233,7 +7753,7 @@
     <row r="46" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2">
         <v>149</v>
@@ -7251,7 +7771,7 @@
     <row r="47" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E47" s="2">
         <v>70</v>
@@ -7266,7 +7786,7 @@
     <row r="48" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E48" s="2">
         <v>144</v>
@@ -7312,7 +7832,7 @@
     <row r="50" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E50" s="2">
         <v>73</v>
@@ -7327,7 +7847,7 @@
     <row r="51" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E51" s="2">
         <v>109</v>
@@ -7342,7 +7862,7 @@
     <row r="52" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2">
         <v>83</v>
@@ -7360,7 +7880,7 @@
     <row r="53" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E53" s="2">
         <v>107</v>
@@ -7375,7 +7895,7 @@
     <row r="54" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2">
         <v>25</v>
@@ -7393,7 +7913,7 @@
     <row r="55" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E55" s="2">
         <v>108</v>
@@ -7417,7 +7937,7 @@
     <row r="56" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2">
         <v>113</v>
@@ -7432,7 +7952,7 @@
     <row r="57" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E57" s="2">
         <v>89</v>
@@ -7456,7 +7976,7 @@
     <row r="58" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E58" s="2">
         <v>130</v>
@@ -7471,7 +7991,7 @@
     <row r="59" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E59" s="2">
         <v>72</v>
@@ -7489,7 +8009,7 @@
     <row r="60" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2">
         <v>77</v>
@@ -7504,7 +8024,7 @@
     <row r="61" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E61" s="2">
         <v>57</v>
@@ -7525,7 +8045,7 @@
     <row r="62" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E62" s="2">
         <v>105</v>
@@ -7540,7 +8060,7 @@
     <row r="63" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2">
         <v>45</v>
@@ -7555,7 +8075,7 @@
     <row r="64" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2">
         <v>128</v>
@@ -7573,7 +8093,7 @@
     <row r="65" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2">
         <v>8</v>
@@ -7591,7 +8111,7 @@
     <row r="66" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D66">
         <f t="shared" ref="D66:D97" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E66" s="2">
         <v>135</v>
@@ -7606,7 +8126,7 @@
     <row r="67" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E67" s="2">
         <v>56</v>
@@ -7624,7 +8144,7 @@
     <row r="68" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E68" s="2">
         <v>82</v>
@@ -7639,7 +8159,7 @@
     <row r="69" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2">
         <v>112</v>
@@ -7654,7 +8174,7 @@
     <row r="70" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E70" s="2">
         <v>121</v>
@@ -7672,7 +8192,7 @@
     <row r="71" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2">
         <v>30</v>
@@ -7687,7 +8207,7 @@
     <row r="72" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2">
         <v>106</v>
@@ -7705,7 +8225,7 @@
     <row r="73" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E73" s="2">
         <v>64</v>
@@ -7723,7 +8243,7 @@
     <row r="74" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E74" s="2">
         <v>147</v>
@@ -7741,7 +8261,7 @@
     <row r="75" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2">
         <v>44</v>
@@ -7757,7 +8277,7 @@
     <row r="76" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E76" s="2">
         <v>148</v>
@@ -7775,7 +8295,7 @@
     <row r="77" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E77" s="2">
         <v>59</v>
@@ -7790,7 +8310,7 @@
     <row r="78" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="E78" s="2">
         <v>132</v>
@@ -7805,7 +8325,7 @@
     <row r="79" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E79" s="2">
         <v>12</v>
@@ -7820,7 +8340,7 @@
     <row r="80" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E80" s="2">
         <v>26</v>
@@ -7838,7 +8358,7 @@
     <row r="81" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E81" s="2">
         <v>43</v>
@@ -7856,7 +8376,7 @@
     <row r="82" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E82" s="2">
         <v>103</v>
@@ -7874,7 +8394,7 @@
     <row r="83" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E83" s="2">
         <v>99</v>
@@ -7889,7 +8409,7 @@
     <row r="84" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E84" s="2">
         <v>141</v>
@@ -7907,7 +8427,7 @@
     <row r="85" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E85" s="2">
         <v>37</v>
@@ -7925,7 +8445,7 @@
     <row r="86" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E86" s="2">
         <v>4</v>
@@ -7943,7 +8463,7 @@
     <row r="87" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2">
         <v>119</v>
@@ -7961,7 +8481,7 @@
     <row r="88" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E88" s="2">
         <v>143</v>
@@ -7979,7 +8499,7 @@
     <row r="89" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E89" s="2">
         <v>32</v>
@@ -7994,7 +8514,7 @@
     <row r="90" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2">
         <v>97</v>
@@ -8009,7 +8529,7 @@
     <row r="91" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E91" s="2">
         <v>120</v>
@@ -8027,7 +8547,7 @@
     <row r="92" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E92" s="2">
         <v>24</v>
@@ -8043,7 +8563,7 @@
     <row r="93" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E93" s="2">
         <v>110</v>
@@ -8058,7 +8578,7 @@
     <row r="94" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D94">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E94" s="2">
         <v>51</v>
@@ -8076,7 +8596,7 @@
     <row r="95" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D95">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="E95" s="2">
         <v>18</v>
@@ -8094,7 +8614,7 @@
     <row r="96" spans="4:8" x14ac:dyDescent="1.35">
       <c r="D96">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E96" s="2">
         <v>69</v>
@@ -8112,7 +8632,7 @@
     <row r="97" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D97">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2">
         <v>15</v>
@@ -8127,7 +8647,7 @@
     <row r="98" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D98">
         <f t="shared" ref="D98:D129" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E98" s="2">
         <v>142</v>
@@ -8148,7 +8668,7 @@
     <row r="99" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2">
         <v>78</v>
@@ -8163,7 +8683,7 @@
     <row r="100" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E100" s="2">
         <v>2</v>
@@ -8181,7 +8701,7 @@
     <row r="101" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E101" s="2">
         <v>100</v>
@@ -8196,7 +8716,7 @@
     <row r="102" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E102" s="2">
         <v>95</v>
@@ -8211,7 +8731,7 @@
     <row r="103" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E103" s="2">
         <v>80</v>
@@ -8229,7 +8749,7 @@
     <row r="104" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -8247,7 +8767,7 @@
     <row r="105" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E105" s="2">
         <v>67</v>
@@ -8262,7 +8782,7 @@
     <row r="106" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E106" s="2">
         <v>75</v>
@@ -8280,7 +8800,7 @@
     <row r="107" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="E107" s="2">
         <v>76</v>
@@ -8296,7 +8816,7 @@
     <row r="108" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E108" s="2">
         <v>133</v>
@@ -8314,7 +8834,7 @@
     <row r="109" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E109" s="2">
         <v>27</v>
@@ -8332,7 +8852,7 @@
     <row r="110" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E110" s="2">
         <v>28</v>
@@ -8347,7 +8867,7 @@
     <row r="111" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E111" s="2">
         <v>34</v>
@@ -8365,7 +8885,7 @@
     <row r="112" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E112" s="2">
         <v>93</v>
@@ -8383,7 +8903,7 @@
     <row r="113" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E113" s="2">
         <v>52</v>
@@ -8401,7 +8921,7 @@
     <row r="114" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="E114" s="2">
         <v>131</v>
@@ -8422,7 +8942,7 @@
     <row r="115" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="E115" s="2">
         <v>65</v>
@@ -8440,7 +8960,7 @@
     <row r="116" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E116" s="2">
         <v>74</v>
@@ -8458,7 +8978,7 @@
     <row r="117" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E117" s="2">
         <v>49</v>
@@ -8476,7 +8996,7 @@
     <row r="118" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E118" s="2">
         <v>41</v>
@@ -8491,7 +9011,7 @@
     <row r="119" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E119" s="2">
         <v>111</v>
@@ -8509,7 +9029,7 @@
     <row r="120" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E120" s="2">
         <v>90</v>
@@ -8527,7 +9047,7 @@
     <row r="121" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E121" s="2">
         <v>137</v>
@@ -8545,7 +9065,7 @@
     <row r="122" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E122" s="2">
         <v>20</v>
@@ -8560,7 +9080,7 @@
     <row r="123" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E123" s="2">
         <v>124</v>
@@ -8578,7 +9098,7 @@
     <row r="124" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="E124" s="2">
         <v>138</v>
@@ -8596,7 +9116,7 @@
     <row r="125" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E125" s="2">
         <v>36</v>
@@ -8611,7 +9131,7 @@
     <row r="126" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D126">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E126" s="2">
         <v>68</v>
@@ -8627,7 +9147,7 @@
     <row r="127" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D127">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E127" s="2">
         <v>22</v>
@@ -8645,7 +9165,7 @@
     <row r="128" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D128">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E128" s="2">
         <v>33</v>
@@ -8663,7 +9183,7 @@
     <row r="129" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D129">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E129" s="2">
         <v>125</v>
@@ -8681,7 +9201,7 @@
     <row r="130" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D130">
         <f t="shared" ref="D130:D162" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E130" s="2">
         <v>54</v>
@@ -8699,7 +9219,7 @@
     <row r="131" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D131">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E131" s="2">
         <v>11</v>
@@ -8720,7 +9240,7 @@
     <row r="132" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E132" s="2">
         <v>79</v>
@@ -8738,7 +9258,7 @@
     <row r="133" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E133" s="2">
         <v>10</v>
@@ -8756,7 +9276,7 @@
     <row r="134" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E134" s="2">
         <v>17</v>
@@ -8771,7 +9291,7 @@
     <row r="135" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D135">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E135" s="2">
         <v>88</v>
@@ -8789,7 +9309,7 @@
     <row r="136" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E136" s="2">
         <v>98</v>
@@ -8807,7 +9327,7 @@
     <row r="137" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E137" s="2">
         <v>62</v>
@@ -8825,7 +9345,7 @@
     <row r="138" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E138" s="2">
         <v>19</v>
@@ -8843,7 +9363,7 @@
     <row r="139" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E139" s="2">
         <v>81</v>
@@ -8861,7 +9381,7 @@
     <row r="140" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="E140" s="2">
         <v>23</v>
@@ -8879,7 +9399,7 @@
     <row r="141" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E141" s="2">
         <v>101</v>
@@ -8894,7 +9414,7 @@
     <row r="142" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E142" s="2">
         <v>84</v>
@@ -8909,7 +9429,7 @@
     <row r="143" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E143" s="2">
         <v>123</v>
@@ -8924,7 +9444,7 @@
     <row r="144" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E144" s="2">
         <v>48</v>
@@ -8942,7 +9462,7 @@
     <row r="145" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E145" s="2">
         <v>91</v>
@@ -8957,7 +9477,7 @@
     <row r="146" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E146" s="2">
         <v>38</v>
@@ -8975,7 +9495,7 @@
     <row r="147" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E147" s="2">
         <v>102</v>
@@ -8996,7 +9516,7 @@
     <row r="148" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E148" s="2">
         <v>139</v>
@@ -9017,7 +9537,7 @@
     <row r="149" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F149" s="2">
         <v>17</v>
@@ -9035,7 +9555,7 @@
     <row r="150" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F150" s="2">
         <v>17</v>
@@ -9053,7 +9573,7 @@
     <row r="151" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F151" s="2">
         <v>17</v>
@@ -9071,7 +9591,7 @@
     <row r="152" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F152" s="2">
         <v>17</v>
@@ -9086,7 +9606,7 @@
     <row r="153" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F153" s="2">
         <v>17</v>
@@ -9107,7 +9627,7 @@
     <row r="154" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F154" s="2">
         <v>17</v>
@@ -9128,7 +9648,7 @@
     <row r="155" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F155" s="2">
         <v>17</v>
@@ -9146,7 +9666,7 @@
     <row r="156" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="F156" s="2">
         <v>17</v>
@@ -9161,7 +9681,7 @@
     <row r="157" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2">
         <v>17</v>
@@ -9173,7 +9693,7 @@
     <row r="158" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D158">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F158" s="2">
         <v>17</v>
@@ -9191,7 +9711,7 @@
     <row r="159" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D159">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F159" s="2">
         <v>17</v>
@@ -9209,7 +9729,7 @@
     <row r="160" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D160">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="F160" s="2">
         <v>17</v>
@@ -9230,7 +9750,7 @@
     <row r="161" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D161">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="F161" s="2">
         <v>17</v>
@@ -9248,7 +9768,7 @@
     <row r="162" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D162">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F162" s="2">
         <v>17</v>
@@ -9269,7 +9789,7 @@
     <row r="163" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D163">
         <f t="shared" ref="D163:D182" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E163">
         <v>10</v>
@@ -9293,7 +9813,7 @@
     <row r="164" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E164">
         <v>17</v>
@@ -9317,7 +9837,7 @@
     <row r="165" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -9338,7 +9858,7 @@
     <row r="166" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -9359,7 +9879,7 @@
     <row r="167" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -9383,7 +9903,7 @@
     <row r="168" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E168">
         <v>18</v>
@@ -9407,7 +9927,7 @@
     <row r="169" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -9428,7 +9948,7 @@
     <row r="170" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E170">
         <v>13</v>
@@ -9452,7 +9972,7 @@
     <row r="171" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E171">
         <v>7</v>
@@ -9476,7 +9996,7 @@
     <row r="172" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E172">
         <v>8</v>
@@ -9500,7 +10020,7 @@
     <row r="173" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E173">
         <v>14</v>
@@ -9524,7 +10044,7 @@
     <row r="174" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E174">
         <v>19</v>
@@ -9548,7 +10068,7 @@
     <row r="175" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E175">
         <v>20</v>
@@ -9569,7 +10089,7 @@
     <row r="176" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -9590,7 +10110,7 @@
     <row r="177" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E177">
         <v>5</v>
@@ -9605,7 +10125,7 @@
     <row r="178" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D178">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E178">
         <v>11</v>
@@ -9629,7 +10149,7 @@
     <row r="179" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D179">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E179">
         <v>15</v>
@@ -9653,7 +10173,7 @@
     <row r="180" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D180">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E180">
         <v>4</v>
@@ -9671,7 +10191,7 @@
     <row r="181" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D181">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E181">
         <v>16</v>
@@ -9692,7 +10212,7 @@
     <row r="182" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D182">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E182">
         <v>9</v>
@@ -9716,7 +10236,7 @@
     <row r="183" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D183">
         <f t="shared" ref="D183:D220" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E183">
         <v>13</v>
@@ -9734,7 +10254,7 @@
     <row r="184" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E184">
         <v>4</v>
@@ -9758,7 +10278,7 @@
     <row r="185" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E185">
         <v>5</v>
@@ -9779,7 +10299,7 @@
     <row r="186" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F186" s="2">
         <v>19</v>
@@ -9800,7 +10320,7 @@
     <row r="187" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E187">
         <v>18</v>
@@ -9824,7 +10344,7 @@
     <row r="188" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E188">
         <v>14</v>
@@ -9848,7 +10368,7 @@
     <row r="189" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E189">
         <v>24</v>
@@ -9872,7 +10392,7 @@
     <row r="190" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D190">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E190">
         <v>23</v>
@@ -9920,7 +10440,7 @@
     <row r="192" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D192">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E192">
         <v>12</v>
@@ -9944,7 +10464,7 @@
     <row r="193" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D193">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="E193">
         <v>22</v>
@@ -9965,7 +10485,7 @@
     <row r="194" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D194">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -9989,7 +10509,7 @@
     <row r="195" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D195">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E195">
         <v>19</v>
@@ -10013,7 +10533,7 @@
     <row r="196" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D196">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="E196">
         <v>8</v>
@@ -10031,7 +10551,7 @@
     <row r="197" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -10052,7 +10572,7 @@
     <row r="198" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E198">
         <v>20</v>
@@ -10076,7 +10596,7 @@
     <row r="199" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E199">
         <v>7</v>
@@ -10094,7 +10614,7 @@
     <row r="200" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E200">
         <v>11</v>
@@ -10112,7 +10632,7 @@
     <row r="201" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="E201">
         <v>16</v>
@@ -10136,7 +10656,7 @@
     <row r="202" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -10157,7 +10677,7 @@
     <row r="203" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F203" s="2">
         <v>19</v>
@@ -10175,7 +10695,7 @@
     <row r="204" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E204">
         <v>10</v>
@@ -10193,7 +10713,7 @@
     <row r="205" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E205">
         <v>21</v>
@@ -10217,7 +10737,7 @@
     <row r="206" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -10238,7 +10758,7 @@
     <row r="207" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -10262,7 +10782,7 @@
     <row r="208" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E208">
         <v>15</v>
@@ -10286,7 +10806,7 @@
     <row r="209" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E209">
         <v>9</v>
@@ -10310,7 +10830,7 @@
     <row r="210" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -10331,7 +10851,7 @@
     <row r="211" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -10352,7 +10872,7 @@
     <row r="212" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E212">
         <v>8</v>
@@ -10376,7 +10896,7 @@
     <row r="213" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -10397,7 +10917,7 @@
     <row r="214" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E214">
         <v>10</v>
@@ -10418,7 +10938,7 @@
     <row r="215" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D215">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E215">
         <v>11</v>
@@ -10439,7 +10959,7 @@
     <row r="216" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D216">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E216">
         <v>7</v>
@@ -10460,7 +10980,7 @@
     <row r="217" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D217">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E217">
         <v>4</v>
@@ -10481,7 +11001,7 @@
     <row r="218" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D218">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -10502,7 +11022,7 @@
     <row r="219" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D219">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E219">
         <v>6</v>
@@ -10523,7 +11043,7 @@
     <row r="220" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D220">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F220" s="2">
         <v>20</v>
@@ -10734,7 +11254,7 @@
     <row r="2" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7">
         <v>13</v>
@@ -10755,7 +11275,7 @@
     <row r="3" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>816</v>
@@ -10776,7 +11296,7 @@
     <row r="4" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>666</v>
@@ -10797,7 +11317,7 @@
     <row r="5" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7">
         <v>17</v>
@@ -10821,7 +11341,7 @@
     <row r="6" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7">
         <v>12</v>
@@ -10842,7 +11362,7 @@
     <row r="7" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A7">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B7" s="7">
         <v>13</v>
@@ -10863,7 +11383,7 @@
     <row r="8" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A8">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>816</v>
@@ -10884,7 +11404,7 @@
     <row r="9" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A9">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -10902,7 +11422,7 @@
     <row r="10" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A10">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="B10" s="7">
         <v>14</v>
@@ -10923,7 +11443,7 @@
     <row r="11" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A11">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>865</v>
@@ -10944,7 +11464,7 @@
     <row r="12" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A12">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>971</v>
@@ -10989,7 +11509,7 @@
     <row r="14" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A14">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>816</v>
@@ -11010,7 +11530,7 @@
     <row r="15" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A15">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -11028,7 +11548,7 @@
     <row r="16" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A16">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B16" s="7">
         <v>13</v>
@@ -11049,7 +11569,7 @@
     <row r="17" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A17">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7">
         <v>11</v>
@@ -11067,7 +11587,7 @@
     <row r="18" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A18">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -11108,7 +11628,7 @@
     <row r="20" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A20">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="7">
         <v>13</v>
@@ -11129,7 +11649,7 @@
     <row r="21" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A21">
         <f t="shared" ref="A21:A26" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>816</v>
@@ -11150,7 +11670,7 @@
     <row r="22" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>865</v>
@@ -11171,7 +11691,7 @@
     <row r="23" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>971</v>
@@ -11192,7 +11712,7 @@
     <row r="24" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>971</v>
@@ -11213,7 +11733,7 @@
     <row r="25" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>666</v>
@@ -11234,7 +11754,7 @@
     <row r="26" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>816</v>
@@ -11275,7 +11795,7 @@
     <row r="28" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A28">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B28" s="7">
         <v>13</v>
@@ -11296,7 +11816,7 @@
     <row r="29" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A29">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>666</v>
@@ -11317,7 +11837,7 @@
     <row r="30" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A30">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>971</v>
@@ -11338,7 +11858,7 @@
     <row r="31" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A31">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B31" s="7">
         <v>12</v>
@@ -11359,7 +11879,7 @@
     <row r="32" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A32">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>666</v>
@@ -11380,7 +11900,7 @@
     <row r="33" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A33">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>865</v>
@@ -11401,7 +11921,7 @@
     <row r="34" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A34">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>816</v>
@@ -11419,7 +11939,7 @@
     <row r="35" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A35">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B35" s="7">
         <v>12</v>
@@ -11434,7 +11954,7 @@
     <row r="36" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A36">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>816</v>
@@ -11455,7 +11975,7 @@
     <row r="37" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A37">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B37" s="7">
         <v>14</v>
@@ -11470,7 +11990,7 @@
     <row r="38" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A38">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>666</v>
@@ -11491,7 +12011,7 @@
     <row r="39" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A39">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" s="7">
         <v>12</v>
@@ -11512,7 +12032,7 @@
     <row r="40" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A40">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>666</v>
@@ -11553,7 +12073,7 @@
     <row r="42" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A42">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B42" s="7">
         <v>12</v>
@@ -11568,7 +12088,7 @@
     <row r="43" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A43">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B43" s="7">
         <v>13</v>
@@ -11589,7 +12109,7 @@
     <row r="44" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A44">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>865</v>
@@ -11610,7 +12130,7 @@
     <row r="45" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A45">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B45" s="7">
         <v>11</v>
@@ -11631,7 +12151,7 @@
     <row r="46" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A46">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>971</v>
@@ -11652,7 +12172,7 @@
     <row r="47" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A47">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>666</v>
@@ -11673,7 +12193,7 @@
     <row r="48" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A48">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B48" s="7">
         <v>12</v>
@@ -11694,7 +12214,7 @@
     <row r="49" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A49">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>971</v>
@@ -11715,7 +12235,7 @@
     <row r="50" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A50">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>971</v>
@@ -11736,7 +12256,7 @@
     <row r="51" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A51">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B51" s="7">
         <v>12</v>
@@ -11751,7 +12271,7 @@
     <row r="52" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A52">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B52" s="7">
         <v>12</v>
@@ -11772,7 +12292,7 @@
     <row r="53" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A53">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>816</v>
@@ -11793,7 +12313,7 @@
     <row r="54" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A54">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B54" s="7">
         <v>14</v>
@@ -11874,7 +12394,7 @@
     <row r="58" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A58">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B58" s="7">
         <v>12</v>
@@ -11895,7 +12415,7 @@
     <row r="59" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A59">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>816</v>
@@ -11916,7 +12436,7 @@
     <row r="60" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A60">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B60" s="7">
         <v>14</v>
@@ -11937,7 +12457,7 @@
     <row r="61" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A61">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B61" s="7">
         <v>12</v>
@@ -11958,7 +12478,7 @@
     <row r="62" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A62">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>816</v>
@@ -11979,7 +12499,7 @@
     <row r="63" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A63">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B63" s="7">
         <v>11</v>
@@ -12000,7 +12520,7 @@
     <row r="64" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A64">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>865</v>
@@ -12041,7 +12561,7 @@
     <row r="66" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A66">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>865</v>
@@ -12062,7 +12582,7 @@
     <row r="67" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A67">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B67" s="7">
         <v>11</v>
@@ -12083,7 +12603,7 @@
     <row r="68" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A68">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B68" s="7">
         <v>14</v>
@@ -12104,7 +12624,7 @@
     <row r="69" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A69">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B69" s="7">
         <v>14</v>
@@ -12125,7 +12645,7 @@
     <row r="70" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A70">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>865</v>
@@ -12146,7 +12666,7 @@
     <row r="71" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A71">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>865</v>
@@ -12167,7 +12687,7 @@
     <row r="72" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A72">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>816</v>
@@ -12188,7 +12708,7 @@
     <row r="73" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A73">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>865</v>
@@ -12212,7 +12732,7 @@
     <row r="74" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A74">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B74" s="7">
         <v>12</v>
@@ -12230,7 +12750,7 @@
     <row r="75" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A75">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>816</v>
@@ -12251,7 +12771,7 @@
     <row r="76" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A76">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B76" s="7">
         <v>13</v>
@@ -12272,7 +12792,7 @@
     <row r="77" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A77">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B77" s="7">
         <v>13</v>
@@ -12293,7 +12813,7 @@
     <row r="78" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A78">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>816</v>
@@ -12314,7 +12834,7 @@
     <row r="79" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A79">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>666</v>
@@ -12335,7 +12855,7 @@
     <row r="80" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A80">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>666</v>
@@ -12356,7 +12876,7 @@
     <row r="81" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A81">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B81" s="7">
         <v>13</v>
@@ -12377,7 +12897,7 @@
     <row r="82" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A82">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B82" s="7">
         <v>13</v>
@@ -12398,7 +12918,7 @@
     <row r="83" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A83">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B83" s="7">
         <v>13</v>
@@ -12419,7 +12939,7 @@
     <row r="84" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A84">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>971</v>
@@ -12440,7 +12960,7 @@
     <row r="85" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A85">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>666</v>
@@ -12461,7 +12981,7 @@
     <row r="86" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A86">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>865</v>
@@ -12482,7 +13002,7 @@
     <row r="87" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A87">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>816</v>
@@ -12503,7 +13023,7 @@
     <row r="88" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A88">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B88" s="7">
         <v>11</v>
@@ -12524,7 +13044,7 @@
     <row r="89" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A89">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B89" s="7">
         <v>12</v>
@@ -12579,7 +13099,7 @@
     <row r="92" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A92">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>865</v>
@@ -12600,7 +13120,7 @@
     <row r="93" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A93">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B93" s="7">
         <v>14</v>
@@ -12627,7 +13147,7 @@
     <row r="94" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A94">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B94" s="7">
         <v>13</v>
@@ -12648,7 +13168,7 @@
     <row r="95" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A95">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>666</v>
@@ -12669,7 +13189,7 @@
     <row r="96" spans="1:8" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A96">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>666</v>
@@ -12716,7 +13236,7 @@
     <row r="98" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A98">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>865</v>
@@ -12737,7 +13257,7 @@
     <row r="99" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A99">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>971</v>
@@ -12758,7 +13278,7 @@
     <row r="100" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A100">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>971</v>
@@ -12779,7 +13299,7 @@
     <row r="101" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A101">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B101" s="7">
         <v>12</v>
@@ -12797,7 +13317,7 @@
     <row r="102" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A102">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B102" s="7">
         <v>12</v>
@@ -12812,7 +13332,7 @@
     <row r="103" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A103">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>666</v>
@@ -12853,7 +13373,7 @@
     <row r="105" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A105">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>666</v>
@@ -12874,7 +13394,7 @@
     <row r="106" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A106">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>816</v>
@@ -12895,7 +13415,7 @@
     <row r="107" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A107">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B107" s="7">
         <v>18</v>
@@ -12916,7 +13436,7 @@
     <row r="108" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A108">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B108" s="7">
         <v>11</v>
@@ -12937,7 +13457,7 @@
     <row r="109" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A109">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>816</v>
@@ -12958,7 +13478,7 @@
     <row r="110" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A110">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>666</v>
@@ -12979,7 +13499,7 @@
     <row r="111" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A111">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>816</v>
@@ -13000,7 +13520,7 @@
     <row r="112" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A112">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B112" s="7">
         <v>13</v>
@@ -13021,7 +13541,7 @@
     <row r="113" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A113">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B113" s="7">
         <v>14</v>
@@ -13042,7 +13562,7 @@
     <row r="114" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A114">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>816</v>
@@ -13063,7 +13583,7 @@
     <row r="115" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A115">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B115" s="7">
         <v>13</v>
@@ -13084,7 +13604,7 @@
     <row r="116" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A116">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B116" s="7">
         <v>13</v>
@@ -13108,7 +13628,7 @@
     <row r="117" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A117">
         <f t="shared" ref="A117:A122" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B117" s="7">
         <v>17</v>
@@ -13129,7 +13649,7 @@
     <row r="118" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>865</v>
@@ -13150,7 +13670,7 @@
     <row r="119" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>971</v>
@@ -13171,7 +13691,7 @@
     <row r="120" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A120">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>971</v>
@@ -13192,7 +13712,7 @@
     <row r="121" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A121">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>816</v>
@@ -13213,7 +13733,7 @@
     <row r="122" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A122">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>865</v>
@@ -13234,7 +13754,7 @@
     <row r="123" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A123">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B123" s="7">
         <v>12</v>
@@ -13255,7 +13775,7 @@
     <row r="124" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A124">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>816</v>
@@ -13276,7 +13796,7 @@
     <row r="125" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A125">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B125" s="7">
         <v>12</v>
@@ -13291,7 +13811,7 @@
     <row r="126" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A126">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>816</v>
@@ -13312,7 +13832,7 @@
     <row r="127" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A127">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>971</v>
@@ -13333,7 +13853,7 @@
     <row r="128" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A128">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B128" s="7">
         <v>11</v>
@@ -13351,7 +13871,7 @@
     <row r="129" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A129">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>666</v>
@@ -13372,7 +13892,7 @@
     <row r="130" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A130">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B130" s="7">
         <v>13</v>
@@ -13433,7 +13953,7 @@
     <row r="133" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A133">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B133" s="7">
         <v>12</v>
@@ -13454,7 +13974,7 @@
     <row r="134" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A134">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>666</v>
@@ -13478,7 +13998,7 @@
     <row r="135" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A135">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>666</v>
@@ -13499,7 +14019,7 @@
     <row r="136" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A136">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B136" s="7">
         <v>20</v>
@@ -13520,7 +14040,7 @@
     <row r="137" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A137">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B137" s="7">
         <v>20</v>
@@ -13544,7 +14064,7 @@
     <row r="138" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A138">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B138" s="7">
         <v>20</v>
@@ -13565,7 +14085,7 @@
     <row r="139" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A139">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B139" s="7">
         <v>20</v>
@@ -13589,7 +14109,7 @@
     <row r="140" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A140">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B140" s="7">
         <v>20</v>
@@ -17845,19 +18365,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R342"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A286" sqref="A286:B298"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G340" sqref="G340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.7109375" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="79.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="73.5703125" style="6" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.85546875" style="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="94.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="18" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -17865,7 +18386,7 @@
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>770</v>
@@ -18233,7 +18754,7 @@
     <row r="27" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A27">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B27" s="16">
         <v>17</v>
@@ -18248,7 +18769,7 @@
     <row r="28" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A28">
         <f t="shared" ref="A28:A44" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B28" s="16">
         <v>17</v>
@@ -18263,7 +18784,7 @@
     <row r="29" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -18278,7 +18799,7 @@
     <row r="30" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -18293,7 +18814,7 @@
     <row r="31" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B31" s="16">
         <v>17</v>
@@ -18311,7 +18832,7 @@
     <row r="32" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B32" s="16">
         <v>17</v>
@@ -18326,7 +18847,7 @@
     <row r="33" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B33" s="16">
         <v>17</v>
@@ -18341,7 +18862,7 @@
     <row r="34" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B34" s="16">
         <v>17</v>
@@ -18356,7 +18877,7 @@
     <row r="35" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="16">
         <v>17</v>
@@ -18371,7 +18892,7 @@
     <row r="36" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B36" s="16">
         <v>17</v>
@@ -18386,7 +18907,7 @@
     <row r="37" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="B37" s="16">
         <v>17</v>
@@ -18401,7 +18922,7 @@
     <row r="38" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B38" s="16">
         <v>17</v>
@@ -18416,7 +18937,7 @@
     <row r="39" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B39" s="16">
         <v>17</v>
@@ -18431,7 +18952,7 @@
     <row r="40" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B40" s="16">
         <v>17</v>
@@ -18446,7 +18967,7 @@
     <row r="41" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B41" s="16">
         <v>17</v>
@@ -18461,7 +18982,7 @@
     <row r="42" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B42" s="16">
         <v>17</v>
@@ -18476,7 +18997,7 @@
     <row r="43" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B43" s="16">
         <v>18</v>
@@ -18494,7 +19015,7 @@
     <row r="44" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B44" s="16">
         <v>18</v>
@@ -19018,7 +19539,7 @@
     <row r="88" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A88">
         <f t="shared" ref="A88:A115" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B88" s="16">
         <v>25</v>
@@ -19036,7 +19557,7 @@
     <row r="89" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B89" s="16">
         <v>24</v>
@@ -19054,7 +19575,7 @@
     <row r="90" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B90" s="16">
         <v>23</v>
@@ -19072,7 +19593,7 @@
     <row r="91" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B91" s="16">
         <v>25</v>
@@ -19090,7 +19611,7 @@
     <row r="92" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B92" s="16">
         <v>23</v>
@@ -19105,7 +19626,7 @@
     <row r="93" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B93" s="16">
         <v>25</v>
@@ -19123,7 +19644,7 @@
     <row r="94" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B94" s="16">
         <v>25</v>
@@ -19141,7 +19662,7 @@
     <row r="95" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B95" s="16">
         <v>25</v>
@@ -19156,7 +19677,7 @@
     <row r="96" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B96" s="16">
         <v>25</v>
@@ -19174,7 +19695,7 @@
     <row r="97" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B97" s="16">
         <v>23</v>
@@ -19192,7 +19713,7 @@
     <row r="98" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B98" s="16">
         <v>23</v>
@@ -19207,7 +19728,7 @@
     <row r="99" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B99" s="16">
         <v>23</v>
@@ -19225,7 +19746,7 @@
     <row r="100" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B100" s="16">
         <v>23</v>
@@ -19243,7 +19764,7 @@
     <row r="101" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B101" s="16">
         <v>24</v>
@@ -19261,7 +19782,7 @@
     <row r="102" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B102" s="16">
         <v>23</v>
@@ -19279,7 +19800,7 @@
     <row r="103" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B103" s="16">
         <v>23</v>
@@ -19297,7 +19818,7 @@
     <row r="104" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B104" s="16">
         <v>23</v>
@@ -19315,7 +19836,7 @@
     <row r="105" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B105" s="16">
         <v>25</v>
@@ -19333,7 +19854,7 @@
     <row r="106" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B106" s="16">
         <v>24</v>
@@ -19351,7 +19872,7 @@
     <row r="107" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B107" s="16">
         <v>25</v>
@@ -19369,7 +19890,7 @@
     <row r="108" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B108" s="16">
         <v>25</v>
@@ -19387,7 +19908,7 @@
     <row r="109" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B109" s="16">
         <v>24</v>
@@ -19405,7 +19926,7 @@
     <row r="110" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B110" s="16">
         <v>24</v>
@@ -19423,7 +19944,7 @@
     <row r="111" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B111" s="16">
         <v>25</v>
@@ -19441,7 +19962,7 @@
     <row r="112" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B112" s="16">
         <v>25</v>
@@ -19459,7 +19980,7 @@
     <row r="113" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B113" s="16">
         <v>24</v>
@@ -19477,7 +19998,7 @@
     <row r="114" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B114" s="16">
         <v>24</v>
@@ -19495,7 +20016,7 @@
     <row r="115" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B115" s="16">
         <v>28</v>
@@ -19513,7 +20034,7 @@
     <row r="116" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A116">
         <f t="shared" ref="A116:A123" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B116" s="16">
         <v>23</v>
@@ -19531,7 +20052,7 @@
     <row r="117" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A117">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B117" s="16">
         <v>23</v>
@@ -19549,7 +20070,7 @@
     <row r="118" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A118">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B118" s="16">
         <v>23</v>
@@ -19564,7 +20085,7 @@
     <row r="119" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A119">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B119" s="16">
         <v>23</v>
@@ -19582,7 +20103,7 @@
     <row r="120" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A120">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B120" s="16">
         <v>25</v>
@@ -19600,7 +20121,7 @@
     <row r="121" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A121">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B121" s="16">
         <v>24</v>
@@ -19618,7 +20139,7 @@
     <row r="122" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A122">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B122" s="16">
         <v>25</v>
@@ -19636,7 +20157,7 @@
     <row r="123" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A123">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B123" s="16">
         <v>25</v>
@@ -19654,7 +20175,7 @@
     <row r="124" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A124">
         <f t="shared" ref="A124:A187" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B124" s="16">
         <v>23</v>
@@ -19672,7 +20193,7 @@
     <row r="125" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B125" s="16">
         <v>23</v>
@@ -19690,7 +20211,7 @@
     <row r="126" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A126">
         <f t="shared" ref="A126:A159" ca="1" si="4">RANDBETWEEN(1,100)</f>
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B126" s="16">
         <v>26</v>
@@ -19708,7 +20229,7 @@
     <row r="127" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A127">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B127" s="16">
         <v>26</v>
@@ -19726,7 +20247,7 @@
     <row r="128" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A128">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B128" s="16">
         <v>26</v>
@@ -19744,7 +20265,7 @@
     <row r="129" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A129">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B129" s="16">
         <v>26</v>
@@ -19762,7 +20283,7 @@
     <row r="130" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A130">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B130" s="16">
         <v>26</v>
@@ -19780,7 +20301,7 @@
     <row r="131" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A131">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B131" s="16">
         <v>26</v>
@@ -19798,7 +20319,7 @@
     <row r="132" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A132">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B132" s="16">
         <v>26</v>
@@ -19816,7 +20337,7 @@
     <row r="133" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A133">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B133" s="16">
         <v>26</v>
@@ -19834,7 +20355,7 @@
     <row r="134" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A134">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B134" s="16">
         <v>26</v>
@@ -19852,7 +20373,7 @@
     <row r="135" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A135">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B135" s="16">
         <v>26</v>
@@ -19870,7 +20391,7 @@
     <row r="136" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A136">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B136" s="16">
         <v>26</v>
@@ -19888,7 +20409,7 @@
     <row r="137" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A137">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B137" s="16">
         <v>26</v>
@@ -19906,7 +20427,7 @@
     <row r="138" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A138">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B138" s="16">
         <v>26</v>
@@ -19924,7 +20445,7 @@
     <row r="139" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A139">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B139" s="16">
         <v>26</v>
@@ -19942,7 +20463,7 @@
     <row r="140" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A140">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B140" s="16">
         <v>26</v>
@@ -19960,7 +20481,7 @@
     <row r="141" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A141">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B141" s="16">
         <v>26</v>
@@ -19978,7 +20499,7 @@
     <row r="142" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A142">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B142" s="16">
         <v>26</v>
@@ -19996,7 +20517,7 @@
     <row r="143" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A143">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B143" s="16">
         <v>26</v>
@@ -20014,7 +20535,7 @@
     <row r="144" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A144">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B144" s="16">
         <v>26</v>
@@ -20032,7 +20553,7 @@
     <row r="145" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A145">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B145" s="16">
         <v>26</v>
@@ -20050,7 +20571,7 @@
     <row r="146" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A146">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B146" s="16">
         <v>26</v>
@@ -20068,7 +20589,7 @@
     <row r="147" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A147">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B147" s="16">
         <v>26</v>
@@ -20086,7 +20607,7 @@
     <row r="148" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A148">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B148" s="16">
         <v>26</v>
@@ -20104,7 +20625,7 @@
     <row r="149" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A149">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B149" s="16">
         <v>26</v>
@@ -20122,7 +20643,7 @@
     <row r="150" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A150">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B150" s="16">
         <v>26</v>
@@ -20140,7 +20661,7 @@
     <row r="151" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A151">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B151" s="16">
         <v>26</v>
@@ -20158,7 +20679,7 @@
     <row r="152" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A152">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B152" s="16">
         <v>26</v>
@@ -20179,7 +20700,7 @@
     <row r="153" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A153">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B153" s="16">
         <v>26</v>
@@ -20197,7 +20718,7 @@
     <row r="154" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A154">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B154" s="16">
         <v>26</v>
@@ -20215,7 +20736,7 @@
     <row r="155" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A155">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B155" s="16">
         <v>26</v>
@@ -20233,7 +20754,7 @@
     <row r="156" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A156">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B156" s="16">
         <v>26</v>
@@ -20251,7 +20772,7 @@
     <row r="157" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A157">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B157" s="16">
         <v>26</v>
@@ -20269,7 +20790,7 @@
     <row r="158" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A158">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B158" s="16">
         <v>26</v>
@@ -20290,7 +20811,7 @@
     <row r="159" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A159">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B159" s="16">
         <v>26</v>
@@ -20308,7 +20829,7 @@
     <row r="160" spans="1:6" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A160">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B160" s="16">
         <v>27</v>
@@ -20326,7 +20847,7 @@
     <row r="161" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A161">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B161" s="16">
         <v>27</v>
@@ -20344,7 +20865,7 @@
     <row r="162" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A162">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B162" s="16">
         <v>27</v>
@@ -20362,7 +20883,7 @@
     <row r="163" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A163">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B163" s="16">
         <v>27</v>
@@ -20380,7 +20901,7 @@
     <row r="164" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A164">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B164" s="16">
         <v>27</v>
@@ -20398,7 +20919,7 @@
     <row r="165" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A165">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B165" s="16">
         <v>27</v>
@@ -20416,7 +20937,7 @@
     <row r="166" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A166">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B166" s="16">
         <v>27</v>
@@ -20434,7 +20955,7 @@
     <row r="167" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A167">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B167" s="16">
         <v>27</v>
@@ -20452,7 +20973,7 @@
     <row r="168" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A168">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B168" s="16">
         <v>27</v>
@@ -20470,7 +20991,7 @@
     <row r="169" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A169">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B169" s="16">
         <v>27</v>
@@ -20488,7 +21009,7 @@
     <row r="170" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A170">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B170" s="16">
         <v>27</v>
@@ -20506,7 +21027,7 @@
     <row r="171" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A171">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B171" s="16">
         <v>27</v>
@@ -20524,7 +21045,7 @@
     <row r="172" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A172">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B172" s="16">
         <v>27</v>
@@ -20542,7 +21063,7 @@
     <row r="173" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A173">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B173" s="16">
         <v>27</v>
@@ -20560,7 +21081,7 @@
     <row r="174" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A174">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B174" s="16">
         <v>27</v>
@@ -20578,7 +21099,7 @@
     <row r="175" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A175">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B175" s="16">
         <v>27</v>
@@ -20596,7 +21117,7 @@
     <row r="176" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A176">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B176" s="16">
         <v>27</v>
@@ -20614,7 +21135,7 @@
     <row r="177" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A177">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B177" s="16">
         <v>27</v>
@@ -20632,7 +21153,7 @@
     <row r="178" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A178">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B178" s="16">
         <v>27</v>
@@ -20650,7 +21171,7 @@
     <row r="179" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A179">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B179" s="16">
         <v>27</v>
@@ -20668,7 +21189,7 @@
     <row r="180" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A180">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B180" s="16">
         <v>27</v>
@@ -20686,7 +21207,7 @@
     <row r="181" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A181">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B181" s="16">
         <v>27</v>
@@ -20704,7 +21225,7 @@
     <row r="182" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A182">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B182" s="16">
         <v>27</v>
@@ -20722,7 +21243,7 @@
     <row r="183" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A183">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B183" s="16">
         <v>27</v>
@@ -20740,7 +21261,7 @@
     <row r="184" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A184">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B184" s="16">
         <v>27</v>
@@ -20758,7 +21279,7 @@
     <row r="185" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A185">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B185" s="16">
         <v>27</v>
@@ -20776,7 +21297,7 @@
     <row r="186" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A186">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B186" s="16">
         <v>28</v>
@@ -20794,7 +21315,7 @@
     <row r="187" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A187">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B187" s="16">
         <v>28</v>
@@ -20812,7 +21333,7 @@
     <row r="188" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A188">
         <f t="shared" ref="A188:A251" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B188" s="16">
         <v>28</v>
@@ -20830,7 +21351,7 @@
     <row r="189" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A189">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B189" s="16">
         <v>28</v>
@@ -20848,7 +21369,7 @@
     <row r="190" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A190">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B190" s="16">
         <v>28</v>
@@ -20866,7 +21387,7 @@
     <row r="191" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A191">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B191" s="16">
         <v>28</v>
@@ -20884,7 +21405,7 @@
     <row r="192" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A192">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B192" s="16">
         <v>28</v>
@@ -20902,7 +21423,7 @@
     <row r="193" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A193">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="B193" s="16">
         <v>28</v>
@@ -20920,7 +21441,7 @@
     <row r="194" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A194">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B194" s="16">
         <v>28</v>
@@ -20938,7 +21459,7 @@
     <row r="195" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A195">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B195" s="16">
         <v>28</v>
@@ -20956,7 +21477,7 @@
     <row r="196" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A196">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B196" s="16">
         <v>28</v>
@@ -20974,7 +21495,7 @@
     <row r="197" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A197">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B197" s="16">
         <v>28</v>
@@ -20992,7 +21513,7 @@
     <row r="198" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A198">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B198" s="16">
         <v>28</v>
@@ -21010,7 +21531,7 @@
     <row r="199" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A199">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B199" s="16">
         <v>28</v>
@@ -21028,7 +21549,7 @@
     <row r="200" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A200">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B200" s="16">
         <v>28</v>
@@ -21046,7 +21567,7 @@
     <row r="201" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A201">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B201" s="16">
         <v>28</v>
@@ -21064,7 +21585,7 @@
     <row r="202" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A202">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B202" s="16">
         <v>28</v>
@@ -21082,7 +21603,7 @@
     <row r="203" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A203">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B203" s="16">
         <v>28</v>
@@ -21100,7 +21621,7 @@
     <row r="204" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A204">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B204" s="16">
         <v>28</v>
@@ -21118,7 +21639,7 @@
     <row r="205" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A205">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B205" s="16">
         <v>28</v>
@@ -21136,7 +21657,7 @@
     <row r="206" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A206">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B206" s="16">
         <v>28</v>
@@ -21154,7 +21675,7 @@
     <row r="207" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A207">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B207" s="16">
         <v>28</v>
@@ -21172,7 +21693,7 @@
     <row r="208" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A208">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B208" s="16">
         <v>28</v>
@@ -21190,7 +21711,7 @@
     <row r="209" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A209">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B209" s="16">
         <v>28</v>
@@ -21208,7 +21729,7 @@
     <row r="210" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A210">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B210" s="16">
         <v>28</v>
@@ -21226,7 +21747,7 @@
     <row r="211" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A211">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B211" s="16">
         <v>28</v>
@@ -21244,7 +21765,7 @@
     <row r="212" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A212">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B212" s="16">
         <v>28</v>
@@ -21262,7 +21783,7 @@
     <row r="213" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A213">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B213" s="16">
         <v>28</v>
@@ -21280,7 +21801,7 @@
     <row r="214" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A214">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B214" s="16">
         <v>28</v>
@@ -21298,7 +21819,7 @@
     <row r="215" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A215">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B215" s="16">
         <v>28</v>
@@ -21316,7 +21837,7 @@
     <row r="216" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A216">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B216" s="16">
         <v>28</v>
@@ -21334,7 +21855,7 @@
     <row r="217" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A217">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B217" s="16">
         <v>28</v>
@@ -21352,7 +21873,7 @@
     <row r="218" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A218">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B218" s="16">
         <v>28</v>
@@ -21370,7 +21891,7 @@
     <row r="219" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A219">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B219" s="16">
         <v>28</v>
@@ -21388,7 +21909,7 @@
     <row r="220" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A220">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B220" s="16">
         <v>28</v>
@@ -21406,7 +21927,7 @@
     <row r="221" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A221">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B221" s="16">
         <v>28</v>
@@ -21424,7 +21945,7 @@
     <row r="222" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A222">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B222" s="16">
         <v>28</v>
@@ -21442,7 +21963,7 @@
     <row r="223" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A223">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B223" s="16">
         <v>28</v>
@@ -21460,7 +21981,7 @@
     <row r="224" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A224">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B224" s="16">
         <v>28</v>
@@ -21478,7 +21999,7 @@
     <row r="225" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A225">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B225" s="16">
         <v>28</v>
@@ -21496,7 +22017,7 @@
     <row r="226" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A226">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B226" s="16">
         <v>28</v>
@@ -21514,7 +22035,7 @@
     <row r="227" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A227">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B227" s="16">
         <v>28</v>
@@ -21532,7 +22053,7 @@
     <row r="228" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A228">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B228" s="16">
         <v>28</v>
@@ -21550,7 +22071,7 @@
     <row r="229" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A229">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B229" s="16">
         <v>28</v>
@@ -21577,7 +22098,7 @@
     <row r="231" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A231">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B231" s="16">
         <v>31</v>
@@ -21595,7 +22116,7 @@
     <row r="232" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A232">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B232" s="16">
         <v>31</v>
@@ -21613,7 +22134,7 @@
     <row r="233" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A233">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B233" s="16">
         <v>31</v>
@@ -21631,7 +22152,7 @@
     <row r="234" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A234">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B234" s="16">
         <v>31</v>
@@ -21649,7 +22170,7 @@
     <row r="235" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A235">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B235" s="16">
         <v>31</v>
@@ -21667,7 +22188,7 @@
     <row r="236" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A236">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B236" s="16">
         <v>31</v>
@@ -21683,7 +22204,7 @@
     <row r="237" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A237">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B237" s="16">
         <v>31</v>
@@ -21701,7 +22222,7 @@
     <row r="238" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A238">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B238" s="16">
         <v>31</v>
@@ -21719,7 +22240,7 @@
     <row r="239" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A239">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B239" s="16">
         <v>31</v>
@@ -21737,7 +22258,7 @@
     <row r="240" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A240">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B240" s="16">
         <v>31</v>
@@ -21755,7 +22276,7 @@
     <row r="241" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A241">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B241" s="16">
         <v>31</v>
@@ -21773,7 +22294,7 @@
     <row r="242" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A242">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B242" s="16">
         <v>31</v>
@@ -21791,7 +22312,7 @@
     <row r="243" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A243">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B243" s="16">
         <v>31</v>
@@ -21809,7 +22330,7 @@
     <row r="244" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A244">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B244" s="16">
         <v>31</v>
@@ -21824,10 +22345,10 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A245">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B245" s="16">
         <v>30</v>
@@ -21842,10 +22363,10 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A246">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B246" s="16">
         <v>30</v>
@@ -21860,10 +22381,10 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A247">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B247" s="16">
         <v>30</v>
@@ -21878,10 +22399,10 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A248">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B248" s="16">
         <v>30</v>
@@ -21899,7 +22420,7 @@
     <row r="249" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A249">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B249" s="16" t="s">
         <v>1804</v>
@@ -21917,7 +22438,7 @@
     <row r="250" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A250">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B250" s="16" t="s">
         <v>1804</v>
@@ -21933,7 +22454,7 @@
     <row r="251" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A251">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B251" s="16" t="s">
         <v>1804</v>
@@ -21948,8 +22469,8 @@
     </row>
     <row r="252" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A252">
-        <f t="shared" ref="A252:A298" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>62</v>
+        <f t="shared" ref="A252:A315" ca="1" si="6">RANDBETWEEN(1,100)</f>
+        <v>99</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>1804</v>
@@ -21965,7 +22486,7 @@
     <row r="253" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A253">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B253" s="16" t="s">
         <v>1804</v>
@@ -21981,7 +22502,7 @@
     <row r="254" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A254">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B254" s="16" t="s">
         <v>1804</v>
@@ -21997,7 +22518,7 @@
     <row r="255" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A255">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B255" s="16" t="s">
         <v>1804</v>
@@ -22013,7 +22534,7 @@
     <row r="256" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A256">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B256" s="16" t="s">
         <v>1804</v>
@@ -22029,7 +22550,7 @@
     <row r="257" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A257">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B257" s="16" t="s">
         <v>1804</v>
@@ -22045,7 +22566,7 @@
     <row r="258" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A258">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B258" s="16" t="s">
         <v>1804</v>
@@ -22061,7 +22582,7 @@
     <row r="259" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A259">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B259" s="16" t="s">
         <v>1804</v>
@@ -22077,7 +22598,7 @@
     <row r="260" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A260">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B260" s="16" t="s">
         <v>1804</v>
@@ -22093,7 +22614,7 @@
     <row r="261" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A261">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B261" s="16" t="s">
         <v>1804</v>
@@ -22109,7 +22630,7 @@
     <row r="262" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A262">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B262" s="16" t="s">
         <v>1804</v>
@@ -22125,7 +22646,7 @@
     <row r="263" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A263">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B263" s="16" t="s">
         <v>1804</v>
@@ -22141,7 +22662,7 @@
     <row r="264" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A264">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B264" s="16" t="s">
         <v>1804</v>
@@ -22157,7 +22678,7 @@
     <row r="265" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A265">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B265" s="16" t="s">
         <v>1804</v>
@@ -22173,7 +22694,7 @@
     <row r="266" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A266">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B266" s="16" t="s">
         <v>1804</v>
@@ -22186,10 +22707,10 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A267">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B267" s="16">
         <v>33</v>
@@ -22204,10 +22725,10 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A268">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B268" s="16">
         <v>33</v>
@@ -22220,10 +22741,10 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A269">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B269" s="16">
         <v>33</v>
@@ -22236,10 +22757,10 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A270">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B270" s="16">
         <v>33</v>
@@ -22252,10 +22773,10 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A271">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B271" s="16">
         <v>33</v>
@@ -22268,10 +22789,10 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:5" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A272">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B272" s="16">
         <v>33</v>
@@ -22284,10 +22805,10 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A273">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B273" s="16">
         <v>33</v>
@@ -22300,10 +22821,10 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A274">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B274" s="16">
         <v>33</v>
@@ -22316,10 +22837,10 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A275">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B275" s="16">
         <v>33</v>
@@ -22332,10 +22853,10 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A276">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B276" s="16">
         <v>32</v>
@@ -22348,10 +22869,10 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A277">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B277" s="16">
         <v>32</v>
@@ -22364,10 +22885,10 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A278">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B278" s="16">
         <v>34</v>
@@ -22383,10 +22904,10 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A279">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B279" s="16">
         <v>34</v>
@@ -22402,10 +22923,10 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A280">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B280" s="16">
         <v>34</v>
@@ -22421,10 +22942,10 @@
       </c>
       <c r="G280" s="33"/>
     </row>
-    <row r="281" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A281">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B281" s="16">
         <v>34</v>
@@ -22442,10 +22963,10 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A282">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B282" s="16">
         <v>34</v>
@@ -22463,10 +22984,10 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A283">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B283" s="16">
         <v>34</v>
@@ -22484,10 +23005,10 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A284">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B284" s="16">
         <v>34</v>
@@ -22505,10 +23026,10 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A285">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="B285" s="16">
         <v>34</v>
@@ -22526,10 +23047,10 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A286">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B286" s="16">
         <v>35</v>
@@ -22547,10 +23068,10 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="287" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A287">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B287" s="16">
         <v>35</v>
@@ -22568,10 +23089,10 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="288" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A288">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B288" s="16">
         <v>35</v>
@@ -22589,10 +23110,10 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="289" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A289">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B289" s="16">
         <v>35</v>
@@ -22608,10 +23129,10 @@
       </c>
       <c r="G289" s="33"/>
     </row>
-    <row r="290" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="290" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A290">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B290" s="16">
         <v>35</v>
@@ -22629,10 +23150,10 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="291" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A291">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B291" s="16">
         <v>35</v>
@@ -22650,10 +23171,10 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="292" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A292">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B292" s="16">
         <v>35</v>
@@ -22674,10 +23195,10 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="293" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A293">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B293" s="16">
         <v>35</v>
@@ -22695,10 +23216,10 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="294" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A294">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B294" s="16">
         <v>35</v>
@@ -22716,10 +23237,10 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="295" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A295">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B295" s="16">
         <v>35</v>
@@ -22734,10 +23255,10 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="296" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A296">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B296" s="16">
         <v>35</v>
@@ -22761,10 +23282,10 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="297" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A297">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B297" s="16">
         <v>35</v>
@@ -22782,10 +23303,10 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="298" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
       <c r="A298">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B298" s="16">
         <v>35</v>
@@ -22803,143 +23324,931 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C299" s="28"/>
-    </row>
-    <row r="300" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C300" s="28"/>
-    </row>
-    <row r="301" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C301" s="28"/>
-    </row>
-    <row r="302" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C302" s="28"/>
-    </row>
-    <row r="303" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C303" s="28"/>
-    </row>
-    <row r="304" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C304" s="28"/>
-    </row>
-    <row r="305" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C305" s="28"/>
-    </row>
-    <row r="306" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C306" s="28"/>
-    </row>
-    <row r="307" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C307" s="28"/>
-    </row>
-    <row r="308" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C308" s="28"/>
-    </row>
-    <row r="309" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C309" s="28"/>
-    </row>
-    <row r="310" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C310" s="28"/>
-    </row>
-    <row r="311" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C311" s="28"/>
-    </row>
-    <row r="312" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C312" s="28"/>
-    </row>
-    <row r="313" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C313" s="28"/>
-    </row>
-    <row r="314" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C314" s="28"/>
-    </row>
-    <row r="315" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C315" s="28"/>
-    </row>
-    <row r="316" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C316" s="28"/>
-    </row>
-    <row r="317" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C317" s="28"/>
-    </row>
-    <row r="318" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C318" s="28"/>
-    </row>
-    <row r="319" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C319" s="28"/>
-    </row>
-    <row r="320" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C320" s="28"/>
-    </row>
-    <row r="321" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C321" s="28"/>
-    </row>
-    <row r="322" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C322" s="28"/>
-    </row>
-    <row r="323" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C323" s="28"/>
-    </row>
-    <row r="324" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C324" s="28"/>
-    </row>
-    <row r="325" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C325" s="28"/>
-    </row>
-    <row r="326" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C326" s="28"/>
-    </row>
-    <row r="327" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C327" s="28"/>
-    </row>
-    <row r="328" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C328" s="28"/>
-    </row>
-    <row r="329" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C329" s="28"/>
-    </row>
-    <row r="330" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C330" s="28"/>
-    </row>
-    <row r="331" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C331" s="28"/>
-    </row>
-    <row r="332" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C332" s="28"/>
-    </row>
-    <row r="333" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C333" s="28"/>
-    </row>
-    <row r="334" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C334" s="28"/>
-    </row>
-    <row r="335" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C335" s="28"/>
-    </row>
-    <row r="336" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C336" s="28"/>
-    </row>
-    <row r="337" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C337" s="28"/>
-    </row>
-    <row r="338" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C338" s="28"/>
-    </row>
-    <row r="339" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C339" s="28"/>
-    </row>
-    <row r="340" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="299" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A299">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="B299" s="16">
+        <v>36</v>
+      </c>
+      <c r="C299" s="28" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E299" s="31" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G299" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I299" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A300">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="B300" s="16">
+        <v>37</v>
+      </c>
+      <c r="C300" s="28" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E300" s="31" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G300" s="33" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A301">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="B301" s="16">
+        <v>37</v>
+      </c>
+      <c r="C301" s="28" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E301" s="31" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G301" s="33"/>
+    </row>
+    <row r="302" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A302">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="B302" s="16">
+        <v>37</v>
+      </c>
+      <c r="C302" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E302" s="31" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G302" s="33" t="s">
+        <v>1977</v>
+      </c>
+      <c r="H302" s="33" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A303">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="B303" s="16">
+        <v>37</v>
+      </c>
+      <c r="C303" s="28" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E303" s="31" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G303" s="33"/>
+    </row>
+    <row r="304" spans="1:9" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A304">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="B304" s="16">
+        <v>37</v>
+      </c>
+      <c r="C304" s="28" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E304" s="31" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G304" s="33" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A305">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="B305" s="16">
+        <v>37</v>
+      </c>
+      <c r="C305" s="28" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E305" s="31" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G305" s="33" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A306">
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="B306" s="16">
+        <v>37</v>
+      </c>
+      <c r="C306" s="28" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E306" s="31" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G306" s="33" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A307">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B307" s="16">
+        <v>37</v>
+      </c>
+      <c r="C307" s="28" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E307" s="31" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G307" s="33" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A308">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="B308" s="16">
+        <v>37</v>
+      </c>
+      <c r="C308" s="28" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E308" s="31" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G308" s="33" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H308" s="33" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A309">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="B309" s="16">
+        <v>37</v>
+      </c>
+      <c r="C309" s="28" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E309" s="31" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G309" s="33" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A310">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="B310" s="16">
+        <v>37</v>
+      </c>
+      <c r="C310" s="28" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E310" s="31" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G310" s="33" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A311">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="B311" s="16">
+        <v>37</v>
+      </c>
+      <c r="C311" s="28" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E311" s="31" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G311" s="33" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A312">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="B312" s="16">
+        <v>37</v>
+      </c>
+      <c r="C312" s="28" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E312" s="31" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G312" s="33" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A313">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="B313" s="16">
+        <v>37</v>
+      </c>
+      <c r="C313" s="28" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E313" s="31" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G313" s="33"/>
+    </row>
+    <row r="314" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A314">
+        <f t="shared" ca="1" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="B314" s="16">
+        <v>37</v>
+      </c>
+      <c r="C314" s="28" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E314" s="31" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G314" s="33" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A315">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="B315" s="16">
+        <v>37</v>
+      </c>
+      <c r="C315" s="28" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E315" s="31" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G315" s="33" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A316">
+        <f t="shared" ref="A316:A331" ca="1" si="7">RANDBETWEEN(1,100)</f>
+        <v>57</v>
+      </c>
+      <c r="B316" s="16">
+        <v>37</v>
+      </c>
+      <c r="C316" s="28" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E316" s="31" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G316" s="33" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A317">
+        <f t="shared" ca="1" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="B317" s="16">
+        <v>37</v>
+      </c>
+      <c r="C317" s="28" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E317" s="31" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G317" s="33" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A318">
+        <f t="shared" ca="1" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="B318" s="16">
+        <v>37</v>
+      </c>
+      <c r="C318" s="28" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E318" s="31" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G318" s="33" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H318" s="33" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A319">
+        <f t="shared" ca="1" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="B319" s="16">
+        <v>37</v>
+      </c>
+      <c r="C319" s="28" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E319" s="31" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G319" s="33"/>
+    </row>
+    <row r="320" spans="1:8" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A320">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="B320" s="16">
+        <v>37</v>
+      </c>
+      <c r="C320" s="28" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E320" s="31" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G320" s="33"/>
+    </row>
+    <row r="321" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A321">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="B321" s="16">
+        <v>37</v>
+      </c>
+      <c r="C321" s="28" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E321" s="31" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G321" s="33"/>
+    </row>
+    <row r="322" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A322">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B322" s="16">
+        <v>37</v>
+      </c>
+      <c r="C322" s="28" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E322" s="31" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G322" s="33" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A323">
+        <f t="shared" ca="1" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="B323" s="16">
+        <v>37</v>
+      </c>
+      <c r="C323" s="28" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E323" s="31" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G323" s="33"/>
+    </row>
+    <row r="324" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A324">
+        <f t="shared" ca="1" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="B324" s="16">
+        <v>37</v>
+      </c>
+      <c r="C324" s="28" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E324" s="31" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G324" s="33" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A325">
+        <f t="shared" ca="1" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="B325" s="16">
+        <v>37</v>
+      </c>
+      <c r="C325" s="28" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E325" s="31" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G325" s="33"/>
+    </row>
+    <row r="326" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A326">
+        <f t="shared" ca="1" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="B326" s="16">
+        <v>37</v>
+      </c>
+      <c r="C326" s="28" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E326" s="31" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G326" s="33"/>
+    </row>
+    <row r="327" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A327">
+        <f t="shared" ca="1" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="B327" s="16">
+        <v>38</v>
+      </c>
+      <c r="C327" s="28" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E327" s="31" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G327" s="33" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A328">
+        <f t="shared" ca="1" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="B328" s="16">
+        <v>38</v>
+      </c>
+      <c r="C328" s="28" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E328" s="31" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G328" s="33" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A329">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="B329" s="16">
+        <v>38</v>
+      </c>
+      <c r="C329" s="28" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E329" s="31" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G329" s="33" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="46.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="A330">
+        <f t="shared" ca="1" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="B330" s="16">
+        <v>38</v>
+      </c>
+      <c r="C330" s="28" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E330" s="31" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A331">
+        <f t="shared" ca="1" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="B331" s="16">
+        <v>39</v>
+      </c>
+      <c r="C331" s="28" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E331" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G331" s="33" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C332" s="28" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E332" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G332" s="33" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C333" s="28" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E333" t="s">
+        <v>2048</v>
+      </c>
+      <c r="G333" s="33" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C334" s="28" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E334" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C335" s="28" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E335" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G335" s="33" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C336" s="28" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E336" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="337" spans="3:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C337" s="28" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E337" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G337" s="33" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="338" spans="3:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C338" s="28" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E338" t="s">
+        <v>2061</v>
+      </c>
+      <c r="G338" s="33"/>
+    </row>
+    <row r="339" spans="3:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C339" s="28" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E339" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G339" s="33" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="340" spans="3:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C340" s="28"/>
-    </row>
-    <row r="341" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="G340" s="33"/>
+    </row>
+    <row r="341" spans="3:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C341" s="28"/>
-    </row>
-    <row r="342" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="G341" s="33"/>
+    </row>
+    <row r="342" spans="3:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C342" s="28"/>
+      <c r="G342" s="33"/>
+    </row>
+    <row r="343" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G343" s="33"/>
+    </row>
+    <row r="344" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G344" s="33"/>
+    </row>
+    <row r="345" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G345" s="33"/>
+    </row>
+    <row r="346" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G346" s="33"/>
+    </row>
+    <row r="347" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G347" s="33"/>
+    </row>
+    <row r="348" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G348" s="33"/>
+    </row>
+    <row r="349" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G349" s="33"/>
+    </row>
+    <row r="350" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G350" s="33"/>
+    </row>
+    <row r="351" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G351" s="33"/>
+    </row>
+    <row r="352" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G352" s="33"/>
+    </row>
+    <row r="353" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G353" s="33"/>
+    </row>
+    <row r="354" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G354" s="33"/>
+    </row>
+    <row r="355" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G355" s="33"/>
+    </row>
+    <row r="356" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G356" s="33"/>
+    </row>
+    <row r="357" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G357" s="33"/>
+    </row>
+    <row r="358" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G358" s="33"/>
+    </row>
+    <row r="359" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G359" s="33"/>
+    </row>
+    <row r="360" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G360" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E266">
+  <autoFilter ref="A1:E331">
     <filterColumn colId="1">
       <filters>
-        <filter val="30"/>
+        <filter val="39"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Mainichi_Renshuu.xlsx
+++ b/Mainichi_Renshuu.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">minanihongo!$A$1:$F$207</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$222</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$401</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$448</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="2388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="2482">
   <si>
     <t>様</t>
   </si>
@@ -7318,6 +7318,288 @@
   </si>
   <si>
     <t>khong khi</t>
+  </si>
+  <si>
+    <t>用意</t>
+  </si>
+  <si>
+    <t>ようい</t>
+  </si>
+  <si>
+    <t>chuan bi</t>
+  </si>
+  <si>
+    <t>世話</t>
+  </si>
+  <si>
+    <t>せわ</t>
+  </si>
+  <si>
+    <t>cham soc, giup do</t>
+  </si>
+  <si>
+    <t>茶色</t>
+  </si>
+  <si>
+    <t>ちゃいろ</t>
+  </si>
+  <si>
+    <t>mau nau</t>
+  </si>
+  <si>
+    <t>急に</t>
+  </si>
+  <si>
+    <t>きゅうに</t>
+  </si>
+  <si>
+    <t>đột nhiên</t>
+  </si>
+  <si>
+    <t>まず</t>
+  </si>
+  <si>
+    <t>truoc het</t>
+  </si>
+  <si>
+    <t>đến, gặp</t>
+  </si>
+  <si>
+    <t>着いたら</t>
+  </si>
+  <si>
+    <t>ついたら</t>
+  </si>
+  <si>
+    <t>Đề 5</t>
+  </si>
+  <si>
+    <t>計画</t>
+  </si>
+  <si>
+    <t>けいかく</t>
+  </si>
+  <si>
+    <t>chương trình, kế hoạch</t>
+  </si>
+  <si>
+    <t>theo như</t>
+  </si>
+  <si>
+    <t>～に よると</t>
+  </si>
+  <si>
+    <t>花瓶</t>
+  </si>
+  <si>
+    <t>かびん</t>
+  </si>
+  <si>
+    <t>lọ hoa</t>
+  </si>
+  <si>
+    <t>運びます</t>
+  </si>
+  <si>
+    <t>はこびます</t>
+  </si>
+  <si>
+    <t>vận chuyển</t>
+  </si>
+  <si>
+    <t>この　花瓶は　だいじなので、気をつけて　はこんでください</t>
+  </si>
+  <si>
+    <t>赤ん坊</t>
+  </si>
+  <si>
+    <t>あかんぼう</t>
+  </si>
+  <si>
+    <t>trẻ sơ sinh</t>
+  </si>
+  <si>
+    <t>もっと</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hơn nữa</t>
+  </si>
+  <si>
+    <t>きっと</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chắc chắn</t>
+  </si>
+  <si>
+    <t>ずっと</t>
+  </si>
+  <si>
+    <t>suốt, mãi</t>
+  </si>
+  <si>
+    <t>私は　日本に　来てから　ずっと　このいえに　すんでいます</t>
+  </si>
+  <si>
+    <t>やさしい　質問　に　答えられなくて、とても　恥ずかしいです</t>
+  </si>
+  <si>
+    <t>sợ</t>
+  </si>
+  <si>
+    <t>かがみ</t>
+  </si>
+  <si>
+    <t>gương</t>
+  </si>
+  <si>
+    <t>出席</t>
+  </si>
+  <si>
+    <t>しゅっせき</t>
+  </si>
+  <si>
+    <t>伝えます</t>
+  </si>
+  <si>
+    <t>つたえます</t>
+  </si>
+  <si>
+    <t>truyền đạt</t>
+  </si>
+  <si>
+    <t>lịch sự, lễ phép, đàng hoàng</t>
+  </si>
+  <si>
+    <t>丁寧</t>
+  </si>
+  <si>
+    <t>ていねい　（な）</t>
+  </si>
+  <si>
+    <t>田中さんは　いつも　丁寧な　ことばを　使います</t>
+  </si>
+  <si>
+    <t>うるさい</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ồn ào</t>
+  </si>
+  <si>
+    <t>酷い</t>
+  </si>
+  <si>
+    <t>ひどい</t>
+  </si>
+  <si>
+    <t>khủng khiếp, tồi tệ</t>
+  </si>
+  <si>
+    <t>昨日は　ひどい天気でした</t>
+  </si>
+  <si>
+    <t>召上ります</t>
+  </si>
+  <si>
+    <t>めしあがります</t>
+  </si>
+  <si>
+    <t>dọn dẹp, sắp xếp</t>
+  </si>
+  <si>
+    <t>どうやって</t>
+  </si>
+  <si>
+    <t>làm thế nào</t>
+  </si>
+  <si>
+    <t>たまに</t>
+  </si>
+  <si>
+    <t>りよう</t>
+  </si>
+  <si>
+    <t>利用</t>
+  </si>
+  <si>
+    <t>sử dụng</t>
+  </si>
+  <si>
+    <t>đôi khi</t>
+  </si>
+  <si>
+    <t>私は　たまに　図書館を　利用します</t>
+  </si>
+  <si>
+    <t>Đề 6</t>
+  </si>
+  <si>
+    <t>写した</t>
+  </si>
+  <si>
+    <t>うつした</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>出発</t>
+  </si>
+  <si>
+    <t>しゅっぱつ</t>
+  </si>
+  <si>
+    <t>近所</t>
+  </si>
+  <si>
+    <t>きんじょ</t>
+  </si>
+  <si>
+    <t>vùng lân cận</t>
+  </si>
+  <si>
+    <t>旅館</t>
+  </si>
+  <si>
+    <t>りょかん</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lữ quán, nhà nghỉ</t>
+  </si>
+  <si>
+    <t>毎年</t>
+  </si>
+  <si>
+    <t>まいとし</t>
+  </si>
+  <si>
+    <t>hàng năm</t>
+  </si>
+  <si>
+    <t>毎年　夏に　近所の　古い　旅館で　アルバイトを　します</t>
+  </si>
+  <si>
+    <t>そろそろ　失礼します</t>
+  </si>
+  <si>
+    <t>そろそろ　しつれいします</t>
+  </si>
+  <si>
+    <t>tôi xin phép ra về</t>
+  </si>
+  <si>
+    <t>thăm người ốm</t>
+  </si>
+  <si>
+    <t>田中さんが　入院したので、　お見舞いに　行きました</t>
+  </si>
+  <si>
+    <t>げんいん</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>nguyên nhân</t>
   </si>
 </sst>
 </file>
@@ -7452,7 +7734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7524,6 +7806,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7605,7 +7899,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7701,6 +7995,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -8056,7 +8355,7 @@
     <row r="2" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D2">
         <f t="shared" ref="D2:D31" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
         <v>87</v>
@@ -8074,7 +8373,7 @@
     <row r="3" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>58</v>
@@ -8092,7 +8391,7 @@
     <row r="4" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -8113,7 +8412,7 @@
     <row r="5" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>31</v>
@@ -8131,7 +8430,7 @@
     <row r="6" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
@@ -8152,7 +8451,7 @@
     <row r="7" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>136</v>
@@ -8167,7 +8466,7 @@
     <row r="8" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>47</v>
@@ -8185,7 +8484,7 @@
     <row r="9" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2">
         <v>127</v>
@@ -8203,7 +8502,7 @@
     <row r="10" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2">
         <v>115</v>
@@ -8224,7 +8523,7 @@
     <row r="11" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2">
         <v>126</v>
@@ -8242,7 +8541,7 @@
     <row r="12" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -8260,7 +8559,7 @@
     <row r="13" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
         <v>94</v>
@@ -8275,7 +8574,7 @@
     <row r="14" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -8293,7 +8592,7 @@
     <row r="15" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2">
         <v>122</v>
@@ -8311,7 +8610,7 @@
     <row r="16" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2">
         <v>117</v>
@@ -8335,7 +8634,7 @@
     <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2">
         <v>63</v>
@@ -8359,7 +8658,7 @@
     <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
@@ -8377,7 +8676,7 @@
     <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2">
         <v>116</v>
@@ -8396,7 +8695,7 @@
     <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2">
         <v>96</v>
@@ -8417,7 +8716,7 @@
     <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -8435,7 +8734,7 @@
     <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -8456,7 +8755,7 @@
     <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2">
         <v>71</v>
@@ -8477,7 +8776,7 @@
     <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -8498,7 +8797,7 @@
     <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -8519,7 +8818,7 @@
     <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2">
         <v>50</v>
@@ -8537,7 +8836,7 @@
     <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2">
         <v>114</v>
@@ -8555,7 +8854,7 @@
     <row r="28" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2">
         <v>140</v>
@@ -8579,7 +8878,7 @@
     <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E29" s="2">
         <v>146</v>
@@ -8603,7 +8902,7 @@
     <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2">
         <v>66</v>
@@ -8624,7 +8923,7 @@
     <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2">
         <v>9</v>
@@ -8645,7 +8944,7 @@
     <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D32">
         <f t="shared" ref="D32:D61" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2">
         <v>86</v>
@@ -8666,7 +8965,7 @@
     <row r="33" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="E33" s="2">
         <v>7</v>
@@ -8684,7 +8983,7 @@
     <row r="34" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2">
         <v>92</v>
@@ -8702,7 +9001,7 @@
     <row r="35" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2">
         <v>3</v>
@@ -8723,7 +9022,7 @@
     <row r="36" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2">
         <v>134</v>
@@ -8741,7 +9040,7 @@
     <row r="37" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2">
         <v>6</v>
@@ -8759,7 +9058,7 @@
     <row r="38" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2">
         <v>129</v>
@@ -8777,7 +9076,7 @@
     <row r="39" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E39" s="2">
         <v>61</v>
@@ -8798,7 +9097,7 @@
     <row r="40" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2">
         <v>42</v>
@@ -8819,7 +9118,7 @@
     <row r="41" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E41" s="2">
         <v>55</v>
@@ -8837,7 +9136,7 @@
     <row r="42" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2">
         <v>53</v>
@@ -8858,7 +9157,7 @@
     <row r="43" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2">
         <v>149</v>
@@ -8879,7 +9178,7 @@
     <row r="44" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2">
         <v>70</v>
@@ -8897,7 +9196,7 @@
     <row r="45" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
         <v>144</v>
@@ -8918,7 +9217,7 @@
     <row r="46" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E46" s="2">
         <v>118</v>
@@ -8946,7 +9245,7 @@
     <row r="47" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2">
         <v>73</v>
@@ -8964,7 +9263,7 @@
     <row r="48" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E48" s="2">
         <v>109</v>
@@ -8979,7 +9278,7 @@
     <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E49" s="2">
         <v>83</v>
@@ -9000,7 +9299,7 @@
     <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E50" s="2">
         <v>107</v>
@@ -9015,7 +9314,7 @@
     <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E51" s="2">
         <v>25</v>
@@ -9036,7 +9335,7 @@
     <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E52" s="2">
         <v>108</v>
@@ -9063,7 +9362,7 @@
     <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2">
         <v>113</v>
@@ -9081,7 +9380,7 @@
     <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E54" s="2">
         <v>89</v>
@@ -9108,7 +9407,7 @@
     <row r="55" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E55" s="2">
         <v>130</v>
@@ -9126,7 +9425,7 @@
     <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E56" s="2">
         <v>72</v>
@@ -9147,7 +9446,7 @@
     <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E57" s="2">
         <v>77</v>
@@ -9165,7 +9464,7 @@
     <row r="58" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2">
         <v>57</v>
@@ -9189,7 +9488,7 @@
     <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2">
         <v>45</v>
@@ -9207,7 +9506,7 @@
     <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2">
         <v>128</v>
@@ -9228,7 +9527,7 @@
     <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E61" s="2">
         <v>8</v>
@@ -9249,7 +9548,7 @@
     <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D62">
         <f t="shared" ref="D62:D93" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E62" s="2">
         <v>135</v>
@@ -9267,7 +9566,7 @@
     <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2">
         <v>56</v>
@@ -9288,7 +9587,7 @@
     <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E64" s="2">
         <v>82</v>
@@ -9306,7 +9605,7 @@
     <row r="65" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2">
         <v>112</v>
@@ -9324,7 +9623,7 @@
     <row r="66" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E66" s="2">
         <v>121</v>
@@ -9345,7 +9644,7 @@
     <row r="67" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2">
         <v>30</v>
@@ -9363,7 +9662,7 @@
     <row r="68" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E68" s="2">
         <v>106</v>
@@ -9384,7 +9683,7 @@
     <row r="69" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E69" s="2">
         <v>64</v>
@@ -9405,7 +9704,7 @@
     <row r="70" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E70" s="2">
         <v>147</v>
@@ -9426,7 +9725,7 @@
     <row r="71" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="E71" s="2">
         <v>44</v>
@@ -9445,7 +9744,7 @@
     <row r="72" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E72" s="2">
         <v>148</v>
@@ -9466,7 +9765,7 @@
     <row r="73" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2">
         <v>59</v>
@@ -9484,7 +9783,7 @@
     <row r="74" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E74" s="2">
         <v>132</v>
@@ -9502,7 +9801,7 @@
     <row r="75" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2">
         <v>12</v>
@@ -9520,7 +9819,7 @@
     <row r="76" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E76" s="2">
         <v>26</v>
@@ -9541,7 +9840,7 @@
     <row r="77" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E77" s="2">
         <v>43</v>
@@ -9583,7 +9882,7 @@
     <row r="79" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E79" s="2">
         <v>99</v>
@@ -9601,7 +9900,7 @@
     <row r="80" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E80" s="2">
         <v>141</v>
@@ -9622,7 +9921,7 @@
     <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E81" s="2">
         <v>37</v>
@@ -9643,7 +9942,7 @@
     <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E82" s="2">
         <v>4</v>
@@ -9664,7 +9963,7 @@
     <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E83" s="2">
         <v>119</v>
@@ -9685,7 +9984,7 @@
     <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E84" s="2">
         <v>143</v>
@@ -9706,7 +10005,7 @@
     <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E85" s="2">
         <v>32</v>
@@ -9724,7 +10023,7 @@
     <row r="86" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E86" s="2">
         <v>97</v>
@@ -9742,7 +10041,7 @@
     <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E87" s="2">
         <v>120</v>
@@ -9763,7 +10062,7 @@
     <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2">
         <v>24</v>
@@ -9782,7 +10081,7 @@
     <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2">
         <v>110</v>
@@ -9800,7 +10099,7 @@
     <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2">
         <v>51</v>
@@ -9821,7 +10120,7 @@
     <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E91" s="2">
         <v>18</v>
@@ -9842,7 +10141,7 @@
     <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2">
         <v>69</v>
@@ -9863,7 +10162,7 @@
     <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E93" s="2">
         <v>15</v>
@@ -9878,7 +10177,7 @@
     <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D94">
         <f t="shared" ref="D94:D125" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E94" s="2">
         <v>142</v>
@@ -9902,7 +10201,7 @@
     <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E95" s="2">
         <v>78</v>
@@ -9920,7 +10219,7 @@
     <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E96" s="2">
         <v>2</v>
@@ -9941,7 +10240,7 @@
     <row r="97" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D97">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="E97" s="2">
         <v>100</v>
@@ -9959,7 +10258,7 @@
     <row r="98" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E98" s="2">
         <v>95</v>
@@ -9974,7 +10273,7 @@
     <row r="99" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E99" s="2">
         <v>80</v>
@@ -9992,7 +10291,7 @@
     <row r="100" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -10010,7 +10309,7 @@
     <row r="101" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E101" s="2">
         <v>67</v>
@@ -10025,7 +10324,7 @@
     <row r="102" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="E102" s="2">
         <v>75</v>
@@ -10043,7 +10342,7 @@
     <row r="103" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="E103" s="2">
         <v>76</v>
@@ -10059,7 +10358,7 @@
     <row r="104" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2">
         <v>133</v>
@@ -10077,7 +10376,7 @@
     <row r="105" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E105" s="2">
         <v>27</v>
@@ -10095,7 +10394,7 @@
     <row r="106" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E106" s="2">
         <v>28</v>
@@ -10110,7 +10409,7 @@
     <row r="107" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E107" s="2">
         <v>34</v>
@@ -10128,7 +10427,7 @@
     <row r="108" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E108" s="2">
         <v>93</v>
@@ -10146,7 +10445,7 @@
     <row r="109" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E109" s="2">
         <v>52</v>
@@ -10164,7 +10463,7 @@
     <row r="110" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E110" s="2">
         <v>131</v>
@@ -10185,7 +10484,7 @@
     <row r="111" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E111" s="2">
         <v>65</v>
@@ -10203,7 +10502,7 @@
     <row r="112" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E112" s="2">
         <v>74</v>
@@ -10221,7 +10520,7 @@
     <row r="113" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E113" s="2">
         <v>49</v>
@@ -10239,7 +10538,7 @@
     <row r="114" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="E114" s="2">
         <v>41</v>
@@ -10254,7 +10553,7 @@
     <row r="115" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E115" s="2">
         <v>111</v>
@@ -10272,7 +10571,7 @@
     <row r="116" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E116" s="2">
         <v>90</v>
@@ -10290,7 +10589,7 @@
     <row r="117" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E117" s="2">
         <v>137</v>
@@ -10308,7 +10607,7 @@
     <row r="118" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E118" s="2">
         <v>20</v>
@@ -10323,7 +10622,7 @@
     <row r="119" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E119" s="2">
         <v>124</v>
@@ -10341,7 +10640,7 @@
     <row r="120" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E120" s="2">
         <v>138</v>
@@ -10359,7 +10658,7 @@
     <row r="121" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E121" s="2">
         <v>36</v>
@@ -10374,7 +10673,7 @@
     <row r="122" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E122" s="2">
         <v>68</v>
@@ -10390,7 +10689,7 @@
     <row r="123" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E123" s="2">
         <v>22</v>
@@ -10408,7 +10707,7 @@
     <row r="124" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E124" s="2">
         <v>33</v>
@@ -10426,7 +10725,7 @@
     <row r="125" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E125" s="2">
         <v>125</v>
@@ -10444,7 +10743,7 @@
     <row r="126" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D126">
         <f t="shared" ref="D126:D157" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E126" s="2">
         <v>54</v>
@@ -10462,7 +10761,7 @@
     <row r="127" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D127">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E127" s="2">
         <v>11</v>
@@ -10483,7 +10782,7 @@
     <row r="128" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D128">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E128" s="2">
         <v>79</v>
@@ -10501,7 +10800,7 @@
     <row r="129" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D129">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E129" s="2">
         <v>10</v>
@@ -10519,7 +10818,7 @@
     <row r="130" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D130">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E130" s="2">
         <v>17</v>
@@ -10534,7 +10833,7 @@
     <row r="131" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D131">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E131" s="2">
         <v>88</v>
@@ -10552,7 +10851,7 @@
     <row r="132" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E132" s="2">
         <v>98</v>
@@ -10570,7 +10869,7 @@
     <row r="133" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E133" s="2">
         <v>62</v>
@@ -10588,7 +10887,7 @@
     <row r="134" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="E134" s="2">
         <v>19</v>
@@ -10606,7 +10905,7 @@
     <row r="135" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D135">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E135" s="2">
         <v>81</v>
@@ -10627,7 +10926,7 @@
     <row r="136" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E136" s="2">
         <v>23</v>
@@ -10645,7 +10944,7 @@
     <row r="137" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E137" s="2">
         <v>101</v>
@@ -10660,7 +10959,7 @@
     <row r="138" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E138" s="2">
         <v>84</v>
@@ -10675,7 +10974,7 @@
     <row r="139" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E139" s="2">
         <v>123</v>
@@ -10690,7 +10989,7 @@
     <row r="140" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E140" s="2">
         <v>48</v>
@@ -10708,7 +11007,7 @@
     <row r="141" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="E141" s="2">
         <v>38</v>
@@ -10726,7 +11025,7 @@
     <row r="142" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E142" s="2">
         <v>102</v>
@@ -10747,7 +11046,7 @@
     <row r="143" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E143" s="2">
         <v>139</v>
@@ -10768,7 +11067,7 @@
     <row r="144" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F144" s="2">
         <v>17</v>
@@ -10786,7 +11085,7 @@
     <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F145" s="2">
         <v>17</v>
@@ -10804,7 +11103,7 @@
     <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F146" s="2">
         <v>17</v>
@@ -10822,7 +11121,7 @@
     <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F147" s="2">
         <v>17</v>
@@ -10837,7 +11136,7 @@
     <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="F148" s="2">
         <v>17</v>
@@ -10858,7 +11157,7 @@
     <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F149" s="2">
         <v>17</v>
@@ -10879,7 +11178,7 @@
     <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F150" s="2">
         <v>17</v>
@@ -10897,7 +11196,7 @@
     <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2">
         <v>17</v>
@@ -10915,7 +11214,7 @@
     <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F152" s="2">
         <v>17</v>
@@ -10927,7 +11226,7 @@
     <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F153" s="2">
         <v>17</v>
@@ -10945,7 +11244,7 @@
     <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F154" s="2">
         <v>17</v>
@@ -10963,7 +11262,7 @@
     <row r="155" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="F155" s="2">
         <v>17</v>
@@ -10984,7 +11283,7 @@
     <row r="156" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F156" s="2">
         <v>17</v>
@@ -11005,7 +11304,7 @@
     <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F157" s="2">
         <v>17</v>
@@ -11026,7 +11325,7 @@
     <row r="158" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D158">
         <f t="shared" ref="D158:D177" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E158">
         <v>10</v>
@@ -11050,7 +11349,7 @@
     <row r="159" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D159">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E159">
         <v>17</v>
@@ -11074,7 +11373,7 @@
     <row r="160" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D160">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E160">
         <v>2</v>
@@ -11095,7 +11394,7 @@
     <row r="161" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D161">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E161">
         <v>3</v>
@@ -11116,7 +11415,7 @@
     <row r="162" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D162">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E162">
         <v>12</v>
@@ -11140,7 +11439,7 @@
     <row r="163" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D163">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E163">
         <v>18</v>
@@ -11167,7 +11466,7 @@
     <row r="164" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E164">
         <v>6</v>
@@ -11188,7 +11487,7 @@
     <row r="165" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="E165">
         <v>13</v>
@@ -11212,7 +11511,7 @@
     <row r="166" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E166">
         <v>7</v>
@@ -11236,7 +11535,7 @@
     <row r="167" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="E167">
         <v>8</v>
@@ -11260,7 +11559,7 @@
     <row r="168" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E168">
         <v>14</v>
@@ -11284,7 +11583,7 @@
     <row r="169" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E169">
         <v>19</v>
@@ -11308,7 +11607,7 @@
     <row r="170" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E170">
         <v>20</v>
@@ -11329,7 +11628,7 @@
     <row r="171" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -11350,7 +11649,7 @@
     <row r="172" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -11365,7 +11664,7 @@
     <row r="173" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="E173">
         <v>11</v>
@@ -11389,7 +11688,7 @@
     <row r="174" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="E174">
         <v>15</v>
@@ -11413,7 +11712,7 @@
     <row r="175" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E175">
         <v>4</v>
@@ -11431,7 +11730,7 @@
     <row r="176" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E176">
         <v>16</v>
@@ -11452,7 +11751,7 @@
     <row r="177" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E177">
         <v>9</v>
@@ -11476,7 +11775,7 @@
     <row r="178" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D178">
         <f t="shared" ref="D178:D214" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E178">
         <v>13</v>
@@ -11497,7 +11796,7 @@
     <row r="179" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D179">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E179">
         <v>4</v>
@@ -11521,7 +11820,7 @@
     <row r="180" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D180">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E180">
         <v>5</v>
@@ -11545,7 +11844,7 @@
     <row r="181" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D181">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F181" s="2">
         <v>19</v>
@@ -11566,7 +11865,7 @@
     <row r="182" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D182">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E182">
         <v>18</v>
@@ -11593,7 +11892,7 @@
     <row r="183" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D183">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="E183">
         <v>14</v>
@@ -11617,7 +11916,7 @@
     <row r="184" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E184">
         <v>24</v>
@@ -11644,7 +11943,7 @@
     <row r="185" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E185">
         <v>23</v>
@@ -11671,7 +11970,7 @@
     <row r="186" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E186">
         <v>17</v>
@@ -11692,7 +11991,7 @@
     <row r="187" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E187">
         <v>22</v>
@@ -11713,7 +12012,7 @@
     <row r="188" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E188">
         <v>9</v>
@@ -11737,7 +12036,7 @@
     <row r="189" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E189">
         <v>19</v>
@@ -11761,7 +12060,7 @@
     <row r="190" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D190">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E190">
         <v>8</v>
@@ -11782,7 +12081,7 @@
     <row r="191" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D191">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -11806,7 +12105,7 @@
     <row r="192" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D192">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E192">
         <v>20</v>
@@ -11833,7 +12132,7 @@
     <row r="193" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D193">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E193">
         <v>7</v>
@@ -11851,7 +12150,7 @@
     <row r="194" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D194">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E194">
         <v>11</v>
@@ -11869,7 +12168,7 @@
     <row r="195" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D195">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E195">
         <v>16</v>
@@ -11893,7 +12192,7 @@
     <row r="196" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D196">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E196">
         <v>6</v>
@@ -11914,7 +12213,7 @@
     <row r="197" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F197" s="2">
         <v>19</v>
@@ -11932,7 +12231,7 @@
     <row r="198" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E198">
         <v>10</v>
@@ -11950,7 +12249,7 @@
     <row r="199" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E199">
         <v>21</v>
@@ -11974,7 +12273,7 @@
     <row r="200" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -11995,7 +12294,7 @@
     <row r="201" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="E201">
         <v>3</v>
@@ -12019,7 +12318,7 @@
     <row r="202" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E202">
         <v>15</v>
@@ -12043,7 +12342,7 @@
     <row r="203" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E203">
         <v>9</v>
@@ -12067,7 +12366,7 @@
     <row r="204" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -12088,7 +12387,7 @@
     <row r="205" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E205">
         <v>5</v>
@@ -12109,7 +12408,7 @@
     <row r="206" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E206">
         <v>8</v>
@@ -12133,7 +12432,7 @@
     <row r="207" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -12154,7 +12453,7 @@
     <row r="208" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E208">
         <v>10</v>
@@ -12175,7 +12474,7 @@
     <row r="209" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E209">
         <v>11</v>
@@ -12196,7 +12495,7 @@
     <row r="210" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E210">
         <v>7</v>
@@ -12217,7 +12516,7 @@
     <row r="211" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -12238,7 +12537,7 @@
     <row r="212" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E212">
         <v>2</v>
@@ -12259,7 +12558,7 @@
     <row r="213" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -12280,7 +12579,7 @@
     <row r="214" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F214" s="2">
         <v>20</v>
@@ -12406,7 +12705,7 @@
     <row r="221" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D221">
         <f t="shared" ref="D221:D222" ca="1" si="7">RANDBETWEEN(0,100)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F221" s="2">
         <v>12</v>
@@ -12427,7 +12726,7 @@
     <row r="222" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D222">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F222" s="2">
         <v>12</v>
@@ -12468,7 +12767,7 @@
   <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D158" sqref="A1:J210"/>
     </sheetView>
   </sheetViews>
@@ -12512,7 +12811,7 @@
     <row r="2" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7">
         <v>13</v>
@@ -12533,7 +12832,7 @@
     <row r="3" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>807</v>
@@ -12554,7 +12853,7 @@
     <row r="4" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>657</v>
@@ -12575,7 +12874,7 @@
     <row r="5" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B5" s="7">
         <v>17</v>
@@ -12599,7 +12898,7 @@
     <row r="6" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7">
         <v>12</v>
@@ -12620,7 +12919,7 @@
     <row r="7" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A7">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B7" s="7">
         <v>13</v>
@@ -12641,7 +12940,7 @@
     <row r="8" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A8">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>807</v>
@@ -12686,7 +12985,7 @@
     <row r="10" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A10">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B10" s="7">
         <v>14</v>
@@ -12710,7 +13009,7 @@
     <row r="11" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A11">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>856</v>
@@ -12731,7 +13030,7 @@
     <row r="12" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A12">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>962</v>
@@ -12755,7 +13054,7 @@
     <row r="13" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A13">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -12776,7 +13075,7 @@
     <row r="14" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A14">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>807</v>
@@ -12800,7 +13099,7 @@
     <row r="15" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A15">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -12818,7 +13117,7 @@
     <row r="16" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A16">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B16" s="7">
         <v>13</v>
@@ -12839,7 +13138,7 @@
     <row r="17" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A17">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B17" s="7">
         <v>11</v>
@@ -12860,7 +13159,7 @@
     <row r="18" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A18">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -12901,7 +13200,7 @@
     <row r="20" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A20">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B20" s="7">
         <v>13</v>
@@ -12922,7 +13221,7 @@
     <row r="21" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A21">
         <f t="shared" ref="A21:A26" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>807</v>
@@ -12943,7 +13242,7 @@
     <row r="22" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>856</v>
@@ -12964,7 +13263,7 @@
     <row r="23" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>962</v>
@@ -12988,7 +13287,7 @@
     <row r="24" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>962</v>
@@ -13009,7 +13308,7 @@
     <row r="25" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>657</v>
@@ -13030,7 +13329,7 @@
     <row r="26" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>807</v>
@@ -13071,7 +13370,7 @@
     <row r="28" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A28">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B28" s="7">
         <v>13</v>
@@ -13092,7 +13391,7 @@
     <row r="29" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A29">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>657</v>
@@ -13113,7 +13412,7 @@
     <row r="30" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A30">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>962</v>
@@ -13158,7 +13457,7 @@
     <row r="32" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A32">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>657</v>
@@ -13179,7 +13478,7 @@
     <row r="33" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A33">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>856</v>
@@ -13200,7 +13499,7 @@
     <row r="34" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A34">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>807</v>
@@ -13221,7 +13520,7 @@
     <row r="35" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A35">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B35" s="7">
         <v>12</v>
@@ -13236,7 +13535,7 @@
     <row r="36" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A36">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>807</v>
@@ -13257,7 +13556,7 @@
     <row r="37" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A37">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>657</v>
@@ -13278,7 +13577,7 @@
     <row r="38" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A38">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B38" s="7">
         <v>12</v>
@@ -13299,7 +13598,7 @@
     <row r="39" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A39">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>657</v>
@@ -13340,7 +13639,7 @@
     <row r="41" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A41">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B41" s="7">
         <v>12</v>
@@ -13355,7 +13654,7 @@
     <row r="42" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A42">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B42" s="7">
         <v>13</v>
@@ -13376,7 +13675,7 @@
     <row r="43" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A43">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>856</v>
@@ -13397,7 +13696,7 @@
     <row r="44" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A44">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B44" s="7">
         <v>11</v>
@@ -13418,7 +13717,7 @@
     <row r="45" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A45">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>962</v>
@@ -13439,7 +13738,7 @@
     <row r="46" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A46">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>657</v>
@@ -13460,7 +13759,7 @@
     <row r="47" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A47">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B47" s="7">
         <v>12</v>
@@ -13481,7 +13780,7 @@
     <row r="48" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A48">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>962</v>
@@ -13505,7 +13804,7 @@
     <row r="49" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A49">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>962</v>
@@ -13526,7 +13825,7 @@
     <row r="50" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A50">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B50" s="7">
         <v>12</v>
@@ -13544,7 +13843,7 @@
     <row r="51" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A51">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B51" s="7">
         <v>12</v>
@@ -13565,7 +13864,7 @@
     <row r="52" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A52">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>807</v>
@@ -13586,7 +13885,7 @@
     <row r="53" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A53">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B53" s="7">
         <v>14</v>
@@ -13667,7 +13966,7 @@
     <row r="57" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A57">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B57" s="7">
         <v>12</v>
@@ -13688,7 +13987,7 @@
     <row r="58" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A58">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>807</v>
@@ -13709,7 +14008,7 @@
     <row r="59" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A59">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B59" s="7">
         <v>14</v>
@@ -13730,7 +14029,7 @@
     <row r="60" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A60">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="B60" s="7">
         <v>12</v>
@@ -13751,7 +14050,7 @@
     <row r="61" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A61">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>807</v>
@@ -13775,7 +14074,7 @@
     <row r="62" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A62">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B62" s="7">
         <v>11</v>
@@ -13796,7 +14095,7 @@
     <row r="63" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A63">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>856</v>
@@ -13837,7 +14136,7 @@
     <row r="65" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A65">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>856</v>
@@ -13858,7 +14157,7 @@
     <row r="66" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A66">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B66" s="7">
         <v>11</v>
@@ -13879,7 +14178,7 @@
     <row r="67" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A67">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B67" s="7">
         <v>14</v>
@@ -13900,7 +14199,7 @@
     <row r="68" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A68">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B68" s="7">
         <v>14</v>
@@ -13921,7 +14220,7 @@
     <row r="69" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A69">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>856</v>
@@ -13942,7 +14241,7 @@
     <row r="70" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A70">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>807</v>
@@ -13963,7 +14262,7 @@
     <row r="71" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A71">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>856</v>
@@ -13987,7 +14286,7 @@
     <row r="72" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A72">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B72" s="7">
         <v>12</v>
@@ -14005,7 +14304,7 @@
     <row r="73" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A73">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>807</v>
@@ -14026,7 +14325,7 @@
     <row r="74" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A74">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B74" s="7">
         <v>13</v>
@@ -14047,7 +14346,7 @@
     <row r="75" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A75">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B75" s="7">
         <v>13</v>
@@ -14068,7 +14367,7 @@
     <row r="76" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A76">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>807</v>
@@ -14089,7 +14388,7 @@
     <row r="77" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A77">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>657</v>
@@ -14113,7 +14412,7 @@
     <row r="78" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A78">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>657</v>
@@ -14137,7 +14436,7 @@
     <row r="79" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A79">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B79" s="7">
         <v>13</v>
@@ -14158,7 +14457,7 @@
     <row r="80" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A80">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="B80" s="7">
         <v>13</v>
@@ -14179,7 +14478,7 @@
     <row r="81" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A81">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B81" s="7">
         <v>13</v>
@@ -14221,7 +14520,7 @@
     <row r="83" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A83">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>657</v>
@@ -14242,7 +14541,7 @@
     <row r="84" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A84">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>856</v>
@@ -14263,7 +14562,7 @@
     <row r="85" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A85">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>807</v>
@@ -14284,7 +14583,7 @@
     <row r="86" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A86">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B86" s="7">
         <v>11</v>
@@ -14345,7 +14644,7 @@
     <row r="89" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A89">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>856</v>
@@ -14366,7 +14665,7 @@
     <row r="90" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A90">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B90" s="7">
         <v>14</v>
@@ -14393,7 +14692,7 @@
     <row r="91" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A91">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B91" s="7">
         <v>13</v>
@@ -14414,7 +14713,7 @@
     <row r="92" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A92">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>657</v>
@@ -14435,7 +14734,7 @@
     <row r="93" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A93">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>657</v>
@@ -14482,7 +14781,7 @@
     <row r="95" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A95">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>856</v>
@@ -14503,7 +14802,7 @@
     <row r="96" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A96">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>962</v>
@@ -14524,7 +14823,7 @@
     <row r="97" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A97">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>962</v>
@@ -14548,7 +14847,7 @@
     <row r="98" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A98">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B98" s="7">
         <v>12</v>
@@ -14566,7 +14865,7 @@
     <row r="99" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A99">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B99" s="7">
         <v>12</v>
@@ -14584,7 +14883,7 @@
     <row r="100" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A100">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>657</v>
@@ -14625,7 +14924,7 @@
     <row r="102" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A102">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>657</v>
@@ -14646,7 +14945,7 @@
     <row r="103" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A103">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>807</v>
@@ -14670,7 +14969,7 @@
     <row r="104" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A104">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B104" s="7">
         <v>18</v>
@@ -14691,7 +14990,7 @@
     <row r="105" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A105">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B105" s="7">
         <v>11</v>
@@ -14712,7 +15011,7 @@
     <row r="106" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A106">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>807</v>
@@ -14733,7 +15032,7 @@
     <row r="107" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A107">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>657</v>
@@ -14754,7 +15053,7 @@
     <row r="108" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A108">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>807</v>
@@ -14775,7 +15074,7 @@
     <row r="109" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A109">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B109" s="7">
         <v>13</v>
@@ -14796,7 +15095,7 @@
     <row r="110" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A110">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B110" s="7">
         <v>14</v>
@@ -14817,7 +15116,7 @@
     <row r="111" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A111">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>807</v>
@@ -14838,7 +15137,7 @@
     <row r="112" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A112">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B112" s="7">
         <v>13</v>
@@ -14859,7 +15158,7 @@
     <row r="113" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A113">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="B113" s="7">
         <v>13</v>
@@ -14883,7 +15182,7 @@
     <row r="114" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A114">
         <f t="shared" ref="A114:A119" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B114" s="7">
         <v>17</v>
@@ -14907,7 +15206,7 @@
     <row r="115" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>856</v>
@@ -14928,7 +15227,7 @@
     <row r="116" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>962</v>
@@ -14949,7 +15248,7 @@
     <row r="117" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>962</v>
@@ -14970,7 +15269,7 @@
     <row r="118" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>807</v>
@@ -14991,7 +15290,7 @@
     <row r="119" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>856</v>
@@ -15012,7 +15311,7 @@
     <row r="120" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A120">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B120" s="7">
         <v>12</v>
@@ -15033,7 +15332,7 @@
     <row r="121" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A121">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>807</v>
@@ -15054,7 +15353,7 @@
     <row r="122" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A122">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B122" s="7">
         <v>12</v>
@@ -15069,7 +15368,7 @@
     <row r="123" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A123">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>807</v>
@@ -15090,7 +15389,7 @@
     <row r="124" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A124">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>962</v>
@@ -15111,7 +15410,7 @@
     <row r="125" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A125">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B125" s="7">
         <v>11</v>
@@ -15132,7 +15431,7 @@
     <row r="126" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A126">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>657</v>
@@ -15153,7 +15452,7 @@
     <row r="127" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A127">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B127" s="7">
         <v>13</v>
@@ -15217,7 +15516,7 @@
     <row r="130" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A130">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B130" s="7">
         <v>12</v>
@@ -15238,7 +15537,7 @@
     <row r="131" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A131">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>657</v>
@@ -15262,7 +15561,7 @@
     <row r="132" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A132">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>657</v>
@@ -15283,7 +15582,7 @@
     <row r="133" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A133">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B133" s="7">
         <v>20</v>
@@ -15304,7 +15603,7 @@
     <row r="134" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A134">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B134" s="7">
         <v>20</v>
@@ -15328,7 +15627,7 @@
     <row r="135" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A135">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B135" s="7">
         <v>20</v>
@@ -15349,7 +15648,7 @@
     <row r="136" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A136">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B136" s="7">
         <v>20</v>
@@ -15373,7 +15672,7 @@
     <row r="137" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A137">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B137" s="7">
         <v>20</v>
@@ -19632,17 +19931,17 @@
   <dimension ref="A1:R472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D429" sqref="D429"/>
+      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C416" sqref="C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.42578125" style="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="52.85546875" style="15" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="38" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
     <col min="7" max="7" width="94.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="18" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -19650,7 +19949,7 @@
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>761</v>
@@ -20018,7 +20317,7 @@
     <row r="27" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A27">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B27" s="16">
         <v>17</v>
@@ -20033,7 +20332,7 @@
     <row r="28" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A28">
         <f t="shared" ref="A28:A44" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="16">
         <v>17</v>
@@ -20048,7 +20347,7 @@
     <row r="29" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -20063,7 +20362,7 @@
     <row r="30" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -20078,7 +20377,7 @@
     <row r="31" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B31" s="16">
         <v>17</v>
@@ -20096,7 +20395,7 @@
     <row r="32" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B32" s="16">
         <v>17</v>
@@ -20111,7 +20410,7 @@
     <row r="33" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B33" s="16">
         <v>17</v>
@@ -20126,7 +20425,7 @@
     <row r="34" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B34" s="16">
         <v>17</v>
@@ -20141,7 +20440,7 @@
     <row r="35" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B35" s="16">
         <v>17</v>
@@ -20156,7 +20455,7 @@
     <row r="36" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B36" s="16">
         <v>17</v>
@@ -20171,7 +20470,7 @@
     <row r="37" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B37" s="16">
         <v>17</v>
@@ -20186,7 +20485,7 @@
     <row r="38" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B38" s="16">
         <v>17</v>
@@ -20201,7 +20500,7 @@
     <row r="39" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B39" s="16">
         <v>17</v>
@@ -20216,7 +20515,7 @@
     <row r="40" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B40" s="16">
         <v>17</v>
@@ -20231,7 +20530,7 @@
     <row r="41" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B41" s="16">
         <v>17</v>
@@ -20246,7 +20545,7 @@
     <row r="42" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B42" s="16">
         <v>17</v>
@@ -20261,7 +20560,7 @@
     <row r="43" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B43" s="16">
         <v>18</v>
@@ -20279,7 +20578,7 @@
     <row r="44" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B44" s="16">
         <v>18</v>
@@ -20803,7 +21102,7 @@
     <row r="88" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A88">
         <f t="shared" ref="A88:A115" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B88" s="16">
         <v>25</v>
@@ -20821,7 +21120,7 @@
     <row r="89" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B89" s="16">
         <v>24</v>
@@ -20839,7 +21138,7 @@
     <row r="90" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B90" s="16">
         <v>23</v>
@@ -20857,7 +21156,7 @@
     <row r="91" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B91" s="16">
         <v>25</v>
@@ -20875,7 +21174,7 @@
     <row r="92" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B92" s="16">
         <v>23</v>
@@ -20890,7 +21189,7 @@
     <row r="93" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B93" s="16">
         <v>25</v>
@@ -20908,7 +21207,7 @@
     <row r="94" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B94" s="16">
         <v>25</v>
@@ -20926,7 +21225,7 @@
     <row r="95" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B95" s="16">
         <v>25</v>
@@ -20941,7 +21240,7 @@
     <row r="96" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B96" s="16">
         <v>25</v>
@@ -20959,7 +21258,7 @@
     <row r="97" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B97" s="16">
         <v>23</v>
@@ -20977,7 +21276,7 @@
     <row r="98" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B98" s="16">
         <v>23</v>
@@ -20992,7 +21291,7 @@
     <row r="99" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B99" s="16">
         <v>23</v>
@@ -21010,7 +21309,7 @@
     <row r="100" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B100" s="16">
         <v>23</v>
@@ -21028,7 +21327,7 @@
     <row r="101" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B101" s="16">
         <v>24</v>
@@ -21046,7 +21345,7 @@
     <row r="102" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B102" s="16">
         <v>23</v>
@@ -21064,7 +21363,7 @@
     <row r="103" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B103" s="16">
         <v>23</v>
@@ -21082,7 +21381,7 @@
     <row r="104" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B104" s="16">
         <v>23</v>
@@ -21100,7 +21399,7 @@
     <row r="105" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B105" s="16">
         <v>25</v>
@@ -21118,7 +21417,7 @@
     <row r="106" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B106" s="16">
         <v>24</v>
@@ -21136,7 +21435,7 @@
     <row r="107" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B107" s="16">
         <v>25</v>
@@ -21154,7 +21453,7 @@
     <row r="108" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B108" s="16">
         <v>25</v>
@@ -21172,7 +21471,7 @@
     <row r="109" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B109" s="16">
         <v>24</v>
@@ -21190,7 +21489,7 @@
     <row r="110" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B110" s="16">
         <v>24</v>
@@ -21208,7 +21507,7 @@
     <row r="111" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B111" s="16">
         <v>25</v>
@@ -21226,7 +21525,7 @@
     <row r="112" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B112" s="16">
         <v>25</v>
@@ -21244,7 +21543,7 @@
     <row r="113" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B113" s="16">
         <v>24</v>
@@ -21262,7 +21561,7 @@
     <row r="114" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B114" s="16">
         <v>24</v>
@@ -21280,7 +21579,7 @@
     <row r="115" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B115" s="16">
         <v>28</v>
@@ -21298,7 +21597,7 @@
     <row r="116" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A116">
         <f t="shared" ref="A116:A123" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B116" s="16">
         <v>23</v>
@@ -21316,7 +21615,7 @@
     <row r="117" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A117">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B117" s="16">
         <v>23</v>
@@ -21334,7 +21633,7 @@
     <row r="118" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A118">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B118" s="16">
         <v>23</v>
@@ -21349,7 +21648,7 @@
     <row r="119" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A119">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B119" s="16">
         <v>23</v>
@@ -21367,7 +21666,7 @@
     <row r="120" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A120">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B120" s="16">
         <v>25</v>
@@ -21385,7 +21684,7 @@
     <row r="121" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A121">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B121" s="16">
         <v>24</v>
@@ -21403,7 +21702,7 @@
     <row r="122" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A122">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B122" s="16">
         <v>25</v>
@@ -21421,7 +21720,7 @@
     <row r="123" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A123">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B123" s="16">
         <v>25</v>
@@ -21439,7 +21738,7 @@
     <row r="124" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A124">
         <f t="shared" ref="A124:A187" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="B124" s="16">
         <v>23</v>
@@ -21457,7 +21756,7 @@
     <row r="125" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B125" s="16">
         <v>23</v>
@@ -21475,7 +21774,7 @@
     <row r="126" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A126">
         <f t="shared" ref="A126:A159" ca="1" si="4">RANDBETWEEN(1,100)</f>
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B126" s="16">
         <v>26</v>
@@ -21493,7 +21792,7 @@
     <row r="127" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A127">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B127" s="16">
         <v>26</v>
@@ -21511,7 +21810,7 @@
     <row r="128" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A128">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B128" s="16">
         <v>26</v>
@@ -21529,7 +21828,7 @@
     <row r="129" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A129">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B129" s="16">
         <v>26</v>
@@ -21547,7 +21846,7 @@
     <row r="130" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A130">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B130" s="16">
         <v>26</v>
@@ -21565,7 +21864,7 @@
     <row r="131" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A131">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B131" s="16">
         <v>26</v>
@@ -21583,7 +21882,7 @@
     <row r="132" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A132">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B132" s="16">
         <v>26</v>
@@ -21601,7 +21900,7 @@
     <row r="133" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A133">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B133" s="16">
         <v>26</v>
@@ -21619,7 +21918,7 @@
     <row r="134" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A134">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B134" s="16">
         <v>26</v>
@@ -21637,7 +21936,7 @@
     <row r="135" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A135">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B135" s="16">
         <v>26</v>
@@ -21655,7 +21954,7 @@
     <row r="136" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A136">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B136" s="16">
         <v>26</v>
@@ -21673,7 +21972,7 @@
     <row r="137" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A137">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B137" s="16">
         <v>26</v>
@@ -21691,7 +21990,7 @@
     <row r="138" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A138">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B138" s="16">
         <v>26</v>
@@ -21709,7 +22008,7 @@
     <row r="139" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A139">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B139" s="16">
         <v>26</v>
@@ -21727,7 +22026,7 @@
     <row r="140" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A140">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B140" s="16">
         <v>26</v>
@@ -21745,7 +22044,7 @@
     <row r="141" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A141">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B141" s="16">
         <v>26</v>
@@ -21763,7 +22062,7 @@
     <row r="142" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A142">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B142" s="16">
         <v>26</v>
@@ -21781,7 +22080,7 @@
     <row r="143" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A143">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B143" s="16">
         <v>26</v>
@@ -21799,7 +22098,7 @@
     <row r="144" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A144">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B144" s="16">
         <v>26</v>
@@ -21817,7 +22116,7 @@
     <row r="145" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A145">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B145" s="16">
         <v>26</v>
@@ -21835,7 +22134,7 @@
     <row r="146" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A146">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B146" s="16">
         <v>26</v>
@@ -21853,7 +22152,7 @@
     <row r="147" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A147">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B147" s="16">
         <v>26</v>
@@ -21871,7 +22170,7 @@
     <row r="148" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A148">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B148" s="16">
         <v>26</v>
@@ -21889,7 +22188,7 @@
     <row r="149" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A149">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="B149" s="16">
         <v>26</v>
@@ -21907,7 +22206,7 @@
     <row r="150" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A150">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B150" s="16">
         <v>26</v>
@@ -21925,7 +22224,7 @@
     <row r="151" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A151">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B151" s="16">
         <v>26</v>
@@ -21943,7 +22242,7 @@
     <row r="152" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A152">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B152" s="16">
         <v>26</v>
@@ -21964,7 +22263,7 @@
     <row r="153" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A153">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B153" s="16">
         <v>26</v>
@@ -21982,7 +22281,7 @@
     <row r="154" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A154">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B154" s="16">
         <v>26</v>
@@ -22000,7 +22299,7 @@
     <row r="155" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A155">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B155" s="16">
         <v>26</v>
@@ -22018,7 +22317,7 @@
     <row r="156" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A156">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B156" s="16">
         <v>26</v>
@@ -22036,7 +22335,7 @@
     <row r="157" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A157">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B157" s="16">
         <v>26</v>
@@ -22054,7 +22353,7 @@
     <row r="158" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A158">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B158" s="16">
         <v>26</v>
@@ -22075,7 +22374,7 @@
     <row r="159" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A159">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B159" s="16">
         <v>26</v>
@@ -22093,7 +22392,7 @@
     <row r="160" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A160">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B160" s="16">
         <v>27</v>
@@ -22111,7 +22410,7 @@
     <row r="161" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A161">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B161" s="16">
         <v>27</v>
@@ -22129,7 +22428,7 @@
     <row r="162" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A162">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B162" s="16">
         <v>27</v>
@@ -22147,7 +22446,7 @@
     <row r="163" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A163">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B163" s="16">
         <v>27</v>
@@ -22165,7 +22464,7 @@
     <row r="164" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A164">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B164" s="16">
         <v>27</v>
@@ -22183,7 +22482,7 @@
     <row r="165" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A165">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B165" s="16">
         <v>27</v>
@@ -22201,7 +22500,7 @@
     <row r="166" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A166">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B166" s="16">
         <v>27</v>
@@ -22219,7 +22518,7 @@
     <row r="167" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A167">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B167" s="16">
         <v>27</v>
@@ -22237,7 +22536,7 @@
     <row r="168" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A168">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B168" s="16">
         <v>27</v>
@@ -22255,7 +22554,7 @@
     <row r="169" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A169">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B169" s="16">
         <v>27</v>
@@ -22273,7 +22572,7 @@
     <row r="170" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A170">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B170" s="16">
         <v>27</v>
@@ -22291,7 +22590,7 @@
     <row r="171" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A171">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B171" s="16">
         <v>27</v>
@@ -22309,7 +22608,7 @@
     <row r="172" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A172">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B172" s="16">
         <v>27</v>
@@ -22327,7 +22626,7 @@
     <row r="173" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A173">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B173" s="16">
         <v>27</v>
@@ -22345,7 +22644,7 @@
     <row r="174" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A174">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B174" s="16">
         <v>27</v>
@@ -22363,7 +22662,7 @@
     <row r="175" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A175">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B175" s="16">
         <v>27</v>
@@ -22381,7 +22680,7 @@
     <row r="176" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A176">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B176" s="16">
         <v>27</v>
@@ -22399,7 +22698,7 @@
     <row r="177" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A177">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="B177" s="16">
         <v>27</v>
@@ -22417,7 +22716,7 @@
     <row r="178" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A178">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="B178" s="16">
         <v>27</v>
@@ -22435,7 +22734,7 @@
     <row r="179" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A179">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B179" s="16">
         <v>27</v>
@@ -22453,7 +22752,7 @@
     <row r="180" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A180">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B180" s="16">
         <v>27</v>
@@ -22471,7 +22770,7 @@
     <row r="181" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A181">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B181" s="16">
         <v>27</v>
@@ -22489,7 +22788,7 @@
     <row r="182" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A182">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B182" s="16">
         <v>27</v>
@@ -22507,7 +22806,7 @@
     <row r="183" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A183">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B183" s="16">
         <v>27</v>
@@ -22525,7 +22824,7 @@
     <row r="184" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A184">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B184" s="16">
         <v>27</v>
@@ -22543,7 +22842,7 @@
     <row r="185" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A185">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B185" s="16">
         <v>27</v>
@@ -22561,7 +22860,7 @@
     <row r="186" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A186">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B186" s="16">
         <v>28</v>
@@ -22579,7 +22878,7 @@
     <row r="187" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A187">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B187" s="16">
         <v>28</v>
@@ -22597,7 +22896,7 @@
     <row r="188" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A188">
         <f t="shared" ref="A188:A251" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B188" s="16">
         <v>28</v>
@@ -22615,7 +22914,7 @@
     <row r="189" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A189">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B189" s="16">
         <v>28</v>
@@ -22633,7 +22932,7 @@
     <row r="190" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A190">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B190" s="16">
         <v>28</v>
@@ -22651,7 +22950,7 @@
     <row r="191" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A191">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B191" s="16">
         <v>28</v>
@@ -22669,7 +22968,7 @@
     <row r="192" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A192">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B192" s="16">
         <v>28</v>
@@ -22687,7 +22986,7 @@
     <row r="193" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A193">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B193" s="16">
         <v>28</v>
@@ -22705,7 +23004,7 @@
     <row r="194" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A194">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B194" s="16">
         <v>28</v>
@@ -22723,7 +23022,7 @@
     <row r="195" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A195">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B195" s="16">
         <v>28</v>
@@ -22741,7 +23040,7 @@
     <row r="196" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A196">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B196" s="16">
         <v>28</v>
@@ -22759,7 +23058,7 @@
     <row r="197" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A197">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B197" s="16">
         <v>28</v>
@@ -22777,7 +23076,7 @@
     <row r="198" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A198">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B198" s="16">
         <v>28</v>
@@ -22795,7 +23094,7 @@
     <row r="199" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A199">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B199" s="16">
         <v>28</v>
@@ -22813,7 +23112,7 @@
     <row r="200" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A200">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B200" s="16">
         <v>28</v>
@@ -22831,7 +23130,7 @@
     <row r="201" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A201">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B201" s="16">
         <v>28</v>
@@ -22849,7 +23148,7 @@
     <row r="202" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A202">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B202" s="16">
         <v>28</v>
@@ -22867,7 +23166,7 @@
     <row r="203" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A203">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B203" s="16">
         <v>28</v>
@@ -22885,7 +23184,7 @@
     <row r="204" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A204">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B204" s="16">
         <v>28</v>
@@ -22903,7 +23202,7 @@
     <row r="205" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A205">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B205" s="16">
         <v>28</v>
@@ -22921,7 +23220,7 @@
     <row r="206" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A206">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B206" s="16">
         <v>28</v>
@@ -22939,7 +23238,7 @@
     <row r="207" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A207">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B207" s="16">
         <v>28</v>
@@ -22957,7 +23256,7 @@
     <row r="208" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A208">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B208" s="16">
         <v>28</v>
@@ -22975,7 +23274,7 @@
     <row r="209" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A209">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B209" s="16">
         <v>28</v>
@@ -22993,7 +23292,7 @@
     <row r="210" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A210">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B210" s="16">
         <v>28</v>
@@ -23011,7 +23310,7 @@
     <row r="211" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A211">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B211" s="16">
         <v>28</v>
@@ -23029,7 +23328,7 @@
     <row r="212" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A212">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B212" s="16">
         <v>28</v>
@@ -23047,7 +23346,7 @@
     <row r="213" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A213">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B213" s="16">
         <v>28</v>
@@ -23065,7 +23364,7 @@
     <row r="214" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A214">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B214" s="16">
         <v>28</v>
@@ -23083,7 +23382,7 @@
     <row r="215" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A215">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B215" s="16">
         <v>28</v>
@@ -23101,7 +23400,7 @@
     <row r="216" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A216">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B216" s="16">
         <v>28</v>
@@ -23119,7 +23418,7 @@
     <row r="217" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A217">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B217" s="16">
         <v>28</v>
@@ -23137,7 +23436,7 @@
     <row r="218" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A218">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B218" s="16">
         <v>28</v>
@@ -23155,7 +23454,7 @@
     <row r="219" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A219">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B219" s="16">
         <v>28</v>
@@ -23173,7 +23472,7 @@
     <row r="220" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A220">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B220" s="16">
         <v>28</v>
@@ -23191,7 +23490,7 @@
     <row r="221" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A221">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B221" s="16">
         <v>28</v>
@@ -23209,7 +23508,7 @@
     <row r="222" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A222">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B222" s="16">
         <v>28</v>
@@ -23227,7 +23526,7 @@
     <row r="223" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A223">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B223" s="16">
         <v>28</v>
@@ -23245,7 +23544,7 @@
     <row r="224" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A224">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B224" s="16">
         <v>28</v>
@@ -23263,7 +23562,7 @@
     <row r="225" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A225">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B225" s="16">
         <v>28</v>
@@ -23281,7 +23580,7 @@
     <row r="226" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A226">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B226" s="16">
         <v>28</v>
@@ -23299,7 +23598,7 @@
     <row r="227" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A227">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B227" s="16">
         <v>28</v>
@@ -23317,7 +23616,7 @@
     <row r="228" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A228">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B228" s="16">
         <v>28</v>
@@ -23335,7 +23634,7 @@
     <row r="229" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A229">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B229" s="16">
         <v>28</v>
@@ -23362,7 +23661,7 @@
     <row r="231" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A231">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B231" s="16">
         <v>31</v>
@@ -23380,7 +23679,7 @@
     <row r="232" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A232">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B232" s="16">
         <v>31</v>
@@ -23398,7 +23697,7 @@
     <row r="233" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A233">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B233" s="16">
         <v>31</v>
@@ -23416,7 +23715,7 @@
     <row r="234" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A234">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B234" s="16">
         <v>31</v>
@@ -23434,7 +23733,7 @@
     <row r="235" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A235">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B235" s="16">
         <v>31</v>
@@ -23452,7 +23751,7 @@
     <row r="236" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A236">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B236" s="16">
         <v>31</v>
@@ -23468,7 +23767,7 @@
     <row r="237" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A237">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B237" s="16">
         <v>31</v>
@@ -23486,7 +23785,7 @@
     <row r="238" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A238">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B238" s="16">
         <v>31</v>
@@ -23504,7 +23803,7 @@
     <row r="239" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A239">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B239" s="16">
         <v>31</v>
@@ -23522,7 +23821,7 @@
     <row r="240" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A240">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B240" s="16">
         <v>31</v>
@@ -23540,7 +23839,7 @@
     <row r="241" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A241">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B241" s="16">
         <v>31</v>
@@ -23558,7 +23857,7 @@
     <row r="242" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A242">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B242" s="16">
         <v>31</v>
@@ -23576,7 +23875,7 @@
     <row r="243" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A243">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B243" s="16">
         <v>31</v>
@@ -23594,7 +23893,7 @@
     <row r="244" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A244">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B244" s="16">
         <v>31</v>
@@ -23612,7 +23911,7 @@
     <row r="245" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A245">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B245" s="16">
         <v>30</v>
@@ -23630,7 +23929,7 @@
     <row r="246" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A246">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B246" s="16">
         <v>30</v>
@@ -23648,7 +23947,7 @@
     <row r="247" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A247">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B247" s="16">
         <v>30</v>
@@ -23666,7 +23965,7 @@
     <row r="248" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A248">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B248" s="16">
         <v>30</v>
@@ -23684,7 +23983,7 @@
     <row r="249" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A249">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B249" s="16" t="s">
         <v>1795</v>
@@ -23702,7 +24001,7 @@
     <row r="250" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A250">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B250" s="16" t="s">
         <v>1795</v>
@@ -23734,7 +24033,7 @@
     <row r="252" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A252">
         <f t="shared" ref="A252:A298" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>1795</v>
@@ -23750,7 +24049,7 @@
     <row r="253" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A253">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B253" s="16" t="s">
         <v>1795</v>
@@ -23766,7 +24065,7 @@
     <row r="254" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A254">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B254" s="16" t="s">
         <v>1795</v>
@@ -23782,7 +24081,7 @@
     <row r="255" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A255">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B255" s="16" t="s">
         <v>1795</v>
@@ -23814,7 +24113,7 @@
     <row r="257" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A257">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B257" s="16" t="s">
         <v>1795</v>
@@ -23830,7 +24129,7 @@
     <row r="258" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A258">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B258" s="16" t="s">
         <v>1795</v>
@@ -23846,7 +24145,7 @@
     <row r="259" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A259">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B259" s="16" t="s">
         <v>1795</v>
@@ -23862,7 +24161,7 @@
     <row r="260" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A260">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B260" s="16" t="s">
         <v>1795</v>
@@ -23878,7 +24177,7 @@
     <row r="261" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A261">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B261" s="16" t="s">
         <v>1795</v>
@@ -23894,7 +24193,7 @@
     <row r="262" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A262">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B262" s="16" t="s">
         <v>1795</v>
@@ -23910,7 +24209,7 @@
     <row r="263" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A263">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B263" s="16" t="s">
         <v>1795</v>
@@ -23926,7 +24225,7 @@
     <row r="264" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A264">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B264" s="16" t="s">
         <v>1795</v>
@@ -23942,7 +24241,7 @@
     <row r="265" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A265">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="B265" s="16" t="s">
         <v>1795</v>
@@ -23958,7 +24257,7 @@
     <row r="266" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A266">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B266" s="16" t="s">
         <v>1795</v>
@@ -23974,7 +24273,7 @@
     <row r="267" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A267">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B267" s="16">
         <v>33</v>
@@ -23992,7 +24291,7 @@
     <row r="268" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A268">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B268" s="16">
         <v>33</v>
@@ -24008,7 +24307,7 @@
     <row r="269" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A269">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B269" s="16">
         <v>33</v>
@@ -24024,7 +24323,7 @@
     <row r="270" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A270">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B270" s="16">
         <v>33</v>
@@ -24056,7 +24355,7 @@
     <row r="272" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A272">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B272" s="16">
         <v>33</v>
@@ -24072,7 +24371,7 @@
     <row r="273" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A273">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B273" s="16">
         <v>33</v>
@@ -24088,7 +24387,7 @@
     <row r="274" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A274">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B274" s="16">
         <v>33</v>
@@ -24104,7 +24403,7 @@
     <row r="275" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A275">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B275" s="16">
         <v>33</v>
@@ -24120,7 +24419,7 @@
     <row r="276" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A276">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B276" s="16">
         <v>32</v>
@@ -24136,7 +24435,7 @@
     <row r="277" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A277">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B277" s="16">
         <v>32</v>
@@ -24152,7 +24451,7 @@
     <row r="278" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A278">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B278" s="16">
         <v>34</v>
@@ -24171,7 +24470,7 @@
     <row r="279" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A279">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B279" s="16">
         <v>34</v>
@@ -24190,7 +24489,7 @@
     <row r="280" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A280">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B280" s="16">
         <v>34</v>
@@ -24209,7 +24508,7 @@
     <row r="281" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A281">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B281" s="16">
         <v>34</v>
@@ -24230,7 +24529,7 @@
     <row r="282" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A282">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B282" s="16">
         <v>34</v>
@@ -24251,7 +24550,7 @@
     <row r="283" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A283">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B283" s="16">
         <v>34</v>
@@ -24272,7 +24571,7 @@
     <row r="284" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A284">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B284" s="16">
         <v>34</v>
@@ -24293,7 +24592,7 @@
     <row r="285" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A285">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="B285" s="16">
         <v>34</v>
@@ -24314,7 +24613,7 @@
     <row r="286" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A286">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B286" s="16">
         <v>35</v>
@@ -24335,7 +24634,7 @@
     <row r="287" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A287">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B287" s="16">
         <v>35</v>
@@ -24356,7 +24655,7 @@
     <row r="288" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A288">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B288" s="16">
         <v>35</v>
@@ -24377,7 +24676,7 @@
     <row r="289" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A289">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B289" s="16">
         <v>35</v>
@@ -24396,7 +24695,7 @@
     <row r="290" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A290">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B290" s="16">
         <v>35</v>
@@ -24417,7 +24716,7 @@
     <row r="291" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A291">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B291" s="16">
         <v>35</v>
@@ -24438,7 +24737,7 @@
     <row r="292" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A292">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="B292" s="16">
         <v>35</v>
@@ -24462,7 +24761,7 @@
     <row r="293" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A293">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B293" s="16">
         <v>35</v>
@@ -24483,7 +24782,7 @@
     <row r="294" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A294">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B294" s="16">
         <v>35</v>
@@ -24504,7 +24803,7 @@
     <row r="295" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A295">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B295" s="16">
         <v>35</v>
@@ -24522,7 +24821,7 @@
     <row r="296" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A296">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B296" s="16">
         <v>35</v>
@@ -24549,7 +24848,7 @@
     <row r="297" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A297">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B297" s="16">
         <v>35</v>
@@ -24570,7 +24869,7 @@
     <row r="298" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A298">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B298" s="16">
         <v>35</v>
@@ -25021,8 +25320,8 @@
     </row>
     <row r="321" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A321">
-        <f t="shared" ref="A321:A331" ca="1" si="7">RANDBETWEEN(1,100)</f>
-        <v>40</v>
+        <f t="shared" ref="A321:A339" ca="1" si="7">RANDBETWEEN(1,100)</f>
+        <v>16</v>
       </c>
       <c r="B321" s="16">
         <v>37</v>
@@ -25041,7 +25340,7 @@
     <row r="322" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A322">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B322" s="16">
         <v>37</v>
@@ -25062,7 +25361,7 @@
     <row r="323" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A323">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B323" s="16">
         <v>37</v>
@@ -25081,7 +25380,7 @@
     <row r="324" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A324">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B324" s="16">
         <v>37</v>
@@ -25102,7 +25401,7 @@
     <row r="325" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A325">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B325" s="16">
         <v>37</v>
@@ -25121,7 +25420,7 @@
     <row r="326" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A326">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B326" s="16">
         <v>37</v>
@@ -25140,7 +25439,7 @@
     <row r="327" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A327">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B327" s="16">
         <v>38</v>
@@ -25161,7 +25460,7 @@
     <row r="328" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A328">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B328" s="16">
         <v>38</v>
@@ -25182,7 +25481,7 @@
     <row r="329" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A329">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B329" s="16">
         <v>38</v>
@@ -25203,7 +25502,7 @@
     <row r="330" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A330">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B330" s="16">
         <v>38</v>
@@ -25221,7 +25520,7 @@
     <row r="331" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A331">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B331" s="16">
         <v>39</v>
@@ -25240,6 +25539,13 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A332">
+        <f t="shared" ca="1" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="B332" s="16">
+        <v>40</v>
+      </c>
       <c r="C332" s="27" t="s">
         <v>1956</v>
       </c>
@@ -25254,6 +25560,13 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A333">
+        <f t="shared" ca="1" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="B333" s="16">
+        <v>41</v>
+      </c>
       <c r="C333" s="27" t="s">
         <v>1960</v>
       </c>
@@ -25268,6 +25581,13 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A334">
+        <f t="shared" ca="1" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="B334" s="16">
+        <v>42</v>
+      </c>
       <c r="C334" s="27" t="s">
         <v>1963</v>
       </c>
@@ -25279,6 +25599,13 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A335">
+        <f t="shared" ca="1" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="B335" s="16">
+        <v>43</v>
+      </c>
       <c r="C335" s="27" t="s">
         <v>1967</v>
       </c>
@@ -25293,6 +25620,13 @@
       </c>
     </row>
     <row r="336" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A336">
+        <f t="shared" ca="1" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="B336" s="16">
+        <v>44</v>
+      </c>
       <c r="C336" s="27" t="s">
         <v>1970</v>
       </c>
@@ -25304,6 +25638,13 @@
       </c>
     </row>
     <row r="337" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A337">
+        <f t="shared" ca="1" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="B337" s="16">
+        <v>45</v>
+      </c>
       <c r="C337" s="27" t="s">
         <v>1973</v>
       </c>
@@ -25318,6 +25659,13 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A338">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="B338" s="16">
+        <v>46</v>
+      </c>
       <c r="C338" s="27" t="s">
         <v>1977</v>
       </c>
@@ -25330,6 +25678,13 @@
       <c r="G338" s="32"/>
     </row>
     <row r="339" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A339">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="B339" s="16">
+        <v>47</v>
+      </c>
       <c r="C339" s="27" t="s">
         <v>1979</v>
       </c>
@@ -25345,8 +25700,8 @@
     </row>
     <row r="340" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A340">
-        <f t="shared" ref="A340:A351" ca="1" si="8">RANDBETWEEN(1,100)</f>
-        <v>83</v>
+        <f t="shared" ref="A340:A352" ca="1" si="8">RANDBETWEEN(1,100)</f>
+        <v>10</v>
       </c>
       <c r="B340" s="16">
         <v>40</v>
@@ -25367,7 +25722,7 @@
     <row r="341" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A341">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B341" s="16">
         <v>40</v>
@@ -25388,7 +25743,7 @@
     <row r="342" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A342">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B342" s="16">
         <v>40</v>
@@ -25409,7 +25764,7 @@
     <row r="343" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A343">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B343" s="16">
         <v>40</v>
@@ -25430,7 +25785,7 @@
     <row r="344" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A344">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B344" s="16">
         <v>40</v>
@@ -25449,7 +25804,7 @@
     <row r="345" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A345">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="B345" s="16">
         <v>40</v>
@@ -25470,7 +25825,7 @@
     <row r="346" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A346">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B346" s="16">
         <v>40</v>
@@ -25489,7 +25844,7 @@
     <row r="347" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A347">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B347" s="16">
         <v>40</v>
@@ -25508,7 +25863,7 @@
     <row r="348" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A348">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B348" s="16">
         <v>40</v>
@@ -25529,7 +25884,7 @@
     <row r="349" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A349">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B349" s="16">
         <v>40</v>
@@ -25550,7 +25905,7 @@
     <row r="350" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A350">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B350" s="16">
         <v>40</v>
@@ -25571,7 +25926,7 @@
     <row r="351" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A351">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B351" s="16">
         <v>41</v>
@@ -25588,6 +25943,13 @@
       <c r="G351" s="32"/>
     </row>
     <row r="352" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A352">
+        <f t="shared" ca="1" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="B352" s="16">
+        <v>41</v>
+      </c>
       <c r="C352" s="27" t="s">
         <v>2067</v>
       </c>
@@ -25602,7 +25964,7 @@
     <row r="353" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A353">
         <f t="shared" ref="A353:A380" ca="1" si="9">RANDBETWEEN(1,100)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B353" s="16">
         <v>39</v>
@@ -25621,7 +25983,7 @@
     <row r="354" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A354">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B354" s="16">
         <v>39</v>
@@ -25640,7 +26002,7 @@
     <row r="355" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A355">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B355" s="16">
         <v>39</v>
@@ -25678,7 +26040,7 @@
     <row r="357" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A357">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B357" s="16">
         <v>40</v>
@@ -25699,7 +26061,7 @@
     <row r="358" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A358">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B358" s="16">
         <v>40</v>
@@ -25720,7 +26082,7 @@
     <row r="359" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A359">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B359" s="16">
         <v>40</v>
@@ -25741,7 +26103,7 @@
     <row r="360" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A360">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B360" s="16">
         <v>37</v>
@@ -25765,7 +26127,7 @@
     <row r="361" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A361">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B361" s="16">
         <v>37</v>
@@ -25787,7 +26149,7 @@
     <row r="362" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A362">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B362" s="16">
         <v>37</v>
@@ -25814,7 +26176,7 @@
     <row r="363" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A363">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B363" s="16">
         <v>37</v>
@@ -25836,7 +26198,7 @@
     <row r="364" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A364">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B364" s="16">
         <v>37</v>
@@ -25860,7 +26222,7 @@
     <row r="365" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A365">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B365" s="16">
         <v>37</v>
@@ -25884,7 +26246,7 @@
     <row r="366" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A366">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B366" s="16">
         <v>37</v>
@@ -25908,7 +26270,7 @@
     <row r="367" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A367">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B367" s="16">
         <v>37</v>
@@ -25932,7 +26294,7 @@
     <row r="368" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A368">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B368" s="16">
         <v>37</v>
@@ -25959,7 +26321,7 @@
     <row r="369" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A369">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B369" s="16">
         <v>37</v>
@@ -25983,7 +26345,7 @@
     <row r="370" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A370">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B370" s="16">
         <v>37</v>
@@ -26007,7 +26369,7 @@
     <row r="371" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A371">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B371" s="16">
         <v>37</v>
@@ -26031,7 +26393,7 @@
     <row r="372" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A372">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B372" s="16">
         <v>37</v>
@@ -26055,7 +26417,7 @@
     <row r="373" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A373">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B373" s="16">
         <v>37</v>
@@ -26077,7 +26439,7 @@
     <row r="374" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A374">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B374" s="16">
         <v>37</v>
@@ -26101,7 +26463,7 @@
     <row r="375" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A375">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B375" s="16">
         <v>37</v>
@@ -26125,7 +26487,7 @@
     <row r="376" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A376">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B376" s="16">
         <v>37</v>
@@ -26149,7 +26511,7 @@
     <row r="377" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A377">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B377" s="16">
         <v>37</v>
@@ -26173,7 +26535,7 @@
     <row r="378" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A378">
         <f t="shared" ca="1" si="9"/>
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="B378" s="16">
         <v>37</v>
@@ -26200,7 +26562,7 @@
     <row r="379" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A379">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B379" s="16">
         <v>37</v>
@@ -26222,7 +26584,7 @@
     <row r="380" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A380">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B380" s="16">
         <v>37</v>
@@ -26271,8 +26633,8 @@
     </row>
     <row r="383" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A383">
-        <f t="shared" ref="A383:A432" ca="1" si="10">RANDBETWEEN(1,100)</f>
-        <v>45</v>
+        <f t="shared" ref="A383:A446" ca="1" si="10">RANDBETWEEN(1,100)</f>
+        <v>71</v>
       </c>
       <c r="B383" s="16">
         <v>42</v>
@@ -26291,7 +26653,7 @@
     <row r="384" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A384">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B384" s="16">
         <v>42</v>
@@ -26312,7 +26674,7 @@
     <row r="385" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A385">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B385" s="16">
         <v>42</v>
@@ -26336,7 +26698,7 @@
     <row r="386" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A386">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B386" s="16">
         <v>42</v>
@@ -26355,7 +26717,7 @@
     <row r="387" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A387">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B387" s="16">
         <v>42</v>
@@ -26373,7 +26735,7 @@
     <row r="388" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A388">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B388" s="16">
         <v>42</v>
@@ -26397,7 +26759,7 @@
     <row r="389" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A389">
         <f t="shared" ca="1" si="10"/>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B389" s="16">
         <v>42</v>
@@ -26418,7 +26780,7 @@
     <row r="390" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A390">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B390" s="16">
         <v>42</v>
@@ -26436,7 +26798,7 @@
     <row r="391" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A391">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B391" s="16">
         <v>42</v>
@@ -26457,7 +26819,7 @@
     <row r="392" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A392">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B392" s="16">
         <v>42</v>
@@ -26473,7 +26835,7 @@
     <row r="393" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A393">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B393" s="16">
         <v>42</v>
@@ -26491,7 +26853,7 @@
     <row r="394" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A394">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B394" s="16">
         <v>42</v>
@@ -26509,7 +26871,7 @@
     <row r="395" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A395">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B395" s="16">
         <v>42</v>
@@ -26527,7 +26889,7 @@
     <row r="396" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A396">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B396" s="16">
         <v>42</v>
@@ -26545,7 +26907,7 @@
     <row r="397" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A397">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B397" s="16">
         <v>42</v>
@@ -26563,7 +26925,7 @@
     <row r="398" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A398">
         <f t="shared" ca="1" si="10"/>
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B398" s="16">
         <v>42</v>
@@ -26581,7 +26943,7 @@
     <row r="399" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A399">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B399" s="16">
         <v>48</v>
@@ -26599,7 +26961,7 @@
     <row r="400" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A400">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B400" s="16">
         <v>48</v>
@@ -26635,7 +26997,7 @@
     <row r="402" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A402" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B402" s="16">
         <v>51</v>
@@ -26646,14 +27008,14 @@
       <c r="D402" s="6" t="s">
         <v>2306</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E402" s="6" t="s">
         <v>2307</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A403" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B403" s="16">
         <v>51</v>
@@ -26664,14 +27026,14 @@
       <c r="D403" s="6" t="s">
         <v>1674</v>
       </c>
-      <c r="E403" t="s">
+      <c r="E403" s="6" t="s">
         <v>2308</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A404" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B404" s="16">
         <v>51</v>
@@ -26682,14 +27044,14 @@
       <c r="D404" s="6" t="s">
         <v>2310</v>
       </c>
-      <c r="E404" t="s">
+      <c r="E404" s="6" t="s">
         <v>2311</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A405" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B405" s="16">
         <v>51</v>
@@ -26700,14 +27062,14 @@
       <c r="D405" s="6" t="s">
         <v>2016</v>
       </c>
-      <c r="E405" t="s">
+      <c r="E405" s="6" t="s">
         <v>2313</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A406" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B406" s="16">
         <v>51</v>
@@ -26718,14 +27080,14 @@
       <c r="D406" s="6" t="s">
         <v>2314</v>
       </c>
-      <c r="E406" t="s">
+      <c r="E406" s="6" t="s">
         <v>2315</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A407" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B407" s="16">
         <v>51</v>
@@ -26736,14 +27098,14 @@
       <c r="D407" s="6" t="s">
         <v>2316</v>
       </c>
-      <c r="E407" t="s">
+      <c r="E407" s="6" t="s">
         <v>2386</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A408" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B408" s="16">
         <v>51</v>
@@ -26754,14 +27116,14 @@
       <c r="D408" s="41" t="s">
         <v>2317</v>
       </c>
-      <c r="E408" t="s">
+      <c r="E408" s="6" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A409" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B409" s="16">
         <v>51</v>
@@ -26772,14 +27134,14 @@
       <c r="D409" s="41" t="s">
         <v>2318</v>
       </c>
-      <c r="E409" t="s">
+      <c r="E409" s="6" t="s">
         <v>2319</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A410" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B410" s="16">
         <v>51</v>
@@ -26790,14 +27152,14 @@
       <c r="D410" s="6" t="s">
         <v>2332</v>
       </c>
-      <c r="E410" t="s">
+      <c r="E410" s="6" t="s">
         <v>2333</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A411" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B411" s="16">
         <v>51</v>
@@ -26808,14 +27170,14 @@
       <c r="D411" s="6" t="s">
         <v>2340</v>
       </c>
-      <c r="E411" t="s">
+      <c r="E411" s="6" t="s">
         <v>2341</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A412" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B412" s="16">
         <v>39</v>
@@ -26833,7 +27195,7 @@
     <row r="413" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A413" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B413" s="16">
         <v>51</v>
@@ -26844,14 +27206,14 @@
       <c r="D413" s="6" t="s">
         <v>2345</v>
       </c>
-      <c r="E413" t="s">
+      <c r="E413" s="6" t="s">
         <v>2346</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A414" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B414" s="16">
         <v>51</v>
@@ -26859,17 +27221,17 @@
       <c r="C414" s="27" t="s">
         <v>2312</v>
       </c>
-      <c r="D414" s="6" t="s">
+      <c r="D414" s="45" t="s">
         <v>2312</v>
       </c>
-      <c r="E414" t="s">
+      <c r="E414" s="6" t="s">
         <v>2347</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A415" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B415" s="16">
         <v>51</v>
@@ -26880,14 +27242,14 @@
       <c r="D415" s="6" t="s">
         <v>1970</v>
       </c>
-      <c r="E415" t="s">
+      <c r="E415" s="6" t="s">
         <v>2348</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A416" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B416" s="16">
         <v>51</v>
@@ -26895,17 +27257,17 @@
       <c r="C416" s="27" t="s">
         <v>2350</v>
       </c>
-      <c r="D416" s="6" t="s">
+      <c r="D416" s="45" t="s">
         <v>2350</v>
       </c>
-      <c r="E416" t="s">
+      <c r="E416" s="6" t="s">
         <v>2349</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A417" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B417" s="16">
         <v>51</v>
@@ -26916,14 +27278,14 @@
       <c r="D417" s="6" t="s">
         <v>2351</v>
       </c>
-      <c r="E417" t="s">
+      <c r="E417" s="6" t="s">
         <v>2352</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A418" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B418" s="16">
         <v>51</v>
@@ -26934,14 +27296,14 @@
       <c r="D418" s="6" t="s">
         <v>2354</v>
       </c>
-      <c r="E418" t="s">
+      <c r="E418" s="6" t="s">
         <v>2353</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A419" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B419" s="16">
         <v>51</v>
@@ -26952,14 +27314,14 @@
       <c r="D419" s="6" t="s">
         <v>2355</v>
       </c>
-      <c r="E419" t="s">
+      <c r="E419" s="6" t="s">
         <v>2356</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A420" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B420" s="16">
         <v>51</v>
@@ -26970,14 +27332,14 @@
       <c r="D420" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="E420" t="s">
+      <c r="E420" s="6" t="s">
         <v>2357</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A421" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B421" s="16">
         <v>51</v>
@@ -26988,14 +27350,14 @@
       <c r="D421" s="6" t="s">
         <v>2358</v>
       </c>
-      <c r="E421" t="s">
+      <c r="E421" s="6" t="s">
         <v>2359</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A422" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B422" s="16">
         <v>51</v>
@@ -27006,14 +27368,14 @@
       <c r="D422" s="6" t="s">
         <v>2360</v>
       </c>
-      <c r="E422" t="s">
+      <c r="E422" s="6" t="s">
         <v>2361</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A423" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B423" s="16">
         <v>51</v>
@@ -27024,14 +27386,14 @@
       <c r="D423" s="6" t="s">
         <v>2362</v>
       </c>
-      <c r="E423" t="s">
+      <c r="E423" s="6" t="s">
         <v>2363</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A424" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B424" s="16">
         <v>51</v>
@@ -27042,14 +27404,14 @@
       <c r="D424" s="6" t="s">
         <v>2365</v>
       </c>
-      <c r="E424" t="s">
+      <c r="E424" s="6" t="s">
         <v>2366</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A425" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B425" s="16">
         <v>51</v>
@@ -27060,14 +27422,14 @@
       <c r="D425" s="6" t="s">
         <v>2367</v>
       </c>
-      <c r="E425" t="s">
+      <c r="E425" s="6" t="s">
         <v>2369</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A426" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B426" s="16">
         <v>51</v>
@@ -27078,14 +27440,14 @@
       <c r="D426" s="6" t="s">
         <v>2370</v>
       </c>
-      <c r="E426" t="s">
+      <c r="E426" s="6" t="s">
         <v>2371</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A427" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B427" s="16">
         <v>51</v>
@@ -27096,14 +27458,14 @@
       <c r="D427" s="6" t="s">
         <v>2373</v>
       </c>
-      <c r="E427" t="s">
+      <c r="E427" s="6" t="s">
         <v>2372</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A428" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B428" s="16">
         <v>51</v>
@@ -27114,14 +27476,14 @@
       <c r="D428" s="6" t="s">
         <v>2044</v>
       </c>
-      <c r="E428" t="s">
+      <c r="E428" s="6" t="s">
         <v>2374</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A429" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B429" s="16">
         <v>51</v>
@@ -27129,17 +27491,17 @@
       <c r="C429" s="27" t="s">
         <v>2376</v>
       </c>
-      <c r="D429" s="6" t="s">
+      <c r="D429" s="45" t="s">
         <v>2377</v>
       </c>
-      <c r="E429" t="s">
+      <c r="E429" s="6" t="s">
         <v>2375</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A430" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B430" s="16">
         <v>51</v>
@@ -27147,17 +27509,17 @@
       <c r="C430" s="27" t="s">
         <v>2379</v>
       </c>
-      <c r="D430" s="6" t="s">
+      <c r="D430" s="45" t="s">
         <v>2378</v>
       </c>
-      <c r="E430" t="s">
+      <c r="E430" s="6" t="s">
         <v>2380</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A431" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B431" s="16">
         <v>51</v>
@@ -27168,14 +27530,14 @@
       <c r="D431" s="6" t="s">
         <v>2381</v>
       </c>
-      <c r="E431" t="s">
+      <c r="E431" s="6" t="s">
         <v>2382</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A432" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B432" s="16">
         <v>51</v>
@@ -27186,132 +27548,686 @@
       <c r="D432" s="6" t="s">
         <v>2384</v>
       </c>
-      <c r="E432" t="s">
+      <c r="E432" s="6" t="s">
         <v>2383</v>
       </c>
     </row>
-    <row r="433" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C433" s="27"/>
-    </row>
-    <row r="434" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C434" s="27"/>
-    </row>
-    <row r="435" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C435" s="27"/>
-    </row>
-    <row r="436" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C436" s="27"/>
-    </row>
-    <row r="437" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C437" s="27"/>
-    </row>
-    <row r="438" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C438" s="27"/>
-    </row>
-    <row r="439" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C439" s="27"/>
-    </row>
-    <row r="440" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C440" s="27"/>
-    </row>
-    <row r="441" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C441" s="27"/>
-    </row>
-    <row r="442" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C442" s="27"/>
-    </row>
-    <row r="443" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C443" s="27"/>
-    </row>
-    <row r="444" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C444" s="27"/>
-    </row>
-    <row r="445" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C445" s="27"/>
-    </row>
-    <row r="446" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C446" s="27"/>
-    </row>
-    <row r="447" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C447" s="27"/>
-    </row>
-    <row r="448" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C448" s="27"/>
-    </row>
-    <row r="449" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C449" s="27"/>
-    </row>
-    <row r="450" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C450" s="27"/>
-    </row>
-    <row r="451" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C451" s="27"/>
-    </row>
-    <row r="452" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C452" s="27"/>
-    </row>
-    <row r="453" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C453" s="27"/>
-    </row>
-    <row r="454" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C454" s="27"/>
-    </row>
-    <row r="455" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C455" s="27"/>
-    </row>
-    <row r="456" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C456" s="27"/>
-    </row>
-    <row r="457" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C457" s="27"/>
-    </row>
-    <row r="458" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C458" s="27"/>
-    </row>
-    <row r="459" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C459" s="27"/>
-    </row>
-    <row r="460" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C460" s="27"/>
-    </row>
-    <row r="461" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C461" s="27"/>
-    </row>
-    <row r="462" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C462" s="27"/>
-    </row>
-    <row r="463" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C463" s="27"/>
-    </row>
-    <row r="464" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C464" s="27"/>
-    </row>
-    <row r="465" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C465" s="27"/>
-    </row>
-    <row r="466" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C466" s="27"/>
-    </row>
-    <row r="467" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C467" s="27"/>
-    </row>
-    <row r="468" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C468" s="27"/>
-    </row>
-    <row r="469" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C469" s="27"/>
-    </row>
-    <row r="470" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C470" s="27"/>
-    </row>
-    <row r="471" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="433" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A433" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="B433" s="16">
+        <v>52</v>
+      </c>
+      <c r="C433" s="27" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D433" s="6" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E433" s="6" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A434" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="B434" s="16">
+        <v>52</v>
+      </c>
+      <c r="C434" s="27" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D434" s="6" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E434" s="6" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A435" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="B435" s="16">
+        <v>52</v>
+      </c>
+      <c r="C435" s="27" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D435" s="6" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E435" s="6" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A436" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="B436" s="16">
+        <v>52</v>
+      </c>
+      <c r="C436" s="27" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E436" s="6" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A437" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="B437" s="16">
+        <v>52</v>
+      </c>
+      <c r="C437" s="27" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E437" s="6" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A438" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="B438" s="16">
+        <v>52</v>
+      </c>
+      <c r="C438" s="27" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E438" s="6" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A439" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="B439" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C439" s="27" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D439" s="6" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E439" s="6" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A440" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="B440" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C440" s="27" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E440" s="6" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A441" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="B441" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C441" s="27" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D441" s="6" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E441" s="6" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F441" s="32"/>
+    </row>
+    <row r="442" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A442" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="B442" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C442" s="27" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D442" s="6" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E442" s="6" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F442" s="32" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A443" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="B443" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C443" s="27" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D443" s="6" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E443" s="6" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F443" s="32"/>
+    </row>
+    <row r="444" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A444" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="B444" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C444" s="27" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D444" s="6" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E444" s="6" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F444" s="32"/>
+    </row>
+    <row r="445" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A445" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="B445" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C445" s="27" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D445" s="6" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E445" s="6" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F445" s="32"/>
+    </row>
+    <row r="446" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A446" s="46">
+        <f t="shared" ca="1" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="B446" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C446" s="27" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D446" s="6" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E446" s="6" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F446" s="32" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A447" s="46">
+        <f t="shared" ref="A447:A461" ca="1" si="11">RANDBETWEEN(1,100)</f>
+        <v>16</v>
+      </c>
+      <c r="B447" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C447" s="27" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D447" s="6" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E447" s="6" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F447" s="32"/>
+    </row>
+    <row r="448" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A448" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="B448" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C448" s="27" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D448" s="6" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E448" s="6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F448" s="32" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A449" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>93</v>
+      </c>
+      <c r="B449" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C449" s="27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D449" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E449" s="6" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F449" s="32"/>
+    </row>
+    <row r="450" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A450" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="B450" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C450" s="27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D450" s="6" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E450" s="6" t="s">
+        <v>2431</v>
+      </c>
+      <c r="F450" s="32"/>
+    </row>
+    <row r="451" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A451" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="B451" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C451" s="27" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E451" s="6" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F451" s="32"/>
+    </row>
+    <row r="452" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A452" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>61</v>
+      </c>
+      <c r="B452" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C452" s="27" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D452" s="6" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E452" s="6" t="s">
+        <v>2436</v>
+      </c>
+      <c r="F452" s="32"/>
+    </row>
+    <row r="453" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A453" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="B453" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C453" s="27" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D453" s="6" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E453" s="6" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F453" s="32" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A454" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="B454" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C454" s="27" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D454" s="6" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E454" s="6" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F454" s="32"/>
+    </row>
+    <row r="455" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A455" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="B455" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C455" s="27" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D455" s="6" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E455" s="6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F455" s="32" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A456" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="B456" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C456" s="27" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D456" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E456" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F456" s="32"/>
+    </row>
+    <row r="457" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A457" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="B457" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C457" s="27" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D457" s="6" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E457" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F457" s="32"/>
+    </row>
+    <row r="458" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A458" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="B458" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C458" s="27" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D458" s="6" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E458" s="6" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F458" s="32"/>
+    </row>
+    <row r="459" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A459" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="B459" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C459" s="27" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D459" s="6" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E459" s="6" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F459" s="32" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A460" s="46">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="B460" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C460" s="27" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D460" s="6" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E460" s="6" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F460" s="32"/>
+    </row>
+    <row r="461" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A461" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="B461" s="16" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C461" s="27" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D461" s="6" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E461" s="6" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F461" s="32"/>
+    </row>
+    <row r="462" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C462" s="27" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D462" s="6" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E462" s="6" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F462" s="32"/>
+    </row>
+    <row r="463" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C463" s="27" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D463" s="6" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E463" s="6" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F463" s="32"/>
+    </row>
+    <row r="464" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C464" s="27" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D464" s="6" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E464" s="6" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F464" s="32" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="465" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C465" s="27" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D465" s="6" t="s">
+        <v>2468</v>
+      </c>
+      <c r="E465" s="6" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F465" s="32"/>
+    </row>
+    <row r="466" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C466" s="27" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D466" s="6" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E466" s="6" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F466" s="32"/>
+    </row>
+    <row r="467" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C467" s="27" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D467" s="6" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E467" s="6" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F467" s="32"/>
+    </row>
+    <row r="468" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C468" s="27" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D468" s="6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E468" s="6" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F468" s="32" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="469" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C469" s="27" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D469" s="6" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E469" s="6" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F469" s="32"/>
+    </row>
+    <row r="470" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C470" s="27" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D470" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E470" s="6" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F470" s="32"/>
+    </row>
+    <row r="471" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C471" s="27"/>
-    </row>
-    <row r="472" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="F471" s="32"/>
+    </row>
+    <row r="472" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C472" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E401"/>
+  <autoFilter ref="A1:E448"/>
   <sortState ref="A126:J159">
     <sortCondition ref="A126:A159"/>
   </sortState>

--- a/Mainichi_Renshuu.xlsx
+++ b/Mainichi_Renshuu.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">minanihongo!$A$1:$F$207</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$222</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$448</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$476</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="2482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="2511">
   <si>
     <t>様</t>
   </si>
@@ -7600,6 +7600,93 @@
   </si>
   <si>
     <t>nguyên nhân</t>
+  </si>
+  <si>
+    <t>Đề 7</t>
+  </si>
+  <si>
+    <t>まっすぐ</t>
+  </si>
+  <si>
+    <t>thẳng</t>
+  </si>
+  <si>
+    <t>はえる</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hơi lạnh</t>
+  </si>
+  <si>
+    <t>拝見します</t>
+  </si>
+  <si>
+    <t>はいけんします</t>
+  </si>
+  <si>
+    <t>xem, nhìn</t>
+  </si>
+  <si>
+    <t>かわのりに</t>
+  </si>
+  <si>
+    <t>thay cho</t>
+  </si>
+  <si>
+    <t>田中さん　の　かわのりに　みちこさん　が　来ました</t>
+  </si>
+  <si>
+    <t>ひさしぶりですね</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lâu ngày nhỉ</t>
+  </si>
+  <si>
+    <t>田中さんは　さたうさん　に「ひさしぶりですね」といいました</t>
+  </si>
+  <si>
+    <t>いじょう</t>
+  </si>
+  <si>
+    <t>trên</t>
+  </si>
+  <si>
+    <t>この　部屋に　２０人　いじょう　いると　おもいます</t>
+  </si>
+  <si>
+    <t>店員</t>
+  </si>
+  <si>
+    <t>てんいｎ</t>
+  </si>
+  <si>
+    <t>người bán hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chết</t>
+  </si>
+  <si>
+    <t>貸しました</t>
+  </si>
+  <si>
+    <t>返します</t>
+  </si>
+  <si>
+    <t>かえします</t>
+  </si>
+  <si>
+    <t>trả</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>dân số</t>
+  </si>
+  <si>
+    <t>じんこう</t>
+  </si>
+  <si>
+    <t>考えます</t>
   </si>
 </sst>
 </file>
@@ -8355,7 +8442,7 @@
     <row r="2" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D2">
         <f t="shared" ref="D2:D31" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2">
         <v>87</v>
@@ -8373,7 +8460,7 @@
     <row r="3" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2">
         <v>58</v>
@@ -8391,7 +8478,7 @@
     <row r="4" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -8412,7 +8499,7 @@
     <row r="5" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>31</v>
@@ -8430,7 +8517,7 @@
     <row r="6" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
@@ -8451,7 +8538,7 @@
     <row r="7" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <v>136</v>
@@ -8466,7 +8553,7 @@
     <row r="8" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2">
         <v>47</v>
@@ -8484,7 +8571,7 @@
     <row r="9" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
         <v>127</v>
@@ -8502,7 +8589,7 @@
     <row r="10" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2">
         <v>115</v>
@@ -8523,7 +8610,7 @@
     <row r="11" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2">
         <v>126</v>
@@ -8541,7 +8628,7 @@
     <row r="12" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -8559,7 +8646,7 @@
     <row r="13" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>94</v>
@@ -8574,7 +8661,7 @@
     <row r="14" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -8592,7 +8679,7 @@
     <row r="15" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2">
         <v>122</v>
@@ -8610,7 +8697,7 @@
     <row r="16" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>117</v>
@@ -8634,7 +8721,7 @@
     <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2">
         <v>63</v>
@@ -8658,7 +8745,7 @@
     <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
@@ -8676,7 +8763,7 @@
     <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2">
         <v>116</v>
@@ -8695,7 +8782,7 @@
     <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2">
         <v>96</v>
@@ -8716,7 +8803,7 @@
     <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -8734,7 +8821,7 @@
     <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -8755,7 +8842,7 @@
     <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2">
         <v>71</v>
@@ -8776,7 +8863,7 @@
     <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -8797,7 +8884,7 @@
     <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -8818,7 +8905,7 @@
     <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E26" s="2">
         <v>50</v>
@@ -8836,7 +8923,7 @@
     <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2">
         <v>114</v>
@@ -8854,7 +8941,7 @@
     <row r="28" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2">
         <v>140</v>
@@ -8878,7 +8965,7 @@
     <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2">
         <v>146</v>
@@ -8902,7 +8989,7 @@
     <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2">
         <v>66</v>
@@ -8923,7 +9010,7 @@
     <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2">
         <v>9</v>
@@ -8944,7 +9031,7 @@
     <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D32">
         <f t="shared" ref="D32:D61" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2">
         <v>86</v>
@@ -8965,7 +9052,7 @@
     <row r="33" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2">
         <v>7</v>
@@ -8983,7 +9070,7 @@
     <row r="34" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2">
         <v>92</v>
@@ -9001,7 +9088,7 @@
     <row r="35" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2">
         <v>3</v>
@@ -9022,7 +9109,7 @@
     <row r="36" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2">
         <v>134</v>
@@ -9040,7 +9127,7 @@
     <row r="37" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2">
         <v>6</v>
@@ -9058,7 +9145,7 @@
     <row r="38" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E38" s="2">
         <v>129</v>
@@ -9076,7 +9163,7 @@
     <row r="39" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2">
         <v>61</v>
@@ -9097,7 +9184,7 @@
     <row r="40" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="E40" s="2">
         <v>42</v>
@@ -9118,7 +9205,7 @@
     <row r="41" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E41" s="2">
         <v>55</v>
@@ -9136,7 +9223,7 @@
     <row r="42" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="E42" s="2">
         <v>53</v>
@@ -9178,7 +9265,7 @@
     <row r="44" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2">
         <v>70</v>
@@ -9196,7 +9283,7 @@
     <row r="45" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E45" s="2">
         <v>144</v>
@@ -9217,7 +9304,7 @@
     <row r="46" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2">
         <v>118</v>
@@ -9245,7 +9332,7 @@
     <row r="47" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E47" s="2">
         <v>73</v>
@@ -9263,7 +9350,7 @@
     <row r="48" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E48" s="2">
         <v>109</v>
@@ -9278,7 +9365,7 @@
     <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E49" s="2">
         <v>83</v>
@@ -9299,7 +9386,7 @@
     <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2">
         <v>107</v>
@@ -9314,7 +9401,7 @@
     <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2">
         <v>25</v>
@@ -9335,7 +9422,7 @@
     <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E52" s="2">
         <v>108</v>
@@ -9362,7 +9449,7 @@
     <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2">
         <v>113</v>
@@ -9380,7 +9467,7 @@
     <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2">
         <v>89</v>
@@ -9407,7 +9494,7 @@
     <row r="55" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2">
         <v>130</v>
@@ -9425,7 +9512,7 @@
     <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E56" s="2">
         <v>72</v>
@@ -9446,7 +9533,7 @@
     <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2">
         <v>77</v>
@@ -9464,7 +9551,7 @@
     <row r="58" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E58" s="2">
         <v>57</v>
@@ -9488,7 +9575,7 @@
     <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2">
         <v>45</v>
@@ -9506,7 +9593,7 @@
     <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E60" s="2">
         <v>128</v>
@@ -9527,7 +9614,7 @@
     <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E61" s="2">
         <v>8</v>
@@ -9548,7 +9635,7 @@
     <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D62">
         <f t="shared" ref="D62:D93" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2">
         <v>135</v>
@@ -9566,7 +9653,7 @@
     <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="E63" s="2">
         <v>56</v>
@@ -9587,7 +9674,7 @@
     <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E64" s="2">
         <v>82</v>
@@ -9605,7 +9692,7 @@
     <row r="65" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E65" s="2">
         <v>112</v>
@@ -9623,7 +9710,7 @@
     <row r="66" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E66" s="2">
         <v>121</v>
@@ -9644,7 +9731,7 @@
     <row r="67" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2">
         <v>30</v>
@@ -9662,7 +9749,7 @@
     <row r="68" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E68" s="2">
         <v>106</v>
@@ -9683,7 +9770,7 @@
     <row r="69" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2">
         <v>64</v>
@@ -9704,7 +9791,7 @@
     <row r="70" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E70" s="2">
         <v>147</v>
@@ -9725,7 +9812,7 @@
     <row r="71" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E71" s="2">
         <v>44</v>
@@ -9744,7 +9831,7 @@
     <row r="72" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E72" s="2">
         <v>148</v>
@@ -9765,7 +9852,7 @@
     <row r="73" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2">
         <v>59</v>
@@ -9783,7 +9870,7 @@
     <row r="74" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E74" s="2">
         <v>132</v>
@@ -9801,7 +9888,7 @@
     <row r="75" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="E75" s="2">
         <v>12</v>
@@ -9819,7 +9906,7 @@
     <row r="76" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E76" s="2">
         <v>26</v>
@@ -9840,7 +9927,7 @@
     <row r="77" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2">
         <v>43</v>
@@ -9861,7 +9948,7 @@
     <row r="78" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2">
         <v>103</v>
@@ -9882,7 +9969,7 @@
     <row r="79" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E79" s="2">
         <v>99</v>
@@ -9900,7 +9987,7 @@
     <row r="80" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2">
         <v>141</v>
@@ -9921,7 +10008,7 @@
     <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E81" s="2">
         <v>37</v>
@@ -9942,7 +10029,7 @@
     <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E82" s="2">
         <v>4</v>
@@ -9963,7 +10050,7 @@
     <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2">
         <v>119</v>
@@ -9984,7 +10071,7 @@
     <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2">
         <v>143</v>
@@ -10005,7 +10092,7 @@
     <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E85" s="2">
         <v>32</v>
@@ -10023,7 +10110,7 @@
     <row r="86" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E86" s="2">
         <v>97</v>
@@ -10041,7 +10128,7 @@
     <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E87" s="2">
         <v>120</v>
@@ -10062,7 +10149,7 @@
     <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2">
         <v>24</v>
@@ -10081,7 +10168,7 @@
     <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E89" s="2">
         <v>110</v>
@@ -10099,7 +10186,7 @@
     <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E90" s="2">
         <v>51</v>
@@ -10120,7 +10207,7 @@
     <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E91" s="2">
         <v>18</v>
@@ -10141,7 +10228,7 @@
     <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2">
         <v>69</v>
@@ -10162,7 +10249,7 @@
     <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E93" s="2">
         <v>15</v>
@@ -10177,7 +10264,7 @@
     <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D94">
         <f t="shared" ref="D94:D125" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E94" s="2">
         <v>142</v>
@@ -10201,7 +10288,7 @@
     <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2">
         <v>78</v>
@@ -10219,7 +10306,7 @@
     <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E96" s="2">
         <v>2</v>
@@ -10240,7 +10327,7 @@
     <row r="97" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D97">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E97" s="2">
         <v>100</v>
@@ -10258,7 +10345,7 @@
     <row r="98" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2">
         <v>95</v>
@@ -10273,7 +10360,7 @@
     <row r="99" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E99" s="2">
         <v>80</v>
@@ -10291,7 +10378,7 @@
     <row r="100" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -10309,7 +10396,7 @@
     <row r="101" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="E101" s="2">
         <v>67</v>
@@ -10324,7 +10411,7 @@
     <row r="102" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2">
         <v>75</v>
@@ -10342,7 +10429,7 @@
     <row r="103" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E103" s="2">
         <v>76</v>
@@ -10358,7 +10445,7 @@
     <row r="104" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="E104" s="2">
         <v>133</v>
@@ -10376,7 +10463,7 @@
     <row r="105" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="E105" s="2">
         <v>27</v>
@@ -10394,7 +10481,7 @@
     <row r="106" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E106" s="2">
         <v>28</v>
@@ -10409,7 +10496,7 @@
     <row r="107" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E107" s="2">
         <v>34</v>
@@ -10427,7 +10514,7 @@
     <row r="108" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E108" s="2">
         <v>93</v>
@@ -10445,7 +10532,7 @@
     <row r="109" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E109" s="2">
         <v>52</v>
@@ -10463,7 +10550,7 @@
     <row r="110" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E110" s="2">
         <v>131</v>
@@ -10484,7 +10571,7 @@
     <row r="111" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2">
         <v>65</v>
@@ -10502,7 +10589,7 @@
     <row r="112" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E112" s="2">
         <v>74</v>
@@ -10520,7 +10607,7 @@
     <row r="113" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E113" s="2">
         <v>49</v>
@@ -10538,7 +10625,7 @@
     <row r="114" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E114" s="2">
         <v>41</v>
@@ -10553,7 +10640,7 @@
     <row r="115" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E115" s="2">
         <v>111</v>
@@ -10571,7 +10658,7 @@
     <row r="116" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E116" s="2">
         <v>90</v>
@@ -10589,7 +10676,7 @@
     <row r="117" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E117" s="2">
         <v>137</v>
@@ -10607,7 +10694,7 @@
     <row r="118" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E118" s="2">
         <v>20</v>
@@ -10622,7 +10709,7 @@
     <row r="119" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E119" s="2">
         <v>124</v>
@@ -10640,7 +10727,7 @@
     <row r="120" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E120" s="2">
         <v>138</v>
@@ -10658,7 +10745,7 @@
     <row r="121" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E121" s="2">
         <v>36</v>
@@ -10673,7 +10760,7 @@
     <row r="122" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E122" s="2">
         <v>68</v>
@@ -10689,7 +10776,7 @@
     <row r="123" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E123" s="2">
         <v>22</v>
@@ -10707,7 +10794,7 @@
     <row r="124" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E124" s="2">
         <v>33</v>
@@ -10725,7 +10812,7 @@
     <row r="125" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E125" s="2">
         <v>125</v>
@@ -10743,7 +10830,7 @@
     <row r="126" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D126">
         <f t="shared" ref="D126:D157" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E126" s="2">
         <v>54</v>
@@ -10761,7 +10848,7 @@
     <row r="127" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D127">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E127" s="2">
         <v>11</v>
@@ -10782,7 +10869,7 @@
     <row r="128" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
       <c r="D128">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E128" s="2">
         <v>79</v>
@@ -10800,7 +10887,7 @@
     <row r="129" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D129">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E129" s="2">
         <v>10</v>
@@ -10818,7 +10905,7 @@
     <row r="130" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D130">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E130" s="2">
         <v>17</v>
@@ -10833,7 +10920,7 @@
     <row r="131" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D131">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E131" s="2">
         <v>88</v>
@@ -10851,7 +10938,7 @@
     <row r="132" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E132" s="2">
         <v>98</v>
@@ -10869,7 +10956,7 @@
     <row r="133" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E133" s="2">
         <v>62</v>
@@ -10887,7 +10974,7 @@
     <row r="134" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E134" s="2">
         <v>19</v>
@@ -10905,7 +10992,7 @@
     <row r="135" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D135">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E135" s="2">
         <v>81</v>
@@ -10926,7 +11013,7 @@
     <row r="136" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E136" s="2">
         <v>23</v>
@@ -10944,7 +11031,7 @@
     <row r="137" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E137" s="2">
         <v>101</v>
@@ -10959,7 +11046,7 @@
     <row r="138" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E138" s="2">
         <v>84</v>
@@ -10974,7 +11061,7 @@
     <row r="139" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E139" s="2">
         <v>123</v>
@@ -10989,7 +11076,7 @@
     <row r="140" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E140" s="2">
         <v>48</v>
@@ -11007,7 +11094,7 @@
     <row r="141" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E141" s="2">
         <v>38</v>
@@ -11025,7 +11112,7 @@
     <row r="142" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E142" s="2">
         <v>102</v>
@@ -11046,7 +11133,7 @@
     <row r="143" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E143" s="2">
         <v>139</v>
@@ -11067,7 +11154,7 @@
     <row r="144" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F144" s="2">
         <v>17</v>
@@ -11085,7 +11172,7 @@
     <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F145" s="2">
         <v>17</v>
@@ -11103,7 +11190,7 @@
     <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F146" s="2">
         <v>17</v>
@@ -11121,7 +11208,7 @@
     <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="F147" s="2">
         <v>17</v>
@@ -11157,7 +11244,7 @@
     <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F149" s="2">
         <v>17</v>
@@ -11178,7 +11265,7 @@
     <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F150" s="2">
         <v>17</v>
@@ -11196,7 +11283,7 @@
     <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F151" s="2">
         <v>17</v>
@@ -11214,7 +11301,7 @@
     <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F152" s="2">
         <v>17</v>
@@ -11226,7 +11313,7 @@
     <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F153" s="2">
         <v>17</v>
@@ -11244,7 +11331,7 @@
     <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F154" s="2">
         <v>17</v>
@@ -11262,7 +11349,7 @@
     <row r="155" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2">
         <v>17</v>
@@ -11283,7 +11370,7 @@
     <row r="156" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F156" s="2">
         <v>17</v>
@@ -11304,7 +11391,7 @@
     <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F157" s="2">
         <v>17</v>
@@ -11325,7 +11412,7 @@
     <row r="158" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D158">
         <f t="shared" ref="D158:D177" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E158">
         <v>10</v>
@@ -11349,7 +11436,7 @@
     <row r="159" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D159">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E159">
         <v>17</v>
@@ -11373,7 +11460,7 @@
     <row r="160" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D160">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E160">
         <v>2</v>
@@ -11394,7 +11481,7 @@
     <row r="161" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D161">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E161">
         <v>3</v>
@@ -11415,7 +11502,7 @@
     <row r="162" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D162">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E162">
         <v>12</v>
@@ -11439,7 +11526,7 @@
     <row r="163" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D163">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E163">
         <v>18</v>
@@ -11466,7 +11553,7 @@
     <row r="164" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E164">
         <v>6</v>
@@ -11487,7 +11574,7 @@
     <row r="165" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E165">
         <v>13</v>
@@ -11511,7 +11598,7 @@
     <row r="166" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E166">
         <v>7</v>
@@ -11535,7 +11622,7 @@
     <row r="167" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E167">
         <v>8</v>
@@ -11559,7 +11646,7 @@
     <row r="168" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E168">
         <v>14</v>
@@ -11583,7 +11670,7 @@
     <row r="169" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E169">
         <v>19</v>
@@ -11607,7 +11694,7 @@
     <row r="170" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E170">
         <v>20</v>
@@ -11628,7 +11715,7 @@
     <row r="171" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -11649,7 +11736,7 @@
     <row r="172" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -11664,7 +11751,7 @@
     <row r="173" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E173">
         <v>11</v>
@@ -11688,7 +11775,7 @@
     <row r="174" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E174">
         <v>15</v>
@@ -11712,7 +11799,7 @@
     <row r="175" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E175">
         <v>4</v>
@@ -11730,7 +11817,7 @@
     <row r="176" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E176">
         <v>16</v>
@@ -11751,7 +11838,7 @@
     <row r="177" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E177">
         <v>9</v>
@@ -11775,7 +11862,7 @@
     <row r="178" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D178">
         <f t="shared" ref="D178:D214" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E178">
         <v>13</v>
@@ -11796,7 +11883,7 @@
     <row r="179" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D179">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E179">
         <v>4</v>
@@ -11820,7 +11907,7 @@
     <row r="180" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D180">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E180">
         <v>5</v>
@@ -11844,7 +11931,7 @@
     <row r="181" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D181">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F181" s="2">
         <v>19</v>
@@ -11865,7 +11952,7 @@
     <row r="182" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D182">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E182">
         <v>18</v>
@@ -11892,7 +11979,7 @@
     <row r="183" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D183">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E183">
         <v>14</v>
@@ -11916,7 +12003,7 @@
     <row r="184" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E184">
         <v>24</v>
@@ -11943,7 +12030,7 @@
     <row r="185" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E185">
         <v>23</v>
@@ -11970,7 +12057,7 @@
     <row r="186" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E186">
         <v>17</v>
@@ -11991,7 +12078,7 @@
     <row r="187" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E187">
         <v>22</v>
@@ -12012,7 +12099,7 @@
     <row r="188" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E188">
         <v>9</v>
@@ -12036,7 +12123,7 @@
     <row r="189" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E189">
         <v>19</v>
@@ -12081,7 +12168,7 @@
     <row r="191" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D191">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -12105,7 +12192,7 @@
     <row r="192" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
       <c r="D192">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E192">
         <v>20</v>
@@ -12132,7 +12219,7 @@
     <row r="193" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D193">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E193">
         <v>7</v>
@@ -12150,7 +12237,7 @@
     <row r="194" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D194">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="E194">
         <v>11</v>
@@ -12168,7 +12255,7 @@
     <row r="195" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D195">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E195">
         <v>16</v>
@@ -12213,7 +12300,7 @@
     <row r="197" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F197" s="2">
         <v>19</v>
@@ -12231,7 +12318,7 @@
     <row r="198" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E198">
         <v>10</v>
@@ -12249,7 +12336,7 @@
     <row r="199" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E199">
         <v>21</v>
@@ -12273,7 +12360,7 @@
     <row r="200" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -12294,7 +12381,7 @@
     <row r="201" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E201">
         <v>3</v>
@@ -12318,7 +12405,7 @@
     <row r="202" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="E202">
         <v>15</v>
@@ -12342,7 +12429,7 @@
     <row r="203" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E203">
         <v>9</v>
@@ -12366,7 +12453,7 @@
     <row r="204" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -12387,7 +12474,7 @@
     <row r="205" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E205">
         <v>5</v>
@@ -12408,7 +12495,7 @@
     <row r="206" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E206">
         <v>8</v>
@@ -12432,7 +12519,7 @@
     <row r="207" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -12453,7 +12540,7 @@
     <row r="208" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E208">
         <v>10</v>
@@ -12474,7 +12561,7 @@
     <row r="209" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="E209">
         <v>11</v>
@@ -12495,7 +12582,7 @@
     <row r="210" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E210">
         <v>7</v>
@@ -12516,7 +12603,7 @@
     <row r="211" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -12537,7 +12624,7 @@
     <row r="212" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E212">
         <v>2</v>
@@ -12558,7 +12645,7 @@
     <row r="213" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -12579,7 +12666,7 @@
     <row r="214" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F214" s="2">
         <v>20</v>
@@ -12705,7 +12792,7 @@
     <row r="221" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D221">
         <f t="shared" ref="D221:D222" ca="1" si="7">RANDBETWEEN(0,100)</f>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F221" s="2">
         <v>12</v>
@@ -12726,7 +12813,7 @@
     <row r="222" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
       <c r="D222">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F222" s="2">
         <v>12</v>
@@ -12811,7 +12898,7 @@
     <row r="2" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7">
         <v>13</v>
@@ -12832,7 +12919,7 @@
     <row r="3" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>807</v>
@@ -12853,7 +12940,7 @@
     <row r="4" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>657</v>
@@ -12874,7 +12961,7 @@
     <row r="5" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B5" s="7">
         <v>17</v>
@@ -12898,7 +12985,7 @@
     <row r="6" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7">
         <v>12</v>
@@ -12919,7 +13006,7 @@
     <row r="7" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A7">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7">
         <v>13</v>
@@ -12940,7 +13027,7 @@
     <row r="8" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A8">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>807</v>
@@ -12967,7 +13054,7 @@
     <row r="9" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A9">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -12985,7 +13072,7 @@
     <row r="10" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A10">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B10" s="7">
         <v>14</v>
@@ -13009,7 +13096,7 @@
     <row r="11" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A11">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>856</v>
@@ -13030,7 +13117,7 @@
     <row r="12" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A12">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>962</v>
@@ -13054,7 +13141,7 @@
     <row r="13" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A13">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -13075,7 +13162,7 @@
     <row r="14" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A14">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>807</v>
@@ -13099,7 +13186,7 @@
     <row r="15" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A15">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -13117,7 +13204,7 @@
     <row r="16" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A16">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B16" s="7">
         <v>13</v>
@@ -13138,7 +13225,7 @@
     <row r="17" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A17">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B17" s="7">
         <v>11</v>
@@ -13159,7 +13246,7 @@
     <row r="18" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A18">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -13200,7 +13287,7 @@
     <row r="20" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A20">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B20" s="7">
         <v>13</v>
@@ -13221,7 +13308,7 @@
     <row r="21" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A21">
         <f t="shared" ref="A21:A26" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>807</v>
@@ -13242,7 +13329,7 @@
     <row r="22" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>856</v>
@@ -13263,7 +13350,7 @@
     <row r="23" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>962</v>
@@ -13287,7 +13374,7 @@
     <row r="24" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>962</v>
@@ -13308,7 +13395,7 @@
     <row r="25" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>657</v>
@@ -13329,7 +13416,7 @@
     <row r="26" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>807</v>
@@ -13370,7 +13457,7 @@
     <row r="28" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A28">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B28" s="7">
         <v>13</v>
@@ -13391,7 +13478,7 @@
     <row r="29" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A29">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>657</v>
@@ -13412,7 +13499,7 @@
     <row r="30" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A30">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>962</v>
@@ -13433,7 +13520,7 @@
     <row r="31" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A31">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B31" s="7">
         <v>12</v>
@@ -13457,7 +13544,7 @@
     <row r="32" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A32">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>657</v>
@@ -13478,7 +13565,7 @@
     <row r="33" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A33">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>856</v>
@@ -13499,7 +13586,7 @@
     <row r="34" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A34">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>807</v>
@@ -13520,7 +13607,7 @@
     <row r="35" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A35">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B35" s="7">
         <v>12</v>
@@ -13535,7 +13622,7 @@
     <row r="36" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A36">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>807</v>
@@ -13556,7 +13643,7 @@
     <row r="37" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A37">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>657</v>
@@ -13577,7 +13664,7 @@
     <row r="38" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A38">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B38" s="7">
         <v>12</v>
@@ -13598,7 +13685,7 @@
     <row r="39" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A39">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>657</v>
@@ -13639,7 +13726,7 @@
     <row r="41" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A41">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B41" s="7">
         <v>12</v>
@@ -13654,7 +13741,7 @@
     <row r="42" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A42">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B42" s="7">
         <v>13</v>
@@ -13675,7 +13762,7 @@
     <row r="43" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A43">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>856</v>
@@ -13696,7 +13783,7 @@
     <row r="44" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A44">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B44" s="7">
         <v>11</v>
@@ -13717,7 +13804,7 @@
     <row r="45" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A45">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>962</v>
@@ -13738,7 +13825,7 @@
     <row r="46" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A46">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>657</v>
@@ -13759,7 +13846,7 @@
     <row r="47" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A47">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B47" s="7">
         <v>12</v>
@@ -13780,7 +13867,7 @@
     <row r="48" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A48">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>962</v>
@@ -13804,7 +13891,7 @@
     <row r="49" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A49">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>962</v>
@@ -13825,7 +13912,7 @@
     <row r="50" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A50">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B50" s="7">
         <v>12</v>
@@ -13843,7 +13930,7 @@
     <row r="51" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A51">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B51" s="7">
         <v>12</v>
@@ -13864,7 +13951,7 @@
     <row r="52" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A52">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>807</v>
@@ -13885,7 +13972,7 @@
     <row r="53" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A53">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="B53" s="7">
         <v>14</v>
@@ -13966,7 +14053,7 @@
     <row r="57" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A57">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B57" s="7">
         <v>12</v>
@@ -13987,7 +14074,7 @@
     <row r="58" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A58">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>807</v>
@@ -14008,7 +14095,7 @@
     <row r="59" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A59">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B59" s="7">
         <v>14</v>
@@ -14029,7 +14116,7 @@
     <row r="60" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A60">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B60" s="7">
         <v>12</v>
@@ -14050,7 +14137,7 @@
     <row r="61" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A61">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>807</v>
@@ -14074,7 +14161,7 @@
     <row r="62" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A62">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B62" s="7">
         <v>11</v>
@@ -14095,7 +14182,7 @@
     <row r="63" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A63">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>856</v>
@@ -14136,7 +14223,7 @@
     <row r="65" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A65">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>856</v>
@@ -14157,7 +14244,7 @@
     <row r="66" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A66">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="B66" s="7">
         <v>11</v>
@@ -14178,7 +14265,7 @@
     <row r="67" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A67">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B67" s="7">
         <v>14</v>
@@ -14199,7 +14286,7 @@
     <row r="68" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A68">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B68" s="7">
         <v>14</v>
@@ -14220,7 +14307,7 @@
     <row r="69" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A69">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>856</v>
@@ -14241,7 +14328,7 @@
     <row r="70" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A70">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>807</v>
@@ -14262,7 +14349,7 @@
     <row r="71" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A71">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>856</v>
@@ -14286,7 +14373,7 @@
     <row r="72" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A72">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B72" s="7">
         <v>12</v>
@@ -14304,7 +14391,7 @@
     <row r="73" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A73">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>807</v>
@@ -14325,7 +14412,7 @@
     <row r="74" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A74">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B74" s="7">
         <v>13</v>
@@ -14346,7 +14433,7 @@
     <row r="75" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A75">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B75" s="7">
         <v>13</v>
@@ -14367,7 +14454,7 @@
     <row r="76" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A76">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>807</v>
@@ -14388,7 +14475,7 @@
     <row r="77" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A77">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>657</v>
@@ -14412,7 +14499,7 @@
     <row r="78" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A78">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>657</v>
@@ -14436,7 +14523,7 @@
     <row r="79" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A79">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="B79" s="7">
         <v>13</v>
@@ -14457,7 +14544,7 @@
     <row r="80" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A80">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B80" s="7">
         <v>13</v>
@@ -14478,7 +14565,7 @@
     <row r="81" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A81">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B81" s="7">
         <v>13</v>
@@ -14499,7 +14586,7 @@
     <row r="82" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A82">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>962</v>
@@ -14520,7 +14607,7 @@
     <row r="83" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A83">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>657</v>
@@ -14541,7 +14628,7 @@
     <row r="84" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A84">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>856</v>
@@ -14562,7 +14649,7 @@
     <row r="85" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A85">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>807</v>
@@ -14583,7 +14670,7 @@
     <row r="86" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A86">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B86" s="7">
         <v>11</v>
@@ -14644,7 +14731,7 @@
     <row r="89" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A89">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>856</v>
@@ -14665,7 +14752,7 @@
     <row r="90" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A90">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B90" s="7">
         <v>14</v>
@@ -14692,7 +14779,7 @@
     <row r="91" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A91">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B91" s="7">
         <v>13</v>
@@ -14713,7 +14800,7 @@
     <row r="92" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A92">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>657</v>
@@ -14734,7 +14821,7 @@
     <row r="93" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A93">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>657</v>
@@ -14781,7 +14868,7 @@
     <row r="95" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A95">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>856</v>
@@ -14802,7 +14889,7 @@
     <row r="96" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A96">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>962</v>
@@ -14823,7 +14910,7 @@
     <row r="97" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A97">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>962</v>
@@ -14847,7 +14934,7 @@
     <row r="98" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A98">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B98" s="7">
         <v>12</v>
@@ -14865,7 +14952,7 @@
     <row r="99" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A99">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B99" s="7">
         <v>12</v>
@@ -14883,7 +14970,7 @@
     <row r="100" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A100">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>657</v>
@@ -14924,7 +15011,7 @@
     <row r="102" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A102">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>657</v>
@@ -14945,7 +15032,7 @@
     <row r="103" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A103">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>807</v>
@@ -14969,7 +15056,7 @@
     <row r="104" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A104">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B104" s="7">
         <v>18</v>
@@ -14990,7 +15077,7 @@
     <row r="105" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A105">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B105" s="7">
         <v>11</v>
@@ -15011,7 +15098,7 @@
     <row r="106" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A106">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>807</v>
@@ -15032,7 +15119,7 @@
     <row r="107" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A107">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>657</v>
@@ -15053,7 +15140,7 @@
     <row r="108" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A108">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>807</v>
@@ -15074,7 +15161,7 @@
     <row r="109" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A109">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B109" s="7">
         <v>13</v>
@@ -15095,7 +15182,7 @@
     <row r="110" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A110">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B110" s="7">
         <v>14</v>
@@ -15116,7 +15203,7 @@
     <row r="111" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A111">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>807</v>
@@ -15137,7 +15224,7 @@
     <row r="112" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A112">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B112" s="7">
         <v>13</v>
@@ -15158,7 +15245,7 @@
     <row r="113" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A113">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B113" s="7">
         <v>13</v>
@@ -15182,7 +15269,7 @@
     <row r="114" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A114">
         <f t="shared" ref="A114:A119" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B114" s="7">
         <v>17</v>
@@ -15206,7 +15293,7 @@
     <row r="115" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>856</v>
@@ -15227,7 +15314,7 @@
     <row r="116" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>962</v>
@@ -15248,7 +15335,7 @@
     <row r="117" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>962</v>
@@ -15269,7 +15356,7 @@
     <row r="118" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>807</v>
@@ -15290,7 +15377,7 @@
     <row r="119" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>856</v>
@@ -15311,7 +15398,7 @@
     <row r="120" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A120">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B120" s="7">
         <v>12</v>
@@ -15332,7 +15419,7 @@
     <row r="121" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A121">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>807</v>
@@ -15353,7 +15440,7 @@
     <row r="122" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A122">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B122" s="7">
         <v>12</v>
@@ -15368,7 +15455,7 @@
     <row r="123" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A123">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>807</v>
@@ -15389,7 +15476,7 @@
     <row r="124" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A124">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>962</v>
@@ -15410,7 +15497,7 @@
     <row r="125" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A125">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="B125" s="7">
         <v>11</v>
@@ -15431,7 +15518,7 @@
     <row r="126" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A126">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>657</v>
@@ -15452,7 +15539,7 @@
     <row r="127" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A127">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B127" s="7">
         <v>13</v>
@@ -15516,7 +15603,7 @@
     <row r="130" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A130">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B130" s="7">
         <v>12</v>
@@ -15537,7 +15624,7 @@
     <row r="131" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A131">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>657</v>
@@ -15561,7 +15648,7 @@
     <row r="132" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A132">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>657</v>
@@ -15582,7 +15669,7 @@
     <row r="133" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A133">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B133" s="7">
         <v>20</v>
@@ -15603,7 +15690,7 @@
     <row r="134" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A134">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B134" s="7">
         <v>20</v>
@@ -15627,7 +15714,7 @@
     <row r="135" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A135">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B135" s="7">
         <v>20</v>
@@ -15648,7 +15735,7 @@
     <row r="136" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A136">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B136" s="7">
         <v>20</v>
@@ -15672,7 +15759,7 @@
     <row r="137" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
       <c r="A137">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B137" s="7">
         <v>20</v>
@@ -19928,11 +20015,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R472"/>
+  <dimension ref="A1:R508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C416" sqref="C416"/>
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B477" sqref="B477:B483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -19941,7 +20028,7 @@
     <col min="2" max="2" width="8.42578125" style="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="52.85546875" style="15" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="38" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="45.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="94.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="18" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -19949,7 +20036,7 @@
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>761</v>
@@ -20317,7 +20404,7 @@
     <row r="27" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A27">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B27" s="16">
         <v>17</v>
@@ -20332,7 +20419,7 @@
     <row r="28" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A28">
         <f t="shared" ref="A28:A44" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B28" s="16">
         <v>17</v>
@@ -20347,7 +20434,7 @@
     <row r="29" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -20362,7 +20449,7 @@
     <row r="30" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -20377,7 +20464,7 @@
     <row r="31" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B31" s="16">
         <v>17</v>
@@ -20395,7 +20482,7 @@
     <row r="32" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B32" s="16">
         <v>17</v>
@@ -20410,7 +20497,7 @@
     <row r="33" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B33" s="16">
         <v>17</v>
@@ -20425,7 +20512,7 @@
     <row r="34" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B34" s="16">
         <v>17</v>
@@ -20440,7 +20527,7 @@
     <row r="35" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B35" s="16">
         <v>17</v>
@@ -20455,7 +20542,7 @@
     <row r="36" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="16">
         <v>17</v>
@@ -20470,7 +20557,7 @@
     <row r="37" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B37" s="16">
         <v>17</v>
@@ -20485,7 +20572,7 @@
     <row r="38" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B38" s="16">
         <v>17</v>
@@ -20500,7 +20587,7 @@
     <row r="39" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B39" s="16">
         <v>17</v>
@@ -20515,7 +20602,7 @@
     <row r="40" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B40" s="16">
         <v>17</v>
@@ -20530,7 +20617,7 @@
     <row r="41" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B41" s="16">
         <v>17</v>
@@ -20545,7 +20632,7 @@
     <row r="42" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B42" s="16">
         <v>17</v>
@@ -20560,7 +20647,7 @@
     <row r="43" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B43" s="16">
         <v>18</v>
@@ -21102,7 +21189,7 @@
     <row r="88" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A88">
         <f t="shared" ref="A88:A115" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B88" s="16">
         <v>25</v>
@@ -21120,7 +21207,7 @@
     <row r="89" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B89" s="16">
         <v>24</v>
@@ -21138,7 +21225,7 @@
     <row r="90" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B90" s="16">
         <v>23</v>
@@ -21156,7 +21243,7 @@
     <row r="91" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B91" s="16">
         <v>25</v>
@@ -21174,7 +21261,7 @@
     <row r="92" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B92" s="16">
         <v>23</v>
@@ -21189,7 +21276,7 @@
     <row r="93" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B93" s="16">
         <v>25</v>
@@ -21207,7 +21294,7 @@
     <row r="94" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B94" s="16">
         <v>25</v>
@@ -21225,7 +21312,7 @@
     <row r="95" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B95" s="16">
         <v>25</v>
@@ -21240,7 +21327,7 @@
     <row r="96" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B96" s="16">
         <v>25</v>
@@ -21258,7 +21345,7 @@
     <row r="97" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B97" s="16">
         <v>23</v>
@@ -21276,7 +21363,7 @@
     <row r="98" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B98" s="16">
         <v>23</v>
@@ -21291,7 +21378,7 @@
     <row r="99" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B99" s="16">
         <v>23</v>
@@ -21309,7 +21396,7 @@
     <row r="100" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B100" s="16">
         <v>23</v>
@@ -21327,7 +21414,7 @@
     <row r="101" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B101" s="16">
         <v>24</v>
@@ -21345,7 +21432,7 @@
     <row r="102" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B102" s="16">
         <v>23</v>
@@ -21363,7 +21450,7 @@
     <row r="103" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B103" s="16">
         <v>23</v>
@@ -21381,7 +21468,7 @@
     <row r="104" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B104" s="16">
         <v>23</v>
@@ -21399,7 +21486,7 @@
     <row r="105" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B105" s="16">
         <v>25</v>
@@ -21417,7 +21504,7 @@
     <row r="106" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B106" s="16">
         <v>24</v>
@@ -21435,7 +21522,7 @@
     <row r="107" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B107" s="16">
         <v>25</v>
@@ -21453,7 +21540,7 @@
     <row r="108" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B108" s="16">
         <v>25</v>
@@ -21471,7 +21558,7 @@
     <row r="109" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B109" s="16">
         <v>24</v>
@@ -21489,7 +21576,7 @@
     <row r="110" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B110" s="16">
         <v>24</v>
@@ -21507,7 +21594,7 @@
     <row r="111" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B111" s="16">
         <v>25</v>
@@ -21525,7 +21612,7 @@
     <row r="112" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B112" s="16">
         <v>25</v>
@@ -21543,7 +21630,7 @@
     <row r="113" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B113" s="16">
         <v>24</v>
@@ -21561,7 +21648,7 @@
     <row r="114" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B114" s="16">
         <v>24</v>
@@ -21579,7 +21666,7 @@
     <row r="115" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B115" s="16">
         <v>28</v>
@@ -21597,7 +21684,7 @@
     <row r="116" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A116">
         <f t="shared" ref="A116:A123" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B116" s="16">
         <v>23</v>
@@ -21615,7 +21702,7 @@
     <row r="117" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A117">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B117" s="16">
         <v>23</v>
@@ -21633,7 +21720,7 @@
     <row r="118" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A118">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B118" s="16">
         <v>23</v>
@@ -21648,7 +21735,7 @@
     <row r="119" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A119">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B119" s="16">
         <v>23</v>
@@ -21666,7 +21753,7 @@
     <row r="120" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A120">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B120" s="16">
         <v>25</v>
@@ -21684,7 +21771,7 @@
     <row r="121" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A121">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B121" s="16">
         <v>24</v>
@@ -21702,7 +21789,7 @@
     <row r="122" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A122">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B122" s="16">
         <v>25</v>
@@ -21720,7 +21807,7 @@
     <row r="123" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A123">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B123" s="16">
         <v>25</v>
@@ -21738,7 +21825,7 @@
     <row r="124" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A124">
         <f t="shared" ref="A124:A187" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B124" s="16">
         <v>23</v>
@@ -21756,7 +21843,7 @@
     <row r="125" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B125" s="16">
         <v>23</v>
@@ -21774,7 +21861,7 @@
     <row r="126" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A126">
         <f t="shared" ref="A126:A159" ca="1" si="4">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B126" s="16">
         <v>26</v>
@@ -21792,7 +21879,7 @@
     <row r="127" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A127">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B127" s="16">
         <v>26</v>
@@ -21810,7 +21897,7 @@
     <row r="128" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A128">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B128" s="16">
         <v>26</v>
@@ -21828,7 +21915,7 @@
     <row r="129" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A129">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B129" s="16">
         <v>26</v>
@@ -21846,7 +21933,7 @@
     <row r="130" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A130">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B130" s="16">
         <v>26</v>
@@ -21864,7 +21951,7 @@
     <row r="131" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A131">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B131" s="16">
         <v>26</v>
@@ -21882,7 +21969,7 @@
     <row r="132" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A132">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B132" s="16">
         <v>26</v>
@@ -21900,7 +21987,7 @@
     <row r="133" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A133">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B133" s="16">
         <v>26</v>
@@ -21918,7 +22005,7 @@
     <row r="134" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A134">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B134" s="16">
         <v>26</v>
@@ -21936,7 +22023,7 @@
     <row r="135" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A135">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B135" s="16">
         <v>26</v>
@@ -21954,7 +22041,7 @@
     <row r="136" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A136">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B136" s="16">
         <v>26</v>
@@ -21972,7 +22059,7 @@
     <row r="137" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A137">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B137" s="16">
         <v>26</v>
@@ -21990,7 +22077,7 @@
     <row r="138" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A138">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B138" s="16">
         <v>26</v>
@@ -22008,7 +22095,7 @@
     <row r="139" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A139">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B139" s="16">
         <v>26</v>
@@ -22026,7 +22113,7 @@
     <row r="140" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A140">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B140" s="16">
         <v>26</v>
@@ -22044,7 +22131,7 @@
     <row r="141" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A141">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B141" s="16">
         <v>26</v>
@@ -22062,7 +22149,7 @@
     <row r="142" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A142">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B142" s="16">
         <v>26</v>
@@ -22080,7 +22167,7 @@
     <row r="143" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A143">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B143" s="16">
         <v>26</v>
@@ -22098,7 +22185,7 @@
     <row r="144" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A144">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B144" s="16">
         <v>26</v>
@@ -22116,7 +22203,7 @@
     <row r="145" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A145">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B145" s="16">
         <v>26</v>
@@ -22134,7 +22221,7 @@
     <row r="146" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A146">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="B146" s="16">
         <v>26</v>
@@ -22152,7 +22239,7 @@
     <row r="147" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A147">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B147" s="16">
         <v>26</v>
@@ -22170,7 +22257,7 @@
     <row r="148" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A148">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B148" s="16">
         <v>26</v>
@@ -22188,7 +22275,7 @@
     <row r="149" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A149">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B149" s="16">
         <v>26</v>
@@ -22206,7 +22293,7 @@
     <row r="150" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A150">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B150" s="16">
         <v>26</v>
@@ -22224,7 +22311,7 @@
     <row r="151" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A151">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B151" s="16">
         <v>26</v>
@@ -22242,7 +22329,7 @@
     <row r="152" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A152">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B152" s="16">
         <v>26</v>
@@ -22263,7 +22350,7 @@
     <row r="153" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A153">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B153" s="16">
         <v>26</v>
@@ -22299,7 +22386,7 @@
     <row r="155" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A155">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B155" s="16">
         <v>26</v>
@@ -22317,7 +22404,7 @@
     <row r="156" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A156">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B156" s="16">
         <v>26</v>
@@ -22335,7 +22422,7 @@
     <row r="157" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A157">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B157" s="16">
         <v>26</v>
@@ -22353,7 +22440,7 @@
     <row r="158" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A158">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B158" s="16">
         <v>26</v>
@@ -22374,7 +22461,7 @@
     <row r="159" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A159">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B159" s="16">
         <v>26</v>
@@ -22392,7 +22479,7 @@
     <row r="160" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A160">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B160" s="16">
         <v>27</v>
@@ -22410,7 +22497,7 @@
     <row r="161" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A161">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B161" s="16">
         <v>27</v>
@@ -22428,7 +22515,7 @@
     <row r="162" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A162">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B162" s="16">
         <v>27</v>
@@ -22446,7 +22533,7 @@
     <row r="163" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A163">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B163" s="16">
         <v>27</v>
@@ -22464,7 +22551,7 @@
     <row r="164" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A164">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B164" s="16">
         <v>27</v>
@@ -22482,7 +22569,7 @@
     <row r="165" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A165">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B165" s="16">
         <v>27</v>
@@ -22500,7 +22587,7 @@
     <row r="166" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A166">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B166" s="16">
         <v>27</v>
@@ -22518,7 +22605,7 @@
     <row r="167" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A167">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B167" s="16">
         <v>27</v>
@@ -22536,7 +22623,7 @@
     <row r="168" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A168">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B168" s="16">
         <v>27</v>
@@ -22554,7 +22641,7 @@
     <row r="169" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A169">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B169" s="16">
         <v>27</v>
@@ -22572,7 +22659,7 @@
     <row r="170" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A170">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B170" s="16">
         <v>27</v>
@@ -22590,7 +22677,7 @@
     <row r="171" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A171">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B171" s="16">
         <v>27</v>
@@ -22608,7 +22695,7 @@
     <row r="172" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A172">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B172" s="16">
         <v>27</v>
@@ -22626,7 +22713,7 @@
     <row r="173" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A173">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B173" s="16">
         <v>27</v>
@@ -22644,7 +22731,7 @@
     <row r="174" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A174">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B174" s="16">
         <v>27</v>
@@ -22662,7 +22749,7 @@
     <row r="175" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A175">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B175" s="16">
         <v>27</v>
@@ -22680,7 +22767,7 @@
     <row r="176" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A176">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B176" s="16">
         <v>27</v>
@@ -22698,7 +22785,7 @@
     <row r="177" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A177">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B177" s="16">
         <v>27</v>
@@ -22716,7 +22803,7 @@
     <row r="178" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A178">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B178" s="16">
         <v>27</v>
@@ -22734,7 +22821,7 @@
     <row r="179" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A179">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B179" s="16">
         <v>27</v>
@@ -22752,7 +22839,7 @@
     <row r="180" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A180">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B180" s="16">
         <v>27</v>
@@ -22770,7 +22857,7 @@
     <row r="181" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A181">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B181" s="16">
         <v>27</v>
@@ -22788,7 +22875,7 @@
     <row r="182" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A182">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B182" s="16">
         <v>27</v>
@@ -22806,7 +22893,7 @@
     <row r="183" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A183">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="B183" s="16">
         <v>27</v>
@@ -22824,7 +22911,7 @@
     <row r="184" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A184">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B184" s="16">
         <v>27</v>
@@ -22842,7 +22929,7 @@
     <row r="185" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A185">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B185" s="16">
         <v>27</v>
@@ -22860,7 +22947,7 @@
     <row r="186" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A186">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B186" s="16">
         <v>28</v>
@@ -22878,7 +22965,7 @@
     <row r="187" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A187">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B187" s="16">
         <v>28</v>
@@ -22896,7 +22983,7 @@
     <row r="188" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A188">
         <f t="shared" ref="A188:A251" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B188" s="16">
         <v>28</v>
@@ -22914,7 +23001,7 @@
     <row r="189" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A189">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B189" s="16">
         <v>28</v>
@@ -22932,7 +23019,7 @@
     <row r="190" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A190">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B190" s="16">
         <v>28</v>
@@ -22950,7 +23037,7 @@
     <row r="191" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A191">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B191" s="16">
         <v>28</v>
@@ -22968,7 +23055,7 @@
     <row r="192" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A192">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B192" s="16">
         <v>28</v>
@@ -22986,7 +23073,7 @@
     <row r="193" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A193">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B193" s="16">
         <v>28</v>
@@ -23004,7 +23091,7 @@
     <row r="194" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A194">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B194" s="16">
         <v>28</v>
@@ -23022,7 +23109,7 @@
     <row r="195" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A195">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B195" s="16">
         <v>28</v>
@@ -23040,7 +23127,7 @@
     <row r="196" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A196">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B196" s="16">
         <v>28</v>
@@ -23058,7 +23145,7 @@
     <row r="197" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A197">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B197" s="16">
         <v>28</v>
@@ -23076,7 +23163,7 @@
     <row r="198" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A198">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B198" s="16">
         <v>28</v>
@@ -23094,7 +23181,7 @@
     <row r="199" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A199">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B199" s="16">
         <v>28</v>
@@ -23112,7 +23199,7 @@
     <row r="200" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A200">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B200" s="16">
         <v>28</v>
@@ -23130,7 +23217,7 @@
     <row r="201" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A201">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="B201" s="16">
         <v>28</v>
@@ -23148,7 +23235,7 @@
     <row r="202" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A202">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B202" s="16">
         <v>28</v>
@@ -23166,7 +23253,7 @@
     <row r="203" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A203">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B203" s="16">
         <v>28</v>
@@ -23184,7 +23271,7 @@
     <row r="204" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A204">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B204" s="16">
         <v>28</v>
@@ -23202,7 +23289,7 @@
     <row r="205" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A205">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B205" s="16">
         <v>28</v>
@@ -23220,7 +23307,7 @@
     <row r="206" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A206">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="B206" s="16">
         <v>28</v>
@@ -23238,7 +23325,7 @@
     <row r="207" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A207">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B207" s="16">
         <v>28</v>
@@ -23256,7 +23343,7 @@
     <row r="208" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A208">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B208" s="16">
         <v>28</v>
@@ -23274,7 +23361,7 @@
     <row r="209" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A209">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B209" s="16">
         <v>28</v>
@@ -23292,7 +23379,7 @@
     <row r="210" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A210">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B210" s="16">
         <v>28</v>
@@ -23310,7 +23397,7 @@
     <row r="211" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A211">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B211" s="16">
         <v>28</v>
@@ -23328,7 +23415,7 @@
     <row r="212" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A212">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B212" s="16">
         <v>28</v>
@@ -23346,7 +23433,7 @@
     <row r="213" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A213">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B213" s="16">
         <v>28</v>
@@ -23364,7 +23451,7 @@
     <row r="214" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A214">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B214" s="16">
         <v>28</v>
@@ -23382,7 +23469,7 @@
     <row r="215" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A215">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B215" s="16">
         <v>28</v>
@@ -23400,7 +23487,7 @@
     <row r="216" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A216">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B216" s="16">
         <v>28</v>
@@ -23418,7 +23505,7 @@
     <row r="217" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A217">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B217" s="16">
         <v>28</v>
@@ -23436,7 +23523,7 @@
     <row r="218" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A218">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B218" s="16">
         <v>28</v>
@@ -23454,7 +23541,7 @@
     <row r="219" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A219">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B219" s="16">
         <v>28</v>
@@ -23472,7 +23559,7 @@
     <row r="220" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A220">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B220" s="16">
         <v>28</v>
@@ -23490,7 +23577,7 @@
     <row r="221" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A221">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B221" s="16">
         <v>28</v>
@@ -23508,7 +23595,7 @@
     <row r="222" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A222">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B222" s="16">
         <v>28</v>
@@ -23526,7 +23613,7 @@
     <row r="223" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A223">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B223" s="16">
         <v>28</v>
@@ -23544,7 +23631,7 @@
     <row r="224" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A224">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B224" s="16">
         <v>28</v>
@@ -23562,7 +23649,7 @@
     <row r="225" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A225">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B225" s="16">
         <v>28</v>
@@ -23580,7 +23667,7 @@
     <row r="226" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A226">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B226" s="16">
         <v>28</v>
@@ -23598,7 +23685,7 @@
     <row r="227" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A227">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B227" s="16">
         <v>28</v>
@@ -23616,7 +23703,7 @@
     <row r="228" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A228">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B228" s="16">
         <v>28</v>
@@ -23634,7 +23721,7 @@
     <row r="229" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A229">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B229" s="16">
         <v>28</v>
@@ -23661,7 +23748,7 @@
     <row r="231" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A231">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B231" s="16">
         <v>31</v>
@@ -23679,7 +23766,7 @@
     <row r="232" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A232">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B232" s="16">
         <v>31</v>
@@ -23697,7 +23784,7 @@
     <row r="233" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A233">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B233" s="16">
         <v>31</v>
@@ -23715,7 +23802,7 @@
     <row r="234" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A234">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B234" s="16">
         <v>31</v>
@@ -23733,7 +23820,7 @@
     <row r="235" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A235">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B235" s="16">
         <v>31</v>
@@ -23751,7 +23838,7 @@
     <row r="236" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A236">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B236" s="16">
         <v>31</v>
@@ -23767,7 +23854,7 @@
     <row r="237" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A237">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B237" s="16">
         <v>31</v>
@@ -23785,7 +23872,7 @@
     <row r="238" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A238">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B238" s="16">
         <v>31</v>
@@ -23803,7 +23890,7 @@
     <row r="239" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A239">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B239" s="16">
         <v>31</v>
@@ -23821,7 +23908,7 @@
     <row r="240" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A240">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B240" s="16">
         <v>31</v>
@@ -23839,7 +23926,7 @@
     <row r="241" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A241">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B241" s="16">
         <v>31</v>
@@ -23857,7 +23944,7 @@
     <row r="242" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A242">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B242" s="16">
         <v>31</v>
@@ -23875,7 +23962,7 @@
     <row r="243" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A243">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B243" s="16">
         <v>31</v>
@@ -23893,7 +23980,7 @@
     <row r="244" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A244">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B244" s="16">
         <v>31</v>
@@ -23911,7 +23998,7 @@
     <row r="245" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A245">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B245" s="16">
         <v>30</v>
@@ -23929,7 +24016,7 @@
     <row r="246" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A246">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B246" s="16">
         <v>30</v>
@@ -23947,7 +24034,7 @@
     <row r="247" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A247">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B247" s="16">
         <v>30</v>
@@ -23965,7 +24052,7 @@
     <row r="248" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A248">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B248" s="16">
         <v>30</v>
@@ -23983,7 +24070,7 @@
     <row r="249" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A249">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B249" s="16" t="s">
         <v>1795</v>
@@ -24001,7 +24088,7 @@
     <row r="250" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A250">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B250" s="16" t="s">
         <v>1795</v>
@@ -24017,7 +24104,7 @@
     <row r="251" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A251">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B251" s="16" t="s">
         <v>1795</v>
@@ -24033,7 +24120,7 @@
     <row r="252" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A252">
         <f t="shared" ref="A252:A298" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>1795</v>
@@ -24049,7 +24136,7 @@
     <row r="253" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A253">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B253" s="16" t="s">
         <v>1795</v>
@@ -24065,7 +24152,7 @@
     <row r="254" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A254">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B254" s="16" t="s">
         <v>1795</v>
@@ -24081,7 +24168,7 @@
     <row r="255" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A255">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B255" s="16" t="s">
         <v>1795</v>
@@ -24097,7 +24184,7 @@
     <row r="256" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A256">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B256" s="16" t="s">
         <v>1795</v>
@@ -24113,7 +24200,7 @@
     <row r="257" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A257">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B257" s="16" t="s">
         <v>1795</v>
@@ -24129,7 +24216,7 @@
     <row r="258" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A258">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B258" s="16" t="s">
         <v>1795</v>
@@ -24145,7 +24232,7 @@
     <row r="259" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A259">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B259" s="16" t="s">
         <v>1795</v>
@@ -24161,7 +24248,7 @@
     <row r="260" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A260">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B260" s="16" t="s">
         <v>1795</v>
@@ -24177,7 +24264,7 @@
     <row r="261" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A261">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B261" s="16" t="s">
         <v>1795</v>
@@ -24193,7 +24280,7 @@
     <row r="262" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A262">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B262" s="16" t="s">
         <v>1795</v>
@@ -24209,7 +24296,7 @@
     <row r="263" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A263">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B263" s="16" t="s">
         <v>1795</v>
@@ -24225,7 +24312,7 @@
     <row r="264" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A264">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B264" s="16" t="s">
         <v>1795</v>
@@ -24241,7 +24328,7 @@
     <row r="265" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A265">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="B265" s="16" t="s">
         <v>1795</v>
@@ -24257,7 +24344,7 @@
     <row r="266" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A266">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B266" s="16" t="s">
         <v>1795</v>
@@ -24273,7 +24360,7 @@
     <row r="267" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A267">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B267" s="16">
         <v>33</v>
@@ -24291,7 +24378,7 @@
     <row r="268" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A268">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="B268" s="16">
         <v>33</v>
@@ -24307,7 +24394,7 @@
     <row r="269" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A269">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B269" s="16">
         <v>33</v>
@@ -24323,7 +24410,7 @@
     <row r="270" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A270">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B270" s="16">
         <v>33</v>
@@ -24339,7 +24426,7 @@
     <row r="271" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A271">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B271" s="16">
         <v>33</v>
@@ -24355,7 +24442,7 @@
     <row r="272" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A272">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B272" s="16">
         <v>33</v>
@@ -24371,7 +24458,7 @@
     <row r="273" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A273">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B273" s="16">
         <v>33</v>
@@ -24387,7 +24474,7 @@
     <row r="274" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A274">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B274" s="16">
         <v>33</v>
@@ -24403,7 +24490,7 @@
     <row r="275" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A275">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B275" s="16">
         <v>33</v>
@@ -24419,7 +24506,7 @@
     <row r="276" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A276">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B276" s="16">
         <v>32</v>
@@ -24435,7 +24522,7 @@
     <row r="277" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A277">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B277" s="16">
         <v>32</v>
@@ -24451,7 +24538,7 @@
     <row r="278" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A278">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B278" s="16">
         <v>34</v>
@@ -24470,7 +24557,7 @@
     <row r="279" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A279">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B279" s="16">
         <v>34</v>
@@ -24489,7 +24576,7 @@
     <row r="280" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A280">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B280" s="16">
         <v>34</v>
@@ -24508,7 +24595,7 @@
     <row r="281" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A281">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B281" s="16">
         <v>34</v>
@@ -24529,7 +24616,7 @@
     <row r="282" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A282">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B282" s="16">
         <v>34</v>
@@ -24550,7 +24637,7 @@
     <row r="283" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A283">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B283" s="16">
         <v>34</v>
@@ -24571,7 +24658,7 @@
     <row r="284" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A284">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B284" s="16">
         <v>34</v>
@@ -24592,7 +24679,7 @@
     <row r="285" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A285">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B285" s="16">
         <v>34</v>
@@ -24613,7 +24700,7 @@
     <row r="286" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A286">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B286" s="16">
         <v>35</v>
@@ -24634,7 +24721,7 @@
     <row r="287" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A287">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B287" s="16">
         <v>35</v>
@@ -24655,7 +24742,7 @@
     <row r="288" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A288">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B288" s="16">
         <v>35</v>
@@ -24676,7 +24763,7 @@
     <row r="289" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A289">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B289" s="16">
         <v>35</v>
@@ -24695,7 +24782,7 @@
     <row r="290" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A290">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B290" s="16">
         <v>35</v>
@@ -24716,7 +24803,7 @@
     <row r="291" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A291">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B291" s="16">
         <v>35</v>
@@ -24737,7 +24824,7 @@
     <row r="292" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A292">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B292" s="16">
         <v>35</v>
@@ -24761,7 +24848,7 @@
     <row r="293" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A293">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B293" s="16">
         <v>35</v>
@@ -24782,7 +24869,7 @@
     <row r="294" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A294">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B294" s="16">
         <v>35</v>
@@ -24803,7 +24890,7 @@
     <row r="295" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A295">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B295" s="16">
         <v>35</v>
@@ -24821,7 +24908,7 @@
     <row r="296" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A296">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B296" s="16">
         <v>35</v>
@@ -24848,7 +24935,7 @@
     <row r="297" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A297">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B297" s="16">
         <v>35</v>
@@ -24869,7 +24956,7 @@
     <row r="298" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A298">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B298" s="16">
         <v>35</v>
@@ -25321,7 +25408,7 @@
     <row r="321" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A321">
         <f t="shared" ref="A321:A339" ca="1" si="7">RANDBETWEEN(1,100)</f>
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B321" s="16">
         <v>37</v>
@@ -25340,7 +25427,7 @@
     <row r="322" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A322">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B322" s="16">
         <v>37</v>
@@ -25361,7 +25448,7 @@
     <row r="323" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A323">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B323" s="16">
         <v>37</v>
@@ -25380,7 +25467,7 @@
     <row r="324" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A324">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B324" s="16">
         <v>37</v>
@@ -25401,7 +25488,7 @@
     <row r="325" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A325">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B325" s="16">
         <v>37</v>
@@ -25420,7 +25507,7 @@
     <row r="326" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A326">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B326" s="16">
         <v>37</v>
@@ -25439,7 +25526,7 @@
     <row r="327" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A327">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B327" s="16">
         <v>38</v>
@@ -25460,7 +25547,7 @@
     <row r="328" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A328">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B328" s="16">
         <v>38</v>
@@ -25481,7 +25568,7 @@
     <row r="329" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A329">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B329" s="16">
         <v>38</v>
@@ -25502,7 +25589,7 @@
     <row r="330" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A330">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B330" s="16">
         <v>38</v>
@@ -25520,7 +25607,7 @@
     <row r="331" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A331">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B331" s="16">
         <v>39</v>
@@ -25541,7 +25628,7 @@
     <row r="332" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A332">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B332" s="16">
         <v>40</v>
@@ -25562,7 +25649,7 @@
     <row r="333" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A333">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B333" s="16">
         <v>41</v>
@@ -25583,7 +25670,7 @@
     <row r="334" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A334">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="B334" s="16">
         <v>42</v>
@@ -25601,7 +25688,7 @@
     <row r="335" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A335">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B335" s="16">
         <v>43</v>
@@ -25622,7 +25709,7 @@
     <row r="336" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A336">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B336" s="16">
         <v>44</v>
@@ -25640,7 +25727,7 @@
     <row r="337" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A337">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B337" s="16">
         <v>45</v>
@@ -25661,7 +25748,7 @@
     <row r="338" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A338">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B338" s="16">
         <v>46</v>
@@ -25680,7 +25767,7 @@
     <row r="339" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A339">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B339" s="16">
         <v>47</v>
@@ -25701,7 +25788,7 @@
     <row r="340" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A340">
         <f t="shared" ref="A340:A352" ca="1" si="8">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B340" s="16">
         <v>40</v>
@@ -25722,7 +25809,7 @@
     <row r="341" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A341">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B341" s="16">
         <v>40</v>
@@ -25743,7 +25830,7 @@
     <row r="342" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A342">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B342" s="16">
         <v>40</v>
@@ -25764,7 +25851,7 @@
     <row r="343" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A343">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B343" s="16">
         <v>40</v>
@@ -25785,7 +25872,7 @@
     <row r="344" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A344">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B344" s="16">
         <v>40</v>
@@ -25804,7 +25891,7 @@
     <row r="345" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A345">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B345" s="16">
         <v>40</v>
@@ -25825,7 +25912,7 @@
     <row r="346" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A346">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B346" s="16">
         <v>40</v>
@@ -25844,7 +25931,7 @@
     <row r="347" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A347">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B347" s="16">
         <v>40</v>
@@ -25863,7 +25950,7 @@
     <row r="348" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A348">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B348" s="16">
         <v>40</v>
@@ -25884,7 +25971,7 @@
     <row r="349" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A349">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B349" s="16">
         <v>40</v>
@@ -25905,7 +25992,7 @@
     <row r="350" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A350">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="B350" s="16">
         <v>40</v>
@@ -25926,7 +26013,7 @@
     <row r="351" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A351">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B351" s="16">
         <v>41</v>
@@ -25945,7 +26032,7 @@
     <row r="352" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A352">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B352" s="16">
         <v>41</v>
@@ -25964,7 +26051,7 @@
     <row r="353" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A353">
         <f t="shared" ref="A353:A380" ca="1" si="9">RANDBETWEEN(1,100)</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B353" s="16">
         <v>39</v>
@@ -25983,7 +26070,7 @@
     <row r="354" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A354">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B354" s="16">
         <v>39</v>
@@ -26002,7 +26089,7 @@
     <row r="355" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A355">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B355" s="16">
         <v>39</v>
@@ -26021,7 +26108,7 @@
     <row r="356" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A356">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B356" s="16">
         <v>39</v>
@@ -26040,7 +26127,7 @@
     <row r="357" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A357">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B357" s="16">
         <v>40</v>
@@ -26061,7 +26148,7 @@
     <row r="358" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A358">
         <f t="shared" ca="1" si="9"/>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B358" s="16">
         <v>40</v>
@@ -26082,7 +26169,7 @@
     <row r="359" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A359">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B359" s="16">
         <v>40</v>
@@ -26103,7 +26190,7 @@
     <row r="360" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A360">
         <f t="shared" ca="1" si="9"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B360" s="16">
         <v>37</v>
@@ -26127,7 +26214,7 @@
     <row r="361" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A361">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B361" s="16">
         <v>37</v>
@@ -26149,7 +26236,7 @@
     <row r="362" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A362">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B362" s="16">
         <v>37</v>
@@ -26176,7 +26263,7 @@
     <row r="363" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A363">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B363" s="16">
         <v>37</v>
@@ -26198,7 +26285,7 @@
     <row r="364" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A364">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B364" s="16">
         <v>37</v>
@@ -26222,7 +26309,7 @@
     <row r="365" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A365">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B365" s="16">
         <v>37</v>
@@ -26246,7 +26333,7 @@
     <row r="366" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A366">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B366" s="16">
         <v>37</v>
@@ -26270,7 +26357,7 @@
     <row r="367" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A367">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B367" s="16">
         <v>37</v>
@@ -26294,7 +26381,7 @@
     <row r="368" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A368">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B368" s="16">
         <v>37</v>
@@ -26321,7 +26408,7 @@
     <row r="369" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A369">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B369" s="16">
         <v>37</v>
@@ -26345,7 +26432,7 @@
     <row r="370" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A370">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B370" s="16">
         <v>37</v>
@@ -26369,7 +26456,7 @@
     <row r="371" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A371">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B371" s="16">
         <v>37</v>
@@ -26393,7 +26480,7 @@
     <row r="372" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A372">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B372" s="16">
         <v>37</v>
@@ -26417,7 +26504,7 @@
     <row r="373" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A373">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B373" s="16">
         <v>37</v>
@@ -26439,7 +26526,7 @@
     <row r="374" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A374">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B374" s="16">
         <v>37</v>
@@ -26463,7 +26550,7 @@
     <row r="375" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A375">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B375" s="16">
         <v>37</v>
@@ -26487,7 +26574,7 @@
     <row r="376" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A376">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B376" s="16">
         <v>37</v>
@@ -26511,7 +26598,7 @@
     <row r="377" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A377">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B377" s="16">
         <v>37</v>
@@ -26535,7 +26622,7 @@
     <row r="378" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A378">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B378" s="16">
         <v>37</v>
@@ -26562,7 +26649,7 @@
     <row r="379" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A379">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B379" s="16">
         <v>37</v>
@@ -26584,7 +26671,7 @@
     <row r="380" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A380">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B380" s="16">
         <v>37</v>
@@ -26634,7 +26721,7 @@
     <row r="383" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A383">
         <f t="shared" ref="A383:A446" ca="1" si="10">RANDBETWEEN(1,100)</f>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B383" s="16">
         <v>42</v>
@@ -26653,7 +26740,7 @@
     <row r="384" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A384">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B384" s="16">
         <v>42</v>
@@ -26674,7 +26761,7 @@
     <row r="385" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A385">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B385" s="16">
         <v>42</v>
@@ -26698,7 +26785,7 @@
     <row r="386" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A386">
         <f t="shared" ca="1" si="10"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B386" s="16">
         <v>42</v>
@@ -26717,7 +26804,7 @@
     <row r="387" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A387">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B387" s="16">
         <v>42</v>
@@ -26735,7 +26822,7 @@
     <row r="388" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A388">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B388" s="16">
         <v>42</v>
@@ -26759,7 +26846,7 @@
     <row r="389" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A389">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B389" s="16">
         <v>42</v>
@@ -26780,7 +26867,7 @@
     <row r="390" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A390">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B390" s="16">
         <v>42</v>
@@ -26798,7 +26885,7 @@
     <row r="391" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A391">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B391" s="16">
         <v>42</v>
@@ -26819,7 +26906,7 @@
     <row r="392" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A392">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B392" s="16">
         <v>42</v>
@@ -26835,7 +26922,7 @@
     <row r="393" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A393">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B393" s="16">
         <v>42</v>
@@ -26853,7 +26940,7 @@
     <row r="394" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A394">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B394" s="16">
         <v>42</v>
@@ -26871,7 +26958,7 @@
     <row r="395" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A395">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B395" s="16">
         <v>42</v>
@@ -26889,7 +26976,7 @@
     <row r="396" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A396">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B396" s="16">
         <v>42</v>
@@ -26907,7 +26994,7 @@
     <row r="397" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A397">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B397" s="16">
         <v>42</v>
@@ -26925,7 +27012,7 @@
     <row r="398" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A398">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B398" s="16">
         <v>42</v>
@@ -26943,7 +27030,7 @@
     <row r="399" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A399">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B399" s="16">
         <v>48</v>
@@ -26961,7 +27048,7 @@
     <row r="400" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A400">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B400" s="16">
         <v>48</v>
@@ -26979,7 +27066,7 @@
     <row r="401" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A401" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B401" s="16">
         <v>51</v>
@@ -26997,7 +27084,7 @@
     <row r="402" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A402" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B402" s="16">
         <v>51</v>
@@ -27015,7 +27102,7 @@
     <row r="403" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A403" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B403" s="16">
         <v>51</v>
@@ -27033,7 +27120,7 @@
     <row r="404" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A404" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B404" s="16">
         <v>51</v>
@@ -27051,7 +27138,7 @@
     <row r="405" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A405" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B405" s="16">
         <v>51</v>
@@ -27087,7 +27174,7 @@
     <row r="407" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A407" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B407" s="16">
         <v>51</v>
@@ -27105,7 +27192,7 @@
     <row r="408" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A408" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B408" s="16">
         <v>51</v>
@@ -27123,7 +27210,7 @@
     <row r="409" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A409" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B409" s="16">
         <v>51</v>
@@ -27141,7 +27228,7 @@
     <row r="410" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A410" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B410" s="16">
         <v>51</v>
@@ -27159,7 +27246,7 @@
     <row r="411" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A411" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B411" s="16">
         <v>51</v>
@@ -27177,7 +27264,7 @@
     <row r="412" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A412" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B412" s="16">
         <v>39</v>
@@ -27195,7 +27282,7 @@
     <row r="413" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A413" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B413" s="16">
         <v>51</v>
@@ -27213,7 +27300,7 @@
     <row r="414" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A414" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B414" s="16">
         <v>51</v>
@@ -27231,7 +27318,7 @@
     <row r="415" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A415" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B415" s="16">
         <v>51</v>
@@ -27249,7 +27336,7 @@
     <row r="416" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A416" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B416" s="16">
         <v>51</v>
@@ -27267,7 +27354,7 @@
     <row r="417" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A417" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B417" s="16">
         <v>51</v>
@@ -27285,7 +27372,7 @@
     <row r="418" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A418" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B418" s="16">
         <v>51</v>
@@ -27303,7 +27390,7 @@
     <row r="419" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A419" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B419" s="16">
         <v>51</v>
@@ -27321,7 +27408,7 @@
     <row r="420" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A420" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B420" s="16">
         <v>51</v>
@@ -27339,7 +27426,7 @@
     <row r="421" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A421" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B421" s="16">
         <v>51</v>
@@ -27357,7 +27444,7 @@
     <row r="422" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A422" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B422" s="16">
         <v>51</v>
@@ -27375,7 +27462,7 @@
     <row r="423" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A423" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B423" s="16">
         <v>51</v>
@@ -27393,7 +27480,7 @@
     <row r="424" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A424" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B424" s="16">
         <v>51</v>
@@ -27411,7 +27498,7 @@
     <row r="425" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A425" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B425" s="16">
         <v>51</v>
@@ -27429,7 +27516,7 @@
     <row r="426" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A426" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B426" s="16">
         <v>51</v>
@@ -27447,7 +27534,7 @@
     <row r="427" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A427" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B427" s="16">
         <v>51</v>
@@ -27465,7 +27552,7 @@
     <row r="428" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A428" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B428" s="16">
         <v>51</v>
@@ -27483,7 +27570,7 @@
     <row r="429" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A429" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B429" s="16">
         <v>51</v>
@@ -27501,7 +27588,7 @@
     <row r="430" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A430" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B430" s="16">
         <v>51</v>
@@ -27519,7 +27606,7 @@
     <row r="431" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A431" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B431" s="16">
         <v>51</v>
@@ -27537,7 +27624,7 @@
     <row r="432" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A432" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B432" s="16">
         <v>51</v>
@@ -27555,7 +27642,7 @@
     <row r="433" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A433" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B433" s="16">
         <v>52</v>
@@ -27573,7 +27660,7 @@
     <row r="434" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A434" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B434" s="16">
         <v>52</v>
@@ -27591,7 +27678,7 @@
     <row r="435" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A435" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B435" s="16">
         <v>52</v>
@@ -27609,7 +27696,7 @@
     <row r="436" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A436" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B436" s="16">
         <v>52</v>
@@ -27627,7 +27714,7 @@
     <row r="437" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A437" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B437" s="16">
         <v>52</v>
@@ -27645,7 +27732,7 @@
     <row r="438" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A438" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B438" s="16">
         <v>52</v>
@@ -27663,7 +27750,7 @@
     <row r="439" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A439" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B439" s="16" t="s">
         <v>2405</v>
@@ -27681,7 +27768,7 @@
     <row r="440" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A440" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B440" s="16" t="s">
         <v>2405</v>
@@ -27699,7 +27786,7 @@
     <row r="441" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A441" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B441" s="16" t="s">
         <v>2405</v>
@@ -27718,7 +27805,7 @@
     <row r="442" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A442" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B442" s="16" t="s">
         <v>2405</v>
@@ -27739,7 +27826,7 @@
     <row r="443" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A443" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B443" s="16" t="s">
         <v>2405</v>
@@ -27758,7 +27845,7 @@
     <row r="444" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A444" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B444" s="16" t="s">
         <v>2405</v>
@@ -27777,7 +27864,7 @@
     <row r="445" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A445" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B445" s="16" t="s">
         <v>2405</v>
@@ -27796,7 +27883,7 @@
     <row r="446" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A446" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B446" s="16" t="s">
         <v>2405</v>
@@ -27816,8 +27903,8 @@
     </row>
     <row r="447" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A447" s="46">
-        <f t="shared" ref="A447:A461" ca="1" si="11">RANDBETWEEN(1,100)</f>
-        <v>16</v>
+        <f t="shared" ref="A447:A483" ca="1" si="11">RANDBETWEEN(1,100)</f>
+        <v>54</v>
       </c>
       <c r="B447" s="16" t="s">
         <v>2405</v>
@@ -27831,12 +27918,14 @@
       <c r="E447" s="6" t="s">
         <v>1978</v>
       </c>
-      <c r="F447" s="32"/>
+      <c r="F447" s="32" t="s">
+        <v>2428</v>
+      </c>
     </row>
     <row r="448" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A448" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B448" s="16" t="s">
         <v>2405</v>
@@ -27849,15 +27938,12 @@
       </c>
       <c r="E448" s="6" t="s">
         <v>2068</v>
-      </c>
-      <c r="F448" s="32" t="s">
-        <v>2428</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A449" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B449" s="16" t="s">
         <v>2405</v>
@@ -27876,7 +27962,7 @@
     <row r="450" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A450" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B450" s="16" t="s">
         <v>2405</v>
@@ -27895,7 +27981,7 @@
     <row r="451" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A451" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B451" s="16" t="s">
         <v>2405</v>
@@ -27914,7 +28000,7 @@
     <row r="452" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A452" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B452" s="16" t="s">
         <v>2405</v>
@@ -27933,7 +28019,7 @@
     <row r="453" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A453" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B453" s="16" t="s">
         <v>2405</v>
@@ -27954,7 +28040,7 @@
     <row r="454" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A454" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B454" s="16" t="s">
         <v>2405</v>
@@ -27973,7 +28059,7 @@
     <row r="455" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A455" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B455" s="16" t="s">
         <v>2405</v>
@@ -27994,7 +28080,7 @@
     <row r="456" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A456" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B456" s="16" t="s">
         <v>2405</v>
@@ -28013,7 +28099,7 @@
     <row r="457" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A457" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B457" s="16" t="s">
         <v>2405</v>
@@ -28032,7 +28118,7 @@
     <row r="458" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A458" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B458" s="16" t="s">
         <v>2405</v>
@@ -28051,7 +28137,7 @@
     <row r="459" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A459" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B459" s="16" t="s">
         <v>2405</v>
@@ -28072,7 +28158,7 @@
     <row r="460" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A460" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B460" s="16" t="s">
         <v>2405</v>
@@ -28091,7 +28177,7 @@
     <row r="461" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A461" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B461" s="16" t="s">
         <v>2458</v>
@@ -28108,6 +28194,13 @@
       <c r="F461" s="32"/>
     </row>
     <row r="462" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A462" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="B462" s="16" t="s">
+        <v>2458</v>
+      </c>
       <c r="C462" s="27" t="s">
         <v>1960</v>
       </c>
@@ -28120,6 +28213,13 @@
       <c r="F462" s="32"/>
     </row>
     <row r="463" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A463" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="B463" s="16" t="s">
+        <v>2458</v>
+      </c>
       <c r="C463" s="27" t="s">
         <v>2462</v>
       </c>
@@ -28132,6 +28232,13 @@
       <c r="F463" s="32"/>
     </row>
     <row r="464" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A464" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="B464" s="16" t="s">
+        <v>2458</v>
+      </c>
       <c r="C464" s="27" t="s">
         <v>2464</v>
       </c>
@@ -28145,7 +28252,14 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="465" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="465" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A465" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="B465" s="16" t="s">
+        <v>2458</v>
+      </c>
       <c r="C465" s="27" t="s">
         <v>2467</v>
       </c>
@@ -28157,7 +28271,14 @@
       </c>
       <c r="F465" s="32"/>
     </row>
-    <row r="466" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="466" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A466" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="B466" s="16" t="s">
+        <v>2458</v>
+      </c>
       <c r="C466" s="27" t="s">
         <v>2470</v>
       </c>
@@ -28169,7 +28290,14 @@
       </c>
       <c r="F466" s="32"/>
     </row>
-    <row r="467" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="467" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A467" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="B467" s="16" t="s">
+        <v>2458</v>
+      </c>
       <c r="C467" s="27" t="s">
         <v>2474</v>
       </c>
@@ -28181,7 +28309,14 @@
       </c>
       <c r="F467" s="32"/>
     </row>
-    <row r="468" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="468" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A468" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="B468" s="16" t="s">
+        <v>2458</v>
+      </c>
       <c r="C468" s="27" t="s">
         <v>2163</v>
       </c>
@@ -28195,7 +28330,14 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="469" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="469" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A469" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="B469" s="16" t="s">
+        <v>2458</v>
+      </c>
       <c r="C469" s="27" t="s">
         <v>2480</v>
       </c>
@@ -28207,7 +28349,14 @@
       </c>
       <c r="F469" s="32"/>
     </row>
-    <row r="470" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="470" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A470" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="B470" s="16" t="s">
+        <v>2458</v>
+      </c>
       <c r="C470" s="27" t="s">
         <v>1640</v>
       </c>
@@ -28219,15 +28368,327 @@
       </c>
       <c r="F470" s="32"/>
     </row>
-    <row r="471" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C471" s="27"/>
+    <row r="471" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A471" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="B471" s="16" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C471" s="27" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D471" s="6" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E471" s="6" t="s">
+        <v>2484</v>
+      </c>
       <c r="F471" s="32"/>
     </row>
-    <row r="472" spans="3:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C472" s="27"/>
+    <row r="472" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A472" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="B472" s="16" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C472" s="27" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E472" s="6" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A473" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="B473" s="16" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C473" s="27" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D473" s="6" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E473" s="6" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A474" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="B474" s="16" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C474" s="27" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E474" s="6" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F474" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A475" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="B475" s="16" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C475" s="27" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E475" s="6" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F475" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A476" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="B476" s="16" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C476" s="27" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D476" s="6" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E476" s="6" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F476" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A477" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="B477" s="16" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C477" s="27" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D477" s="6" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E477" s="6" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A478" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="B478" s="16" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C478" s="27" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D478" s="6" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E478" s="6" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A479" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="B479" s="16" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C479" s="27" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D479" s="6" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E479" s="6" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A480" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="B480" s="16" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C480" s="27" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D480" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E480" s="6" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A481" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="B481" s="16" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C481" s="27" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D481" s="6" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E481" s="6" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A482" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>99</v>
+      </c>
+      <c r="B482" s="16" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C482" s="27" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D482" s="6" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E482" s="6" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A483" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="B483" s="16" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C483" s="27" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D483" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E483" s="6" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C484" s="27"/>
+    </row>
+    <row r="485" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C485" s="27"/>
+    </row>
+    <row r="486" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C486" s="27"/>
+    </row>
+    <row r="487" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C487" s="27"/>
+    </row>
+    <row r="488" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C488" s="27"/>
+    </row>
+    <row r="489" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C489" s="27"/>
+    </row>
+    <row r="490" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C490" s="27"/>
+    </row>
+    <row r="491" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C491" s="27"/>
+    </row>
+    <row r="492" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C492" s="27"/>
+    </row>
+    <row r="493" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C493" s="27"/>
+    </row>
+    <row r="494" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C494" s="27"/>
+    </row>
+    <row r="495" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C495" s="27"/>
+    </row>
+    <row r="496" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C496" s="27"/>
+    </row>
+    <row r="497" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C497" s="27"/>
+    </row>
+    <row r="498" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C498" s="27"/>
+    </row>
+    <row r="499" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C499" s="27"/>
+    </row>
+    <row r="500" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C500" s="27"/>
+    </row>
+    <row r="501" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C501" s="27"/>
+    </row>
+    <row r="502" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C502" s="27"/>
+    </row>
+    <row r="503" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C503" s="27"/>
+    </row>
+    <row r="504" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C504" s="27"/>
+    </row>
+    <row r="505" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C505" s="27"/>
+    </row>
+    <row r="506" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C506" s="27"/>
+    </row>
+    <row r="507" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C507" s="27"/>
+    </row>
+    <row r="508" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C508" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E448"/>
+  <autoFilter ref="A1:E476"/>
   <sortState ref="A126:J159">
     <sortCondition ref="A126:A159"/>
   </sortState>

--- a/Mainichi_Renshuu.xlsx
+++ b/Mainichi_Renshuu.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="2511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="2535">
   <si>
     <t>様</t>
   </si>
@@ -7687,6 +7687,78 @@
   </si>
   <si>
     <t>考えます</t>
+  </si>
+  <si>
+    <t>めしあがる</t>
+  </si>
+  <si>
+    <t>召し上がる</t>
+  </si>
+  <si>
+    <t>ăn</t>
+  </si>
+  <si>
+    <t>空いている</t>
+  </si>
+  <si>
+    <t>すいている</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trống, vắng</t>
+  </si>
+  <si>
+    <t>すいている　電車　が　会いました</t>
+  </si>
+  <si>
+    <t>つもり</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quyết tâm</t>
+  </si>
+  <si>
+    <t>おどろく</t>
+  </si>
+  <si>
+    <t>hài lòng</t>
+  </si>
+  <si>
+    <t>よろこぶ</t>
+  </si>
+  <si>
+    <t>たずねて</t>
+  </si>
+  <si>
+    <t>hỏi</t>
+  </si>
+  <si>
+    <t>とどけて</t>
+  </si>
+  <si>
+    <t>giao hàng</t>
+  </si>
+  <si>
+    <t>Đề 8</t>
+  </si>
+  <si>
+    <t>Đề 9</t>
+  </si>
+  <si>
+    <t>Đề 10</t>
+  </si>
+  <si>
+    <t>Đề 11</t>
+  </si>
+  <si>
+    <t>Đề 12</t>
+  </si>
+  <si>
+    <t>Đề 13</t>
+  </si>
+  <si>
+    <t>Đề 14</t>
+  </si>
+  <si>
+    <t>Đề 15</t>
   </si>
 </sst>
 </file>
@@ -8399,12 +8471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="D1:O222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="D1:O222"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="92.25" x14ac:dyDescent="1.35"/>
@@ -8442,7 +8513,7 @@
     <row r="2" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D2">
         <f t="shared" ref="D2:D31" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>87</v>
@@ -8460,7 +8531,7 @@
     <row r="3" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>58</v>
@@ -8478,7 +8549,7 @@
     <row r="4" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -8499,7 +8570,7 @@
     <row r="5" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>31</v>
@@ -8517,7 +8588,7 @@
     <row r="6" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
@@ -8538,7 +8609,7 @@
     <row r="7" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2">
         <v>136</v>
@@ -8553,7 +8624,7 @@
     <row r="8" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2">
         <v>47</v>
@@ -8568,10 +8639,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="9" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>127</v>
@@ -8586,10 +8657,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="10" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2">
         <v>115</v>
@@ -8607,10 +8678,10 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="11" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2">
         <v>126</v>
@@ -8625,10 +8696,10 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="12" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="12" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -8643,10 +8714,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="13" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <v>94</v>
@@ -8658,10 +8729,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="14" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -8676,10 +8747,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="15" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2">
         <v>122</v>
@@ -8694,10 +8765,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="16" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2">
         <v>117</v>
@@ -8718,10 +8789,10 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="17" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2">
         <v>63</v>
@@ -8742,10 +8813,10 @@
         <v>788</v>
       </c>
     </row>
-    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="18" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
@@ -8760,10 +8831,10 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="19" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>116</v>
@@ -8779,10 +8850,10 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="20" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2">
         <v>96</v>
@@ -8800,10 +8871,10 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="21" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -8818,10 +8889,10 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="22" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -8839,10 +8910,10 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="23" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2">
         <v>71</v>
@@ -8860,10 +8931,10 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="24" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -8881,10 +8952,10 @@
         <v>766</v>
       </c>
     </row>
-    <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="25" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -8902,10 +8973,10 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="26" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2">
         <v>50</v>
@@ -8920,10 +8991,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="27" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2">
         <v>114</v>
@@ -8938,10 +9009,10 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="28" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="28" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2">
         <v>140</v>
@@ -8962,10 +9033,10 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="29" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2">
         <v>146</v>
@@ -8986,10 +9057,10 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="30" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2">
         <v>66</v>
@@ -9007,10 +9078,10 @@
         <v>942</v>
       </c>
     </row>
-    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="31" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2">
         <v>9</v>
@@ -9028,10 +9099,10 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="32" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D32">
         <f t="shared" ref="D32:D61" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2">
         <v>86</v>
@@ -9049,10 +9120,10 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="33" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="33" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2">
         <v>7</v>
@@ -9067,10 +9138,10 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="34" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="34" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2">
         <v>92</v>
@@ -9085,10 +9156,10 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="35" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="35" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2">
         <v>3</v>
@@ -9106,10 +9177,10 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="36" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="36" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2">
         <v>134</v>
@@ -9124,10 +9195,10 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="37" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="37" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2">
         <v>6</v>
@@ -9142,10 +9213,10 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="38" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="38" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2">
         <v>129</v>
@@ -9160,10 +9231,10 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="39" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="39" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2">
         <v>61</v>
@@ -9181,10 +9252,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="40" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="40" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2">
         <v>42</v>
@@ -9202,10 +9273,10 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="41" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="41" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2">
         <v>55</v>
@@ -9220,10 +9291,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="42" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2">
         <v>53</v>
@@ -9241,10 +9312,10 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="43" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="43" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2">
         <v>149</v>
@@ -9262,10 +9333,10 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="44" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="44" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2">
         <v>70</v>
@@ -9280,10 +9351,10 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="45" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="45" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E45" s="2">
         <v>144</v>
@@ -9301,10 +9372,10 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="46" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E46" s="2">
         <v>118</v>
@@ -9329,10 +9400,10 @@
       </c>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="47" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E47" s="2">
         <v>73</v>
@@ -9347,10 +9418,10 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="48" spans="4:15" hidden="1" x14ac:dyDescent="1.35">
+    <row r="48" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E48" s="2">
         <v>109</v>
@@ -9362,10 +9433,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="49" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2">
         <v>83</v>
@@ -9383,10 +9454,10 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="50" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2">
         <v>107</v>
@@ -9398,10 +9469,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="51" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2">
         <v>25</v>
@@ -9419,10 +9490,10 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="52" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E52" s="2">
         <v>108</v>
@@ -9446,10 +9517,10 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="53" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E53" s="2">
         <v>113</v>
@@ -9464,10 +9535,10 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="54" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2">
         <v>89</v>
@@ -9491,10 +9562,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="55" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2">
         <v>130</v>
@@ -9509,10 +9580,10 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="56" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E56" s="2">
         <v>72</v>
@@ -9530,10 +9601,10 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="57" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2">
         <v>77</v>
@@ -9548,10 +9619,10 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="58" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="58" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E58" s="2">
         <v>57</v>
@@ -9572,10 +9643,10 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="59" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E59" s="2">
         <v>45</v>
@@ -9590,10 +9661,10 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="60" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2">
         <v>128</v>
@@ -9611,10 +9682,10 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="61" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E61" s="2">
         <v>8</v>
@@ -9632,10 +9703,10 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="62" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D62">
         <f t="shared" ref="D62:D93" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2">
         <v>135</v>
@@ -9650,10 +9721,10 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="63" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2">
         <v>56</v>
@@ -9671,10 +9742,10 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="64" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2">
         <v>82</v>
@@ -9689,10 +9760,10 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="65" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="65" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E65" s="2">
         <v>112</v>
@@ -9707,10 +9778,10 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="66" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="66" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2">
         <v>121</v>
@@ -9728,10 +9799,10 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="67" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="67" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="E67" s="2">
         <v>30</v>
@@ -9746,10 +9817,10 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="68" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="68" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E68" s="2">
         <v>106</v>
@@ -9767,10 +9838,10 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="69" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="69" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E69" s="2">
         <v>64</v>
@@ -9788,10 +9859,10 @@
         <v>945</v>
       </c>
     </row>
-    <row r="70" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="70" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E70" s="2">
         <v>147</v>
@@ -9809,10 +9880,10 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="71" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="71" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E71" s="2">
         <v>44</v>
@@ -9828,10 +9899,10 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="72" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="72" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2">
         <v>148</v>
@@ -9849,10 +9920,10 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="73" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="73" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E73" s="2">
         <v>59</v>
@@ -9867,10 +9938,10 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="74" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="74" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E74" s="2">
         <v>132</v>
@@ -9885,10 +9956,10 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="75" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="75" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E75" s="2">
         <v>12</v>
@@ -9903,10 +9974,10 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="76" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="76" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E76" s="2">
         <v>26</v>
@@ -9924,10 +9995,10 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="77" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="77" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E77" s="2">
         <v>43</v>
@@ -9945,10 +10016,10 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="78" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="78" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E78" s="2">
         <v>103</v>
@@ -9966,10 +10037,10 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="79" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="79" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E79" s="2">
         <v>99</v>
@@ -9984,10 +10055,10 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="80" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="80" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E80" s="2">
         <v>141</v>
@@ -10005,10 +10076,10 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="81" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2">
         <v>37</v>
@@ -10026,10 +10097,10 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="82" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="E82" s="2">
         <v>4</v>
@@ -10047,10 +10118,10 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="83" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E83" s="2">
         <v>119</v>
@@ -10068,10 +10139,10 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="84" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="E84" s="2">
         <v>143</v>
@@ -10089,10 +10160,10 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="85" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E85" s="2">
         <v>32</v>
@@ -10107,10 +10178,10 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="86" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="86" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E86" s="2">
         <v>97</v>
@@ -10125,10 +10196,10 @@
         <v>792</v>
       </c>
     </row>
-    <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="87" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E87" s="2">
         <v>120</v>
@@ -10146,10 +10217,10 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="88" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E88" s="2">
         <v>24</v>
@@ -10165,10 +10236,10 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="89" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E89" s="2">
         <v>110</v>
@@ -10183,10 +10254,10 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="90" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="E90" s="2">
         <v>51</v>
@@ -10204,10 +10275,10 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="91" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E91" s="2">
         <v>18</v>
@@ -10225,10 +10296,10 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="92" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E92" s="2">
         <v>69</v>
@@ -10246,10 +10317,10 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="93" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2">
         <v>15</v>
@@ -10261,10 +10332,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="94" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D94">
         <f t="shared" ref="D94:D125" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E94" s="2">
         <v>142</v>
@@ -10285,10 +10356,10 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="95" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2">
         <v>78</v>
@@ -10303,10 +10374,10 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="96" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2">
         <v>2</v>
@@ -10324,10 +10395,10 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="97" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="97" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D97">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E97" s="2">
         <v>100</v>
@@ -10342,10 +10413,10 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="98" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="98" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2">
         <v>95</v>
@@ -10357,10 +10428,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="99" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E99" s="2">
         <v>80</v>
@@ -10375,10 +10446,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="100" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -10393,10 +10464,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="101" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E101" s="2">
         <v>67</v>
@@ -10408,10 +10479,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="102" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E102" s="2">
         <v>75</v>
@@ -10426,10 +10497,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="103" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E103" s="2">
         <v>76</v>
@@ -10442,10 +10513,10 @@
       </c>
       <c r="H103"/>
     </row>
-    <row r="104" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="104" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E104" s="2">
         <v>133</v>
@@ -10460,10 +10531,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="105" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="E105" s="2">
         <v>27</v>
@@ -10478,10 +10549,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="106" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E106" s="2">
         <v>28</v>
@@ -10493,10 +10564,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="107" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E107" s="2">
         <v>34</v>
@@ -10511,10 +10582,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="108" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E108" s="2">
         <v>93</v>
@@ -10529,10 +10600,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="109" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="109" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E109" s="2">
         <v>52</v>
@@ -10547,10 +10618,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="110" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E110" s="2">
         <v>131</v>
@@ -10568,10 +10639,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="111" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="111" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2">
         <v>65</v>
@@ -10586,10 +10657,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="112" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E112" s="2">
         <v>74</v>
@@ -10604,10 +10675,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="113" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="113" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E113" s="2">
         <v>49</v>
@@ -10622,10 +10693,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="114" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E114" s="2">
         <v>41</v>
@@ -10637,10 +10708,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="115" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E115" s="2">
         <v>111</v>
@@ -10655,10 +10726,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="116" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E116" s="2">
         <v>90</v>
@@ -10673,10 +10744,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="117" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="E117" s="2">
         <v>137</v>
@@ -10691,10 +10762,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="118" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E118" s="2">
         <v>20</v>
@@ -10706,10 +10777,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="119" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E119" s="2">
         <v>124</v>
@@ -10724,10 +10795,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="120" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="120" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E120" s="2">
         <v>138</v>
@@ -10742,10 +10813,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="121" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E121" s="2">
         <v>36</v>
@@ -10757,7 +10828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="122" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
@@ -10773,10 +10844,10 @@
       </c>
       <c r="H122"/>
     </row>
-    <row r="123" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="123" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="E123" s="2">
         <v>22</v>
@@ -10791,10 +10862,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="124" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E124" s="2">
         <v>33</v>
@@ -10809,10 +10880,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="125" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E125" s="2">
         <v>125</v>
@@ -10827,10 +10898,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="126" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D126">
         <f t="shared" ref="D126:D157" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E126" s="2">
         <v>54</v>
@@ -10845,10 +10916,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="127" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D127">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E127" s="2">
         <v>11</v>
@@ -10866,10 +10937,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="4:10" hidden="1" x14ac:dyDescent="1.35">
+    <row r="128" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D128">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E128" s="2">
         <v>79</v>
@@ -10884,10 +10955,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="129" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D129">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E129" s="2">
         <v>10</v>
@@ -10902,10 +10973,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="130" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D130">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="E130" s="2">
         <v>17</v>
@@ -10917,10 +10988,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="131" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D131">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E131" s="2">
         <v>88</v>
@@ -10935,10 +11006,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="132" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="132" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E132" s="2">
         <v>98</v>
@@ -10953,10 +11024,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="133" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E133" s="2">
         <v>62</v>
@@ -10971,10 +11042,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="134" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E134" s="2">
         <v>19</v>
@@ -10989,10 +11060,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="135" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D135">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E135" s="2">
         <v>81</v>
@@ -11010,10 +11081,10 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="136" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="136" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E136" s="2">
         <v>23</v>
@@ -11028,10 +11099,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="137" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="137" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E137" s="2">
         <v>101</v>
@@ -11043,10 +11114,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="138" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E138" s="2">
         <v>84</v>
@@ -11058,10 +11129,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="139" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="139" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E139" s="2">
         <v>123</v>
@@ -11073,10 +11144,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="140" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E140" s="2">
         <v>48</v>
@@ -11091,10 +11162,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="141" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="141" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E141" s="2">
         <v>38</v>
@@ -11109,10 +11180,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="142" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E142" s="2">
         <v>102</v>
@@ -11130,10 +11201,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="143" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E143" s="2">
         <v>139</v>
@@ -11151,10 +11222,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="144" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="144" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F144" s="2">
         <v>17</v>
@@ -11169,10 +11240,10 @@
         <v>261</v>
       </c>
     </row>
-    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="145" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F145" s="2">
         <v>17</v>
@@ -11187,10 +11258,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="146" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F146" s="2">
         <v>17</v>
@@ -11205,10 +11276,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="147" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F147" s="2">
         <v>17</v>
@@ -11220,10 +11291,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="148" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2">
         <v>17</v>
@@ -11241,10 +11312,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="149" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="F149" s="2">
         <v>17</v>
@@ -11262,10 +11333,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="150" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F150" s="2">
         <v>17</v>
@@ -11280,10 +11351,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="151" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F151" s="2">
         <v>17</v>
@@ -11298,10 +11369,10 @@
         <v>960</v>
       </c>
     </row>
-    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="152" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F152" s="2">
         <v>17</v>
@@ -11310,10 +11381,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="153" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2">
         <v>17</v>
@@ -11328,10 +11399,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="154" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F154" s="2">
         <v>17</v>
@@ -11346,7 +11417,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="155" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="155" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
         <v>32</v>
@@ -11367,10 +11438,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="156" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="156" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="F156" s="2">
         <v>17</v>
@@ -11388,10 +11459,10 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="157" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F157" s="2">
         <v>17</v>
@@ -11409,10 +11480,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="158" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="158" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D158">
         <f t="shared" ref="D158:D177" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <v>10</v>
@@ -11433,10 +11504,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="159" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="159" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D159">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E159">
         <v>17</v>
@@ -11457,10 +11528,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="160" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D160">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E160">
         <v>2</v>
@@ -11478,10 +11549,10 @@
         <v>311</v>
       </c>
     </row>
-    <row r="161" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="161" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D161">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E161">
         <v>3</v>
@@ -11499,10 +11570,10 @@
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="162" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D162">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E162">
         <v>12</v>
@@ -11523,10 +11594,10 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="163" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D163">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E163">
         <v>18</v>
@@ -11550,10 +11621,10 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="164" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="164" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E164">
         <v>6</v>
@@ -11571,10 +11642,10 @@
         <v>317</v>
       </c>
     </row>
-    <row r="165" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="165" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E165">
         <v>13</v>
@@ -11595,10 +11666,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="166" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="166" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E166">
         <v>7</v>
@@ -11619,10 +11690,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="167" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="167" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E167">
         <v>8</v>
@@ -11643,10 +11714,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="168" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="168" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E168">
         <v>14</v>
@@ -11667,10 +11738,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="169" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="169" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="E169">
         <v>19</v>
@@ -11691,10 +11762,10 @@
         <v>308</v>
       </c>
     </row>
-    <row r="170" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="170" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E170">
         <v>20</v>
@@ -11712,10 +11783,10 @@
         <v>340</v>
       </c>
     </row>
-    <row r="171" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="171" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -11733,10 +11804,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="172" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="172" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -11748,10 +11819,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="173" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="173" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E173">
         <v>11</v>
@@ -11772,10 +11843,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="174" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="174" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E174">
         <v>15</v>
@@ -11796,10 +11867,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="175" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="175" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E175">
         <v>4</v>
@@ -11814,10 +11885,10 @@
         <v>315</v>
       </c>
     </row>
-    <row r="176" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="176" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E176">
         <v>16</v>
@@ -11835,10 +11906,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="177" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="177" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E177">
         <v>9</v>
@@ -11859,10 +11930,10 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="178" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="178" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D178">
         <f t="shared" ref="D178:D214" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E178">
         <v>13</v>
@@ -11880,10 +11951,10 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="179" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="179" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D179">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E179">
         <v>4</v>
@@ -11904,10 +11975,10 @@
         <v>348</v>
       </c>
     </row>
-    <row r="180" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="180" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D180">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E180">
         <v>5</v>
@@ -11928,10 +11999,10 @@
         <v>563</v>
       </c>
     </row>
-    <row r="181" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="181" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D181">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F181" s="2">
         <v>19</v>
@@ -11949,10 +12020,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="182" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="182" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D182">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="E182">
         <v>18</v>
@@ -11976,10 +12047,10 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="183" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="183" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D183">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="E183">
         <v>14</v>
@@ -12000,10 +12071,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="184" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="184" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E184">
         <v>24</v>
@@ -12027,10 +12098,10 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="185" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="185" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E185">
         <v>23</v>
@@ -12054,10 +12125,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="186" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="186" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E186">
         <v>17</v>
@@ -12075,10 +12146,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="187" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E187">
         <v>22</v>
@@ -12096,10 +12167,10 @@
         <v>390</v>
       </c>
     </row>
-    <row r="188" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="188" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E188">
         <v>9</v>
@@ -12120,10 +12191,10 @@
         <v>353</v>
       </c>
     </row>
-    <row r="189" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="189" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E189">
         <v>19</v>
@@ -12144,10 +12215,10 @@
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="190" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D190">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E190">
         <v>8</v>
@@ -12165,10 +12236,10 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="191" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="191" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D191">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -12189,10 +12260,10 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="192" spans="4:12" hidden="1" x14ac:dyDescent="1.35">
+    <row r="192" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D192">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E192">
         <v>20</v>
@@ -12216,10 +12287,10 @@
         <v>747</v>
       </c>
     </row>
-    <row r="193" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="193" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D193">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E193">
         <v>7</v>
@@ -12234,10 +12305,10 @@
         <v>356</v>
       </c>
     </row>
-    <row r="194" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="194" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D194">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E194">
         <v>11</v>
@@ -12252,10 +12323,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="195" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="195" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D195">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E195">
         <v>16</v>
@@ -12276,10 +12347,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="196" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="196" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D196">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E196">
         <v>6</v>
@@ -12297,10 +12368,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="197" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="197" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F197" s="2">
         <v>19</v>
@@ -12315,10 +12386,10 @@
         <v>417</v>
       </c>
     </row>
-    <row r="198" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="198" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E198">
         <v>10</v>
@@ -12333,10 +12404,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="199" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="199" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E199">
         <v>21</v>
@@ -12357,10 +12428,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="200" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="200" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -12378,10 +12449,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="201" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="201" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E201">
         <v>3</v>
@@ -12402,10 +12473,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="202" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="202" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E202">
         <v>15</v>
@@ -12426,10 +12497,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="203" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="203" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E203">
         <v>9</v>
@@ -12450,10 +12521,10 @@
         <v>442</v>
       </c>
     </row>
-    <row r="204" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="204" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -12471,10 +12542,10 @@
         <v>427</v>
       </c>
     </row>
-    <row r="205" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="205" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E205">
         <v>5</v>
@@ -12492,10 +12563,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="206" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="206" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E206">
         <v>8</v>
@@ -12516,10 +12587,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="207" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="207" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -12537,10 +12608,10 @@
         <v>421</v>
       </c>
     </row>
-    <row r="208" spans="4:11" hidden="1" x14ac:dyDescent="1.35">
+    <row r="208" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E208">
         <v>10</v>
@@ -12558,10 +12629,10 @@
         <v>445</v>
       </c>
     </row>
-    <row r="209" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="209" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E209">
         <v>11</v>
@@ -12579,10 +12650,10 @@
         <v>448</v>
       </c>
     </row>
-    <row r="210" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="210" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E210">
         <v>7</v>
@@ -12600,10 +12671,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="211" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="211" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -12621,10 +12692,10 @@
         <v>427</v>
       </c>
     </row>
-    <row r="212" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="212" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E212">
         <v>2</v>
@@ -12642,10 +12713,10 @@
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="213" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -12663,10 +12734,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="214" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="214" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F214" s="2">
         <v>20</v>
@@ -12681,7 +12752,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="215" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="215" spans="4:13" x14ac:dyDescent="1.35">
       <c r="F215" s="2">
         <v>18</v>
       </c>
@@ -12698,7 +12769,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="216" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="216" spans="4:13" x14ac:dyDescent="1.35">
       <c r="F216" s="2">
         <v>18</v>
       </c>
@@ -12718,7 +12789,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="217" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="217" spans="4:13" x14ac:dyDescent="1.35">
       <c r="F217" s="2">
         <v>18</v>
       </c>
@@ -12735,7 +12806,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="218" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="218" spans="4:13" x14ac:dyDescent="1.35">
       <c r="F218" s="2">
         <v>18</v>
       </c>
@@ -12789,10 +12860,10 @@
         <v>477</v>
       </c>
     </row>
-    <row r="221" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="221" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D221">
         <f t="shared" ref="D221:D222" ca="1" si="7">RANDBETWEEN(0,100)</f>
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F221" s="2">
         <v>12</v>
@@ -12810,10 +12881,10 @@
         <v>570</v>
       </c>
     </row>
-    <row r="222" spans="4:13" hidden="1" x14ac:dyDescent="1.35">
+    <row r="222" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D222">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F222" s="2">
         <v>12</v>
@@ -12832,14 +12903,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:K222">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="10"/>
-        <filter val="11"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:K222"/>
   <sortState ref="D183:K208">
     <sortCondition ref="D183:D208"/>
   </sortState>
@@ -12850,12 +12914,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D158" sqref="A1:J210"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12895,10 +12958,10 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="2" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7">
         <v>13</v>
@@ -12916,10 +12979,10 @@
         <v>612</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="3" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>807</v>
@@ -12937,10 +13000,10 @@
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="4" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>657</v>
@@ -12958,10 +13021,10 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="5" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7">
         <v>17</v>
@@ -12982,10 +13045,10 @@
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="6" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7">
         <v>12</v>
@@ -13003,10 +13066,10 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="7" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A7">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7">
         <v>13</v>
@@ -13024,10 +13087,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="8" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A8">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>807</v>
@@ -13051,10 +13114,10 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="9" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A9">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -13069,10 +13132,10 @@
         <v>566</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="10" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A10">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7">
         <v>14</v>
@@ -13093,10 +13156,10 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="11" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A11">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>856</v>
@@ -13114,10 +13177,10 @@
         <v>859</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="12" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A12">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>962</v>
@@ -13138,10 +13201,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="13" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A13">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -13159,10 +13222,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="14" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A14">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>807</v>
@@ -13183,10 +13246,10 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="15" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A15">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -13201,10 +13264,10 @@
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="16" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A16">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B16" s="7">
         <v>13</v>
@@ -13222,10 +13285,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="17" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A17">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B17" s="7">
         <v>11</v>
@@ -13243,10 +13306,10 @@
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="18" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A18">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -13264,7 +13327,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="19" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A19">
         <v>14</v>
       </c>
@@ -13284,10 +13347,10 @@
         <v>669</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="20" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A20">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7">
         <v>13</v>
@@ -13305,10 +13368,10 @@
         <v>607</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="21" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A21">
         <f t="shared" ref="A21:A26" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>807</v>
@@ -13326,10 +13389,10 @@
         <v>675</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="22" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>856</v>
@@ -13347,10 +13410,10 @@
         <v>870</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="23" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>962</v>
@@ -13371,10 +13434,10 @@
         <v>940</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="24" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>962</v>
@@ -13392,10 +13455,10 @@
         <v>824</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="25" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>657</v>
@@ -13413,10 +13476,10 @@
         <v>681</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="26" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>807</v>
@@ -13434,7 +13497,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="27" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A27">
         <v>17</v>
       </c>
@@ -13454,10 +13517,10 @@
         <v>722</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="28" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A28">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B28" s="7">
         <v>13</v>
@@ -13475,10 +13538,10 @@
         <v>624</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="29" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A29">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>657</v>
@@ -13496,10 +13559,10 @@
         <v>684</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="30" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A30">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>962</v>
@@ -13517,10 +13580,10 @@
         <v>970</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="31" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A31">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" s="7">
         <v>12</v>
@@ -13541,10 +13604,10 @@
         <v>556</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="32" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A32">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>657</v>
@@ -13562,10 +13625,10 @@
         <v>701</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="33" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A33">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>856</v>
@@ -13583,10 +13646,10 @@
         <v>889</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="34" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A34">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>807</v>
@@ -13604,10 +13667,10 @@
         <v>849</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="35" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A35">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B35" s="7">
         <v>12</v>
@@ -13619,10 +13682,10 @@
         <v>518</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="36" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A36">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>807</v>
@@ -13640,10 +13703,10 @@
         <v>663</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="37" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A37">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>657</v>
@@ -13661,10 +13724,10 @@
         <v>672</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="38" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A38">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B38" s="7">
         <v>12</v>
@@ -13682,10 +13745,10 @@
         <v>530</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="39" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A39">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>657</v>
@@ -13703,7 +13766,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="40" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A40">
         <v>32</v>
       </c>
@@ -13723,10 +13786,10 @@
         <v>672</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="41" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A41">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B41" s="7">
         <v>12</v>
@@ -13738,10 +13801,10 @@
         <v>537</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="42" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A42">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B42" s="7">
         <v>13</v>
@@ -13759,10 +13822,10 @@
         <v>621</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="43" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A43">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>856</v>
@@ -13780,10 +13843,10 @@
         <v>740</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="44" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A44">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B44" s="7">
         <v>11</v>
@@ -13801,10 +13864,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="45" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A45">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>962</v>
@@ -13822,10 +13885,10 @@
         <v>715</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="46" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A46">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>657</v>
@@ -13843,10 +13906,10 @@
         <v>678</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="47" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A47">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B47" s="7">
         <v>12</v>
@@ -13864,10 +13927,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="48" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A48">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>962</v>
@@ -13888,10 +13951,10 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="49" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A49">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>962</v>
@@ -13909,10 +13972,10 @@
         <v>715</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="50" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A50">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B50" s="7">
         <v>12</v>
@@ -13927,10 +13990,10 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="51" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A51">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B51" s="7">
         <v>12</v>
@@ -13948,10 +14011,10 @@
         <v>546</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="52" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A52">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>807</v>
@@ -13969,10 +14032,10 @@
         <v>812</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="53" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A53">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B53" s="7">
         <v>14</v>
@@ -13990,7 +14053,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="54" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A54">
         <v>42</v>
       </c>
@@ -14010,7 +14073,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="55" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A55">
         <v>42</v>
       </c>
@@ -14030,7 +14093,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="56" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A56">
         <v>42</v>
       </c>
@@ -14050,10 +14113,10 @@
         <v>760</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="57" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A57">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B57" s="7">
         <v>12</v>
@@ -14071,10 +14134,10 @@
         <v>512</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="58" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A58">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>807</v>
@@ -14092,10 +14155,10 @@
         <v>675</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="59" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A59">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B59" s="7">
         <v>14</v>
@@ -14113,10 +14176,10 @@
         <v>646</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="60" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A60">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B60" s="7">
         <v>12</v>
@@ -14134,10 +14197,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="61" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A61">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>807</v>
@@ -14158,10 +14221,10 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="62" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A62">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B62" s="7">
         <v>11</v>
@@ -14179,10 +14242,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="63" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A63">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>856</v>
@@ -14200,7 +14263,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="64" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A64">
         <v>47</v>
       </c>
@@ -14220,10 +14283,10 @@
         <v>725</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="65" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A65">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>856</v>
@@ -14241,10 +14304,10 @@
         <v>884</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="66" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A66">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B66" s="7">
         <v>11</v>
@@ -14262,10 +14325,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="67" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A67">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B67" s="7">
         <v>14</v>
@@ -14283,10 +14346,10 @@
         <v>546</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="68" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A68">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B68" s="7">
         <v>14</v>
@@ -14304,10 +14367,10 @@
         <v>512</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="69" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A69">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>856</v>
@@ -14325,10 +14388,10 @@
         <v>846</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="70" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A70">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>807</v>
@@ -14346,10 +14409,10 @@
         <v>824</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="71" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A71">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>856</v>
@@ -14370,10 +14433,10 @@
         <v>958</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="72" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A72">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B72" s="7">
         <v>12</v>
@@ -14388,10 +14451,10 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="73" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A73">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>807</v>
@@ -14409,10 +14472,10 @@
         <v>814</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="74" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A74">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B74" s="7">
         <v>13</v>
@@ -14430,10 +14493,10 @@
         <v>609</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="75" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A75">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B75" s="7">
         <v>13</v>
@@ -14451,10 +14514,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="76" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A76">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>807</v>
@@ -14472,10 +14535,10 @@
         <v>855</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="77" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A77">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>657</v>
@@ -14496,10 +14559,10 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="78" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A78">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>657</v>
@@ -14520,10 +14583,10 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="79" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A79">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B79" s="7">
         <v>13</v>
@@ -14541,10 +14604,10 @@
         <v>616</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="80" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A80">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B80" s="7">
         <v>13</v>
@@ -14562,10 +14625,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="81" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A81">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B81" s="7">
         <v>13</v>
@@ -14583,10 +14646,10 @@
         <v>615</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="82" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A82">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>962</v>
@@ -14604,10 +14667,10 @@
         <v>859</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="83" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A83">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>657</v>
@@ -14625,10 +14688,10 @@
         <v>660</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="84" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A84">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>856</v>
@@ -14646,10 +14709,10 @@
         <v>874</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="85" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A85">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>807</v>
@@ -14667,10 +14730,10 @@
         <v>822</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="86" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A86">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B86" s="7">
         <v>11</v>
@@ -14688,7 +14751,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="87" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A87">
         <v>73</v>
       </c>
@@ -14708,7 +14771,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="88" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A88">
         <v>73</v>
       </c>
@@ -14728,10 +14791,10 @@
         <v>684</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="89" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A89">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>856</v>
@@ -14749,10 +14812,10 @@
         <v>868</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="90" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A90">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B90" s="7">
         <v>14</v>
@@ -14776,10 +14839,10 @@
         <v>916</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="91" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A91">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B91" s="7">
         <v>13</v>
@@ -14797,10 +14860,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="92" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A92">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>657</v>
@@ -14818,10 +14881,10 @@
         <v>698</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="93" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A93">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>657</v>
@@ -14842,7 +14905,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="94" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A94">
         <v>81</v>
       </c>
@@ -14865,10 +14928,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="95" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A95">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>856</v>
@@ -14886,10 +14949,10 @@
         <v>681</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="96" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A96">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>962</v>
@@ -14907,10 +14970,10 @@
         <v>824</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="97" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A97">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>962</v>
@@ -14931,10 +14994,10 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="98" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A98">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B98" s="7">
         <v>12</v>
@@ -14949,10 +15012,10 @@
         <v>566</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="99" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A99">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B99" s="7">
         <v>12</v>
@@ -14967,10 +15030,10 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="100" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A100">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>657</v>
@@ -14988,7 +15051,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="101" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A101">
         <v>86</v>
       </c>
@@ -15008,10 +15071,10 @@
         <v>713</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="102" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A102">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>657</v>
@@ -15029,10 +15092,10 @@
         <v>675</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="103" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A103">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>807</v>
@@ -15053,10 +15116,10 @@
         <v>583</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="104" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A104">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B104" s="7">
         <v>18</v>
@@ -15074,10 +15137,10 @@
         <v>948</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="105" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A105">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B105" s="7">
         <v>11</v>
@@ -15095,10 +15158,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="106" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A106">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>807</v>
@@ -15116,10 +15179,10 @@
         <v>740</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="107" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A107">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>657</v>
@@ -15137,10 +15200,10 @@
         <v>663</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="108" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A108">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>807</v>
@@ -15158,10 +15221,10 @@
         <v>817</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="109" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A109">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B109" s="7">
         <v>13</v>
@@ -15179,10 +15242,10 @@
         <v>618</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="110" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A110">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B110" s="7">
         <v>14</v>
@@ -15200,10 +15263,10 @@
         <v>642</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="111" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A111">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>807</v>
@@ -15221,10 +15284,10 @@
         <v>832</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="112" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A112">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B112" s="7">
         <v>13</v>
@@ -15242,7 +15305,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="113" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A113">
         <f ca="1">RANDBETWEEN(0,100)</f>
         <v>84</v>
@@ -15266,10 +15329,10 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="114" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A114">
         <f t="shared" ref="A114:A119" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B114" s="7">
         <v>17</v>
@@ -15290,10 +15353,10 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="115" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>856</v>
@@ -15311,10 +15374,10 @@
         <v>879</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="116" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>962</v>
@@ -15332,10 +15395,10 @@
         <v>715</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="117" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>962</v>
@@ -15353,10 +15416,10 @@
         <v>837</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="118" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>807</v>
@@ -15374,10 +15437,10 @@
         <v>663</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="119" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>856</v>
@@ -15395,10 +15458,10 @@
         <v>862</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="120" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A120">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B120" s="7">
         <v>12</v>
@@ -15416,10 +15479,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="121" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A121">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>807</v>
@@ -15437,10 +15500,10 @@
         <v>707</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="122" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A122">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B122" s="7">
         <v>12</v>
@@ -15452,10 +15515,10 @@
         <v>505</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="123" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A123">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>807</v>
@@ -15473,10 +15536,10 @@
         <v>824</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="124" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A124">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>962</v>
@@ -15494,10 +15557,10 @@
         <v>862</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="125" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A125">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B125" s="7">
         <v>11</v>
@@ -15515,10 +15578,10 @@
         <v>503</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="126" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A126">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>657</v>
@@ -15536,10 +15599,10 @@
         <v>704</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="127" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A127">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B127" s="7">
         <v>13</v>
@@ -15557,7 +15620,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="128" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A128">
         <v>99</v>
       </c>
@@ -15580,7 +15643,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="129" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A129">
         <v>99</v>
       </c>
@@ -15600,10 +15663,10 @@
         <v>732</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="130" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A130">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B130" s="7">
         <v>12</v>
@@ -15621,10 +15684,10 @@
         <v>534</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="131" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A131">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>657</v>
@@ -15645,10 +15708,10 @@
         <v>915</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="132" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A132">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>657</v>
@@ -15666,10 +15729,10 @@
         <v>692</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="133" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A133">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="B133" s="7">
         <v>20</v>
@@ -15687,10 +15750,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="134" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A134">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B134" s="7">
         <v>20</v>
@@ -15711,10 +15774,10 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="135" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A135">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B135" s="7">
         <v>20</v>
@@ -15732,10 +15795,10 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="136" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A136">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B136" s="7">
         <v>20</v>
@@ -15756,10 +15819,10 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="137" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A137">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B137" s="7">
         <v>20</v>
@@ -15777,7 +15840,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="138" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A138">
         <v>71</v>
       </c>
@@ -15797,7 +15860,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="139" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A139">
         <v>79</v>
       </c>
@@ -15817,7 +15880,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="140" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A140">
         <v>90</v>
       </c>
@@ -15837,7 +15900,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="141" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A141">
         <v>0</v>
       </c>
@@ -15857,7 +15920,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="142" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A142">
         <v>19</v>
       </c>
@@ -15877,7 +15940,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="143" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A143">
         <v>28</v>
       </c>
@@ -15897,7 +15960,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="144" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A144">
         <v>30</v>
       </c>
@@ -15917,7 +15980,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="145" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A145">
         <v>43</v>
       </c>
@@ -15937,7 +16000,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="146" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A146">
         <v>43</v>
       </c>
@@ -15957,7 +16020,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="147" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A147">
         <v>47</v>
       </c>
@@ -15977,7 +16040,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="148" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A148">
         <v>49</v>
       </c>
@@ -15997,7 +16060,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="149" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A149">
         <v>49</v>
       </c>
@@ -16017,7 +16080,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="150" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A150">
         <v>52</v>
       </c>
@@ -16037,7 +16100,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="151" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A151">
         <v>55</v>
       </c>
@@ -16057,7 +16120,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="152" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A152">
         <v>63</v>
       </c>
@@ -16077,7 +16140,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="153" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A153">
         <v>73</v>
       </c>
@@ -16097,7 +16160,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="154" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A154">
         <v>82</v>
       </c>
@@ -16117,7 +16180,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="155" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A155">
         <v>96</v>
       </c>
@@ -16137,7 +16200,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="156" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A156">
         <v>98</v>
       </c>
@@ -16792,7 +16855,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="188" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A188">
         <v>7</v>
       </c>
@@ -16812,7 +16875,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="189" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A189">
         <v>70</v>
       </c>
@@ -16832,7 +16895,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="190" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A190">
         <v>24</v>
       </c>
@@ -16852,7 +16915,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="191" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A191">
         <v>67</v>
       </c>
@@ -16872,7 +16935,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="192" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A192">
         <v>59</v>
       </c>
@@ -16892,7 +16955,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="193" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A193">
         <v>29</v>
       </c>
@@ -16912,7 +16975,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="194" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A194">
         <v>77</v>
       </c>
@@ -16932,7 +16995,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="195" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A195">
         <v>62</v>
       </c>
@@ -16952,7 +17015,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="196" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A196">
         <v>99</v>
       </c>
@@ -16972,7 +17035,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="197" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A197">
         <v>49</v>
       </c>
@@ -16992,7 +17055,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="198" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A198">
         <v>72</v>
       </c>
@@ -17012,7 +17075,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="199" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A199">
         <v>59</v>
       </c>
@@ -17032,7 +17095,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="200" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A200">
         <v>94</v>
       </c>
@@ -17052,7 +17115,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="201" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A201">
         <v>77</v>
       </c>
@@ -17072,7 +17135,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="202" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A202">
         <v>6</v>
       </c>
@@ -17092,7 +17155,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="203" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A203">
         <v>11</v>
       </c>
@@ -17112,7 +17175,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="204" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A204">
         <v>0</v>
       </c>
@@ -17132,7 +17195,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="205" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A205">
         <v>50</v>
       </c>
@@ -17152,7 +17215,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="206" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A206">
         <v>42</v>
       </c>
@@ -17172,7 +17235,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="92.25" hidden="1" x14ac:dyDescent="1.35">
+    <row r="207" spans="1:6" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A207">
         <v>26</v>
       </c>
@@ -17196,14 +17259,7 @@
       <c r="C210" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F207">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="22"/>
-        <filter val="23"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F207"/>
   <sortState ref="A144:J159">
     <sortCondition ref="A144:A159"/>
   </sortState>
@@ -20018,8 +20074,8 @@
   <dimension ref="A1:R508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B477" sqref="B477:B483"/>
+      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A483" sqref="A483:B491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -20036,7 +20092,7 @@
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>761</v>
@@ -20404,7 +20460,7 @@
     <row r="27" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A27">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B27" s="16">
         <v>17</v>
@@ -20419,7 +20475,7 @@
     <row r="28" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A28">
         <f t="shared" ref="A28:A44" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B28" s="16">
         <v>17</v>
@@ -20434,7 +20490,7 @@
     <row r="29" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -20449,7 +20505,7 @@
     <row r="30" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -20464,7 +20520,7 @@
     <row r="31" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B31" s="16">
         <v>17</v>
@@ -20482,7 +20538,7 @@
     <row r="32" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B32" s="16">
         <v>17</v>
@@ -20497,7 +20553,7 @@
     <row r="33" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="B33" s="16">
         <v>17</v>
@@ -20512,7 +20568,7 @@
     <row r="34" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B34" s="16">
         <v>17</v>
@@ -20527,7 +20583,7 @@
     <row r="35" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B35" s="16">
         <v>17</v>
@@ -20542,7 +20598,7 @@
     <row r="36" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B36" s="16">
         <v>17</v>
@@ -20557,7 +20613,7 @@
     <row r="37" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B37" s="16">
         <v>17</v>
@@ -20572,7 +20628,7 @@
     <row r="38" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B38" s="16">
         <v>17</v>
@@ -20587,7 +20643,7 @@
     <row r="39" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B39" s="16">
         <v>17</v>
@@ -20602,7 +20658,7 @@
     <row r="40" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B40" s="16">
         <v>17</v>
@@ -20617,7 +20673,7 @@
     <row r="41" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B41" s="16">
         <v>17</v>
@@ -20632,7 +20688,7 @@
     <row r="42" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B42" s="16">
         <v>17</v>
@@ -20647,7 +20703,7 @@
     <row r="43" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B43" s="16">
         <v>18</v>
@@ -20665,7 +20721,7 @@
     <row r="44" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B44" s="16">
         <v>18</v>
@@ -21189,7 +21245,7 @@
     <row r="88" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A88">
         <f t="shared" ref="A88:A115" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="16">
         <v>25</v>
@@ -21207,7 +21263,7 @@
     <row r="89" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B89" s="16">
         <v>24</v>
@@ -21225,7 +21281,7 @@
     <row r="90" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B90" s="16">
         <v>23</v>
@@ -21243,7 +21299,7 @@
     <row r="91" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B91" s="16">
         <v>25</v>
@@ -21261,7 +21317,7 @@
     <row r="92" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B92" s="16">
         <v>23</v>
@@ -21276,7 +21332,7 @@
     <row r="93" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B93" s="16">
         <v>25</v>
@@ -21294,7 +21350,7 @@
     <row r="94" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B94" s="16">
         <v>25</v>
@@ -21312,7 +21368,7 @@
     <row r="95" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B95" s="16">
         <v>25</v>
@@ -21327,7 +21383,7 @@
     <row r="96" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B96" s="16">
         <v>25</v>
@@ -21345,7 +21401,7 @@
     <row r="97" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B97" s="16">
         <v>23</v>
@@ -21363,7 +21419,7 @@
     <row r="98" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B98" s="16">
         <v>23</v>
@@ -21378,7 +21434,7 @@
     <row r="99" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B99" s="16">
         <v>23</v>
@@ -21396,7 +21452,7 @@
     <row r="100" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B100" s="16">
         <v>23</v>
@@ -21414,7 +21470,7 @@
     <row r="101" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B101" s="16">
         <v>24</v>
@@ -21432,7 +21488,7 @@
     <row r="102" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B102" s="16">
         <v>23</v>
@@ -21450,7 +21506,7 @@
     <row r="103" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B103" s="16">
         <v>23</v>
@@ -21468,7 +21524,7 @@
     <row r="104" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B104" s="16">
         <v>23</v>
@@ -21486,7 +21542,7 @@
     <row r="105" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B105" s="16">
         <v>25</v>
@@ -21504,7 +21560,7 @@
     <row r="106" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B106" s="16">
         <v>24</v>
@@ -21522,7 +21578,7 @@
     <row r="107" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B107" s="16">
         <v>25</v>
@@ -21540,7 +21596,7 @@
     <row r="108" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B108" s="16">
         <v>25</v>
@@ -21558,7 +21614,7 @@
     <row r="109" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B109" s="16">
         <v>24</v>
@@ -21576,7 +21632,7 @@
     <row r="110" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B110" s="16">
         <v>24</v>
@@ -21594,7 +21650,7 @@
     <row r="111" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B111" s="16">
         <v>25</v>
@@ -21612,7 +21668,7 @@
     <row r="112" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B112" s="16">
         <v>25</v>
@@ -21630,7 +21686,7 @@
     <row r="113" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B113" s="16">
         <v>24</v>
@@ -21648,7 +21704,7 @@
     <row r="114" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B114" s="16">
         <v>24</v>
@@ -21666,7 +21722,7 @@
     <row r="115" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B115" s="16">
         <v>28</v>
@@ -21684,7 +21740,7 @@
     <row r="116" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A116">
         <f t="shared" ref="A116:A123" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B116" s="16">
         <v>23</v>
@@ -21702,7 +21758,7 @@
     <row r="117" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A117">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B117" s="16">
         <v>23</v>
@@ -21720,7 +21776,7 @@
     <row r="118" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A118">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B118" s="16">
         <v>23</v>
@@ -21735,7 +21791,7 @@
     <row r="119" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A119">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B119" s="16">
         <v>23</v>
@@ -21753,7 +21809,7 @@
     <row r="120" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A120">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B120" s="16">
         <v>25</v>
@@ -21771,7 +21827,7 @@
     <row r="121" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A121">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B121" s="16">
         <v>24</v>
@@ -21789,7 +21845,7 @@
     <row r="122" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A122">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B122" s="16">
         <v>25</v>
@@ -21807,7 +21863,7 @@
     <row r="123" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A123">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B123" s="16">
         <v>25</v>
@@ -21825,7 +21881,7 @@
     <row r="124" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A124">
         <f t="shared" ref="A124:A187" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B124" s="16">
         <v>23</v>
@@ -21843,7 +21899,7 @@
     <row r="125" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B125" s="16">
         <v>23</v>
@@ -21861,7 +21917,7 @@
     <row r="126" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A126">
         <f t="shared" ref="A126:A159" ca="1" si="4">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B126" s="16">
         <v>26</v>
@@ -21879,7 +21935,7 @@
     <row r="127" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A127">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B127" s="16">
         <v>26</v>
@@ -21897,7 +21953,7 @@
     <row r="128" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A128">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B128" s="16">
         <v>26</v>
@@ -21915,7 +21971,7 @@
     <row r="129" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A129">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B129" s="16">
         <v>26</v>
@@ -21933,7 +21989,7 @@
     <row r="130" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A130">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B130" s="16">
         <v>26</v>
@@ -21951,7 +22007,7 @@
     <row r="131" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A131">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B131" s="16">
         <v>26</v>
@@ -21969,7 +22025,7 @@
     <row r="132" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A132">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B132" s="16">
         <v>26</v>
@@ -21987,7 +22043,7 @@
     <row r="133" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A133">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B133" s="16">
         <v>26</v>
@@ -22005,7 +22061,7 @@
     <row r="134" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A134">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B134" s="16">
         <v>26</v>
@@ -22023,7 +22079,7 @@
     <row r="135" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A135">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B135" s="16">
         <v>26</v>
@@ -22041,7 +22097,7 @@
     <row r="136" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A136">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B136" s="16">
         <v>26</v>
@@ -22059,7 +22115,7 @@
     <row r="137" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A137">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="B137" s="16">
         <v>26</v>
@@ -22077,7 +22133,7 @@
     <row r="138" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A138">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B138" s="16">
         <v>26</v>
@@ -22095,7 +22151,7 @@
     <row r="139" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A139">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B139" s="16">
         <v>26</v>
@@ -22113,7 +22169,7 @@
     <row r="140" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A140">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B140" s="16">
         <v>26</v>
@@ -22131,7 +22187,7 @@
     <row r="141" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A141">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B141" s="16">
         <v>26</v>
@@ -22149,7 +22205,7 @@
     <row r="142" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A142">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B142" s="16">
         <v>26</v>
@@ -22167,7 +22223,7 @@
     <row r="143" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A143">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B143" s="16">
         <v>26</v>
@@ -22185,7 +22241,7 @@
     <row r="144" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A144">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="B144" s="16">
         <v>26</v>
@@ -22203,7 +22259,7 @@
     <row r="145" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A145">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B145" s="16">
         <v>26</v>
@@ -22221,7 +22277,7 @@
     <row r="146" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A146">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B146" s="16">
         <v>26</v>
@@ -22239,7 +22295,7 @@
     <row r="147" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A147">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B147" s="16">
         <v>26</v>
@@ -22257,7 +22313,7 @@
     <row r="148" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A148">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B148" s="16">
         <v>26</v>
@@ -22275,7 +22331,7 @@
     <row r="149" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A149">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B149" s="16">
         <v>26</v>
@@ -22293,7 +22349,7 @@
     <row r="150" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A150">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B150" s="16">
         <v>26</v>
@@ -22311,7 +22367,7 @@
     <row r="151" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A151">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B151" s="16">
         <v>26</v>
@@ -22329,7 +22385,7 @@
     <row r="152" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A152">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B152" s="16">
         <v>26</v>
@@ -22350,7 +22406,7 @@
     <row r="153" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A153">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B153" s="16">
         <v>26</v>
@@ -22368,7 +22424,7 @@
     <row r="154" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A154">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B154" s="16">
         <v>26</v>
@@ -22386,7 +22442,7 @@
     <row r="155" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A155">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B155" s="16">
         <v>26</v>
@@ -22404,7 +22460,7 @@
     <row r="156" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A156">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B156" s="16">
         <v>26</v>
@@ -22422,7 +22478,7 @@
     <row r="157" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A157">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B157" s="16">
         <v>26</v>
@@ -22440,7 +22496,7 @@
     <row r="158" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A158">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B158" s="16">
         <v>26</v>
@@ -22461,7 +22517,7 @@
     <row r="159" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A159">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B159" s="16">
         <v>26</v>
@@ -22479,7 +22535,7 @@
     <row r="160" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A160">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B160" s="16">
         <v>27</v>
@@ -22497,7 +22553,7 @@
     <row r="161" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A161">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B161" s="16">
         <v>27</v>
@@ -22515,7 +22571,7 @@
     <row r="162" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A162">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B162" s="16">
         <v>27</v>
@@ -22533,7 +22589,7 @@
     <row r="163" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A163">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B163" s="16">
         <v>27</v>
@@ -22551,7 +22607,7 @@
     <row r="164" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A164">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B164" s="16">
         <v>27</v>
@@ -22569,7 +22625,7 @@
     <row r="165" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A165">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B165" s="16">
         <v>27</v>
@@ -22587,7 +22643,7 @@
     <row r="166" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A166">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B166" s="16">
         <v>27</v>
@@ -22605,7 +22661,7 @@
     <row r="167" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A167">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="B167" s="16">
         <v>27</v>
@@ -22623,7 +22679,7 @@
     <row r="168" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A168">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B168" s="16">
         <v>27</v>
@@ -22641,7 +22697,7 @@
     <row r="169" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A169">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B169" s="16">
         <v>27</v>
@@ -22659,7 +22715,7 @@
     <row r="170" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A170">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B170" s="16">
         <v>27</v>
@@ -22677,7 +22733,7 @@
     <row r="171" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A171">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B171" s="16">
         <v>27</v>
@@ -22695,7 +22751,7 @@
     <row r="172" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A172">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B172" s="16">
         <v>27</v>
@@ -22713,7 +22769,7 @@
     <row r="173" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A173">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B173" s="16">
         <v>27</v>
@@ -22731,7 +22787,7 @@
     <row r="174" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A174">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B174" s="16">
         <v>27</v>
@@ -22749,7 +22805,7 @@
     <row r="175" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A175">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B175" s="16">
         <v>27</v>
@@ -22767,7 +22823,7 @@
     <row r="176" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A176">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B176" s="16">
         <v>27</v>
@@ -22785,7 +22841,7 @@
     <row r="177" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A177">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B177" s="16">
         <v>27</v>
@@ -22803,7 +22859,7 @@
     <row r="178" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A178">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B178" s="16">
         <v>27</v>
@@ -22821,7 +22877,7 @@
     <row r="179" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A179">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B179" s="16">
         <v>27</v>
@@ -22839,7 +22895,7 @@
     <row r="180" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A180">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B180" s="16">
         <v>27</v>
@@ -22857,7 +22913,7 @@
     <row r="181" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A181">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B181" s="16">
         <v>27</v>
@@ -22875,7 +22931,7 @@
     <row r="182" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A182">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B182" s="16">
         <v>27</v>
@@ -22893,7 +22949,7 @@
     <row r="183" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A183">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B183" s="16">
         <v>27</v>
@@ -22911,7 +22967,7 @@
     <row r="184" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A184">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B184" s="16">
         <v>27</v>
@@ -22929,7 +22985,7 @@
     <row r="185" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A185">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B185" s="16">
         <v>27</v>
@@ -22947,7 +23003,7 @@
     <row r="186" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A186">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B186" s="16">
         <v>28</v>
@@ -22965,7 +23021,7 @@
     <row r="187" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A187">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B187" s="16">
         <v>28</v>
@@ -22983,7 +23039,7 @@
     <row r="188" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A188">
         <f t="shared" ref="A188:A251" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B188" s="16">
         <v>28</v>
@@ -23001,7 +23057,7 @@
     <row r="189" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A189">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B189" s="16">
         <v>28</v>
@@ -23019,7 +23075,7 @@
     <row r="190" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A190">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B190" s="16">
         <v>28</v>
@@ -23037,7 +23093,7 @@
     <row r="191" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A191">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B191" s="16">
         <v>28</v>
@@ -23055,7 +23111,7 @@
     <row r="192" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A192">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B192" s="16">
         <v>28</v>
@@ -23073,7 +23129,7 @@
     <row r="193" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A193">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B193" s="16">
         <v>28</v>
@@ -23091,7 +23147,7 @@
     <row r="194" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A194">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B194" s="16">
         <v>28</v>
@@ -23109,7 +23165,7 @@
     <row r="195" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A195">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B195" s="16">
         <v>28</v>
@@ -23127,7 +23183,7 @@
     <row r="196" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A196">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B196" s="16">
         <v>28</v>
@@ -23145,7 +23201,7 @@
     <row r="197" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A197">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B197" s="16">
         <v>28</v>
@@ -23163,7 +23219,7 @@
     <row r="198" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A198">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B198" s="16">
         <v>28</v>
@@ -23181,7 +23237,7 @@
     <row r="199" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A199">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B199" s="16">
         <v>28</v>
@@ -23199,7 +23255,7 @@
     <row r="200" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A200">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B200" s="16">
         <v>28</v>
@@ -23217,7 +23273,7 @@
     <row r="201" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A201">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B201" s="16">
         <v>28</v>
@@ -23235,7 +23291,7 @@
     <row r="202" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A202">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B202" s="16">
         <v>28</v>
@@ -23253,7 +23309,7 @@
     <row r="203" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A203">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B203" s="16">
         <v>28</v>
@@ -23271,7 +23327,7 @@
     <row r="204" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A204">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B204" s="16">
         <v>28</v>
@@ -23289,7 +23345,7 @@
     <row r="205" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A205">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B205" s="16">
         <v>28</v>
@@ -23307,7 +23363,7 @@
     <row r="206" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A206">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B206" s="16">
         <v>28</v>
@@ -23325,7 +23381,7 @@
     <row r="207" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A207">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B207" s="16">
         <v>28</v>
@@ -23343,7 +23399,7 @@
     <row r="208" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A208">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B208" s="16">
         <v>28</v>
@@ -23361,7 +23417,7 @@
     <row r="209" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A209">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B209" s="16">
         <v>28</v>
@@ -23379,7 +23435,7 @@
     <row r="210" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A210">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B210" s="16">
         <v>28</v>
@@ -23397,7 +23453,7 @@
     <row r="211" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A211">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B211" s="16">
         <v>28</v>
@@ -23415,7 +23471,7 @@
     <row r="212" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A212">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B212" s="16">
         <v>28</v>
@@ -23433,7 +23489,7 @@
     <row r="213" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A213">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B213" s="16">
         <v>28</v>
@@ -23451,7 +23507,7 @@
     <row r="214" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A214">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B214" s="16">
         <v>28</v>
@@ -23469,7 +23525,7 @@
     <row r="215" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A215">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B215" s="16">
         <v>28</v>
@@ -23487,7 +23543,7 @@
     <row r="216" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A216">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B216" s="16">
         <v>28</v>
@@ -23505,7 +23561,7 @@
     <row r="217" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A217">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B217" s="16">
         <v>28</v>
@@ -23523,7 +23579,7 @@
     <row r="218" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A218">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B218" s="16">
         <v>28</v>
@@ -23541,7 +23597,7 @@
     <row r="219" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A219">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B219" s="16">
         <v>28</v>
@@ -23559,7 +23615,7 @@
     <row r="220" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A220">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B220" s="16">
         <v>28</v>
@@ -23577,7 +23633,7 @@
     <row r="221" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A221">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B221" s="16">
         <v>28</v>
@@ -23595,7 +23651,7 @@
     <row r="222" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A222">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B222" s="16">
         <v>28</v>
@@ -23613,7 +23669,7 @@
     <row r="223" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A223">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B223" s="16">
         <v>28</v>
@@ -23631,7 +23687,7 @@
     <row r="224" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A224">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B224" s="16">
         <v>28</v>
@@ -23649,7 +23705,7 @@
     <row r="225" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A225">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B225" s="16">
         <v>28</v>
@@ -23667,7 +23723,7 @@
     <row r="226" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A226">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B226" s="16">
         <v>28</v>
@@ -23685,7 +23741,7 @@
     <row r="227" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A227">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B227" s="16">
         <v>28</v>
@@ -23703,7 +23759,7 @@
     <row r="228" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A228">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B228" s="16">
         <v>28</v>
@@ -23721,7 +23777,7 @@
     <row r="229" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A229">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B229" s="16">
         <v>28</v>
@@ -23748,7 +23804,7 @@
     <row r="231" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A231">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B231" s="16">
         <v>31</v>
@@ -23766,7 +23822,7 @@
     <row r="232" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A232">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B232" s="16">
         <v>31</v>
@@ -23784,7 +23840,7 @@
     <row r="233" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A233">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B233" s="16">
         <v>31</v>
@@ -23802,7 +23858,7 @@
     <row r="234" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A234">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B234" s="16">
         <v>31</v>
@@ -23820,7 +23876,7 @@
     <row r="235" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A235">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B235" s="16">
         <v>31</v>
@@ -23838,7 +23894,7 @@
     <row r="236" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A236">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B236" s="16">
         <v>31</v>
@@ -23854,7 +23910,7 @@
     <row r="237" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A237">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B237" s="16">
         <v>31</v>
@@ -23872,7 +23928,7 @@
     <row r="238" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A238">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B238" s="16">
         <v>31</v>
@@ -23890,7 +23946,7 @@
     <row r="239" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A239">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B239" s="16">
         <v>31</v>
@@ -23908,7 +23964,7 @@
     <row r="240" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A240">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B240" s="16">
         <v>31</v>
@@ -23926,7 +23982,7 @@
     <row r="241" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A241">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B241" s="16">
         <v>31</v>
@@ -23944,7 +24000,7 @@
     <row r="242" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A242">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B242" s="16">
         <v>31</v>
@@ -23962,7 +24018,7 @@
     <row r="243" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A243">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B243" s="16">
         <v>31</v>
@@ -23980,7 +24036,7 @@
     <row r="244" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A244">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B244" s="16">
         <v>31</v>
@@ -23998,7 +24054,7 @@
     <row r="245" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A245">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B245" s="16">
         <v>30</v>
@@ -24016,7 +24072,7 @@
     <row r="246" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A246">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B246" s="16">
         <v>30</v>
@@ -24034,7 +24090,7 @@
     <row r="247" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A247">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B247" s="16">
         <v>30</v>
@@ -24052,7 +24108,7 @@
     <row r="248" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A248">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B248" s="16">
         <v>30</v>
@@ -24070,7 +24126,7 @@
     <row r="249" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A249">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B249" s="16" t="s">
         <v>1795</v>
@@ -24088,7 +24144,7 @@
     <row r="250" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A250">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B250" s="16" t="s">
         <v>1795</v>
@@ -24104,7 +24160,7 @@
     <row r="251" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A251">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B251" s="16" t="s">
         <v>1795</v>
@@ -24120,7 +24176,7 @@
     <row r="252" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A252">
         <f t="shared" ref="A252:A298" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>1795</v>
@@ -24136,7 +24192,7 @@
     <row r="253" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A253">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B253" s="16" t="s">
         <v>1795</v>
@@ -24152,7 +24208,7 @@
     <row r="254" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A254">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B254" s="16" t="s">
         <v>1795</v>
@@ -24168,7 +24224,7 @@
     <row r="255" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A255">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B255" s="16" t="s">
         <v>1795</v>
@@ -24184,7 +24240,7 @@
     <row r="256" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A256">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B256" s="16" t="s">
         <v>1795</v>
@@ -24200,7 +24256,7 @@
     <row r="257" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A257">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B257" s="16" t="s">
         <v>1795</v>
@@ -24216,7 +24272,7 @@
     <row r="258" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A258">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B258" s="16" t="s">
         <v>1795</v>
@@ -24232,7 +24288,7 @@
     <row r="259" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A259">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B259" s="16" t="s">
         <v>1795</v>
@@ -24248,7 +24304,7 @@
     <row r="260" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A260">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B260" s="16" t="s">
         <v>1795</v>
@@ -24264,7 +24320,7 @@
     <row r="261" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A261">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B261" s="16" t="s">
         <v>1795</v>
@@ -24280,7 +24336,7 @@
     <row r="262" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A262">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B262" s="16" t="s">
         <v>1795</v>
@@ -24296,7 +24352,7 @@
     <row r="263" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A263">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B263" s="16" t="s">
         <v>1795</v>
@@ -24312,7 +24368,7 @@
     <row r="264" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A264">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="B264" s="16" t="s">
         <v>1795</v>
@@ -24328,7 +24384,7 @@
     <row r="265" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A265">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B265" s="16" t="s">
         <v>1795</v>
@@ -24344,7 +24400,7 @@
     <row r="266" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A266">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B266" s="16" t="s">
         <v>1795</v>
@@ -24378,7 +24434,7 @@
     <row r="268" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A268">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B268" s="16">
         <v>33</v>
@@ -24394,7 +24450,7 @@
     <row r="269" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A269">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B269" s="16">
         <v>33</v>
@@ -24410,7 +24466,7 @@
     <row r="270" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A270">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B270" s="16">
         <v>33</v>
@@ -24426,7 +24482,7 @@
     <row r="271" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A271">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B271" s="16">
         <v>33</v>
@@ -24442,7 +24498,7 @@
     <row r="272" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A272">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B272" s="16">
         <v>33</v>
@@ -24458,7 +24514,7 @@
     <row r="273" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A273">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B273" s="16">
         <v>33</v>
@@ -24474,7 +24530,7 @@
     <row r="274" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A274">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B274" s="16">
         <v>33</v>
@@ -24490,7 +24546,7 @@
     <row r="275" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A275">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B275" s="16">
         <v>33</v>
@@ -24506,7 +24562,7 @@
     <row r="276" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A276">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B276" s="16">
         <v>32</v>
@@ -24522,7 +24578,7 @@
     <row r="277" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A277">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B277" s="16">
         <v>32</v>
@@ -24538,7 +24594,7 @@
     <row r="278" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A278">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B278" s="16">
         <v>34</v>
@@ -24557,7 +24613,7 @@
     <row r="279" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A279">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B279" s="16">
         <v>34</v>
@@ -24576,7 +24632,7 @@
     <row r="280" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A280">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B280" s="16">
         <v>34</v>
@@ -24595,7 +24651,7 @@
     <row r="281" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A281">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B281" s="16">
         <v>34</v>
@@ -24616,7 +24672,7 @@
     <row r="282" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A282">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B282" s="16">
         <v>34</v>
@@ -24637,7 +24693,7 @@
     <row r="283" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A283">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B283" s="16">
         <v>34</v>
@@ -24658,7 +24714,7 @@
     <row r="284" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A284">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B284" s="16">
         <v>34</v>
@@ -24679,7 +24735,7 @@
     <row r="285" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A285">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B285" s="16">
         <v>34</v>
@@ -24700,7 +24756,7 @@
     <row r="286" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A286">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B286" s="16">
         <v>35</v>
@@ -24721,7 +24777,7 @@
     <row r="287" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A287">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B287" s="16">
         <v>35</v>
@@ -24742,7 +24798,7 @@
     <row r="288" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A288">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B288" s="16">
         <v>35</v>
@@ -24763,7 +24819,7 @@
     <row r="289" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A289">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B289" s="16">
         <v>35</v>
@@ -24782,7 +24838,7 @@
     <row r="290" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A290">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B290" s="16">
         <v>35</v>
@@ -24803,7 +24859,7 @@
     <row r="291" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A291">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B291" s="16">
         <v>35</v>
@@ -24824,7 +24880,7 @@
     <row r="292" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A292">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B292" s="16">
         <v>35</v>
@@ -24848,7 +24904,7 @@
     <row r="293" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A293">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B293" s="16">
         <v>35</v>
@@ -24869,7 +24925,7 @@
     <row r="294" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A294">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B294" s="16">
         <v>35</v>
@@ -24890,7 +24946,7 @@
     <row r="295" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A295">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B295" s="16">
         <v>35</v>
@@ -24908,7 +24964,7 @@
     <row r="296" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A296">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B296" s="16">
         <v>35</v>
@@ -24935,7 +24991,7 @@
     <row r="297" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A297">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B297" s="16">
         <v>35</v>
@@ -24956,7 +25012,7 @@
     <row r="298" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A298">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B298" s="16">
         <v>35</v>
@@ -25408,7 +25464,7 @@
     <row r="321" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A321">
         <f t="shared" ref="A321:A339" ca="1" si="7">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B321" s="16">
         <v>37</v>
@@ -25427,7 +25483,7 @@
     <row r="322" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A322">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B322" s="16">
         <v>37</v>
@@ -25448,7 +25504,7 @@
     <row r="323" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A323">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B323" s="16">
         <v>37</v>
@@ -25467,7 +25523,7 @@
     <row r="324" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A324">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B324" s="16">
         <v>37</v>
@@ -25488,7 +25544,7 @@
     <row r="325" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A325">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B325" s="16">
         <v>37</v>
@@ -25507,7 +25563,7 @@
     <row r="326" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A326">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="B326" s="16">
         <v>37</v>
@@ -25526,7 +25582,7 @@
     <row r="327" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A327">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B327" s="16">
         <v>38</v>
@@ -25547,7 +25603,7 @@
     <row r="328" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A328">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B328" s="16">
         <v>38</v>
@@ -25568,7 +25624,7 @@
     <row r="329" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A329">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B329" s="16">
         <v>38</v>
@@ -25589,7 +25645,7 @@
     <row r="330" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A330">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B330" s="16">
         <v>38</v>
@@ -25607,7 +25663,7 @@
     <row r="331" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A331">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B331" s="16">
         <v>39</v>
@@ -25628,7 +25684,7 @@
     <row r="332" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A332">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B332" s="16">
         <v>40</v>
@@ -25649,7 +25705,7 @@
     <row r="333" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A333">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B333" s="16">
         <v>41</v>
@@ -25670,7 +25726,7 @@
     <row r="334" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A334">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="B334" s="16">
         <v>42</v>
@@ -25688,7 +25744,7 @@
     <row r="335" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A335">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B335" s="16">
         <v>43</v>
@@ -25709,7 +25765,7 @@
     <row r="336" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A336">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B336" s="16">
         <v>44</v>
@@ -25727,7 +25783,7 @@
     <row r="337" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A337">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B337" s="16">
         <v>45</v>
@@ -25748,7 +25804,7 @@
     <row r="338" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A338">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B338" s="16">
         <v>46</v>
@@ -25788,7 +25844,7 @@
     <row r="340" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A340">
         <f t="shared" ref="A340:A352" ca="1" si="8">RANDBETWEEN(1,100)</f>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B340" s="16">
         <v>40</v>
@@ -25809,7 +25865,7 @@
     <row r="341" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A341">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B341" s="16">
         <v>40</v>
@@ -25830,7 +25886,7 @@
     <row r="342" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A342">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B342" s="16">
         <v>40</v>
@@ -25851,7 +25907,7 @@
     <row r="343" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A343">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B343" s="16">
         <v>40</v>
@@ -25872,7 +25928,7 @@
     <row r="344" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A344">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B344" s="16">
         <v>40</v>
@@ -25891,7 +25947,7 @@
     <row r="345" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A345">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B345" s="16">
         <v>40</v>
@@ -25912,7 +25968,7 @@
     <row r="346" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A346">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B346" s="16">
         <v>40</v>
@@ -25931,7 +25987,7 @@
     <row r="347" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A347">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B347" s="16">
         <v>40</v>
@@ -25950,7 +26006,7 @@
     <row r="348" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A348">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B348" s="16">
         <v>40</v>
@@ -25971,7 +26027,7 @@
     <row r="349" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A349">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B349" s="16">
         <v>40</v>
@@ -25992,7 +26048,7 @@
     <row r="350" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A350">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B350" s="16">
         <v>40</v>
@@ -26013,7 +26069,7 @@
     <row r="351" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A351">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="B351" s="16">
         <v>41</v>
@@ -26032,7 +26088,7 @@
     <row r="352" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A352">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B352" s="16">
         <v>41</v>
@@ -26051,7 +26107,7 @@
     <row r="353" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A353">
         <f t="shared" ref="A353:A380" ca="1" si="9">RANDBETWEEN(1,100)</f>
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B353" s="16">
         <v>39</v>
@@ -26070,7 +26126,7 @@
     <row r="354" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A354">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B354" s="16">
         <v>39</v>
@@ -26089,7 +26145,7 @@
     <row r="355" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A355">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B355" s="16">
         <v>39</v>
@@ -26108,7 +26164,7 @@
     <row r="356" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A356">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B356" s="16">
         <v>39</v>
@@ -26127,7 +26183,7 @@
     <row r="357" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A357">
         <f t="shared" ca="1" si="9"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B357" s="16">
         <v>40</v>
@@ -26148,7 +26204,7 @@
     <row r="358" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A358">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B358" s="16">
         <v>40</v>
@@ -26169,7 +26225,7 @@
     <row r="359" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A359">
         <f t="shared" ca="1" si="9"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B359" s="16">
         <v>40</v>
@@ -26190,7 +26246,7 @@
     <row r="360" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A360">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B360" s="16">
         <v>37</v>
@@ -26214,7 +26270,7 @@
     <row r="361" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A361">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B361" s="16">
         <v>37</v>
@@ -26236,7 +26292,7 @@
     <row r="362" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A362">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B362" s="16">
         <v>37</v>
@@ -26263,7 +26319,7 @@
     <row r="363" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A363">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B363" s="16">
         <v>37</v>
@@ -26285,7 +26341,7 @@
     <row r="364" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A364">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B364" s="16">
         <v>37</v>
@@ -26309,7 +26365,7 @@
     <row r="365" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A365">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B365" s="16">
         <v>37</v>
@@ -26333,7 +26389,7 @@
     <row r="366" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A366">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B366" s="16">
         <v>37</v>
@@ -26357,7 +26413,7 @@
     <row r="367" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A367">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B367" s="16">
         <v>37</v>
@@ -26381,7 +26437,7 @@
     <row r="368" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A368">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B368" s="16">
         <v>37</v>
@@ -26408,7 +26464,7 @@
     <row r="369" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A369">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B369" s="16">
         <v>37</v>
@@ -26432,7 +26488,7 @@
     <row r="370" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A370">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B370" s="16">
         <v>37</v>
@@ -26456,7 +26512,7 @@
     <row r="371" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A371">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B371" s="16">
         <v>37</v>
@@ -26480,7 +26536,7 @@
     <row r="372" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A372">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B372" s="16">
         <v>37</v>
@@ -26504,7 +26560,7 @@
     <row r="373" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A373">
         <f t="shared" ca="1" si="9"/>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B373" s="16">
         <v>37</v>
@@ -26526,7 +26582,7 @@
     <row r="374" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A374">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B374" s="16">
         <v>37</v>
@@ -26550,7 +26606,7 @@
     <row r="375" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A375">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B375" s="16">
         <v>37</v>
@@ -26574,7 +26630,7 @@
     <row r="376" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A376">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B376" s="16">
         <v>37</v>
@@ -26598,7 +26654,7 @@
     <row r="377" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A377">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B377" s="16">
         <v>37</v>
@@ -26622,7 +26678,7 @@
     <row r="378" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A378">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B378" s="16">
         <v>37</v>
@@ -26649,7 +26705,7 @@
     <row r="379" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A379">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B379" s="16">
         <v>37</v>
@@ -26671,7 +26727,7 @@
     <row r="380" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A380">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B380" s="16">
         <v>37</v>
@@ -26721,7 +26777,7 @@
     <row r="383" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A383">
         <f t="shared" ref="A383:A446" ca="1" si="10">RANDBETWEEN(1,100)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B383" s="16">
         <v>42</v>
@@ -26740,7 +26796,7 @@
     <row r="384" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A384">
         <f t="shared" ca="1" si="10"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B384" s="16">
         <v>42</v>
@@ -26761,7 +26817,7 @@
     <row r="385" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A385">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B385" s="16">
         <v>42</v>
@@ -26785,7 +26841,7 @@
     <row r="386" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A386">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B386" s="16">
         <v>42</v>
@@ -26804,7 +26860,7 @@
     <row r="387" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A387">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B387" s="16">
         <v>42</v>
@@ -26822,7 +26878,7 @@
     <row r="388" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A388">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B388" s="16">
         <v>42</v>
@@ -26846,7 +26902,7 @@
     <row r="389" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A389">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B389" s="16">
         <v>42</v>
@@ -26867,7 +26923,7 @@
     <row r="390" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A390">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B390" s="16">
         <v>42</v>
@@ -26885,7 +26941,7 @@
     <row r="391" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A391">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B391" s="16">
         <v>42</v>
@@ -26906,7 +26962,7 @@
     <row r="392" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A392">
         <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B392" s="16">
         <v>42</v>
@@ -26922,7 +26978,7 @@
     <row r="393" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A393">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B393" s="16">
         <v>42</v>
@@ -26940,7 +26996,7 @@
     <row r="394" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A394">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B394" s="16">
         <v>42</v>
@@ -26976,7 +27032,7 @@
     <row r="396" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A396">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B396" s="16">
         <v>42</v>
@@ -26994,7 +27050,7 @@
     <row r="397" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A397">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B397" s="16">
         <v>42</v>
@@ -27012,7 +27068,7 @@
     <row r="398" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A398">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B398" s="16">
         <v>42</v>
@@ -27030,7 +27086,7 @@
     <row r="399" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A399">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B399" s="16">
         <v>48</v>
@@ -27048,7 +27104,7 @@
     <row r="400" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A400">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B400" s="16">
         <v>48</v>
@@ -27066,7 +27122,7 @@
     <row r="401" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A401" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B401" s="16">
         <v>51</v>
@@ -27084,7 +27140,7 @@
     <row r="402" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A402" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B402" s="16">
         <v>51</v>
@@ -27102,7 +27158,7 @@
     <row r="403" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A403" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B403" s="16">
         <v>51</v>
@@ -27120,7 +27176,7 @@
     <row r="404" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A404" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="B404" s="16">
         <v>51</v>
@@ -27138,7 +27194,7 @@
     <row r="405" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A405" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B405" s="16">
         <v>51</v>
@@ -27156,7 +27212,7 @@
     <row r="406" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A406" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B406" s="16">
         <v>51</v>
@@ -27174,7 +27230,7 @@
     <row r="407" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A407" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B407" s="16">
         <v>51</v>
@@ -27192,7 +27248,7 @@
     <row r="408" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A408" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B408" s="16">
         <v>51</v>
@@ -27210,7 +27266,7 @@
     <row r="409" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A409" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B409" s="16">
         <v>51</v>
@@ -27228,7 +27284,7 @@
     <row r="410" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A410" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B410" s="16">
         <v>51</v>
@@ -27246,7 +27302,7 @@
     <row r="411" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A411" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B411" s="16">
         <v>51</v>
@@ -27264,7 +27320,7 @@
     <row r="412" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A412" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B412" s="16">
         <v>39</v>
@@ -27282,7 +27338,7 @@
     <row r="413" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A413" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B413" s="16">
         <v>51</v>
@@ -27300,7 +27356,7 @@
     <row r="414" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A414" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B414" s="16">
         <v>51</v>
@@ -27318,7 +27374,7 @@
     <row r="415" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A415" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B415" s="16">
         <v>51</v>
@@ -27336,7 +27392,7 @@
     <row r="416" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A416" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B416" s="16">
         <v>51</v>
@@ -27354,7 +27410,7 @@
     <row r="417" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A417" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B417" s="16">
         <v>51</v>
@@ -27372,7 +27428,7 @@
     <row r="418" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A418" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B418" s="16">
         <v>51</v>
@@ -27390,7 +27446,7 @@
     <row r="419" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A419" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B419" s="16">
         <v>51</v>
@@ -27408,7 +27464,7 @@
     <row r="420" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A420" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B420" s="16">
         <v>51</v>
@@ -27426,7 +27482,7 @@
     <row r="421" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A421" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="B421" s="16">
         <v>51</v>
@@ -27444,7 +27500,7 @@
     <row r="422" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A422" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B422" s="16">
         <v>51</v>
@@ -27462,7 +27518,7 @@
     <row r="423" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A423" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B423" s="16">
         <v>51</v>
@@ -27480,7 +27536,7 @@
     <row r="424" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A424" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B424" s="16">
         <v>51</v>
@@ -27498,7 +27554,7 @@
     <row r="425" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A425" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B425" s="16">
         <v>51</v>
@@ -27516,7 +27572,7 @@
     <row r="426" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A426" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B426" s="16">
         <v>51</v>
@@ -27534,7 +27590,7 @@
     <row r="427" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A427" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B427" s="16">
         <v>51</v>
@@ -27552,7 +27608,7 @@
     <row r="428" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A428" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B428" s="16">
         <v>51</v>
@@ -27570,7 +27626,7 @@
     <row r="429" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A429" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B429" s="16">
         <v>51</v>
@@ -27588,7 +27644,7 @@
     <row r="430" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A430" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B430" s="16">
         <v>51</v>
@@ -27606,7 +27662,7 @@
     <row r="431" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A431" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B431" s="16">
         <v>51</v>
@@ -27624,7 +27680,7 @@
     <row r="432" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A432" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B432" s="16">
         <v>51</v>
@@ -27642,7 +27698,7 @@
     <row r="433" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A433" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B433" s="16">
         <v>52</v>
@@ -27660,7 +27716,7 @@
     <row r="434" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A434" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B434" s="16">
         <v>52</v>
@@ -27678,7 +27734,7 @@
     <row r="435" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A435" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B435" s="16">
         <v>52</v>
@@ -27696,7 +27752,7 @@
     <row r="436" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A436" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B436" s="16">
         <v>52</v>
@@ -27714,7 +27770,7 @@
     <row r="437" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A437" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B437" s="16">
         <v>52</v>
@@ -27732,7 +27788,7 @@
     <row r="438" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A438" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B438" s="16">
         <v>52</v>
@@ -27750,7 +27806,7 @@
     <row r="439" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A439" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B439" s="16" t="s">
         <v>2405</v>
@@ -27768,7 +27824,7 @@
     <row r="440" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A440" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B440" s="16" t="s">
         <v>2405</v>
@@ -27786,7 +27842,7 @@
     <row r="441" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A441" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B441" s="16" t="s">
         <v>2405</v>
@@ -27805,7 +27861,7 @@
     <row r="442" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A442" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B442" s="16" t="s">
         <v>2405</v>
@@ -27826,7 +27882,7 @@
     <row r="443" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A443" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B443" s="16" t="s">
         <v>2405</v>
@@ -27845,7 +27901,7 @@
     <row r="444" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A444" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B444" s="16" t="s">
         <v>2405</v>
@@ -27864,7 +27920,7 @@
     <row r="445" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A445" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B445" s="16" t="s">
         <v>2405</v>
@@ -27883,7 +27939,7 @@
     <row r="446" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A446" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B446" s="16" t="s">
         <v>2405</v>
@@ -27903,8 +27959,8 @@
     </row>
     <row r="447" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A447" s="46">
-        <f t="shared" ref="A447:A483" ca="1" si="11">RANDBETWEEN(1,100)</f>
-        <v>54</v>
+        <f t="shared" ref="A447:A491" ca="1" si="11">RANDBETWEEN(1,100)</f>
+        <v>38</v>
       </c>
       <c r="B447" s="16" t="s">
         <v>2405</v>
@@ -27925,7 +27981,7 @@
     <row r="448" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A448" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B448" s="16" t="s">
         <v>2405</v>
@@ -27943,7 +27999,7 @@
     <row r="449" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A449" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B449" s="16" t="s">
         <v>2405</v>
@@ -27962,7 +28018,7 @@
     <row r="450" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A450" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B450" s="16" t="s">
         <v>2405</v>
@@ -27981,7 +28037,7 @@
     <row r="451" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A451" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B451" s="16" t="s">
         <v>2405</v>
@@ -28000,7 +28056,7 @@
     <row r="452" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A452" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B452" s="16" t="s">
         <v>2405</v>
@@ -28019,7 +28075,7 @@
     <row r="453" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A453" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B453" s="16" t="s">
         <v>2405</v>
@@ -28040,7 +28096,7 @@
     <row r="454" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A454" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B454" s="16" t="s">
         <v>2405</v>
@@ -28059,7 +28115,7 @@
     <row r="455" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A455" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B455" s="16" t="s">
         <v>2405</v>
@@ -28080,7 +28136,7 @@
     <row r="456" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A456" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B456" s="16" t="s">
         <v>2405</v>
@@ -28099,7 +28155,7 @@
     <row r="457" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A457" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B457" s="16" t="s">
         <v>2405</v>
@@ -28118,7 +28174,7 @@
     <row r="458" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A458" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B458" s="16" t="s">
         <v>2405</v>
@@ -28137,7 +28193,7 @@
     <row r="459" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A459" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B459" s="16" t="s">
         <v>2405</v>
@@ -28158,7 +28214,7 @@
     <row r="460" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A460" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B460" s="16" t="s">
         <v>2405</v>
@@ -28177,7 +28233,7 @@
     <row r="461" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A461" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B461" s="16" t="s">
         <v>2458</v>
@@ -28196,7 +28252,7 @@
     <row r="462" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A462" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B462" s="16" t="s">
         <v>2458</v>
@@ -28215,7 +28271,7 @@
     <row r="463" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A463" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B463" s="16" t="s">
         <v>2458</v>
@@ -28234,7 +28290,7 @@
     <row r="464" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A464" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B464" s="16" t="s">
         <v>2458</v>
@@ -28255,7 +28311,7 @@
     <row r="465" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A465" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B465" s="16" t="s">
         <v>2458</v>
@@ -28293,7 +28349,7 @@
     <row r="467" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A467" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B467" s="16" t="s">
         <v>2458</v>
@@ -28312,7 +28368,7 @@
     <row r="468" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A468" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B468" s="16" t="s">
         <v>2458</v>
@@ -28333,7 +28389,7 @@
     <row r="469" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A469" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B469" s="16" t="s">
         <v>2458</v>
@@ -28352,7 +28408,7 @@
     <row r="470" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A470" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B470" s="16" t="s">
         <v>2458</v>
@@ -28371,7 +28427,7 @@
     <row r="471" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A471" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B471" s="16" t="s">
         <v>2458</v>
@@ -28390,7 +28446,7 @@
     <row r="472" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A472" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B472" s="16" t="s">
         <v>2458</v>
@@ -28408,7 +28464,7 @@
     <row r="473" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A473" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B473" s="16" t="s">
         <v>2458</v>
@@ -28426,7 +28482,7 @@
     <row r="474" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A474" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B474" s="16" t="s">
         <v>2458</v>
@@ -28447,7 +28503,7 @@
     <row r="475" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A475" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B475" s="16" t="s">
         <v>2458</v>
@@ -28468,7 +28524,7 @@
     <row r="476" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A476" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B476" s="16" t="s">
         <v>2458</v>
@@ -28489,7 +28545,7 @@
     <row r="477" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A477" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B477" s="16" t="s">
         <v>2482</v>
@@ -28507,7 +28563,7 @@
     <row r="478" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A478" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B478" s="16" t="s">
         <v>2482</v>
@@ -28525,7 +28581,7 @@
     <row r="479" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A479" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B479" s="16" t="s">
         <v>2482</v>
@@ -28543,7 +28599,7 @@
     <row r="480" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A480" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B480" s="16" t="s">
         <v>2482</v>
@@ -28558,10 +28614,10 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="481" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A481" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B481" s="16" t="s">
         <v>2482</v>
@@ -28576,10 +28632,10 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="482" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A482" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B482" s="16" t="s">
         <v>2482</v>
@@ -28594,10 +28650,10 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="483" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A483" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B483" s="16" t="s">
         <v>2482</v>
@@ -28612,43 +28668,166 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C484" s="27"/>
-    </row>
-    <row r="485" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C485" s="27"/>
-    </row>
-    <row r="486" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C486" s="27"/>
-    </row>
-    <row r="487" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C487" s="27"/>
-    </row>
-    <row r="488" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C488" s="27"/>
-    </row>
-    <row r="489" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C489" s="27"/>
-    </row>
-    <row r="490" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C490" s="27"/>
-    </row>
-    <row r="491" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C491" s="27"/>
-    </row>
-    <row r="492" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="484" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A484" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="B484" s="16" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C484" s="27" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D484" s="6" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E484" s="6" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A485" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>85</v>
+      </c>
+      <c r="B485" s="16" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C485" s="27" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D485" s="6" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E485" s="6" t="s">
+        <v>2516</v>
+      </c>
+      <c r="F485" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A486" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="B486" s="16" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C486" s="27" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D486" s="6" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E486" s="6" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A487" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>98</v>
+      </c>
+      <c r="B487" s="16" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C487" s="27" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D487" s="6" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E487" s="6" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A488" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="B488" s="16" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C488" s="27" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D488" s="6" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E488" s="6" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A489" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="B489" s="16" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C489" s="27" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D489" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E489" s="6" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A490" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="B490" s="16" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C490" s="27" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D490" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="E490" s="6" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A491" s="47">
+        <f t="shared" ca="1" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="B491" s="16" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C491" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D491" s="6" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E491" s="6" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C492" s="27"/>
     </row>
-    <row r="493" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="493" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C493" s="27"/>
     </row>
-    <row r="494" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="494" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C494" s="27"/>
     </row>
-    <row r="495" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="495" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C495" s="27"/>
     </row>
-    <row r="496" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="496" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C496" s="27"/>
     </row>
     <row r="497" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">

--- a/Mainichi_Renshuu.xlsx
+++ b/Mainichi_Renshuu.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">minanihongo!$A$1:$F$207</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$222</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$476</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tung vung'!$A$1:$E$495</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="2535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="2552">
   <si>
     <t>様</t>
   </si>
@@ -7611,9 +7611,6 @@
     <t>thẳng</t>
   </si>
   <si>
-    <t>はえる</t>
-  </si>
-  <si>
     <t xml:space="preserve"> hơi lạnh</t>
   </si>
   <si>
@@ -7737,28 +7734,82 @@
     <t>giao hàng</t>
   </si>
   <si>
+    <t>ひえる</t>
+  </si>
+  <si>
+    <t>そんな</t>
+  </si>
+  <si>
+    <t>như thế</t>
+  </si>
+  <si>
+    <t>場所</t>
+  </si>
+  <si>
+    <t>ばしょ</t>
+  </si>
+  <si>
     <t>Đề 8</t>
   </si>
   <si>
-    <t>Đề 9</t>
-  </si>
-  <si>
-    <t>Đề 10</t>
-  </si>
-  <si>
-    <t>Đề 11</t>
-  </si>
-  <si>
-    <t>Đề 12</t>
-  </si>
-  <si>
-    <t>Đề 13</t>
-  </si>
-  <si>
-    <t>Đề 14</t>
-  </si>
-  <si>
-    <t>Đề 15</t>
+    <t>ゆれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lắc</t>
+  </si>
+  <si>
+    <t>じしんで　いえが　ゆれています</t>
+  </si>
+  <si>
+    <t>nhất định</t>
+  </si>
+  <si>
+    <t>毎日　かならず　ふくしゅうして　ください</t>
+  </si>
+  <si>
+    <t>なるほど</t>
+  </si>
+  <si>
+    <t>đúng vậy</t>
+  </si>
+  <si>
+    <t>あと</t>
+  </si>
+  <si>
+    <t>dấu vết</t>
+  </si>
+  <si>
+    <t>すみ</t>
+  </si>
+  <si>
+    <t>góc tường, góc nhà</t>
+  </si>
+  <si>
+    <t>隅</t>
+  </si>
+  <si>
+    <t>電気代</t>
+  </si>
+  <si>
+    <t>でんきだい</t>
+  </si>
+  <si>
+    <t>tiền điện</t>
+  </si>
+  <si>
+    <t>大事</t>
+  </si>
+  <si>
+    <t>だいじ</t>
+  </si>
+  <si>
+    <t>quan trọng</t>
+  </si>
+  <si>
+    <t>われて</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vỡ</t>
   </si>
 </sst>
 </file>
@@ -8473,9 +8524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:O222"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K209" sqref="K209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="92.25" x14ac:dyDescent="1.35"/>
@@ -8513,7 +8564,7 @@
     <row r="2" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D2">
         <f t="shared" ref="D2:D31" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>87</v>
@@ -8531,7 +8582,7 @@
     <row r="3" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>58</v>
@@ -8549,7 +8600,7 @@
     <row r="4" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -8570,7 +8621,7 @@
     <row r="5" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
         <v>31</v>
@@ -8588,7 +8639,7 @@
     <row r="6" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>35</v>
@@ -8609,7 +8660,7 @@
     <row r="7" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2">
         <v>136</v>
@@ -8624,7 +8675,7 @@
     <row r="8" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2">
         <v>47</v>
@@ -8642,7 +8693,7 @@
     <row r="9" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2">
         <v>127</v>
@@ -8660,7 +8711,7 @@
     <row r="10" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2">
         <v>115</v>
@@ -8681,7 +8732,7 @@
     <row r="11" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
         <v>126</v>
@@ -8699,7 +8750,7 @@
     <row r="12" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2">
         <v>40</v>
@@ -8717,7 +8768,7 @@
     <row r="13" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2">
         <v>94</v>
@@ -8732,7 +8783,7 @@
     <row r="14" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -8750,7 +8801,7 @@
     <row r="15" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
         <v>122</v>
@@ -8768,7 +8819,7 @@
     <row r="16" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2">
         <v>117</v>
@@ -8792,7 +8843,7 @@
     <row r="17" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2">
         <v>63</v>
@@ -8816,7 +8867,7 @@
     <row r="18" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
@@ -8834,7 +8885,7 @@
     <row r="19" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2">
         <v>116</v>
@@ -8853,7 +8904,7 @@
     <row r="20" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
         <v>96</v>
@@ -8874,7 +8925,7 @@
     <row r="21" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2">
         <v>29</v>
@@ -8892,7 +8943,7 @@
     <row r="22" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -8913,7 +8964,7 @@
     <row r="23" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2">
         <v>71</v>
@@ -8934,7 +8985,7 @@
     <row r="24" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2">
         <v>16</v>
@@ -8955,7 +9006,7 @@
     <row r="25" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -8976,7 +9027,7 @@
     <row r="26" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2">
         <v>50</v>
@@ -8994,7 +9045,7 @@
     <row r="27" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2">
         <v>114</v>
@@ -9012,7 +9063,7 @@
     <row r="28" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2">
         <v>140</v>
@@ -9036,7 +9087,7 @@
     <row r="29" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2">
         <v>146</v>
@@ -9060,7 +9111,7 @@
     <row r="30" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2">
         <v>66</v>
@@ -9081,7 +9132,7 @@
     <row r="31" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2">
         <v>9</v>
@@ -9102,7 +9153,7 @@
     <row r="32" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D32">
         <f t="shared" ref="D32:D61" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2">
         <v>86</v>
@@ -9123,7 +9174,7 @@
     <row r="33" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E33" s="2">
         <v>7</v>
@@ -9141,7 +9192,7 @@
     <row r="34" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2">
         <v>92</v>
@@ -9159,7 +9210,7 @@
     <row r="35" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E35" s="2">
         <v>3</v>
@@ -9180,7 +9231,7 @@
     <row r="36" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2">
         <v>134</v>
@@ -9198,7 +9249,7 @@
     <row r="37" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2">
         <v>6</v>
@@ -9216,7 +9267,7 @@
     <row r="38" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2">
         <v>129</v>
@@ -9234,7 +9285,7 @@
     <row r="39" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2">
         <v>61</v>
@@ -9255,7 +9306,7 @@
     <row r="40" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2">
         <v>42</v>
@@ -9276,7 +9327,7 @@
     <row r="41" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2">
         <v>55</v>
@@ -9294,7 +9345,7 @@
     <row r="42" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2">
         <v>53</v>
@@ -9315,7 +9366,7 @@
     <row r="43" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E43" s="2">
         <v>149</v>
@@ -9336,7 +9387,7 @@
     <row r="44" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E44" s="2">
         <v>70</v>
@@ -9354,7 +9405,7 @@
     <row r="45" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2">
         <v>144</v>
@@ -9375,7 +9426,7 @@
     <row r="46" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E46" s="2">
         <v>118</v>
@@ -9403,7 +9454,7 @@
     <row r="47" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2">
         <v>73</v>
@@ -9421,7 +9472,7 @@
     <row r="48" spans="4:15" x14ac:dyDescent="1.35">
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2">
         <v>109</v>
@@ -9436,7 +9487,7 @@
     <row r="49" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E49" s="2">
         <v>83</v>
@@ -9457,7 +9508,7 @@
     <row r="50" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E50" s="2">
         <v>107</v>
@@ -9472,7 +9523,7 @@
     <row r="51" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E51" s="2">
         <v>25</v>
@@ -9493,7 +9544,7 @@
     <row r="52" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E52" s="2">
         <v>108</v>
@@ -9520,7 +9571,7 @@
     <row r="53" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E53" s="2">
         <v>113</v>
@@ -9538,7 +9589,7 @@
     <row r="54" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E54" s="2">
         <v>89</v>
@@ -9565,7 +9616,7 @@
     <row r="55" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2">
         <v>130</v>
@@ -9583,7 +9634,7 @@
     <row r="56" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E56" s="2">
         <v>72</v>
@@ -9604,7 +9655,7 @@
     <row r="57" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E57" s="2">
         <v>77</v>
@@ -9622,7 +9673,7 @@
     <row r="58" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2">
         <v>57</v>
@@ -9646,7 +9697,7 @@
     <row r="59" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E59" s="2">
         <v>45</v>
@@ -9664,7 +9715,7 @@
     <row r="60" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E60" s="2">
         <v>128</v>
@@ -9685,7 +9736,7 @@
     <row r="61" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E61" s="2">
         <v>8</v>
@@ -9706,7 +9757,7 @@
     <row r="62" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D62">
         <f t="shared" ref="D62:D93" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2">
         <v>135</v>
@@ -9724,7 +9775,7 @@
     <row r="63" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E63" s="2">
         <v>56</v>
@@ -9745,7 +9796,7 @@
     <row r="64" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E64" s="2">
         <v>82</v>
@@ -9763,7 +9814,7 @@
     <row r="65" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E65" s="2">
         <v>112</v>
@@ -9781,7 +9832,7 @@
     <row r="66" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E66" s="2">
         <v>121</v>
@@ -9802,7 +9853,7 @@
     <row r="67" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E67" s="2">
         <v>30</v>
@@ -9820,7 +9871,7 @@
     <row r="68" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E68" s="2">
         <v>106</v>
@@ -9841,7 +9892,7 @@
     <row r="69" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E69" s="2">
         <v>64</v>
@@ -9862,7 +9913,7 @@
     <row r="70" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2">
         <v>147</v>
@@ -9883,7 +9934,7 @@
     <row r="71" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E71" s="2">
         <v>44</v>
@@ -9902,7 +9953,7 @@
     <row r="72" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2">
         <v>148</v>
@@ -9923,7 +9974,7 @@
     <row r="73" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2">
         <v>59</v>
@@ -9941,7 +9992,7 @@
     <row r="74" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E74" s="2">
         <v>132</v>
@@ -9959,7 +10010,7 @@
     <row r="75" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E75" s="2">
         <v>12</v>
@@ -9977,7 +10028,7 @@
     <row r="76" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E76" s="2">
         <v>26</v>
@@ -9998,7 +10049,7 @@
     <row r="77" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2">
         <v>43</v>
@@ -10019,7 +10070,7 @@
     <row r="78" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E78" s="2">
         <v>103</v>
@@ -10040,7 +10091,7 @@
     <row r="79" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E79" s="2">
         <v>99</v>
@@ -10058,7 +10109,7 @@
     <row r="80" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E80" s="2">
         <v>141</v>
@@ -10079,7 +10130,7 @@
     <row r="81" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2">
         <v>37</v>
@@ -10100,7 +10151,7 @@
     <row r="82" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E82" s="2">
         <v>4</v>
@@ -10121,7 +10172,7 @@
     <row r="83" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2">
         <v>119</v>
@@ -10142,7 +10193,7 @@
     <row r="84" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E84" s="2">
         <v>143</v>
@@ -10163,7 +10214,7 @@
     <row r="85" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E85" s="2">
         <v>32</v>
@@ -10181,7 +10232,7 @@
     <row r="86" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E86" s="2">
         <v>97</v>
@@ -10199,7 +10250,7 @@
     <row r="87" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E87" s="2">
         <v>120</v>
@@ -10220,7 +10271,7 @@
     <row r="88" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E88" s="2">
         <v>24</v>
@@ -10239,7 +10290,7 @@
     <row r="89" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E89" s="2">
         <v>110</v>
@@ -10257,7 +10308,7 @@
     <row r="90" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E90" s="2">
         <v>51</v>
@@ -10278,7 +10329,7 @@
     <row r="91" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E91" s="2">
         <v>18</v>
@@ -10299,7 +10350,7 @@
     <row r="92" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E92" s="2">
         <v>69</v>
@@ -10320,7 +10371,7 @@
     <row r="93" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E93" s="2">
         <v>15</v>
@@ -10335,7 +10386,7 @@
     <row r="94" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D94">
         <f t="shared" ref="D94:D125" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2">
         <v>142</v>
@@ -10359,7 +10410,7 @@
     <row r="95" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E95" s="2">
         <v>78</v>
@@ -10377,7 +10428,7 @@
     <row r="96" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E96" s="2">
         <v>2</v>
@@ -10416,7 +10467,7 @@
     <row r="98" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E98" s="2">
         <v>95</v>
@@ -10431,7 +10482,7 @@
     <row r="99" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E99" s="2">
         <v>80</v>
@@ -10449,7 +10500,7 @@
     <row r="100" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -10467,7 +10518,7 @@
     <row r="101" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E101" s="2">
         <v>67</v>
@@ -10482,7 +10533,7 @@
     <row r="102" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D102">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E102" s="2">
         <v>75</v>
@@ -10500,7 +10551,7 @@
     <row r="103" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D103">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E103" s="2">
         <v>76</v>
@@ -10516,7 +10567,7 @@
     <row r="104" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D104">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2">
         <v>133</v>
@@ -10534,7 +10585,7 @@
     <row r="105" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D105">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E105" s="2">
         <v>27</v>
@@ -10552,7 +10603,7 @@
     <row r="106" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D106">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E106" s="2">
         <v>28</v>
@@ -10567,7 +10618,7 @@
     <row r="107" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D107">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E107" s="2">
         <v>34</v>
@@ -10585,7 +10636,7 @@
     <row r="108" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D108">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E108" s="2">
         <v>93</v>
@@ -10603,7 +10654,7 @@
     <row r="109" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D109">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E109" s="2">
         <v>52</v>
@@ -10621,7 +10672,7 @@
     <row r="110" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D110">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E110" s="2">
         <v>131</v>
@@ -10642,7 +10693,7 @@
     <row r="111" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D111">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E111" s="2">
         <v>65</v>
@@ -10660,7 +10711,7 @@
     <row r="112" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D112">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E112" s="2">
         <v>74</v>
@@ -10678,7 +10729,7 @@
     <row r="113" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D113">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E113" s="2">
         <v>49</v>
@@ -10696,7 +10747,7 @@
     <row r="114" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D114">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E114" s="2">
         <v>41</v>
@@ -10711,7 +10762,7 @@
     <row r="115" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D115">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E115" s="2">
         <v>111</v>
@@ -10729,7 +10780,7 @@
     <row r="116" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D116">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E116" s="2">
         <v>90</v>
@@ -10747,7 +10798,7 @@
     <row r="117" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D117">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E117" s="2">
         <v>137</v>
@@ -10765,7 +10816,7 @@
     <row r="118" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D118">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E118" s="2">
         <v>20</v>
@@ -10780,7 +10831,7 @@
     <row r="119" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D119">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E119" s="2">
         <v>124</v>
@@ -10798,7 +10849,7 @@
     <row r="120" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D120">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E120" s="2">
         <v>138</v>
@@ -10816,7 +10867,7 @@
     <row r="121" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D121">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E121" s="2">
         <v>36</v>
@@ -10831,7 +10882,7 @@
     <row r="122" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D122">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="E122" s="2">
         <v>68</v>
@@ -10847,7 +10898,7 @@
     <row r="123" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D123">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E123" s="2">
         <v>22</v>
@@ -10865,7 +10916,7 @@
     <row r="124" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D124">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E124" s="2">
         <v>33</v>
@@ -10883,7 +10934,7 @@
     <row r="125" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D125">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E125" s="2">
         <v>125</v>
@@ -10901,7 +10952,7 @@
     <row r="126" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D126">
         <f t="shared" ref="D126:D157" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E126" s="2">
         <v>54</v>
@@ -10919,7 +10970,7 @@
     <row r="127" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D127">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="E127" s="2">
         <v>11</v>
@@ -10940,7 +10991,7 @@
     <row r="128" spans="4:10" x14ac:dyDescent="1.35">
       <c r="D128">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E128" s="2">
         <v>79</v>
@@ -10958,7 +11009,7 @@
     <row r="129" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D129">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="E129" s="2">
         <v>10</v>
@@ -10976,7 +11027,7 @@
     <row r="130" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D130">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E130" s="2">
         <v>17</v>
@@ -10991,7 +11042,7 @@
     <row r="131" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D131">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E131" s="2">
         <v>88</v>
@@ -11009,7 +11060,7 @@
     <row r="132" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E132" s="2">
         <v>98</v>
@@ -11027,7 +11078,7 @@
     <row r="133" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E133" s="2">
         <v>62</v>
@@ -11045,7 +11096,7 @@
     <row r="134" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E134" s="2">
         <v>19</v>
@@ -11063,7 +11114,7 @@
     <row r="135" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D135">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E135" s="2">
         <v>81</v>
@@ -11084,7 +11135,7 @@
     <row r="136" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E136" s="2">
         <v>23</v>
@@ -11102,7 +11153,7 @@
     <row r="137" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E137" s="2">
         <v>101</v>
@@ -11117,7 +11168,7 @@
     <row r="138" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E138" s="2">
         <v>84</v>
@@ -11132,7 +11183,7 @@
     <row r="139" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E139" s="2">
         <v>123</v>
@@ -11147,7 +11198,7 @@
     <row r="140" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E140" s="2">
         <v>48</v>
@@ -11165,7 +11216,7 @@
     <row r="141" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E141" s="2">
         <v>38</v>
@@ -11183,7 +11234,7 @@
     <row r="142" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D142">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E142" s="2">
         <v>102</v>
@@ -11204,7 +11255,7 @@
     <row r="143" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E143" s="2">
         <v>139</v>
@@ -11225,7 +11276,7 @@
     <row r="144" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F144" s="2">
         <v>17</v>
@@ -11243,7 +11294,7 @@
     <row r="145" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F145" s="2">
         <v>17</v>
@@ -11261,7 +11312,7 @@
     <row r="146" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F146" s="2">
         <v>17</v>
@@ -11279,7 +11330,7 @@
     <row r="147" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F147" s="2">
         <v>17</v>
@@ -11294,7 +11345,7 @@
     <row r="148" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F148" s="2">
         <v>17</v>
@@ -11315,7 +11366,7 @@
     <row r="149" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="F149" s="2">
         <v>17</v>
@@ -11336,7 +11387,7 @@
     <row r="150" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F150" s="2">
         <v>17</v>
@@ -11354,7 +11405,7 @@
     <row r="151" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F151" s="2">
         <v>17</v>
@@ -11372,7 +11423,7 @@
     <row r="152" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F152" s="2">
         <v>17</v>
@@ -11384,7 +11435,7 @@
     <row r="153" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2">
         <v>17</v>
@@ -11402,7 +11453,7 @@
     <row r="154" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F154" s="2">
         <v>17</v>
@@ -11420,7 +11471,7 @@
     <row r="155" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F155" s="2">
         <v>17</v>
@@ -11441,7 +11492,7 @@
     <row r="156" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F156" s="2">
         <v>17</v>
@@ -11462,7 +11513,7 @@
     <row r="157" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F157" s="2">
         <v>17</v>
@@ -11483,7 +11534,7 @@
     <row r="158" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D158">
         <f t="shared" ref="D158:D177" ca="1" si="5">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E158">
         <v>10</v>
@@ -11507,7 +11558,7 @@
     <row r="159" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D159">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E159">
         <v>17</v>
@@ -11531,7 +11582,7 @@
     <row r="160" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D160">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E160">
         <v>2</v>
@@ -11552,7 +11603,7 @@
     <row r="161" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D161">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E161">
         <v>3</v>
@@ -11573,7 +11624,7 @@
     <row r="162" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D162">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E162">
         <v>12</v>
@@ -11597,7 +11648,7 @@
     <row r="163" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D163">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E163">
         <v>18</v>
@@ -11624,7 +11675,7 @@
     <row r="164" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D164">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E164">
         <v>6</v>
@@ -11645,7 +11696,7 @@
     <row r="165" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D165">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E165">
         <v>13</v>
@@ -11669,7 +11720,7 @@
     <row r="166" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D166">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E166">
         <v>7</v>
@@ -11693,7 +11744,7 @@
     <row r="167" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D167">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E167">
         <v>8</v>
@@ -11717,7 +11768,7 @@
     <row r="168" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D168">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E168">
         <v>14</v>
@@ -11741,7 +11792,7 @@
     <row r="169" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D169">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E169">
         <v>19</v>
@@ -11765,7 +11816,7 @@
     <row r="170" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D170">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E170">
         <v>20</v>
@@ -11786,7 +11837,7 @@
     <row r="171" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D171">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -11807,7 +11858,7 @@
     <row r="172" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D172">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -11822,7 +11873,7 @@
     <row r="173" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D173">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E173">
         <v>11</v>
@@ -11846,7 +11897,7 @@
     <row r="174" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D174">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E174">
         <v>15</v>
@@ -11870,7 +11921,7 @@
     <row r="175" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D175">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E175">
         <v>4</v>
@@ -11888,7 +11939,7 @@
     <row r="176" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D176">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E176">
         <v>16</v>
@@ -11909,7 +11960,7 @@
     <row r="177" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D177">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="E177">
         <v>9</v>
@@ -11933,7 +11984,7 @@
     <row r="178" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D178">
         <f t="shared" ref="D178:D214" ca="1" si="6">RANDBETWEEN(0,100)</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E178">
         <v>13</v>
@@ -11954,7 +12005,7 @@
     <row r="179" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D179">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E179">
         <v>4</v>
@@ -11978,7 +12029,7 @@
     <row r="180" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D180">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E180">
         <v>5</v>
@@ -12002,7 +12053,7 @@
     <row r="181" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D181">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F181" s="2">
         <v>19</v>
@@ -12023,7 +12074,7 @@
     <row r="182" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D182">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="E182">
         <v>18</v>
@@ -12050,7 +12101,7 @@
     <row r="183" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D183">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E183">
         <v>14</v>
@@ -12074,7 +12125,7 @@
     <row r="184" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D184">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E184">
         <v>24</v>
@@ -12101,7 +12152,7 @@
     <row r="185" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D185">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E185">
         <v>23</v>
@@ -12128,7 +12179,7 @@
     <row r="186" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D186">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E186">
         <v>17</v>
@@ -12149,7 +12200,7 @@
     <row r="187" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D187">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E187">
         <v>22</v>
@@ -12170,7 +12221,7 @@
     <row r="188" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D188">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E188">
         <v>9</v>
@@ -12194,7 +12245,7 @@
     <row r="189" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D189">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E189">
         <v>19</v>
@@ -12218,7 +12269,7 @@
     <row r="190" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D190">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E190">
         <v>8</v>
@@ -12239,7 +12290,7 @@
     <row r="191" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D191">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -12263,7 +12314,7 @@
     <row r="192" spans="4:12" x14ac:dyDescent="1.35">
       <c r="D192">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E192">
         <v>20</v>
@@ -12290,7 +12341,7 @@
     <row r="193" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D193">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="E193">
         <v>7</v>
@@ -12308,7 +12359,7 @@
     <row r="194" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D194">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E194">
         <v>11</v>
@@ -12326,7 +12377,7 @@
     <row r="195" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D195">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E195">
         <v>16</v>
@@ -12350,7 +12401,7 @@
     <row r="196" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D196">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="E196">
         <v>6</v>
@@ -12371,7 +12422,7 @@
     <row r="197" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F197" s="2">
         <v>19</v>
@@ -12389,7 +12440,7 @@
     <row r="198" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="E198">
         <v>10</v>
@@ -12407,7 +12458,7 @@
     <row r="199" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E199">
         <v>21</v>
@@ -12452,7 +12503,7 @@
     <row r="201" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E201">
         <v>3</v>
@@ -12476,7 +12527,7 @@
     <row r="202" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E202">
         <v>15</v>
@@ -12500,7 +12551,7 @@
     <row r="203" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="E203">
         <v>9</v>
@@ -12524,7 +12575,7 @@
     <row r="204" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -12545,7 +12596,7 @@
     <row r="205" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E205">
         <v>5</v>
@@ -12566,7 +12617,7 @@
     <row r="206" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E206">
         <v>8</v>
@@ -12590,7 +12641,7 @@
     <row r="207" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -12611,7 +12662,7 @@
     <row r="208" spans="4:11" x14ac:dyDescent="1.35">
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E208">
         <v>10</v>
@@ -12632,7 +12683,7 @@
     <row r="209" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E209">
         <v>11</v>
@@ -12653,7 +12704,7 @@
     <row r="210" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E210">
         <v>7</v>
@@ -12674,7 +12725,7 @@
     <row r="211" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -12695,7 +12746,7 @@
     <row r="212" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E212">
         <v>2</v>
@@ -12716,7 +12767,7 @@
     <row r="213" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -12737,7 +12788,7 @@
     <row r="214" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="F214" s="2">
         <v>20</v>
@@ -12863,7 +12914,7 @@
     <row r="221" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D221">
         <f t="shared" ref="D221:D222" ca="1" si="7">RANDBETWEEN(0,100)</f>
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="F221" s="2">
         <v>12</v>
@@ -12884,7 +12935,7 @@
     <row r="222" spans="4:13" x14ac:dyDescent="1.35">
       <c r="D222">
         <f t="shared" ca="1" si="7"/>
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F222" s="2">
         <v>12</v>
@@ -12961,7 +13012,7 @@
     <row r="2" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>13</v>
@@ -12982,7 +13033,7 @@
     <row r="3" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>807</v>
@@ -13003,7 +13054,7 @@
     <row r="4" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A4">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>657</v>
@@ -13024,7 +13075,7 @@
     <row r="5" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A5">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7">
         <v>17</v>
@@ -13048,7 +13099,7 @@
     <row r="6" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A6">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B6" s="7">
         <v>12</v>
@@ -13069,7 +13120,7 @@
     <row r="7" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A7">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7">
         <v>13</v>
@@ -13090,7 +13141,7 @@
     <row r="8" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A8">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>807</v>
@@ -13117,7 +13168,7 @@
     <row r="9" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A9">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7">
         <v>12</v>
@@ -13135,7 +13186,7 @@
     <row r="10" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A10">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7">
         <v>14</v>
@@ -13159,7 +13210,7 @@
     <row r="11" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A11">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>856</v>
@@ -13180,7 +13231,7 @@
     <row r="12" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A12">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>962</v>
@@ -13204,7 +13255,7 @@
     <row r="13" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A13">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -13225,7 +13276,7 @@
     <row r="14" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A14">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>807</v>
@@ -13249,7 +13300,7 @@
     <row r="15" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A15">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B15" s="7">
         <v>12</v>
@@ -13267,7 +13318,7 @@
     <row r="16" spans="1:10" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A16">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B16" s="7">
         <v>13</v>
@@ -13288,7 +13339,7 @@
     <row r="17" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A17">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B17" s="7">
         <v>11</v>
@@ -13309,7 +13360,7 @@
     <row r="18" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A18">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B18" s="7">
         <v>12</v>
@@ -13350,7 +13401,7 @@
     <row r="20" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A20">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7">
         <v>13</v>
@@ -13371,7 +13422,7 @@
     <row r="21" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A21">
         <f t="shared" ref="A21:A26" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>807</v>
@@ -13392,7 +13443,7 @@
     <row r="22" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>856</v>
@@ -13413,7 +13464,7 @@
     <row r="23" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>962</v>
@@ -13437,7 +13488,7 @@
     <row r="24" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>962</v>
@@ -13458,7 +13509,7 @@
     <row r="25" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>657</v>
@@ -13479,7 +13530,7 @@
     <row r="26" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>807</v>
@@ -13520,7 +13571,7 @@
     <row r="28" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A28">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B28" s="7">
         <v>13</v>
@@ -13541,7 +13592,7 @@
     <row r="29" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A29">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>657</v>
@@ -13562,7 +13613,7 @@
     <row r="30" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A30">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>962</v>
@@ -13583,7 +13634,7 @@
     <row r="31" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A31">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B31" s="7">
         <v>12</v>
@@ -13607,7 +13658,7 @@
     <row r="32" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A32">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>657</v>
@@ -13628,7 +13679,7 @@
     <row r="33" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A33">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>856</v>
@@ -13649,7 +13700,7 @@
     <row r="34" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A34">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>807</v>
@@ -13670,7 +13721,7 @@
     <row r="35" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A35">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B35" s="7">
         <v>12</v>
@@ -13685,7 +13736,7 @@
     <row r="36" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A36">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>807</v>
@@ -13706,7 +13757,7 @@
     <row r="37" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A37">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>657</v>
@@ -13727,7 +13778,7 @@
     <row r="38" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A38">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B38" s="7">
         <v>12</v>
@@ -13748,7 +13799,7 @@
     <row r="39" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A39">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>657</v>
@@ -13789,7 +13840,7 @@
     <row r="41" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A41">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B41" s="7">
         <v>12</v>
@@ -13804,7 +13855,7 @@
     <row r="42" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A42">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B42" s="7">
         <v>13</v>
@@ -13825,7 +13876,7 @@
     <row r="43" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A43">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>856</v>
@@ -13846,7 +13897,7 @@
     <row r="44" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A44">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B44" s="7">
         <v>11</v>
@@ -13867,7 +13918,7 @@
     <row r="45" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A45">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>962</v>
@@ -13888,7 +13939,7 @@
     <row r="46" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A46">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>657</v>
@@ -13909,7 +13960,7 @@
     <row r="47" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A47">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B47" s="7">
         <v>12</v>
@@ -13930,7 +13981,7 @@
     <row r="48" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A48">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>962</v>
@@ -13954,7 +14005,7 @@
     <row r="49" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A49">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>962</v>
@@ -13975,7 +14026,7 @@
     <row r="50" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A50">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="7">
         <v>12</v>
@@ -13993,7 +14044,7 @@
     <row r="51" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A51">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B51" s="7">
         <v>12</v>
@@ -14014,7 +14065,7 @@
     <row r="52" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A52">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>807</v>
@@ -14035,7 +14086,7 @@
     <row r="53" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A53">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B53" s="7">
         <v>14</v>
@@ -14116,7 +14167,7 @@
     <row r="57" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A57">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B57" s="7">
         <v>12</v>
@@ -14137,7 +14188,7 @@
     <row r="58" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A58">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>807</v>
@@ -14158,7 +14209,7 @@
     <row r="59" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A59">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B59" s="7">
         <v>14</v>
@@ -14179,7 +14230,7 @@
     <row r="60" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A60">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B60" s="7">
         <v>12</v>
@@ -14200,7 +14251,7 @@
     <row r="61" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A61">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>807</v>
@@ -14224,7 +14275,7 @@
     <row r="62" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A62">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B62" s="7">
         <v>11</v>
@@ -14245,7 +14296,7 @@
     <row r="63" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A63">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>856</v>
@@ -14286,7 +14337,7 @@
     <row r="65" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A65">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>856</v>
@@ -14307,7 +14358,7 @@
     <row r="66" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A66">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B66" s="7">
         <v>11</v>
@@ -14328,7 +14379,7 @@
     <row r="67" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A67">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B67" s="7">
         <v>14</v>
@@ -14349,7 +14400,7 @@
     <row r="68" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A68">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B68" s="7">
         <v>14</v>
@@ -14370,7 +14421,7 @@
     <row r="69" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A69">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>856</v>
@@ -14391,7 +14442,7 @@
     <row r="70" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A70">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>807</v>
@@ -14412,7 +14463,7 @@
     <row r="71" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A71">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>856</v>
@@ -14436,7 +14487,7 @@
     <row r="72" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A72">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B72" s="7">
         <v>12</v>
@@ -14454,7 +14505,7 @@
     <row r="73" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A73">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>807</v>
@@ -14475,7 +14526,7 @@
     <row r="74" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A74">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B74" s="7">
         <v>13</v>
@@ -14496,7 +14547,7 @@
     <row r="75" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A75">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B75" s="7">
         <v>13</v>
@@ -14517,7 +14568,7 @@
     <row r="76" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A76">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>807</v>
@@ -14538,7 +14589,7 @@
     <row r="77" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A77">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>657</v>
@@ -14562,7 +14613,7 @@
     <row r="78" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A78">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>657</v>
@@ -14586,7 +14637,7 @@
     <row r="79" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A79">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B79" s="7">
         <v>13</v>
@@ -14607,7 +14658,7 @@
     <row r="80" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A80">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="B80" s="7">
         <v>13</v>
@@ -14628,7 +14679,7 @@
     <row r="81" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A81">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B81" s="7">
         <v>13</v>
@@ -14649,7 +14700,7 @@
     <row r="82" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A82">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>962</v>
@@ -14670,7 +14721,7 @@
     <row r="83" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A83">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>657</v>
@@ -14691,7 +14742,7 @@
     <row r="84" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A84">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>856</v>
@@ -14712,7 +14763,7 @@
     <row r="85" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A85">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>807</v>
@@ -14733,7 +14784,7 @@
     <row r="86" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A86">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B86" s="7">
         <v>11</v>
@@ -14794,7 +14845,7 @@
     <row r="89" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A89">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>856</v>
@@ -14815,7 +14866,7 @@
     <row r="90" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A90">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B90" s="7">
         <v>14</v>
@@ -14842,7 +14893,7 @@
     <row r="91" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A91">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B91" s="7">
         <v>13</v>
@@ -14863,7 +14914,7 @@
     <row r="92" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A92">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>657</v>
@@ -14884,7 +14935,7 @@
     <row r="93" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A93">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>657</v>
@@ -14931,7 +14982,7 @@
     <row r="95" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A95">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>856</v>
@@ -14952,7 +15003,7 @@
     <row r="96" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A96">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>962</v>
@@ -14973,7 +15024,7 @@
     <row r="97" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A97">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>962</v>
@@ -14997,7 +15048,7 @@
     <row r="98" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A98">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B98" s="7">
         <v>12</v>
@@ -15015,7 +15066,7 @@
     <row r="99" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A99">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B99" s="7">
         <v>12</v>
@@ -15033,7 +15084,7 @@
     <row r="100" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A100">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>657</v>
@@ -15074,7 +15125,7 @@
     <row r="102" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A102">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>657</v>
@@ -15095,7 +15146,7 @@
     <row r="103" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A103">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>807</v>
@@ -15119,7 +15170,7 @@
     <row r="104" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A104">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B104" s="7">
         <v>18</v>
@@ -15140,7 +15191,7 @@
     <row r="105" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A105">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B105" s="7">
         <v>11</v>
@@ -15161,7 +15212,7 @@
     <row r="106" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A106">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>807</v>
@@ -15182,7 +15233,7 @@
     <row r="107" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A107">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>657</v>
@@ -15203,7 +15254,7 @@
     <row r="108" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A108">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>807</v>
@@ -15224,7 +15275,7 @@
     <row r="109" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A109">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B109" s="7">
         <v>13</v>
@@ -15245,7 +15296,7 @@
     <row r="110" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A110">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B110" s="7">
         <v>14</v>
@@ -15266,7 +15317,7 @@
     <row r="111" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A111">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>807</v>
@@ -15287,7 +15338,7 @@
     <row r="112" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A112">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B112" s="7">
         <v>13</v>
@@ -15308,7 +15359,7 @@
     <row r="113" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A113">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B113" s="7">
         <v>13</v>
@@ -15332,7 +15383,7 @@
     <row r="114" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A114">
         <f t="shared" ref="A114:A119" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B114" s="7">
         <v>17</v>
@@ -15356,7 +15407,7 @@
     <row r="115" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>856</v>
@@ -15377,7 +15428,7 @@
     <row r="116" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A116">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>962</v>
@@ -15398,7 +15449,7 @@
     <row r="117" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A117">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>962</v>
@@ -15419,7 +15470,7 @@
     <row r="118" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>807</v>
@@ -15440,7 +15491,7 @@
     <row r="119" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A119">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>856</v>
@@ -15461,7 +15512,7 @@
     <row r="120" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A120">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B120" s="7">
         <v>12</v>
@@ -15482,7 +15533,7 @@
     <row r="121" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A121">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>807</v>
@@ -15503,7 +15554,7 @@
     <row r="122" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A122">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B122" s="7">
         <v>12</v>
@@ -15518,7 +15569,7 @@
     <row r="123" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A123">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>807</v>
@@ -15539,7 +15590,7 @@
     <row r="124" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A124">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>962</v>
@@ -15560,7 +15611,7 @@
     <row r="125" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A125">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B125" s="7">
         <v>11</v>
@@ -15581,7 +15632,7 @@
     <row r="126" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A126">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>657</v>
@@ -15602,7 +15653,7 @@
     <row r="127" spans="1:9" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A127">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B127" s="7">
         <v>13</v>
@@ -15666,7 +15717,7 @@
     <row r="130" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A130">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B130" s="7">
         <v>12</v>
@@ -15687,7 +15738,7 @@
     <row r="131" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A131">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>657</v>
@@ -15711,7 +15762,7 @@
     <row r="132" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A132">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>657</v>
@@ -15732,7 +15783,7 @@
     <row r="133" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A133">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B133" s="7">
         <v>20</v>
@@ -15753,7 +15804,7 @@
     <row r="134" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A134">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B134" s="7">
         <v>20</v>
@@ -15777,7 +15828,7 @@
     <row r="135" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A135">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B135" s="7">
         <v>20</v>
@@ -15798,7 +15849,7 @@
     <row r="136" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A136">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B136" s="7">
         <v>20</v>
@@ -15822,7 +15873,7 @@
     <row r="137" spans="1:7" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A137">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B137" s="7">
         <v>20</v>
@@ -20074,8 +20125,8 @@
   <dimension ref="A1:R508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A483" sqref="A483:B491"/>
+      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F499" sqref="F499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -20092,7 +20143,7 @@
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>761</v>
@@ -20460,7 +20511,7 @@
     <row r="27" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A27">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B27" s="16">
         <v>17</v>
@@ -20475,7 +20526,7 @@
     <row r="28" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A28">
         <f t="shared" ref="A28:A44" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B28" s="16">
         <v>17</v>
@@ -20490,7 +20541,7 @@
     <row r="29" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="16">
         <v>17</v>
@@ -20505,7 +20556,7 @@
     <row r="30" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B30" s="16">
         <v>17</v>
@@ -20520,7 +20571,7 @@
     <row r="31" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B31" s="16">
         <v>17</v>
@@ -20538,7 +20589,7 @@
     <row r="32" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B32" s="16">
         <v>17</v>
@@ -20553,7 +20604,7 @@
     <row r="33" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B33" s="16">
         <v>17</v>
@@ -20568,7 +20619,7 @@
     <row r="34" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B34" s="16">
         <v>17</v>
@@ -20583,7 +20634,7 @@
     <row r="35" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B35" s="16">
         <v>17</v>
@@ -20598,7 +20649,7 @@
     <row r="36" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B36" s="16">
         <v>17</v>
@@ -20613,7 +20664,7 @@
     <row r="37" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B37" s="16">
         <v>17</v>
@@ -20628,7 +20679,7 @@
     <row r="38" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B38" s="16">
         <v>17</v>
@@ -20643,7 +20694,7 @@
     <row r="39" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B39" s="16">
         <v>17</v>
@@ -20673,7 +20724,7 @@
     <row r="41" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B41" s="16">
         <v>17</v>
@@ -20688,7 +20739,7 @@
     <row r="42" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="B42" s="16">
         <v>17</v>
@@ -20703,7 +20754,7 @@
     <row r="43" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B43" s="16">
         <v>18</v>
@@ -20721,7 +20772,7 @@
     <row r="44" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B44" s="16">
         <v>18</v>
@@ -21245,7 +21296,7 @@
     <row r="88" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A88">
         <f t="shared" ref="A88:A115" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B88" s="16">
         <v>25</v>
@@ -21263,7 +21314,7 @@
     <row r="89" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A89">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B89" s="16">
         <v>24</v>
@@ -21281,7 +21332,7 @@
     <row r="90" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A90">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B90" s="16">
         <v>23</v>
@@ -21299,7 +21350,7 @@
     <row r="91" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B91" s="16">
         <v>25</v>
@@ -21317,7 +21368,7 @@
     <row r="92" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B92" s="16">
         <v>23</v>
@@ -21332,7 +21383,7 @@
     <row r="93" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A93">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B93" s="16">
         <v>25</v>
@@ -21350,7 +21401,7 @@
     <row r="94" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B94" s="16">
         <v>25</v>
@@ -21368,7 +21419,7 @@
     <row r="95" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A95">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B95" s="16">
         <v>25</v>
@@ -21383,7 +21434,7 @@
     <row r="96" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B96" s="16">
         <v>25</v>
@@ -21401,7 +21452,7 @@
     <row r="97" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A97">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B97" s="16">
         <v>23</v>
@@ -21419,7 +21470,7 @@
     <row r="98" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B98" s="16">
         <v>23</v>
@@ -21434,7 +21485,7 @@
     <row r="99" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B99" s="16">
         <v>23</v>
@@ -21452,7 +21503,7 @@
     <row r="100" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B100" s="16">
         <v>23</v>
@@ -21470,7 +21521,7 @@
     <row r="101" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A101">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B101" s="16">
         <v>24</v>
@@ -21488,7 +21539,7 @@
     <row r="102" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B102" s="16">
         <v>23</v>
@@ -21506,7 +21557,7 @@
     <row r="103" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A103">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="B103" s="16">
         <v>23</v>
@@ -21524,7 +21575,7 @@
     <row r="104" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B104" s="16">
         <v>23</v>
@@ -21542,7 +21593,7 @@
     <row r="105" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B105" s="16">
         <v>25</v>
@@ -21560,7 +21611,7 @@
     <row r="106" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A106">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B106" s="16">
         <v>24</v>
@@ -21578,7 +21629,7 @@
     <row r="107" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A107">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B107" s="16">
         <v>25</v>
@@ -21596,7 +21647,7 @@
     <row r="108" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B108" s="16">
         <v>25</v>
@@ -21614,7 +21665,7 @@
     <row r="109" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B109" s="16">
         <v>24</v>
@@ -21632,7 +21683,7 @@
     <row r="110" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B110" s="16">
         <v>24</v>
@@ -21650,7 +21701,7 @@
     <row r="111" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="B111" s="16">
         <v>25</v>
@@ -21668,7 +21719,7 @@
     <row r="112" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A112">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B112" s="16">
         <v>25</v>
@@ -21686,7 +21737,7 @@
     <row r="113" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A113">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B113" s="16">
         <v>24</v>
@@ -21704,7 +21755,7 @@
     <row r="114" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A114">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B114" s="16">
         <v>24</v>
@@ -21722,7 +21773,7 @@
     <row r="115" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B115" s="16">
         <v>28</v>
@@ -21740,7 +21791,7 @@
     <row r="116" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A116">
         <f t="shared" ref="A116:A123" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B116" s="16">
         <v>23</v>
@@ -21758,7 +21809,7 @@
     <row r="117" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A117">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B117" s="16">
         <v>23</v>
@@ -21776,7 +21827,7 @@
     <row r="118" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A118">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B118" s="16">
         <v>23</v>
@@ -21791,7 +21842,7 @@
     <row r="119" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A119">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B119" s="16">
         <v>23</v>
@@ -21809,7 +21860,7 @@
     <row r="120" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A120">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B120" s="16">
         <v>25</v>
@@ -21827,7 +21878,7 @@
     <row r="121" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A121">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B121" s="16">
         <v>24</v>
@@ -21845,7 +21896,7 @@
     <row r="122" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A122">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B122" s="16">
         <v>25</v>
@@ -21863,7 +21914,7 @@
     <row r="123" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A123">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B123" s="16">
         <v>25</v>
@@ -21881,7 +21932,7 @@
     <row r="124" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A124">
         <f t="shared" ref="A124:A187" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B124" s="16">
         <v>23</v>
@@ -21899,7 +21950,7 @@
     <row r="125" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B125" s="16">
         <v>23</v>
@@ -21917,7 +21968,7 @@
     <row r="126" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A126">
         <f t="shared" ref="A126:A159" ca="1" si="4">RANDBETWEEN(1,100)</f>
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B126" s="16">
         <v>26</v>
@@ -21935,7 +21986,7 @@
     <row r="127" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A127">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B127" s="16">
         <v>26</v>
@@ -21953,7 +22004,7 @@
     <row r="128" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A128">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B128" s="16">
         <v>26</v>
@@ -21971,7 +22022,7 @@
     <row r="129" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A129">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B129" s="16">
         <v>26</v>
@@ -21989,7 +22040,7 @@
     <row r="130" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A130">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B130" s="16">
         <v>26</v>
@@ -22007,7 +22058,7 @@
     <row r="131" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A131">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B131" s="16">
         <v>26</v>
@@ -22025,7 +22076,7 @@
     <row r="132" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A132">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B132" s="16">
         <v>26</v>
@@ -22043,7 +22094,7 @@
     <row r="133" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A133">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B133" s="16">
         <v>26</v>
@@ -22061,7 +22112,7 @@
     <row r="134" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A134">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B134" s="16">
         <v>26</v>
@@ -22079,7 +22130,7 @@
     <row r="135" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A135">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B135" s="16">
         <v>26</v>
@@ -22097,7 +22148,7 @@
     <row r="136" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A136">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B136" s="16">
         <v>26</v>
@@ -22115,7 +22166,7 @@
     <row r="137" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A137">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B137" s="16">
         <v>26</v>
@@ -22151,7 +22202,7 @@
     <row r="139" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A139">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B139" s="16">
         <v>26</v>
@@ -22169,7 +22220,7 @@
     <row r="140" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A140">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B140" s="16">
         <v>26</v>
@@ -22187,7 +22238,7 @@
     <row r="141" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A141">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B141" s="16">
         <v>26</v>
@@ -22205,7 +22256,7 @@
     <row r="142" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A142">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B142" s="16">
         <v>26</v>
@@ -22223,7 +22274,7 @@
     <row r="143" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A143">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B143" s="16">
         <v>26</v>
@@ -22241,7 +22292,7 @@
     <row r="144" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A144">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B144" s="16">
         <v>26</v>
@@ -22259,7 +22310,7 @@
     <row r="145" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A145">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B145" s="16">
         <v>26</v>
@@ -22277,7 +22328,7 @@
     <row r="146" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A146">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B146" s="16">
         <v>26</v>
@@ -22295,7 +22346,7 @@
     <row r="147" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A147">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B147" s="16">
         <v>26</v>
@@ -22313,7 +22364,7 @@
     <row r="148" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A148">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B148" s="16">
         <v>26</v>
@@ -22331,7 +22382,7 @@
     <row r="149" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A149">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B149" s="16">
         <v>26</v>
@@ -22349,7 +22400,7 @@
     <row r="150" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A150">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B150" s="16">
         <v>26</v>
@@ -22367,7 +22418,7 @@
     <row r="151" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A151">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B151" s="16">
         <v>26</v>
@@ -22385,7 +22436,7 @@
     <row r="152" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A152">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B152" s="16">
         <v>26</v>
@@ -22406,7 +22457,7 @@
     <row r="153" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A153">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B153" s="16">
         <v>26</v>
@@ -22424,7 +22475,7 @@
     <row r="154" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A154">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B154" s="16">
         <v>26</v>
@@ -22442,7 +22493,7 @@
     <row r="155" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A155">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B155" s="16">
         <v>26</v>
@@ -22460,7 +22511,7 @@
     <row r="156" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A156">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B156" s="16">
         <v>26</v>
@@ -22478,7 +22529,7 @@
     <row r="157" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A157">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B157" s="16">
         <v>26</v>
@@ -22496,7 +22547,7 @@
     <row r="158" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A158">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B158" s="16">
         <v>26</v>
@@ -22517,7 +22568,7 @@
     <row r="159" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A159">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B159" s="16">
         <v>26</v>
@@ -22535,7 +22586,7 @@
     <row r="160" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A160">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B160" s="16">
         <v>27</v>
@@ -22553,7 +22604,7 @@
     <row r="161" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A161">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B161" s="16">
         <v>27</v>
@@ -22571,7 +22622,7 @@
     <row r="162" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A162">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B162" s="16">
         <v>27</v>
@@ -22589,7 +22640,7 @@
     <row r="163" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A163">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B163" s="16">
         <v>27</v>
@@ -22607,7 +22658,7 @@
     <row r="164" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A164">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B164" s="16">
         <v>27</v>
@@ -22625,7 +22676,7 @@
     <row r="165" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A165">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B165" s="16">
         <v>27</v>
@@ -22643,7 +22694,7 @@
     <row r="166" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A166">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B166" s="16">
         <v>27</v>
@@ -22661,7 +22712,7 @@
     <row r="167" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A167">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B167" s="16">
         <v>27</v>
@@ -22679,7 +22730,7 @@
     <row r="168" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A168">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B168" s="16">
         <v>27</v>
@@ -22697,7 +22748,7 @@
     <row r="169" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A169">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B169" s="16">
         <v>27</v>
@@ -22715,7 +22766,7 @@
     <row r="170" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A170">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B170" s="16">
         <v>27</v>
@@ -22733,7 +22784,7 @@
     <row r="171" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A171">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B171" s="16">
         <v>27</v>
@@ -22751,7 +22802,7 @@
     <row r="172" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A172">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B172" s="16">
         <v>27</v>
@@ -22769,7 +22820,7 @@
     <row r="173" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A173">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B173" s="16">
         <v>27</v>
@@ -22787,7 +22838,7 @@
     <row r="174" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A174">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B174" s="16">
         <v>27</v>
@@ -22805,7 +22856,7 @@
     <row r="175" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A175">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B175" s="16">
         <v>27</v>
@@ -22823,7 +22874,7 @@
     <row r="176" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A176">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B176" s="16">
         <v>27</v>
@@ -22841,7 +22892,7 @@
     <row r="177" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A177">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B177" s="16">
         <v>27</v>
@@ -22859,7 +22910,7 @@
     <row r="178" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A178">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B178" s="16">
         <v>27</v>
@@ -22877,7 +22928,7 @@
     <row r="179" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A179">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B179" s="16">
         <v>27</v>
@@ -22895,7 +22946,7 @@
     <row r="180" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A180">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B180" s="16">
         <v>27</v>
@@ -22913,7 +22964,7 @@
     <row r="181" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A181">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B181" s="16">
         <v>27</v>
@@ -22931,7 +22982,7 @@
     <row r="182" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A182">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B182" s="16">
         <v>27</v>
@@ -22949,7 +23000,7 @@
     <row r="183" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A183">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B183" s="16">
         <v>27</v>
@@ -22967,7 +23018,7 @@
     <row r="184" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A184">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B184" s="16">
         <v>27</v>
@@ -22985,7 +23036,7 @@
     <row r="185" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A185">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B185" s="16">
         <v>27</v>
@@ -23003,7 +23054,7 @@
     <row r="186" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A186">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B186" s="16">
         <v>28</v>
@@ -23021,7 +23072,7 @@
     <row r="187" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A187">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B187" s="16">
         <v>28</v>
@@ -23039,7 +23090,7 @@
     <row r="188" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A188">
         <f t="shared" ref="A188:A251" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B188" s="16">
         <v>28</v>
@@ -23057,7 +23108,7 @@
     <row r="189" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A189">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B189" s="16">
         <v>28</v>
@@ -23075,7 +23126,7 @@
     <row r="190" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A190">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B190" s="16">
         <v>28</v>
@@ -23093,7 +23144,7 @@
     <row r="191" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A191">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B191" s="16">
         <v>28</v>
@@ -23111,7 +23162,7 @@
     <row r="192" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A192">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B192" s="16">
         <v>28</v>
@@ -23129,7 +23180,7 @@
     <row r="193" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A193">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B193" s="16">
         <v>28</v>
@@ -23147,7 +23198,7 @@
     <row r="194" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A194">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B194" s="16">
         <v>28</v>
@@ -23165,7 +23216,7 @@
     <row r="195" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A195">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B195" s="16">
         <v>28</v>
@@ -23183,7 +23234,7 @@
     <row r="196" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A196">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B196" s="16">
         <v>28</v>
@@ -23201,7 +23252,7 @@
     <row r="197" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A197">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="B197" s="16">
         <v>28</v>
@@ -23219,7 +23270,7 @@
     <row r="198" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A198">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B198" s="16">
         <v>28</v>
@@ -23237,7 +23288,7 @@
     <row r="199" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A199">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B199" s="16">
         <v>28</v>
@@ -23255,7 +23306,7 @@
     <row r="200" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A200">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B200" s="16">
         <v>28</v>
@@ -23273,7 +23324,7 @@
     <row r="201" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A201">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B201" s="16">
         <v>28</v>
@@ -23291,7 +23342,7 @@
     <row r="202" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A202">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B202" s="16">
         <v>28</v>
@@ -23309,7 +23360,7 @@
     <row r="203" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A203">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B203" s="16">
         <v>28</v>
@@ -23327,7 +23378,7 @@
     <row r="204" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A204">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B204" s="16">
         <v>28</v>
@@ -23345,7 +23396,7 @@
     <row r="205" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A205">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B205" s="16">
         <v>28</v>
@@ -23363,7 +23414,7 @@
     <row r="206" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A206">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B206" s="16">
         <v>28</v>
@@ -23381,7 +23432,7 @@
     <row r="207" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A207">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B207" s="16">
         <v>28</v>
@@ -23399,7 +23450,7 @@
     <row r="208" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A208">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B208" s="16">
         <v>28</v>
@@ -23417,7 +23468,7 @@
     <row r="209" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A209">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B209" s="16">
         <v>28</v>
@@ -23435,7 +23486,7 @@
     <row r="210" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A210">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B210" s="16">
         <v>28</v>
@@ -23453,7 +23504,7 @@
     <row r="211" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A211">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B211" s="16">
         <v>28</v>
@@ -23471,7 +23522,7 @@
     <row r="212" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A212">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B212" s="16">
         <v>28</v>
@@ -23489,7 +23540,7 @@
     <row r="213" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A213">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B213" s="16">
         <v>28</v>
@@ -23507,7 +23558,7 @@
     <row r="214" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A214">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B214" s="16">
         <v>28</v>
@@ -23525,7 +23576,7 @@
     <row r="215" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A215">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B215" s="16">
         <v>28</v>
@@ -23543,7 +23594,7 @@
     <row r="216" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A216">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B216" s="16">
         <v>28</v>
@@ -23561,7 +23612,7 @@
     <row r="217" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A217">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B217" s="16">
         <v>28</v>
@@ -23579,7 +23630,7 @@
     <row r="218" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A218">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="B218" s="16">
         <v>28</v>
@@ -23597,7 +23648,7 @@
     <row r="219" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A219">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B219" s="16">
         <v>28</v>
@@ -23615,7 +23666,7 @@
     <row r="220" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A220">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B220" s="16">
         <v>28</v>
@@ -23633,7 +23684,7 @@
     <row r="221" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A221">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B221" s="16">
         <v>28</v>
@@ -23651,7 +23702,7 @@
     <row r="222" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A222">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B222" s="16">
         <v>28</v>
@@ -23669,7 +23720,7 @@
     <row r="223" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A223">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B223" s="16">
         <v>28</v>
@@ -23687,7 +23738,7 @@
     <row r="224" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A224">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B224" s="16">
         <v>28</v>
@@ -23705,7 +23756,7 @@
     <row r="225" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A225">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B225" s="16">
         <v>28</v>
@@ -23723,7 +23774,7 @@
     <row r="226" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A226">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B226" s="16">
         <v>28</v>
@@ -23741,7 +23792,7 @@
     <row r="227" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A227">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B227" s="16">
         <v>28</v>
@@ -23759,7 +23810,7 @@
     <row r="228" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A228">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B228" s="16">
         <v>28</v>
@@ -23777,7 +23828,7 @@
     <row r="229" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A229">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B229" s="16">
         <v>28</v>
@@ -23804,7 +23855,7 @@
     <row r="231" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A231">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B231" s="16">
         <v>31</v>
@@ -23822,7 +23873,7 @@
     <row r="232" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A232">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B232" s="16">
         <v>31</v>
@@ -23840,7 +23891,7 @@
     <row r="233" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A233">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B233" s="16">
         <v>31</v>
@@ -23858,7 +23909,7 @@
     <row r="234" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A234">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B234" s="16">
         <v>31</v>
@@ -23876,7 +23927,7 @@
     <row r="235" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A235">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B235" s="16">
         <v>31</v>
@@ -23894,7 +23945,7 @@
     <row r="236" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A236">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B236" s="16">
         <v>31</v>
@@ -23910,7 +23961,7 @@
     <row r="237" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A237">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B237" s="16">
         <v>31</v>
@@ -23928,7 +23979,7 @@
     <row r="238" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A238">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B238" s="16">
         <v>31</v>
@@ -23946,7 +23997,7 @@
     <row r="239" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A239">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B239" s="16">
         <v>31</v>
@@ -23964,7 +24015,7 @@
     <row r="240" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A240">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B240" s="16">
         <v>31</v>
@@ -23982,7 +24033,7 @@
     <row r="241" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A241">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B241" s="16">
         <v>31</v>
@@ -24000,7 +24051,7 @@
     <row r="242" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A242">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B242" s="16">
         <v>31</v>
@@ -24018,7 +24069,7 @@
     <row r="243" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A243">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B243" s="16">
         <v>31</v>
@@ -24036,7 +24087,7 @@
     <row r="244" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A244">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B244" s="16">
         <v>31</v>
@@ -24054,7 +24105,7 @@
     <row r="245" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A245">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B245" s="16">
         <v>30</v>
@@ -24090,7 +24141,7 @@
     <row r="247" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A247">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B247" s="16">
         <v>30</v>
@@ -24108,7 +24159,7 @@
     <row r="248" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A248">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B248" s="16">
         <v>30</v>
@@ -24126,7 +24177,7 @@
     <row r="249" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A249">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="B249" s="16" t="s">
         <v>1795</v>
@@ -24144,7 +24195,7 @@
     <row r="250" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A250">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B250" s="16" t="s">
         <v>1795</v>
@@ -24160,7 +24211,7 @@
     <row r="251" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A251">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B251" s="16" t="s">
         <v>1795</v>
@@ -24176,7 +24227,7 @@
     <row r="252" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A252">
         <f t="shared" ref="A252:A298" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>1795</v>
@@ -24192,7 +24243,7 @@
     <row r="253" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A253">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B253" s="16" t="s">
         <v>1795</v>
@@ -24208,7 +24259,7 @@
     <row r="254" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A254">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B254" s="16" t="s">
         <v>1795</v>
@@ -24224,7 +24275,7 @@
     <row r="255" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A255">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B255" s="16" t="s">
         <v>1795</v>
@@ -24240,7 +24291,7 @@
     <row r="256" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A256">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B256" s="16" t="s">
         <v>1795</v>
@@ -24256,7 +24307,7 @@
     <row r="257" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A257">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B257" s="16" t="s">
         <v>1795</v>
@@ -24272,7 +24323,7 @@
     <row r="258" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A258">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B258" s="16" t="s">
         <v>1795</v>
@@ -24288,7 +24339,7 @@
     <row r="259" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A259">
         <f t="shared" ca="1" si="6"/>
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B259" s="16" t="s">
         <v>1795</v>
@@ -24304,7 +24355,7 @@
     <row r="260" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A260">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B260" s="16" t="s">
         <v>1795</v>
@@ -24320,7 +24371,7 @@
     <row r="261" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A261">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B261" s="16" t="s">
         <v>1795</v>
@@ -24336,7 +24387,7 @@
     <row r="262" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A262">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B262" s="16" t="s">
         <v>1795</v>
@@ -24352,7 +24403,7 @@
     <row r="263" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A263">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B263" s="16" t="s">
         <v>1795</v>
@@ -24368,7 +24419,7 @@
     <row r="264" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A264">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B264" s="16" t="s">
         <v>1795</v>
@@ -24384,7 +24435,7 @@
     <row r="265" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A265">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B265" s="16" t="s">
         <v>1795</v>
@@ -24400,7 +24451,7 @@
     <row r="266" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A266">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B266" s="16" t="s">
         <v>1795</v>
@@ -24416,7 +24467,7 @@
     <row r="267" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A267">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B267" s="16">
         <v>33</v>
@@ -24434,7 +24485,7 @@
     <row r="268" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A268">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B268" s="16">
         <v>33</v>
@@ -24450,7 +24501,7 @@
     <row r="269" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A269">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B269" s="16">
         <v>33</v>
@@ -24466,7 +24517,7 @@
     <row r="270" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A270">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B270" s="16">
         <v>33</v>
@@ -24482,7 +24533,7 @@
     <row r="271" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A271">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B271" s="16">
         <v>33</v>
@@ -24498,7 +24549,7 @@
     <row r="272" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A272">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B272" s="16">
         <v>33</v>
@@ -24514,7 +24565,7 @@
     <row r="273" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A273">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B273" s="16">
         <v>33</v>
@@ -24530,7 +24581,7 @@
     <row r="274" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A274">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B274" s="16">
         <v>33</v>
@@ -24546,7 +24597,7 @@
     <row r="275" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A275">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B275" s="16">
         <v>33</v>
@@ -24562,7 +24613,7 @@
     <row r="276" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A276">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B276" s="16">
         <v>32</v>
@@ -24578,7 +24629,7 @@
     <row r="277" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A277">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B277" s="16">
         <v>32</v>
@@ -24594,7 +24645,7 @@
     <row r="278" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A278">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B278" s="16">
         <v>34</v>
@@ -24613,7 +24664,7 @@
     <row r="279" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A279">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B279" s="16">
         <v>34</v>
@@ -24632,7 +24683,7 @@
     <row r="280" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A280">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B280" s="16">
         <v>34</v>
@@ -24651,7 +24702,7 @@
     <row r="281" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A281">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B281" s="16">
         <v>34</v>
@@ -24672,7 +24723,7 @@
     <row r="282" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A282">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B282" s="16">
         <v>34</v>
@@ -24693,7 +24744,7 @@
     <row r="283" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A283">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B283" s="16">
         <v>34</v>
@@ -24714,7 +24765,7 @@
     <row r="284" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A284">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B284" s="16">
         <v>34</v>
@@ -24735,7 +24786,7 @@
     <row r="285" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A285">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B285" s="16">
         <v>34</v>
@@ -24756,7 +24807,7 @@
     <row r="286" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A286">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="B286" s="16">
         <v>35</v>
@@ -24777,7 +24828,7 @@
     <row r="287" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A287">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B287" s="16">
         <v>35</v>
@@ -24798,7 +24849,7 @@
     <row r="288" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A288">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B288" s="16">
         <v>35</v>
@@ -24819,7 +24870,7 @@
     <row r="289" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A289">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B289" s="16">
         <v>35</v>
@@ -24838,7 +24889,7 @@
     <row r="290" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A290">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B290" s="16">
         <v>35</v>
@@ -24859,7 +24910,7 @@
     <row r="291" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A291">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B291" s="16">
         <v>35</v>
@@ -24880,7 +24931,7 @@
     <row r="292" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A292">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B292" s="16">
         <v>35</v>
@@ -24904,7 +24955,7 @@
     <row r="293" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A293">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B293" s="16">
         <v>35</v>
@@ -24925,7 +24976,7 @@
     <row r="294" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A294">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B294" s="16">
         <v>35</v>
@@ -24946,7 +24997,7 @@
     <row r="295" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A295">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B295" s="16">
         <v>35</v>
@@ -24964,7 +25015,7 @@
     <row r="296" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A296">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B296" s="16">
         <v>35</v>
@@ -24991,7 +25042,7 @@
     <row r="297" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A297">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B297" s="16">
         <v>35</v>
@@ -25012,7 +25063,7 @@
     <row r="298" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A298">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B298" s="16">
         <v>35</v>
@@ -25483,7 +25534,7 @@
     <row r="322" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A322">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B322" s="16">
         <v>37</v>
@@ -25504,7 +25555,7 @@
     <row r="323" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A323">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B323" s="16">
         <v>37</v>
@@ -25523,7 +25574,7 @@
     <row r="324" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A324">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B324" s="16">
         <v>37</v>
@@ -25544,7 +25595,7 @@
     <row r="325" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A325">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B325" s="16">
         <v>37</v>
@@ -25563,7 +25614,7 @@
     <row r="326" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A326">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B326" s="16">
         <v>37</v>
@@ -25582,7 +25633,7 @@
     <row r="327" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A327">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B327" s="16">
         <v>38</v>
@@ -25603,7 +25654,7 @@
     <row r="328" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A328">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B328" s="16">
         <v>38</v>
@@ -25624,7 +25675,7 @@
     <row r="329" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A329">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B329" s="16">
         <v>38</v>
@@ -25645,7 +25696,7 @@
     <row r="330" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A330">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B330" s="16">
         <v>38</v>
@@ -25663,7 +25714,7 @@
     <row r="331" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A331">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B331" s="16">
         <v>39</v>
@@ -25684,7 +25735,7 @@
     <row r="332" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A332">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B332" s="16">
         <v>40</v>
@@ -25705,7 +25756,7 @@
     <row r="333" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A333">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B333" s="16">
         <v>41</v>
@@ -25726,7 +25777,7 @@
     <row r="334" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A334">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B334" s="16">
         <v>42</v>
@@ -25744,7 +25795,7 @@
     <row r="335" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A335">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B335" s="16">
         <v>43</v>
@@ -25765,7 +25816,7 @@
     <row r="336" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A336">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B336" s="16">
         <v>44</v>
@@ -25783,7 +25834,7 @@
     <row r="337" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A337">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B337" s="16">
         <v>45</v>
@@ -25804,7 +25855,7 @@
     <row r="338" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A338">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B338" s="16">
         <v>46</v>
@@ -25823,7 +25874,7 @@
     <row r="339" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A339">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B339" s="16">
         <v>47</v>
@@ -25844,7 +25895,7 @@
     <row r="340" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A340">
         <f t="shared" ref="A340:A352" ca="1" si="8">RANDBETWEEN(1,100)</f>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B340" s="16">
         <v>40</v>
@@ -25865,7 +25916,7 @@
     <row r="341" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A341">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B341" s="16">
         <v>40</v>
@@ -25886,7 +25937,7 @@
     <row r="342" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A342">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B342" s="16">
         <v>40</v>
@@ -25907,7 +25958,7 @@
     <row r="343" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A343">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B343" s="16">
         <v>40</v>
@@ -25928,7 +25979,7 @@
     <row r="344" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A344">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B344" s="16">
         <v>40</v>
@@ -25947,7 +25998,7 @@
     <row r="345" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A345">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B345" s="16">
         <v>40</v>
@@ -25968,7 +26019,7 @@
     <row r="346" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A346">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B346" s="16">
         <v>40</v>
@@ -25987,7 +26038,7 @@
     <row r="347" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A347">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B347" s="16">
         <v>40</v>
@@ -26006,7 +26057,7 @@
     <row r="348" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A348">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="B348" s="16">
         <v>40</v>
@@ -26027,7 +26078,7 @@
     <row r="349" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A349">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B349" s="16">
         <v>40</v>
@@ -26048,7 +26099,7 @@
     <row r="350" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A350">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B350" s="16">
         <v>40</v>
@@ -26069,7 +26120,7 @@
     <row r="351" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A351">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B351" s="16">
         <v>41</v>
@@ -26088,7 +26139,7 @@
     <row r="352" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A352">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B352" s="16">
         <v>41</v>
@@ -26107,7 +26158,7 @@
     <row r="353" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A353">
         <f t="shared" ref="A353:A380" ca="1" si="9">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B353" s="16">
         <v>39</v>
@@ -26126,7 +26177,7 @@
     <row r="354" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A354">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B354" s="16">
         <v>39</v>
@@ -26145,7 +26196,7 @@
     <row r="355" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A355">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B355" s="16">
         <v>39</v>
@@ -26164,7 +26215,7 @@
     <row r="356" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A356">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B356" s="16">
         <v>39</v>
@@ -26183,7 +26234,7 @@
     <row r="357" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A357">
         <f t="shared" ca="1" si="9"/>
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B357" s="16">
         <v>40</v>
@@ -26204,7 +26255,7 @@
     <row r="358" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A358">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B358" s="16">
         <v>40</v>
@@ -26225,7 +26276,7 @@
     <row r="359" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A359">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B359" s="16">
         <v>40</v>
@@ -26246,7 +26297,7 @@
     <row r="360" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A360">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B360" s="16">
         <v>37</v>
@@ -26270,7 +26321,7 @@
     <row r="361" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A361">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B361" s="16">
         <v>37</v>
@@ -26292,7 +26343,7 @@
     <row r="362" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A362">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B362" s="16">
         <v>37</v>
@@ -26319,7 +26370,7 @@
     <row r="363" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A363">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B363" s="16">
         <v>37</v>
@@ -26341,7 +26392,7 @@
     <row r="364" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A364">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B364" s="16">
         <v>37</v>
@@ -26365,7 +26416,7 @@
     <row r="365" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A365">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B365" s="16">
         <v>37</v>
@@ -26389,7 +26440,7 @@
     <row r="366" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A366">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B366" s="16">
         <v>37</v>
@@ -26413,7 +26464,7 @@
     <row r="367" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A367">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B367" s="16">
         <v>37</v>
@@ -26437,7 +26488,7 @@
     <row r="368" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A368">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B368" s="16">
         <v>37</v>
@@ -26464,7 +26515,7 @@
     <row r="369" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A369">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B369" s="16">
         <v>37</v>
@@ -26488,7 +26539,7 @@
     <row r="370" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A370">
         <f t="shared" ca="1" si="9"/>
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B370" s="16">
         <v>37</v>
@@ -26512,7 +26563,7 @@
     <row r="371" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A371">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B371" s="16">
         <v>37</v>
@@ -26536,7 +26587,7 @@
     <row r="372" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A372">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B372" s="16">
         <v>37</v>
@@ -26560,7 +26611,7 @@
     <row r="373" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A373">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B373" s="16">
         <v>37</v>
@@ -26582,7 +26633,7 @@
     <row r="374" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A374">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B374" s="16">
         <v>37</v>
@@ -26606,7 +26657,7 @@
     <row r="375" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A375">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B375" s="16">
         <v>37</v>
@@ -26630,7 +26681,7 @@
     <row r="376" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A376">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B376" s="16">
         <v>37</v>
@@ -26654,7 +26705,7 @@
     <row r="377" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A377">
         <f t="shared" ca="1" si="9"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B377" s="16">
         <v>37</v>
@@ -26678,7 +26729,7 @@
     <row r="378" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A378">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B378" s="16">
         <v>37</v>
@@ -26705,7 +26756,7 @@
     <row r="379" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A379">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B379" s="16">
         <v>37</v>
@@ -26727,7 +26778,7 @@
     <row r="380" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A380">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B380" s="16">
         <v>37</v>
@@ -26777,7 +26828,7 @@
     <row r="383" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A383">
         <f t="shared" ref="A383:A446" ca="1" si="10">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B383" s="16">
         <v>42</v>
@@ -26796,7 +26847,7 @@
     <row r="384" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A384">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B384" s="16">
         <v>42</v>
@@ -26817,7 +26868,7 @@
     <row r="385" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A385">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B385" s="16">
         <v>42</v>
@@ -26841,7 +26892,7 @@
     <row r="386" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A386">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B386" s="16">
         <v>42</v>
@@ -26860,7 +26911,7 @@
     <row r="387" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A387">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B387" s="16">
         <v>42</v>
@@ -26878,7 +26929,7 @@
     <row r="388" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A388">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B388" s="16">
         <v>42</v>
@@ -26902,7 +26953,7 @@
     <row r="389" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A389">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B389" s="16">
         <v>42</v>
@@ -26923,7 +26974,7 @@
     <row r="390" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A390">
         <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B390" s="16">
         <v>42</v>
@@ -26941,7 +26992,7 @@
     <row r="391" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A391">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B391" s="16">
         <v>42</v>
@@ -26962,7 +27013,7 @@
     <row r="392" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A392">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B392" s="16">
         <v>42</v>
@@ -26978,7 +27029,7 @@
     <row r="393" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A393">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B393" s="16">
         <v>42</v>
@@ -26996,7 +27047,7 @@
     <row r="394" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A394">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B394" s="16">
         <v>42</v>
@@ -27014,7 +27065,7 @@
     <row r="395" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A395">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B395" s="16">
         <v>42</v>
@@ -27032,7 +27083,7 @@
     <row r="396" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A396">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B396" s="16">
         <v>42</v>
@@ -27050,7 +27101,7 @@
     <row r="397" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A397">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B397" s="16">
         <v>42</v>
@@ -27068,7 +27119,7 @@
     <row r="398" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A398">
         <f t="shared" ca="1" si="10"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B398" s="16">
         <v>42</v>
@@ -27086,7 +27137,7 @@
     <row r="399" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A399">
         <f t="shared" ca="1" si="10"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B399" s="16">
         <v>48</v>
@@ -27104,7 +27155,7 @@
     <row r="400" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A400">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B400" s="16">
         <v>48</v>
@@ -27140,7 +27191,7 @@
     <row r="402" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A402" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B402" s="16">
         <v>51</v>
@@ -27158,7 +27209,7 @@
     <row r="403" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A403" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B403" s="16">
         <v>51</v>
@@ -27176,7 +27227,7 @@
     <row r="404" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A404" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B404" s="16">
         <v>51</v>
@@ -27194,7 +27245,7 @@
     <row r="405" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A405" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B405" s="16">
         <v>51</v>
@@ -27212,7 +27263,7 @@
     <row r="406" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A406" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B406" s="16">
         <v>51</v>
@@ -27230,7 +27281,7 @@
     <row r="407" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A407" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B407" s="16">
         <v>51</v>
@@ -27248,7 +27299,7 @@
     <row r="408" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A408" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B408" s="16">
         <v>51</v>
@@ -27266,7 +27317,7 @@
     <row r="409" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A409" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B409" s="16">
         <v>51</v>
@@ -27284,7 +27335,7 @@
     <row r="410" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A410" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B410" s="16">
         <v>51</v>
@@ -27302,7 +27353,7 @@
     <row r="411" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A411" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B411" s="16">
         <v>51</v>
@@ -27320,7 +27371,7 @@
     <row r="412" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A412" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B412" s="16">
         <v>39</v>
@@ -27338,7 +27389,7 @@
     <row r="413" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A413" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B413" s="16">
         <v>51</v>
@@ -27356,7 +27407,7 @@
     <row r="414" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A414" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B414" s="16">
         <v>51</v>
@@ -27374,7 +27425,7 @@
     <row r="415" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A415" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B415" s="16">
         <v>51</v>
@@ -27392,7 +27443,7 @@
     <row r="416" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A416" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B416" s="16">
         <v>51</v>
@@ -27410,7 +27461,7 @@
     <row r="417" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A417" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B417" s="16">
         <v>51</v>
@@ -27428,7 +27479,7 @@
     <row r="418" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A418" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B418" s="16">
         <v>51</v>
@@ -27446,7 +27497,7 @@
     <row r="419" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A419" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B419" s="16">
         <v>51</v>
@@ -27464,7 +27515,7 @@
     <row r="420" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A420" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B420" s="16">
         <v>51</v>
@@ -27482,7 +27533,7 @@
     <row r="421" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A421" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B421" s="16">
         <v>51</v>
@@ -27500,7 +27551,7 @@
     <row r="422" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A422" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B422" s="16">
         <v>51</v>
@@ -27518,7 +27569,7 @@
     <row r="423" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A423" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B423" s="16">
         <v>51</v>
@@ -27536,7 +27587,7 @@
     <row r="424" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A424" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B424" s="16">
         <v>51</v>
@@ -27554,7 +27605,7 @@
     <row r="425" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A425" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B425" s="16">
         <v>51</v>
@@ -27572,7 +27623,7 @@
     <row r="426" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A426" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B426" s="16">
         <v>51</v>
@@ -27590,7 +27641,7 @@
     <row r="427" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A427" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B427" s="16">
         <v>51</v>
@@ -27608,7 +27659,7 @@
     <row r="428" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A428" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B428" s="16">
         <v>51</v>
@@ -27626,7 +27677,7 @@
     <row r="429" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A429" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B429" s="16">
         <v>51</v>
@@ -27644,7 +27695,7 @@
     <row r="430" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A430" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B430" s="16">
         <v>51</v>
@@ -27662,7 +27713,7 @@
     <row r="431" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A431" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B431" s="16">
         <v>51</v>
@@ -27680,7 +27731,7 @@
     <row r="432" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A432" s="44">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B432" s="16">
         <v>51</v>
@@ -27698,7 +27749,7 @@
     <row r="433" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A433" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B433" s="16">
         <v>52</v>
@@ -27716,7 +27767,7 @@
     <row r="434" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A434" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B434" s="16">
         <v>52</v>
@@ -27734,7 +27785,7 @@
     <row r="435" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A435" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B435" s="16">
         <v>52</v>
@@ -27752,7 +27803,7 @@
     <row r="436" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A436" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="B436" s="16">
         <v>52</v>
@@ -27770,7 +27821,7 @@
     <row r="437" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A437" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B437" s="16">
         <v>52</v>
@@ -27788,7 +27839,7 @@
     <row r="438" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A438" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B438" s="16">
         <v>52</v>
@@ -27796,7 +27847,7 @@
       <c r="C438" s="27" t="s">
         <v>2403</v>
       </c>
-      <c r="D438" s="6" t="s">
+      <c r="D438" s="45" t="s">
         <v>2404</v>
       </c>
       <c r="E438" s="6" t="s">
@@ -27806,7 +27857,7 @@
     <row r="439" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A439" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B439" s="16" t="s">
         <v>2405</v>
@@ -27824,7 +27875,7 @@
     <row r="440" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A440" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B440" s="16" t="s">
         <v>2405</v>
@@ -27842,7 +27893,7 @@
     <row r="441" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A441" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B441" s="16" t="s">
         <v>2405</v>
@@ -27861,7 +27912,7 @@
     <row r="442" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A442" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B442" s="16" t="s">
         <v>2405</v>
@@ -27882,7 +27933,7 @@
     <row r="443" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A443" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B443" s="16" t="s">
         <v>2405</v>
@@ -27901,7 +27952,7 @@
     <row r="444" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A444" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B444" s="16" t="s">
         <v>2405</v>
@@ -27920,7 +27971,7 @@
     <row r="445" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A445" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B445" s="16" t="s">
         <v>2405</v>
@@ -27939,7 +27990,7 @@
     <row r="446" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A446" s="46">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B446" s="16" t="s">
         <v>2405</v>
@@ -27959,8 +28010,8 @@
     </row>
     <row r="447" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A447" s="46">
-        <f t="shared" ref="A447:A491" ca="1" si="11">RANDBETWEEN(1,100)</f>
-        <v>38</v>
+        <f t="shared" ref="A447:A494" ca="1" si="11">RANDBETWEEN(1,100)</f>
+        <v>4</v>
       </c>
       <c r="B447" s="16" t="s">
         <v>2405</v>
@@ -27981,7 +28032,7 @@
     <row r="448" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A448" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B448" s="16" t="s">
         <v>2405</v>
@@ -27999,7 +28050,7 @@
     <row r="449" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A449" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B449" s="16" t="s">
         <v>2405</v>
@@ -28018,7 +28069,7 @@
     <row r="450" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A450" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B450" s="16" t="s">
         <v>2405</v>
@@ -28037,7 +28088,7 @@
     <row r="451" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A451" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B451" s="16" t="s">
         <v>2405</v>
@@ -28056,7 +28107,7 @@
     <row r="452" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A452" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="B452" s="16" t="s">
         <v>2405</v>
@@ -28075,7 +28126,7 @@
     <row r="453" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A453" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B453" s="16" t="s">
         <v>2405</v>
@@ -28096,7 +28147,7 @@
     <row r="454" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A454" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B454" s="16" t="s">
         <v>2405</v>
@@ -28115,7 +28166,7 @@
     <row r="455" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A455" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B455" s="16" t="s">
         <v>2405</v>
@@ -28123,7 +28174,7 @@
       <c r="C455" s="27" t="s">
         <v>2443</v>
       </c>
-      <c r="D455" s="6" t="s">
+      <c r="D455" s="45" t="s">
         <v>2444</v>
       </c>
       <c r="E455" s="6" t="s">
@@ -28136,7 +28187,7 @@
     <row r="456" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A456" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B456" s="16" t="s">
         <v>2405</v>
@@ -28155,7 +28206,7 @@
     <row r="457" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A457" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B457" s="16" t="s">
         <v>2405</v>
@@ -28163,7 +28214,7 @@
       <c r="C457" s="27" t="s">
         <v>2447</v>
       </c>
-      <c r="D457" s="6" t="s">
+      <c r="D457" s="45" t="s">
         <v>2448</v>
       </c>
       <c r="E457" s="6" t="s">
@@ -28174,7 +28225,7 @@
     <row r="458" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A458" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B458" s="16" t="s">
         <v>2405</v>
@@ -28193,7 +28244,7 @@
     <row r="459" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A459" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B459" s="16" t="s">
         <v>2405</v>
@@ -28214,7 +28265,7 @@
     <row r="460" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A460" s="46">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B460" s="16" t="s">
         <v>2405</v>
@@ -28233,7 +28284,7 @@
     <row r="461" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A461" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B461" s="16" t="s">
         <v>2458</v>
@@ -28252,7 +28303,7 @@
     <row r="462" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A462" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B462" s="16" t="s">
         <v>2458</v>
@@ -28271,7 +28322,7 @@
     <row r="463" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A463" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B463" s="16" t="s">
         <v>2458</v>
@@ -28290,7 +28341,7 @@
     <row r="464" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A464" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B464" s="16" t="s">
         <v>2458</v>
@@ -28311,7 +28362,7 @@
     <row r="465" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A465" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B465" s="16" t="s">
         <v>2458</v>
@@ -28330,7 +28381,7 @@
     <row r="466" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A466" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B466" s="16" t="s">
         <v>2458</v>
@@ -28349,7 +28400,7 @@
     <row r="467" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A467" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B467" s="16" t="s">
         <v>2458</v>
@@ -28368,7 +28419,7 @@
     <row r="468" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A468" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B468" s="16" t="s">
         <v>2458</v>
@@ -28389,7 +28440,7 @@
     <row r="469" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A469" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B469" s="16" t="s">
         <v>2458</v>
@@ -28408,7 +28459,7 @@
     <row r="470" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A470" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B470" s="16" t="s">
         <v>2458</v>
@@ -28427,7 +28478,7 @@
     <row r="471" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A471" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B471" s="16" t="s">
         <v>2458</v>
@@ -28446,124 +28497,124 @@
     <row r="472" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A472" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B472" s="16" t="s">
         <v>2458</v>
       </c>
       <c r="C472" s="27" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E472" s="6" t="s">
         <v>2485</v>
-      </c>
-      <c r="D472" s="6" t="s">
-        <v>2485</v>
-      </c>
-      <c r="E472" s="6" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A473" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B473" s="16" t="s">
         <v>2458</v>
       </c>
       <c r="C473" s="27" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D473" s="6" t="s">
         <v>2487</v>
       </c>
-      <c r="D473" s="6" t="s">
+      <c r="E473" s="6" t="s">
         <v>2488</v>
-      </c>
-      <c r="E473" s="6" t="s">
-        <v>2489</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A474" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B474" s="16" t="s">
         <v>2458</v>
       </c>
       <c r="C474" s="27" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E474" s="6" t="s">
         <v>2490</v>
       </c>
-      <c r="D474" s="6" t="s">
-        <v>2490</v>
-      </c>
-      <c r="E474" s="6" t="s">
+      <c r="F474" t="s">
         <v>2491</v>
-      </c>
-      <c r="F474" t="s">
-        <v>2492</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A475" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B475" s="16" t="s">
         <v>2458</v>
       </c>
       <c r="C475" s="27" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E475" s="6" t="s">
         <v>2493</v>
       </c>
-      <c r="D475" s="6" t="s">
-        <v>2493</v>
-      </c>
-      <c r="E475" s="6" t="s">
+      <c r="F475" t="s">
         <v>2494</v>
-      </c>
-      <c r="F475" t="s">
-        <v>2495</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A476" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B476" s="16" t="s">
         <v>2458</v>
       </c>
       <c r="C476" s="27" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D476" s="6" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E476" s="6" t="s">
         <v>2496</v>
       </c>
-      <c r="D476" s="6" t="s">
-        <v>2496</v>
-      </c>
-      <c r="E476" s="6" t="s">
+      <c r="F476" t="s">
         <v>2497</v>
-      </c>
-      <c r="F476" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A477" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B477" s="16" t="s">
         <v>2482</v>
       </c>
       <c r="C477" s="27" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D477" s="6" t="s">
         <v>2499</v>
       </c>
-      <c r="D477" s="6" t="s">
+      <c r="E477" s="6" t="s">
         <v>2500</v>
-      </c>
-      <c r="E477" s="6" t="s">
-        <v>2501</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A478" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="B478" s="16" t="s">
         <v>2482</v>
@@ -28575,13 +28626,13 @@
         <v>2217</v>
       </c>
       <c r="E478" s="6" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A479" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B479" s="16" t="s">
         <v>2482</v>
@@ -28599,13 +28650,13 @@
     <row r="480" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A480" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B480" s="16" t="s">
         <v>2482</v>
       </c>
       <c r="C480" s="27" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>654</v>
@@ -28617,49 +28668,49 @@
     <row r="481" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A481" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B481" s="16" t="s">
         <v>2482</v>
       </c>
       <c r="C481" s="27" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D481" s="6" t="s">
         <v>2504</v>
       </c>
-      <c r="D481" s="6" t="s">
+      <c r="E481" s="6" t="s">
         <v>2505</v>
-      </c>
-      <c r="E481" s="6" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A482" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B482" s="16" t="s">
         <v>2482</v>
       </c>
       <c r="C482" s="27" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D482" s="6" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E482" s="6" t="s">
         <v>2507</v>
-      </c>
-      <c r="D482" s="6" t="s">
-        <v>2509</v>
-      </c>
-      <c r="E482" s="6" t="s">
-        <v>2508</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A483" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B483" s="16" t="s">
         <v>2482</v>
       </c>
       <c r="C483" s="27" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D483" s="6" t="s">
         <v>1382</v>
@@ -28671,139 +28722,142 @@
     <row r="484" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A484" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B484" s="16" t="s">
-        <v>2527</v>
+        <v>2482</v>
       </c>
       <c r="C484" s="27" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D484" s="6" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E484" s="6" t="s">
         <v>2512</v>
-      </c>
-      <c r="D484" s="6" t="s">
-        <v>2511</v>
-      </c>
-      <c r="E484" s="6" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A485" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B485" s="16" t="s">
-        <v>2528</v>
+        <v>2482</v>
       </c>
       <c r="C485" s="27" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D485" s="6" t="s">
         <v>2514</v>
       </c>
-      <c r="D485" s="6" t="s">
+      <c r="E485" s="6" t="s">
         <v>2515</v>
       </c>
-      <c r="E485" s="6" t="s">
+      <c r="F485" t="s">
         <v>2516</v>
-      </c>
-      <c r="F485" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A486" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B486" s="16" t="s">
-        <v>2529</v>
+        <v>2482</v>
       </c>
       <c r="C486" s="27" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D486" s="6" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E486" s="6" t="s">
         <v>2518</v>
-      </c>
-      <c r="D486" s="6" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E486" s="6" t="s">
-        <v>2519</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A487" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B487" s="16" t="s">
-        <v>2530</v>
+        <v>2482</v>
       </c>
       <c r="C487" s="27" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="E487" s="6" t="s">
         <v>2348</v>
+      </c>
+      <c r="F487" t="s">
+        <v>2398</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A488" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B488" s="16" t="s">
-        <v>2531</v>
+        <v>2482</v>
       </c>
       <c r="C488" s="27" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="E488" s="6" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A489" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B489" s="16" t="s">
-        <v>2532</v>
+        <v>2482</v>
       </c>
       <c r="C489" s="27" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D489" s="6" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E489" s="6" t="s">
         <v>2523</v>
-      </c>
-      <c r="D489" s="6" t="s">
-        <v>2523</v>
-      </c>
-      <c r="E489" s="6" t="s">
-        <v>2524</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A490" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B490" s="16" t="s">
-        <v>2533</v>
+        <v>2482</v>
       </c>
       <c r="C490" s="27" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D490" s="6" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E490" s="6" t="s">
         <v>2525</v>
-      </c>
-      <c r="D490" s="6" t="s">
-        <v>2525</v>
-      </c>
-      <c r="E490" s="6" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A491" s="47">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="B491" s="16" t="s">
-        <v>2534</v>
+        <v>2482</v>
       </c>
       <c r="C491" s="27" t="s">
         <v>57</v>
@@ -28816,58 +28870,178 @@
       </c>
     </row>
     <row r="492" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C492" s="27"/>
+      <c r="A492" s="44">
+        <f t="shared" ca="1" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="B492" s="16">
+        <v>26</v>
+      </c>
+      <c r="C492" s="27" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D492" s="6" t="s">
+        <v>2527</v>
+      </c>
+      <c r="E492" s="6" t="s">
+        <v>2528</v>
+      </c>
     </row>
     <row r="493" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C493" s="27"/>
+      <c r="A493" s="44">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="B493" s="16">
+        <v>26</v>
+      </c>
+      <c r="C493" s="27" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D493" s="6" t="s">
+        <v>2530</v>
+      </c>
     </row>
     <row r="494" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C494" s="27"/>
+      <c r="A494" s="44">
+        <f t="shared" ca="1" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="B494" s="16" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C494" s="27" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D494" s="6" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E494" s="6" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F494" t="s">
+        <v>2534</v>
+      </c>
     </row>
     <row r="495" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C495" s="27"/>
+      <c r="C495" s="27" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D495" s="6" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E495" s="6" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F495" t="s">
+        <v>2536</v>
+      </c>
     </row>
     <row r="496" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C496" s="27"/>
-    </row>
-    <row r="497" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C497" s="27"/>
-    </row>
-    <row r="498" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C498" s="27"/>
-    </row>
-    <row r="499" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C499" s="27"/>
-    </row>
-    <row r="500" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C500" s="27"/>
-    </row>
-    <row r="501" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C501" s="27"/>
-    </row>
-    <row r="502" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C502" s="27"/>
-    </row>
-    <row r="503" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C503" s="27"/>
-    </row>
-    <row r="504" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C496" s="27" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D496" s="6" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E496" s="6" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="497" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C497" s="27" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D497" s="6" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E497" s="6" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="498" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C498" s="27" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D498" s="6" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E498" s="6" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="499" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C499" s="27" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D499" s="6" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E499" s="6" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="500" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C500" s="27" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D500" s="6" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E500" s="6" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="501" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C501" s="27" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D501" s="6" t="s">
+        <v>2545</v>
+      </c>
+      <c r="E501" s="6" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="502" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C502" s="27" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D502" s="6" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E502" s="6" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="503" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C503" s="27" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D503" s="6" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E503" s="6" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="504" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C504" s="27"/>
     </row>
-    <row r="505" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="505" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C505" s="27"/>
     </row>
-    <row r="506" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="506" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C506" s="27"/>
     </row>
-    <row r="507" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="507" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C507" s="27"/>
     </row>
-    <row r="508" spans="3:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="508" spans="3:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="C508" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E476"/>
+  <autoFilter ref="A1:E495"/>
   <sortState ref="A126:J159">
     <sortCondition ref="A126:A159"/>
   </sortState>
